--- a/Game Stuff/Spreadsheet.xlsx
+++ b/Game Stuff/Spreadsheet.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Nicos Blueprints\Game Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Nicos Blueprints_tdarksteel forge - Final\Game Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0720A6D8-EB79-4B71-A203-9DA224FDC07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAD899E-2DFE-4958-8F6D-40301E76D12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
+    <workbookView xWindow="45972" yWindow="-4944" windowWidth="17496" windowHeight="30216" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
   </bookViews>
   <sheets>
     <sheet name="Material Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Chandra Flameworks" sheetId="2" r:id="rId2"/>
+    <sheet name="Darksteel Forge" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
   <si>
     <t>Item</t>
   </si>
@@ -130,6 +131,42 @@
   </si>
   <si>
     <t>16327.4 MW</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Cut-Time</t>
+  </si>
+  <si>
+    <t>Darksteel Forge</t>
+  </si>
+  <si>
+    <t>Iron Ore</t>
+  </si>
+  <si>
+    <t>Iron Ingot</t>
+  </si>
+  <si>
+    <t>0 Mw</t>
+  </si>
+  <si>
+    <t>2268.3 MW</t>
+  </si>
+  <si>
+    <t>4600 MW</t>
+  </si>
+  <si>
+    <t>2.02 Hours</t>
+  </si>
+  <si>
+    <t>-2268.3 MW</t>
+  </si>
+  <si>
+    <t>Iron Ingots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darksteel Forge </t>
   </si>
 </sst>
 </file>
@@ -161,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -384,11 +421,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -433,22 +483,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DEAD1A-BE12-4BD3-A45F-18807DFF108B}">
   <dimension ref="C3:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -801,38 +859,38 @@
   <sheetData>
     <row r="3" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="17" t="s">
         <v>0</v>
       </c>
       <c r="I5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="19" t="s">
         <v>2</v>
       </c>
     </row>
@@ -877,9 +935,15 @@
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C8" s="2"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="12">
+        <v>3342.848</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="15"/>
       <c r="J8" s="9"/>
@@ -1137,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDCCE8D-0CE2-4D53-8FB4-EA2891D6F3B5}">
   <dimension ref="C3:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1153,25 +1217,25 @@
   <sheetData>
     <row r="3" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="K4" s="17" t="s">
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
+      <c r="K4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="19"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="29"/>
     </row>
     <row r="5" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="24" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1180,7 +1244,7 @@
       <c r="F5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="18" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="21" t="s">
@@ -1189,7 +1253,7 @@
       <c r="K5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="18" t="s">
         <v>1</v>
       </c>
       <c r="M5" s="21" t="s">
@@ -1197,7 +1261,7 @@
       </c>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1223,7 +1287,7 @@
       </c>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1249,7 +1313,7 @@
       </c>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1275,7 +1339,7 @@
       </c>
     </row>
     <row r="9" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="25" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1531,6 +1595,399 @@
       <c r="K38" s="3"/>
       <c r="L38" s="13"/>
       <c r="M38" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="K4:M4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A244D34F-6552-48EC-88C9-9BCAF12F75CF}">
+  <dimension ref="C3:M1048576"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="21.54296875" customWidth="1"/>
+    <col min="4" max="4" width="28.90625" style="34" customWidth="1"/>
+    <col min="6" max="6" width="28.90625" customWidth="1"/>
+    <col min="8" max="8" width="28.90625" customWidth="1"/>
+    <col min="11" max="11" width="28.90625" customWidth="1"/>
+    <col min="13" max="13" width="28.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
+      <c r="K4" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="29"/>
+    </row>
+    <row r="5" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C6" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1800</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="11">
+        <v>3342.848</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C7" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="12">
+        <v>514.27200000000005</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C8" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="2"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C9" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="2"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C10" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="2"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="2"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="F12" s="2"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="2"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="F13" s="2"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="F14" s="2"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="F15" s="2"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="F16" s="2"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F17" s="2"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F18" s="2"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F19" s="2"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F20" s="2"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F21" s="2"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F22" s="2"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F23" s="2"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F24" s="2"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F25" s="2"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F26" s="2"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F27" s="2"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F28" s="2"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F29" s="2"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F30" s="2"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F31" s="2"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F32" s="2"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F33" s="2"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F34" s="2"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F35" s="2"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F36" s="2"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F37" s="2"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="6:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F38" s="3"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="1048576" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K1048576" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Game Stuff/Spreadsheet.xlsx
+++ b/Game Stuff/Spreadsheet.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Nicos Blueprints_tdarksteel forge - Final\Game Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Nicos Blueprints_tdarksteel forge - Final - Copy\Game Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAD899E-2DFE-4958-8F6D-40301E76D12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C815905-7037-4213-AB4C-3A0D059A003E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="-4944" windowWidth="17496" windowHeight="30216" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
+    <workbookView xWindow="45972" yWindow="-4944" windowWidth="17496" windowHeight="30216" firstSheet="1" activeTab="3" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
   </bookViews>
   <sheets>
     <sheet name="Material Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Chandra Flameworks" sheetId="2" r:id="rId2"/>
     <sheet name="Darksteel Forge" sheetId="3" r:id="rId3"/>
+    <sheet name="Xantcha's Crucible" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="51">
   <si>
     <t>Item</t>
   </si>
@@ -167,6 +168,30 @@
   </si>
   <si>
     <t xml:space="preserve">Darksteel Forge </t>
+  </si>
+  <si>
+    <t>wa</t>
+  </si>
+  <si>
+    <t>Copper Ingots</t>
+  </si>
+  <si>
+    <t>Xantcha's Crucible</t>
+  </si>
+  <si>
+    <t>2286 MW</t>
+  </si>
+  <si>
+    <t>-2286 MW</t>
+  </si>
+  <si>
+    <t>8800 MWh</t>
+  </si>
+  <si>
+    <t>3.84 Hours</t>
+  </si>
+  <si>
+    <t>Copper Ore</t>
   </si>
 </sst>
 </file>
@@ -438,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -490,6 +515,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -499,14 +531,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -843,34 +867,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DEAD1A-BE12-4BD3-A45F-18807DFF108B}">
   <dimension ref="C3:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="25.6328125" customWidth="1"/>
+    <col min="3" max="3" width="23.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7265625" style="1"/>
-    <col min="5" max="5" width="20.6328125" customWidth="1"/>
-    <col min="8" max="8" width="25.6328125" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.7265625" style="1"/>
     <col min="10" max="10" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="36"/>
     </row>
     <row r="5" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="21" t="s">
@@ -949,9 +973,15 @@
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C9" s="2"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="12">
+        <v>2250</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="15"/>
       <c r="J9" s="9"/>
@@ -1151,7 +1181,9 @@
     <row r="34" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C34" s="2"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="H34" s="6"/>
       <c r="I34" s="15"/>
       <c r="J34" s="9"/>
@@ -1202,17 +1234,19 @@
   <dimension ref="C3:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="18.6328125" customWidth="1"/>
-    <col min="4" max="4" width="28.90625" customWidth="1"/>
-    <col min="6" max="6" width="25.6328125" customWidth="1"/>
-    <col min="8" max="8" width="20.6328125" customWidth="1"/>
-    <col min="11" max="11" width="25.6328125" customWidth="1"/>
-    <col min="13" max="13" width="20.6328125" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -1223,16 +1257,16 @@
       <c r="D4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="K4" s="27" t="s">
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
+      <c r="K4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="29"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="24" t="s">
@@ -1610,43 +1644,45 @@
   <dimension ref="C3:M1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="21.54296875" customWidth="1"/>
-    <col min="4" max="4" width="28.90625" style="34" customWidth="1"/>
-    <col min="6" max="6" width="28.90625" customWidth="1"/>
-    <col min="8" max="8" width="28.90625" customWidth="1"/>
-    <col min="11" max="11" width="28.90625" customWidth="1"/>
-    <col min="13" max="13" width="28.90625" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="K4" s="27" t="s">
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
+      <c r="K4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="29"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="32" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="21" t="s">
@@ -1669,10 +1705,10 @@
       </c>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="32" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -1695,10 +1731,10 @@
       </c>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="32" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1715,10 +1751,10 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="32" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="2"/>
@@ -1729,10 +1765,10 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="32" t="s">
         <v>40</v>
       </c>
       <c r="F9" s="2"/>
@@ -1743,10 +1779,10 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="32" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="2"/>
@@ -1757,10 +1793,10 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="33" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="2"/>
@@ -1996,4 +2032,423 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD23EB3-FE0B-4D28-A04E-DA4ABD2C8717}">
+  <dimension ref="B1:L36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C20:C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+      <c r="J2" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="35"/>
+      <c r="L2" s="36"/>
+    </row>
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="11">
+        <v>900</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="11">
+        <v>2250</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="12">
+        <v>600</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="2"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="2"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="2"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="2"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C10" s="30"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="2"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C11" s="30"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C12" s="30"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C13" s="30"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C14" s="30"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C15" s="30"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C16" s="30"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C17" s="30"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C18" s="30"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C19" s="30"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C20" s="30"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C21" s="30"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C22" s="30"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C23" s="30"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C24" s="30"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C25" s="30"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C26" s="30"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C27" s="30"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C28" s="30"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C29" s="30"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C30" s="30"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C31" s="30"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C32" s="30"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C33" s="30"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C34" s="30"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C35" s="30"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C36" s="30"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="J2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Game Stuff/Spreadsheet.xlsx
+++ b/Game Stuff/Spreadsheet.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Nicos Blueprints_tdarksteel forge - Final - Copy\Game Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Nicos Blueprints_Oran-Rief\Game Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C815905-7037-4213-AB4C-3A0D059A003E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A039D63-E4D8-4EBC-9BB5-D4650FA0853D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="-4944" windowWidth="17496" windowHeight="30216" firstSheet="1" activeTab="3" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
+    <workbookView xWindow="45972" yWindow="-4944" windowWidth="17496" windowHeight="30216" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
   </bookViews>
   <sheets>
     <sheet name="Material Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Chandra Flameworks" sheetId="2" r:id="rId2"/>
     <sheet name="Darksteel Forge" sheetId="3" r:id="rId3"/>
     <sheet name="Xantcha's Crucible" sheetId="4" r:id="rId4"/>
+    <sheet name="Oran-Rief Mines" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="58">
   <si>
     <t>Item</t>
   </si>
@@ -192,6 +193,27 @@
   </si>
   <si>
     <t>Copper Ore</t>
+  </si>
+  <si>
+    <t>Oran-Rief Mines</t>
+  </si>
+  <si>
+    <t>803.3 MW</t>
+  </si>
+  <si>
+    <t>-803.3 MW</t>
+  </si>
+  <si>
+    <t>2.74 Hours</t>
+  </si>
+  <si>
+    <t>2200 MWh</t>
+  </si>
+  <si>
+    <t>Caterium Ore</t>
+  </si>
+  <si>
+    <t>Caterium Ingots</t>
   </si>
 </sst>
 </file>
@@ -867,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DEAD1A-BE12-4BD3-A45F-18807DFF108B}">
   <dimension ref="C3:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -987,9 +1009,15 @@
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C10" s="2"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="12">
+        <v>240</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="15"/>
       <c r="J10" s="9"/>
@@ -2038,8 +2066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD23EB3-FE0B-4D28-A04E-DA4ABD2C8717}">
   <dimension ref="B1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C20:C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2451,4 +2479,423 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1350C4-6C4D-4B59-A3BC-5B1F652DB40B}">
+  <dimension ref="B1:L36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+      <c r="J2" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="35"/>
+      <c r="L2" s="36"/>
+    </row>
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="11">
+        <v>480</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="11">
+        <v>240</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="12">
+        <v>480</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="2"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="2"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="2"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="2"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C10" s="30"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="2"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C11" s="30"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C12" s="30"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C13" s="30"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C14" s="30"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C15" s="30"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C16" s="30"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C17" s="30"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C18" s="30"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C19" s="30"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C20" s="30"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C21" s="30"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C22" s="30"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C23" s="30"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C24" s="30"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C25" s="30"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C26" s="30"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C27" s="30"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C28" s="30"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C29" s="30"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C30" s="30"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C31" s="30"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C32" s="30"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C33" s="30"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C34" s="30"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C35" s="30"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C36" s="30"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="J2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Game Stuff/Spreadsheet.xlsx
+++ b/Game Stuff/Spreadsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Nicos Blueprints_Oran-Rief\Game Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Nicos Blueprints_Thran Forge\Game Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A039D63-E4D8-4EBC-9BB5-D4650FA0853D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BF1668-77EF-4D28-A2D8-E9C15F7FCA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="-4944" windowWidth="17496" windowHeight="30216" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
   </bookViews>
   <sheets>
     <sheet name="Material Summary" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Darksteel Forge" sheetId="3" r:id="rId3"/>
     <sheet name="Xantcha's Crucible" sheetId="4" r:id="rId4"/>
     <sheet name="Oran-Rief Mines" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="65">
   <si>
     <t>Item</t>
   </si>
@@ -171,9 +172,6 @@
     <t xml:space="preserve">Darksteel Forge </t>
   </si>
   <si>
-    <t>wa</t>
-  </si>
-  <si>
     <t>Copper Ingots</t>
   </si>
   <si>
@@ -214,6 +212,30 @@
   </si>
   <si>
     <t>Caterium Ingots</t>
+  </si>
+  <si>
+    <t>Steel Ingots</t>
+  </si>
+  <si>
+    <t>Thran Foundry</t>
+  </si>
+  <si>
+    <t>Thran Foundy</t>
+  </si>
+  <si>
+    <t>466.8 MW</t>
+  </si>
+  <si>
+    <t>-466.8 MW</t>
+  </si>
+  <si>
+    <t>2900 MWh</t>
+  </si>
+  <si>
+    <t>6.21 Hours</t>
+  </si>
+  <si>
+    <t>Miners</t>
   </si>
 </sst>
 </file>
@@ -890,7 +912,7 @@
   <dimension ref="C3:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -985,7 +1007,7 @@
         <v>41</v>
       </c>
       <c r="D8" s="12">
-        <v>3342.848</v>
+        <v>2382.848</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>42</v>
@@ -996,13 +1018,13 @@
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="12">
         <v>2250</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="15"/>
@@ -1010,22 +1032,28 @@
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="12">
         <v>240</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="15"/>
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C11" s="2"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1440</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="15"/>
       <c r="J11" s="9"/>
@@ -1209,9 +1237,7 @@
     <row r="34" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C34" s="2"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="E34" s="2"/>
       <c r="H34" s="6"/>
       <c r="I34" s="15"/>
       <c r="J34" s="9"/>
@@ -1262,7 +1288,7 @@
   <dimension ref="C3:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1672,7 +1698,7 @@
   <dimension ref="C3:M1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1684,7 +1710,7 @@
     <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.26953125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -1737,7 +1763,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>34</v>
@@ -1752,7 +1778,7 @@
         <v>35</v>
       </c>
       <c r="L6" s="11">
-        <v>3342.848</v>
+        <v>2382.848</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>25</v>
@@ -1774,9 +1800,15 @@
       <c r="H7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="2"/>
+      <c r="K7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="12">
+        <v>960</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C8" s="28" t="s">
@@ -2088,7 +2120,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="34" t="s">
         <v>15</v>
@@ -2135,7 +2167,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="11">
         <v>900</v>
@@ -2144,7 +2176,7 @@
         <v>21</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4" s="11">
         <v>2250</v>
@@ -2178,7 +2210,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="12"/>
@@ -2192,7 +2224,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="12"/>
@@ -2206,7 +2238,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="12"/>
@@ -2220,7 +2252,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="12"/>
@@ -2486,7 +2518,7 @@
   <dimension ref="B1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B2" sqref="B2:L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2507,7 +2539,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="34" t="s">
         <v>15</v>
@@ -2554,7 +2586,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" s="11">
         <v>480</v>
@@ -2563,7 +2595,7 @@
         <v>21</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K4" s="11">
         <v>240</v>
@@ -2597,7 +2629,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="12"/>
@@ -2611,7 +2643,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="12"/>
@@ -2625,7 +2657,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="12"/>
@@ -2639,7 +2671,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="12"/>
@@ -2898,4 +2930,423 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9AFFE6-32CC-4ED3-90D1-1E871DB3E098}">
+  <dimension ref="B1:L36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+      <c r="J2" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="35"/>
+      <c r="L2" s="36"/>
+    </row>
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="11">
+        <v>960</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="11">
+        <v>1440</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="12">
+        <v>960</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="2"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="2"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="2"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="2"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C10" s="30"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="2"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C11" s="30"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C12" s="30"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C13" s="30"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C14" s="30"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C15" s="30"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C16" s="30"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C17" s="30"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C18" s="30"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C19" s="30"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C20" s="30"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C21" s="30"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C22" s="30"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C23" s="30"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C24" s="30"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C25" s="30"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C26" s="30"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C27" s="30"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C28" s="30"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C29" s="30"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C30" s="30"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C31" s="30"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C32" s="30"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C33" s="30"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C34" s="30"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C35" s="30"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C36" s="30"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="J2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Game Stuff/Spreadsheet.xlsx
+++ b/Game Stuff/Spreadsheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Nicos Blueprints_Thran Forge\Game Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Nicos Blueprints_Ketria Crystals\Game Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BF1668-77EF-4D28-A2D8-E9C15F7FCA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7E1AA0-98B9-4BFD-AFF1-DE5FE1D5370C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
   </bookViews>
@@ -18,7 +18,9 @@
     <sheet name="Darksteel Forge" sheetId="3" r:id="rId3"/>
     <sheet name="Xantcha's Crucible" sheetId="4" r:id="rId4"/>
     <sheet name="Oran-Rief Mines" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="Thran Foundry" sheetId="6" r:id="rId6"/>
+    <sheet name="Neko's Nexus" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="102">
   <si>
     <t>Item</t>
   </si>
@@ -220,9 +222,6 @@
     <t>Thran Foundry</t>
   </si>
   <si>
-    <t>Thran Foundy</t>
-  </si>
-  <si>
     <t>466.8 MW</t>
   </si>
   <si>
@@ -236,6 +235,120 @@
   </si>
   <si>
     <t>Miners</t>
+  </si>
+  <si>
+    <t>Limestone</t>
+  </si>
+  <si>
+    <t>Water Extractors</t>
+  </si>
+  <si>
+    <t>Heavy Modular Frame</t>
+  </si>
+  <si>
+    <t>Modular Frames</t>
+  </si>
+  <si>
+    <t>Motors</t>
+  </si>
+  <si>
+    <t>Steel Beam</t>
+  </si>
+  <si>
+    <t>Rotors</t>
+  </si>
+  <si>
+    <t>Encased Industrial Beams</t>
+  </si>
+  <si>
+    <t>Stators</t>
+  </si>
+  <si>
+    <t>Quickwire</t>
+  </si>
+  <si>
+    <t>Portable Miners</t>
+  </si>
+  <si>
+    <t>Steel Pipes</t>
+  </si>
+  <si>
+    <t>Concrete</t>
+  </si>
+  <si>
+    <t>Reinforced Iron Plate</t>
+  </si>
+  <si>
+    <t>Cable</t>
+  </si>
+  <si>
+    <t>Wire</t>
+  </si>
+  <si>
+    <t>Copper Sheet</t>
+  </si>
+  <si>
+    <t>Iron Plate</t>
+  </si>
+  <si>
+    <t>Iron Rods</t>
+  </si>
+  <si>
+    <t>Screws</t>
+  </si>
+  <si>
+    <t>Neko's Nexus</t>
+  </si>
+  <si>
+    <t>Darksteel Forge, Xantcha's Crucible, Oran-Rief Mines, Thran Foundry</t>
+  </si>
+  <si>
+    <t>822.8 MW</t>
+  </si>
+  <si>
+    <t>-822.8 MW</t>
+  </si>
+  <si>
+    <t>13.1 GWh</t>
+  </si>
+  <si>
+    <t>15.92 Hours</t>
+  </si>
+  <si>
+    <t>Top right belt going to Neko's Nexus has an extra 180 steel on it</t>
+  </si>
+  <si>
+    <t>Top right uncompressed belt going to Neko's Nexus has an extra 142.5 Copper</t>
+  </si>
+  <si>
+    <t>Thran Foundy, Neko's Nexus</t>
+  </si>
+  <si>
+    <t>Middle belt going to Neko's Nexus has an extra 368.75</t>
+  </si>
+  <si>
+    <t>Ketria Crystals</t>
+  </si>
+  <si>
+    <t>Quartz Crystals</t>
+  </si>
+  <si>
+    <t>Silica</t>
+  </si>
+  <si>
+    <t>Raw Quartz</t>
+  </si>
+  <si>
+    <t>1016.2 MW</t>
+  </si>
+  <si>
+    <t>-1016.2 MW</t>
+  </si>
+  <si>
+    <t>4300 Wh</t>
+  </si>
+  <si>
+    <t>4.23 Hours</t>
   </si>
 </sst>
 </file>
@@ -507,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -566,6 +679,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -574,6 +699,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,33 +1040,33 @@
   <dimension ref="C3:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="1"/>
-    <col min="10" max="10" width="20.6328125" customWidth="1"/>
+    <col min="8" max="8" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="36"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="21" t="s">
@@ -1007,184 +1135,316 @@
         <v>41</v>
       </c>
       <c r="D8" s="12">
-        <v>2382.848</v>
+        <v>2271.598</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="9"/>
+      <c r="H8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1.4065000000000001</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="12">
-        <v>2250</v>
+        <v>2107.5</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="9"/>
+      <c r="H9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C10" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="12">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="9"/>
+      <c r="H10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C11" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="12">
-        <v>1440</v>
+        <v>1140</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="9"/>
+      <c r="H11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="12">
+        <v>45</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C12" s="2"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="2"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="9"/>
+      <c r="C12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="12">
+        <v>723.33299999999997</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="12">
+        <v>5</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C13" s="2"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="2"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="9"/>
+      <c r="C13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="12">
+        <v>680.55499999999995</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="12">
+        <v>7.3125</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C14" s="2"/>
       <c r="D14" s="12"/>
       <c r="E14" s="2"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="9"/>
+      <c r="H14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="12">
+        <v>3</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C15" s="2"/>
       <c r="D15" s="12"/>
       <c r="E15" s="2"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="9"/>
+      <c r="H15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="12">
+        <v>30</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C16" s="2"/>
       <c r="D16" s="12"/>
       <c r="E16" s="2"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="9"/>
+      <c r="H16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C17" s="2"/>
       <c r="D17" s="12"/>
       <c r="E17" s="2"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="9"/>
+      <c r="H17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="12">
+        <v>33.125</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C18" s="2"/>
       <c r="D18" s="12"/>
       <c r="E18" s="2"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="9"/>
+      <c r="H18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="12">
+        <v>61.6875</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C19" s="2"/>
       <c r="D19" s="12"/>
       <c r="E19" s="2"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="9"/>
+      <c r="H19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="12">
+        <v>7.25</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C20" s="2"/>
       <c r="D20" s="12"/>
       <c r="E20" s="2"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="9"/>
+      <c r="H20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="12">
+        <v>30</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C21" s="2"/>
       <c r="D21" s="12"/>
       <c r="E21" s="2"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="9"/>
+      <c r="H21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="12">
+        <v>45</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C22" s="2"/>
       <c r="D22" s="12"/>
       <c r="E22" s="2"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="9"/>
+      <c r="H22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="12">
+        <v>22.5</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C23" s="2"/>
       <c r="D23" s="12"/>
       <c r="E23" s="2"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="9"/>
+      <c r="H23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="12">
+        <v>20.5</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C24" s="2"/>
       <c r="D24" s="12"/>
       <c r="E24" s="2"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="9"/>
+      <c r="H24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="12">
+        <v>15</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C25" s="2"/>
       <c r="D25" s="12"/>
       <c r="E25" s="2"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="9"/>
+      <c r="H25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="12">
+        <v>25</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C26" s="2"/>
       <c r="D26" s="12"/>
       <c r="E26" s="2"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="9"/>
+      <c r="H26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" s="11">
+        <v>23.332999999999998</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C27" s="2"/>
       <c r="D27" s="12"/>
       <c r="E27" s="2"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="9"/>
+      <c r="H27" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="12">
+        <v>19.443999999999999</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C28" s="2"/>
@@ -1311,16 +1571,16 @@
       <c r="D4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36"/>
-      <c r="K4" s="34" t="s">
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
+      <c r="K4" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="36"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="40"/>
     </row>
     <row r="5" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="24" t="s">
@@ -1695,10 +1955,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A244D34F-6552-48EC-88C9-9BCAF12F75CF}">
-  <dimension ref="C3:M1048576"/>
+  <dimension ref="C3:S1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="V39" sqref="V39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1713,240 +1973,213 @@
     <col min="13" max="13" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C4" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36"/>
-      <c r="K4" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="36"/>
-    </row>
-    <row r="5" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C5" s="28" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C6" s="28" t="s">
+    </row>
+    <row r="6" spans="3:19" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="11">
-        <v>1800</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="11">
-        <v>2382.848</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="D6" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C7" s="28" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="12">
-        <v>514.27200000000005</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="12">
-        <v>960</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C8" s="28" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="2"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C9" s="28" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="2"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C10" s="28" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="2"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="29" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="2"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="F12" s="2"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="2"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="F13" s="2"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="F14" s="2"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="F15" s="2"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="F16" s="2"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="6:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F13" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
+      <c r="K13" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="39"/>
+      <c r="M13" s="40"/>
+    </row>
+    <row r="14" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F14" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="F15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1800</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="11">
+        <v>2271.598</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="F16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="12">
+        <v>514.27200000000005</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="12">
+        <v>960</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+    </row>
+    <row r="17" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F17" s="2"/>
       <c r="G17" s="12"/>
       <c r="H17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="K17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="12">
+        <v>111.25</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+    </row>
+    <row r="18" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F18" s="2"/>
       <c r="G18" s="12"/>
       <c r="H18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="4"/>
       <c r="L18" s="12"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F19" s="2"/>
       <c r="G19" s="12"/>
       <c r="H19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="K19" s="4"/>
       <c r="L19" s="12"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F20" s="2"/>
       <c r="G20" s="12"/>
       <c r="H20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="K20" s="4"/>
       <c r="L20" s="12"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F21" s="2"/>
       <c r="G21" s="12"/>
       <c r="H21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="K21" s="4"/>
       <c r="L21" s="12"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F22" s="2"/>
       <c r="G22" s="12"/>
       <c r="H22" s="2"/>
@@ -1954,7 +2187,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F23" s="2"/>
       <c r="G23" s="12"/>
       <c r="H23" s="2"/>
@@ -1962,7 +2195,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F24" s="2"/>
       <c r="G24" s="12"/>
       <c r="H24" s="2"/>
@@ -1970,7 +2203,7 @@
       <c r="L24" s="12"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F25" s="2"/>
       <c r="G25" s="12"/>
       <c r="H25" s="2"/>
@@ -1978,7 +2211,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F26" s="2"/>
       <c r="G26" s="12"/>
       <c r="H26" s="2"/>
@@ -1986,7 +2219,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F27" s="2"/>
       <c r="G27" s="12"/>
       <c r="H27" s="2"/>
@@ -1994,7 +2227,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F28" s="2"/>
       <c r="G28" s="12"/>
       <c r="H28" s="2"/>
@@ -2002,7 +2235,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F29" s="2"/>
       <c r="G29" s="12"/>
       <c r="H29" s="2"/>
@@ -2010,7 +2243,7 @@
       <c r="L29" s="12"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F30" s="2"/>
       <c r="G30" s="12"/>
       <c r="H30" s="2"/>
@@ -2018,7 +2251,7 @@
       <c r="L30" s="12"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F31" s="2"/>
       <c r="G31" s="12"/>
       <c r="H31" s="2"/>
@@ -2026,7 +2259,7 @@
       <c r="L31" s="12"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F32" s="2"/>
       <c r="G32" s="12"/>
       <c r="H32" s="2"/>
@@ -2074,21 +2307,94 @@
       <c r="L37" s="12"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="6:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F38" s="3"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="3"/>
+    <row r="38" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F38" s="2"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F39" s="2"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F40" s="2"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F41" s="2"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F42" s="2"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F43" s="2"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F44" s="2"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F45" s="2"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F46" s="2"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="6:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F47" s="3"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="3"/>
     </row>
     <row r="1048576" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K1048576" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="K4:M4"/>
+  <mergeCells count="3">
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="O14:S17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2096,10 +2402,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD23EB3-FE0B-4D28-A04E-DA4ABD2C8717}">
-  <dimension ref="B1:L36"/>
+  <dimension ref="B1:S36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L36"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2111,29 +2417,29 @@
     <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="J2" s="34" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
+      <c r="J2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="36"/>
-    </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K2" s="39"/>
+      <c r="L2" s="40"/>
+    </row>
+    <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="28" t="s">
         <v>10</v>
       </c>
@@ -2158,13 +2464,21 @@
       <c r="L3" s="21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N3" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B4" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>49</v>
@@ -2179,13 +2493,19 @@
         <v>43</v>
       </c>
       <c r="K4" s="11">
-        <v>2250</v>
+        <v>2107.5</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B5" s="28" t="s">
         <v>12</v>
       </c>
@@ -2201,11 +2521,23 @@
       <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="J5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="12">
+        <v>142.5</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B6" s="28" t="s">
         <v>13</v>
       </c>
@@ -2218,8 +2550,14 @@
       <c r="J6" s="4"/>
       <c r="K6" s="12"/>
       <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B7" s="28" t="s">
         <v>14</v>
       </c>
@@ -2233,7 +2571,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B8" s="28" t="s">
         <v>31</v>
       </c>
@@ -2247,7 +2585,7 @@
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="29" t="s">
         <v>32</v>
       </c>
@@ -2261,7 +2599,7 @@
       <c r="K9" s="12"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C10" s="30"/>
       <c r="E10" s="2"/>
       <c r="F10" s="12"/>
@@ -2270,7 +2608,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C11" s="30"/>
       <c r="E11" s="2"/>
       <c r="F11" s="12"/>
@@ -2279,7 +2617,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C12" s="30"/>
       <c r="E12" s="2"/>
       <c r="F12" s="12"/>
@@ -2288,7 +2626,7 @@
       <c r="K12" s="12"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C13" s="30"/>
       <c r="E13" s="2"/>
       <c r="F13" s="12"/>
@@ -2297,7 +2635,7 @@
       <c r="K13" s="12"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C14" s="30"/>
       <c r="E14" s="2"/>
       <c r="F14" s="12"/>
@@ -2306,7 +2644,7 @@
       <c r="K14" s="12"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C15" s="30"/>
       <c r="E15" s="2"/>
       <c r="F15" s="12"/>
@@ -2315,7 +2653,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C16" s="30"/>
       <c r="E16" s="2"/>
       <c r="F16" s="12"/>
@@ -2505,9 +2843,10 @@
       <c r="L36" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="J2:L2"/>
+    <mergeCell ref="N3:S6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2518,7 +2857,7 @@
   <dimension ref="B1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L36"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2530,7 +2869,7 @@
     <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -2541,16 +2880,16 @@
       <c r="C2" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="J2" s="34" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
+      <c r="J2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="36"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="40"/>
     </row>
     <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="28" t="s">
@@ -2583,7 +2922,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>55</v>
@@ -2598,7 +2937,7 @@
         <v>56</v>
       </c>
       <c r="K4" s="11">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>25</v>
@@ -2620,9 +2959,15 @@
       <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="2"/>
+      <c r="J5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="12">
+        <v>18</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="28" t="s">
@@ -2934,44 +3279,44 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9AFFE6-32CC-4ED3-90D1-1E871DB3E098}">
-  <dimension ref="B1:L36"/>
+  <dimension ref="B1:S36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="J2" s="34" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
+      <c r="J2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="36"/>
-    </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K2" s="39"/>
+      <c r="L2" s="40"/>
+    </row>
+    <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="28" t="s">
         <v>10</v>
       </c>
@@ -2996,13 +3341,21 @@
       <c r="L3" s="21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N3" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B4" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>41</v>
@@ -3017,13 +3370,19 @@
         <v>57</v>
       </c>
       <c r="K4" s="11">
-        <v>1440</v>
+        <v>1140</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B5" s="28" t="s">
         <v>12</v>
       </c>
@@ -3037,18 +3396,30 @@
         <v>960</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="12">
+        <v>300</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B6" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="12"/>
@@ -3056,13 +3427,19 @@
       <c r="J6" s="4"/>
       <c r="K6" s="12"/>
       <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B7" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="12"/>
@@ -3071,12 +3448,12 @@
       <c r="K7" s="12"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B8" s="28" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="12"/>
@@ -3085,12 +3462,12 @@
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="12"/>
@@ -3099,7 +3476,7 @@
       <c r="K9" s="12"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C10" s="30"/>
       <c r="E10" s="2"/>
       <c r="F10" s="12"/>
@@ -3108,7 +3485,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C11" s="30"/>
       <c r="E11" s="2"/>
       <c r="F11" s="12"/>
@@ -3117,7 +3494,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C12" s="30"/>
       <c r="E12" s="2"/>
       <c r="F12" s="12"/>
@@ -3126,7 +3503,7 @@
       <c r="K12" s="12"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C13" s="30"/>
       <c r="E13" s="2"/>
       <c r="F13" s="12"/>
@@ -3135,7 +3512,7 @@
       <c r="K13" s="12"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C14" s="30"/>
       <c r="E14" s="2"/>
       <c r="F14" s="12"/>
@@ -3144,7 +3521,7 @@
       <c r="K14" s="12"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C15" s="30"/>
       <c r="E15" s="2"/>
       <c r="F15" s="12"/>
@@ -3153,7 +3530,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C16" s="30"/>
       <c r="E16" s="2"/>
       <c r="F16" s="12"/>
@@ -3343,9 +3720,1033 @@
       <c r="L36" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="J2:L2"/>
+    <mergeCell ref="N3:S6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C5DD3A-A518-4C27-BB69-BA9A009C7B9C}">
+  <dimension ref="B1:L44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.90625" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="46" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="30"/>
+      <c r="E10" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
+      <c r="J10" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="39"/>
+      <c r="L10" s="40"/>
+    </row>
+    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="30"/>
+      <c r="E11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C12" s="30"/>
+      <c r="E12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="11">
+        <v>480</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="11">
+        <v>61.6875</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C13" s="30"/>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="12">
+        <v>422.5</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="12">
+        <v>45</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C14" s="30"/>
+      <c r="E14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="12">
+        <v>300</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="12">
+        <v>45</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C15" s="30"/>
+      <c r="E15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="12">
+        <v>142.5</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="12">
+        <v>33.125</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C16" s="30"/>
+      <c r="E16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="12">
+        <v>111.25</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="12">
+        <v>30</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C17" s="30"/>
+      <c r="E17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="12">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="12">
+        <v>30</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C18" s="30"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="2"/>
+      <c r="J18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="12">
+        <v>25</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C19" s="30"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="12">
+        <v>22.5</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C20" s="30"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="12">
+        <v>20.5</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C21" s="30"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K21" s="12">
+        <v>15</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C22" s="30"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" s="12">
+        <v>7.3125</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C23" s="30"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="12">
+        <v>7.25</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C24" s="30"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="2"/>
+      <c r="J24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24" s="12">
+        <v>5</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C25" s="30"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="2"/>
+      <c r="J25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" s="12">
+        <v>3</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C26" s="30"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C27" s="30"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K27" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C28" s="30"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="2"/>
+      <c r="J28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="12">
+        <v>1.4065000000000001</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C29" s="30"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C30" s="30"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C31" s="30"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C32" s="30"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C33" s="30"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C34" s="30"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C35" s="30"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C36" s="30"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E37" s="2"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E38" s="2"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E39" s="2"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E40" s="2"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E41" s="2"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E42" s="2"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E43" s="2"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E44" s="3"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="3"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E12:G17">
+    <sortCondition descending="1" ref="F12:F17"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="J10:L10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122A4D2D-7EB7-44FE-A97D-7046CE3D43BD}">
+  <dimension ref="B1:L44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B3" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="30"/>
+      <c r="E10" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
+      <c r="J10" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="39"/>
+      <c r="L10" s="40"/>
+    </row>
+    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="30"/>
+      <c r="E11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C12" s="30"/>
+      <c r="E12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1260</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="11">
+        <v>23.332999999999998</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C13" s="30"/>
+      <c r="E13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="12">
+        <v>500</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="12">
+        <v>19.443999999999999</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C14" s="30"/>
+      <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="12">
+        <v>533.33299999999997</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="12">
+        <v>723.33299999999997</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C15" s="30"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="2"/>
+      <c r="J15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15" s="12">
+        <v>680.55499999999995</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C16" s="30"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="2"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C17" s="30"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="2"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C18" s="30"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="2"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C19" s="30"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C20" s="30"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C21" s="30"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C22" s="30"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C23" s="30"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C24" s="30"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C25" s="30"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C26" s="30"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C27" s="30"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C28" s="30"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C29" s="30"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C30" s="30"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C31" s="30"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C32" s="30"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C33" s="30"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C34" s="30"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C35" s="30"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C36" s="30"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E37" s="2"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E38" s="2"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E39" s="2"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E40" s="2"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E41" s="2"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E42" s="2"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E43" s="2"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E44" s="3"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="J10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Game Stuff/Spreadsheet.xlsx
+++ b/Game Stuff/Spreadsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Nicos Blueprints_Thran Forge\Game Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Nicos Blueprints_Neko's Nexus\Game Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BF1668-77EF-4D28-A2D8-E9C15F7FCA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1867ABD1-F790-4052-B48A-E8E16270DC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="6" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
   </bookViews>
   <sheets>
     <sheet name="Material Summary" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Darksteel Forge" sheetId="3" r:id="rId3"/>
     <sheet name="Xantcha's Crucible" sheetId="4" r:id="rId4"/>
     <sheet name="Oran-Rief Mines" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="Thran Foundry" sheetId="6" r:id="rId6"/>
+    <sheet name="Neko's Nexus" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="94">
   <si>
     <t>Item</t>
   </si>
@@ -220,9 +221,6 @@
     <t>Thran Foundry</t>
   </si>
   <si>
-    <t>Thran Foundy</t>
-  </si>
-  <si>
     <t>466.8 MW</t>
   </si>
   <si>
@@ -236,6 +234,96 @@
   </si>
   <si>
     <t>Miners</t>
+  </si>
+  <si>
+    <t>Limestone</t>
+  </si>
+  <si>
+    <t>Water Extractors</t>
+  </si>
+  <si>
+    <t>Heavy Modular Frame</t>
+  </si>
+  <si>
+    <t>Modular Frames</t>
+  </si>
+  <si>
+    <t>Motors</t>
+  </si>
+  <si>
+    <t>Steel Beam</t>
+  </si>
+  <si>
+    <t>Rotors</t>
+  </si>
+  <si>
+    <t>Encased Industrial Beams</t>
+  </si>
+  <si>
+    <t>Stators</t>
+  </si>
+  <si>
+    <t>Quickwire</t>
+  </si>
+  <si>
+    <t>Portable Miners</t>
+  </si>
+  <si>
+    <t>Steel Pipes</t>
+  </si>
+  <si>
+    <t>Concrete</t>
+  </si>
+  <si>
+    <t>Reinforced Iron Plate</t>
+  </si>
+  <si>
+    <t>Cable</t>
+  </si>
+  <si>
+    <t>Wire</t>
+  </si>
+  <si>
+    <t>Copper Sheet</t>
+  </si>
+  <si>
+    <t>Iron Plate</t>
+  </si>
+  <si>
+    <t>Iron Rods</t>
+  </si>
+  <si>
+    <t>Screws</t>
+  </si>
+  <si>
+    <t>Neko's Nexus</t>
+  </si>
+  <si>
+    <t>Darksteel Forge, Xantcha's Crucible, Oran-Rief Mines, Thran Foundry</t>
+  </si>
+  <si>
+    <t>822.8 MW</t>
+  </si>
+  <si>
+    <t>-822.8 MW</t>
+  </si>
+  <si>
+    <t>13.1 GWh</t>
+  </si>
+  <si>
+    <t>15.92 Hours</t>
+  </si>
+  <si>
+    <t>Top right belt going to Neko's Nexus has an extra 180 steel on it</t>
+  </si>
+  <si>
+    <t>Top right uncompressed belt going to Neko's Nexus has an extra 142.5 Copper</t>
+  </si>
+  <si>
+    <t>Thran Foundy, Neko's Nexus</t>
+  </si>
+  <si>
+    <t>Middle belt going to Neko's Nexus has an extra 368.75</t>
   </si>
 </sst>
 </file>
@@ -507,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -574,6 +662,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -911,18 +1014,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DEAD1A-BE12-4BD3-A45F-18807DFF108B}">
   <dimension ref="C3:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="1"/>
-    <col min="10" max="10" width="20.6328125" customWidth="1"/>
+    <col min="8" max="8" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -1007,168 +1110,276 @@
         <v>41</v>
       </c>
       <c r="D8" s="12">
-        <v>2382.848</v>
+        <v>2271.598</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="9"/>
+      <c r="H8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1.4065000000000001</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="12">
-        <v>2250</v>
+        <v>2107.5</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="9"/>
+      <c r="H9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C10" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="12">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="9"/>
+      <c r="H10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C11" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="12">
-        <v>1440</v>
+        <v>1140</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="9"/>
+      <c r="H11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="12">
+        <v>45</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C12" s="2"/>
       <c r="D12" s="12"/>
       <c r="E12" s="2"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="9"/>
+      <c r="H12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="12">
+        <v>5</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C13" s="2"/>
       <c r="D13" s="12"/>
       <c r="E13" s="2"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="9"/>
+      <c r="H13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="12">
+        <v>7.3125</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C14" s="2"/>
       <c r="D14" s="12"/>
       <c r="E14" s="2"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="9"/>
+      <c r="H14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="12">
+        <v>3</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C15" s="2"/>
       <c r="D15" s="12"/>
       <c r="E15" s="2"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="9"/>
+      <c r="H15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="12">
+        <v>30</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C16" s="2"/>
       <c r="D16" s="12"/>
       <c r="E16" s="2"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="9"/>
+      <c r="H16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C17" s="2"/>
       <c r="D17" s="12"/>
       <c r="E17" s="2"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="9"/>
+      <c r="H17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="12">
+        <v>33.125</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C18" s="2"/>
       <c r="D18" s="12"/>
       <c r="E18" s="2"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="9"/>
+      <c r="H18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="12">
+        <v>61.6875</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C19" s="2"/>
       <c r="D19" s="12"/>
       <c r="E19" s="2"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="9"/>
+      <c r="H19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="12">
+        <v>7.25</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C20" s="2"/>
       <c r="D20" s="12"/>
       <c r="E20" s="2"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="9"/>
+      <c r="H20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="12">
+        <v>30</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C21" s="2"/>
       <c r="D21" s="12"/>
       <c r="E21" s="2"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="9"/>
+      <c r="H21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="12">
+        <v>45</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C22" s="2"/>
       <c r="D22" s="12"/>
       <c r="E22" s="2"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="9"/>
+      <c r="H22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="12">
+        <v>22.5</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C23" s="2"/>
       <c r="D23" s="12"/>
       <c r="E23" s="2"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="9"/>
+      <c r="H23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="12">
+        <v>20.5</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C24" s="2"/>
       <c r="D24" s="12"/>
       <c r="E24" s="2"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="9"/>
+      <c r="H24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="12">
+        <v>15</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C25" s="2"/>
       <c r="D25" s="12"/>
       <c r="E25" s="2"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="9"/>
+      <c r="H25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="12">
+        <v>25</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C26" s="2"/>
@@ -1695,10 +1906,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A244D34F-6552-48EC-88C9-9BCAF12F75CF}">
-  <dimension ref="C3:M1048576"/>
+  <dimension ref="C3:S1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="V39" sqref="V39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1713,240 +1924,213 @@
     <col min="13" max="13" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C4" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36"/>
-      <c r="K4" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="36"/>
-    </row>
-    <row r="5" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C5" s="28" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C6" s="28" t="s">
+    </row>
+    <row r="6" spans="3:19" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="11">
-        <v>1800</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="11">
-        <v>2382.848</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="D6" s="41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C7" s="28" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="12">
-        <v>514.27200000000005</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="12">
-        <v>960</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C8" s="28" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="2"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C9" s="28" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="2"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C10" s="28" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="2"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="29" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="2"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="F12" s="2"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="2"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="F13" s="2"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="F14" s="2"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="F15" s="2"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="F16" s="2"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="6:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="35"/>
+      <c r="H13" s="36"/>
+      <c r="K13" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="35"/>
+      <c r="M13" s="36"/>
+    </row>
+    <row r="14" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F14" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="F15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1800</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="11">
+        <v>2271.598</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="F16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="12">
+        <v>514.27200000000005</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="12">
+        <v>960</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+    </row>
+    <row r="17" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F17" s="2"/>
       <c r="G17" s="12"/>
       <c r="H17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="K17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="12">
+        <v>111.25</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+    </row>
+    <row r="18" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F18" s="2"/>
       <c r="G18" s="12"/>
       <c r="H18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="4"/>
       <c r="L18" s="12"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F19" s="2"/>
       <c r="G19" s="12"/>
       <c r="H19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="K19" s="4"/>
       <c r="L19" s="12"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F20" s="2"/>
       <c r="G20" s="12"/>
       <c r="H20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="K20" s="4"/>
       <c r="L20" s="12"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F21" s="2"/>
       <c r="G21" s="12"/>
       <c r="H21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="K21" s="4"/>
       <c r="L21" s="12"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F22" s="2"/>
       <c r="G22" s="12"/>
       <c r="H22" s="2"/>
@@ -1954,7 +2138,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F23" s="2"/>
       <c r="G23" s="12"/>
       <c r="H23" s="2"/>
@@ -1962,7 +2146,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F24" s="2"/>
       <c r="G24" s="12"/>
       <c r="H24" s="2"/>
@@ -1970,7 +2154,7 @@
       <c r="L24" s="12"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F25" s="2"/>
       <c r="G25" s="12"/>
       <c r="H25" s="2"/>
@@ -1978,7 +2162,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F26" s="2"/>
       <c r="G26" s="12"/>
       <c r="H26" s="2"/>
@@ -1986,7 +2170,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F27" s="2"/>
       <c r="G27" s="12"/>
       <c r="H27" s="2"/>
@@ -1994,7 +2178,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F28" s="2"/>
       <c r="G28" s="12"/>
       <c r="H28" s="2"/>
@@ -2002,7 +2186,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F29" s="2"/>
       <c r="G29" s="12"/>
       <c r="H29" s="2"/>
@@ -2010,7 +2194,7 @@
       <c r="L29" s="12"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F30" s="2"/>
       <c r="G30" s="12"/>
       <c r="H30" s="2"/>
@@ -2018,7 +2202,7 @@
       <c r="L30" s="12"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F31" s="2"/>
       <c r="G31" s="12"/>
       <c r="H31" s="2"/>
@@ -2026,7 +2210,7 @@
       <c r="L31" s="12"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F32" s="2"/>
       <c r="G32" s="12"/>
       <c r="H32" s="2"/>
@@ -2074,21 +2258,94 @@
       <c r="L37" s="12"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="6:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F38" s="3"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="3"/>
+    <row r="38" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F38" s="2"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F39" s="2"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F40" s="2"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F41" s="2"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F42" s="2"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F43" s="2"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F44" s="2"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F45" s="2"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F46" s="2"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="6:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F47" s="3"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="3"/>
     </row>
     <row r="1048576" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K1048576" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="K4:M4"/>
+  <mergeCells count="3">
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="O14:S17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2096,10 +2353,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD23EB3-FE0B-4D28-A04E-DA4ABD2C8717}">
-  <dimension ref="B1:L36"/>
+  <dimension ref="B1:S36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L36"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2111,11 +2368,11 @@
     <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="27" t="s">
         <v>9</v>
       </c>
@@ -2133,7 +2390,7 @@
       <c r="K2" s="35"/>
       <c r="L2" s="36"/>
     </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="28" t="s">
         <v>10</v>
       </c>
@@ -2158,13 +2415,21 @@
       <c r="L3" s="21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N3" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B4" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>49</v>
@@ -2179,13 +2444,19 @@
         <v>43</v>
       </c>
       <c r="K4" s="11">
-        <v>2250</v>
+        <v>2107.5</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B5" s="28" t="s">
         <v>12</v>
       </c>
@@ -2201,11 +2472,23 @@
       <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="J5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="12">
+        <v>142.5</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B6" s="28" t="s">
         <v>13</v>
       </c>
@@ -2218,8 +2501,14 @@
       <c r="J6" s="4"/>
       <c r="K6" s="12"/>
       <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B7" s="28" t="s">
         <v>14</v>
       </c>
@@ -2233,7 +2522,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B8" s="28" t="s">
         <v>31</v>
       </c>
@@ -2247,7 +2536,7 @@
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="29" t="s">
         <v>32</v>
       </c>
@@ -2261,7 +2550,7 @@
       <c r="K9" s="12"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C10" s="30"/>
       <c r="E10" s="2"/>
       <c r="F10" s="12"/>
@@ -2270,7 +2559,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C11" s="30"/>
       <c r="E11" s="2"/>
       <c r="F11" s="12"/>
@@ -2279,7 +2568,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C12" s="30"/>
       <c r="E12" s="2"/>
       <c r="F12" s="12"/>
@@ -2288,7 +2577,7 @@
       <c r="K12" s="12"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C13" s="30"/>
       <c r="E13" s="2"/>
       <c r="F13" s="12"/>
@@ -2297,7 +2586,7 @@
       <c r="K13" s="12"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C14" s="30"/>
       <c r="E14" s="2"/>
       <c r="F14" s="12"/>
@@ -2306,7 +2595,7 @@
       <c r="K14" s="12"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C15" s="30"/>
       <c r="E15" s="2"/>
       <c r="F15" s="12"/>
@@ -2315,7 +2604,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C16" s="30"/>
       <c r="E16" s="2"/>
       <c r="F16" s="12"/>
@@ -2505,9 +2794,10 @@
       <c r="L36" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="J2:L2"/>
+    <mergeCell ref="N3:S6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2518,7 +2808,7 @@
   <dimension ref="B1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L36"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2530,7 +2820,7 @@
     <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -2583,7 +2873,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>55</v>
@@ -2598,7 +2888,7 @@
         <v>56</v>
       </c>
       <c r="K4" s="11">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>25</v>
@@ -2620,9 +2910,15 @@
       <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="2"/>
+      <c r="J5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="12">
+        <v>18</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="28" t="s">
@@ -2934,26 +3230,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9AFFE6-32CC-4ED3-90D1-1E871DB3E098}">
-  <dimension ref="B1:L36"/>
+  <dimension ref="B1:S36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="27" t="s">
         <v>9</v>
       </c>
@@ -2971,7 +3267,7 @@
       <c r="K2" s="35"/>
       <c r="L2" s="36"/>
     </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="28" t="s">
         <v>10</v>
       </c>
@@ -2996,13 +3292,21 @@
       <c r="L3" s="21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N3" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B4" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>41</v>
@@ -3017,13 +3321,19 @@
         <v>57</v>
       </c>
       <c r="K4" s="11">
-        <v>1440</v>
+        <v>1140</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B5" s="28" t="s">
         <v>12</v>
       </c>
@@ -3037,18 +3347,30 @@
         <v>960</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="12">
+        <v>300</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B6" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="12"/>
@@ -3056,13 +3378,19 @@
       <c r="J6" s="4"/>
       <c r="K6" s="12"/>
       <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B7" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="12"/>
@@ -3071,12 +3399,12 @@
       <c r="K7" s="12"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B8" s="28" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="12"/>
@@ -3085,12 +3413,12 @@
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="12"/>
@@ -3099,7 +3427,7 @@
       <c r="K9" s="12"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C10" s="30"/>
       <c r="E10" s="2"/>
       <c r="F10" s="12"/>
@@ -3108,7 +3436,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C11" s="30"/>
       <c r="E11" s="2"/>
       <c r="F11" s="12"/>
@@ -3117,7 +3445,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C12" s="30"/>
       <c r="E12" s="2"/>
       <c r="F12" s="12"/>
@@ -3126,7 +3454,7 @@
       <c r="K12" s="12"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C13" s="30"/>
       <c r="E13" s="2"/>
       <c r="F13" s="12"/>
@@ -3135,7 +3463,7 @@
       <c r="K13" s="12"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C14" s="30"/>
       <c r="E14" s="2"/>
       <c r="F14" s="12"/>
@@ -3144,7 +3472,7 @@
       <c r="K14" s="12"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C15" s="30"/>
       <c r="E15" s="2"/>
       <c r="F15" s="12"/>
@@ -3153,7 +3481,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C16" s="30"/>
       <c r="E16" s="2"/>
       <c r="F16" s="12"/>
@@ -3343,9 +3671,574 @@
       <c r="L36" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="J2:L2"/>
+    <mergeCell ref="N3:S6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C5DD3A-A518-4C27-BB69-BA9A009C7B9C}">
+  <dimension ref="B1:L44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.90625" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="46" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="30"/>
+      <c r="E10" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="J10" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="35"/>
+      <c r="L10" s="36"/>
+    </row>
+    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="30"/>
+      <c r="E11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C12" s="30"/>
+      <c r="E12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="11">
+        <v>480</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="11">
+        <v>61.6875</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C13" s="30"/>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="12">
+        <v>422.5</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="12">
+        <v>45</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C14" s="30"/>
+      <c r="E14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="12">
+        <v>300</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="12">
+        <v>45</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C15" s="30"/>
+      <c r="E15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="12">
+        <v>142.5</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="12">
+        <v>33.125</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C16" s="30"/>
+      <c r="E16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="12">
+        <v>111.25</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="12">
+        <v>30</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C17" s="30"/>
+      <c r="E17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="12">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="12">
+        <v>30</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C18" s="30"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="2"/>
+      <c r="J18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="12">
+        <v>25</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C19" s="30"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="12">
+        <v>22.5</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C20" s="30"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="12">
+        <v>20.5</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C21" s="30"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K21" s="12">
+        <v>15</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C22" s="30"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" s="12">
+        <v>7.3125</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C23" s="30"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="12">
+        <v>7.25</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C24" s="30"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="2"/>
+      <c r="J24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24" s="12">
+        <v>5</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C25" s="30"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="2"/>
+      <c r="J25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" s="12">
+        <v>3</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C26" s="30"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C27" s="30"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K27" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C28" s="30"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="2"/>
+      <c r="J28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="12">
+        <v>1.4065000000000001</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C29" s="30"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C30" s="30"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C31" s="30"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C32" s="30"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C33" s="30"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C34" s="30"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C35" s="30"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C36" s="30"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E37" s="2"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E38" s="2"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E39" s="2"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E40" s="2"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E41" s="2"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E42" s="2"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E43" s="2"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E44" s="3"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="3"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E12:G17">
+    <sortCondition descending="1" ref="F12:F17"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="J10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Game Stuff/Spreadsheet.xlsx
+++ b/Game Stuff/Spreadsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Nicos Blueprints_KGhirapur Gridworks\Game Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Nicos Blueprints_Kaladesh Refinery\Game Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B213EDA-AAC5-47BA-B378-ED15EDA48FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A320A92-3A07-4D60-8BD6-9C718C83A64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6620" yWindow="5030" windowWidth="28800" windowHeight="15370" activeTab="8" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
+    <workbookView xWindow="45972" yWindow="-4944" windowWidth="17496" windowHeight="30216" firstSheet="7" activeTab="9" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
   </bookViews>
   <sheets>
     <sheet name="Material Summary" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Neko's Nexus" sheetId="7" r:id="rId7"/>
     <sheet name="Ketria Crystals" sheetId="8" r:id="rId8"/>
     <sheet name="Ghirapur Gridworks" sheetId="10" r:id="rId9"/>
+    <sheet name="Kaladesh Refinery" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="122">
   <si>
     <t>Item</t>
   </si>
@@ -389,6 +390,27 @@
   </si>
   <si>
     <t>Circuit Boards</t>
+  </si>
+  <si>
+    <t>Rubber</t>
+  </si>
+  <si>
+    <t>Empty Canisters</t>
+  </si>
+  <si>
+    <t>Crude Oil</t>
+  </si>
+  <si>
+    <t>Kaladesh Refinery</t>
+  </si>
+  <si>
+    <t>2217.5 MW</t>
+  </si>
+  <si>
+    <t>-2217.5 MW</t>
+  </si>
+  <si>
+    <t>3.96 Hours</t>
   </si>
 </sst>
 </file>
@@ -734,6 +756,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -745,9 +770,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1086,7 +1108,7 @@
   <dimension ref="C3:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1101,18 +1123,18 @@
   <sheetData>
     <row r="3" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="42"/>
     </row>
     <row r="5" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="21" t="s">
@@ -1149,7 +1171,7 @@
       <c r="H6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="39">
         <v>15</v>
       </c>
       <c r="J6" s="8" t="s">
@@ -1297,9 +1319,15 @@
       </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C14" s="2"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="12">
+        <v>475</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="H14" s="5" t="s">
         <v>72</v>
       </c>
@@ -1311,9 +1339,15 @@
       </c>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C15" s="2"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="12">
+        <v>390</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="H15" s="6" t="s">
         <v>73</v>
       </c>
@@ -1325,9 +1359,9 @@
       </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C16" s="2"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="4"/>
       <c r="H16" s="6" t="s">
         <v>74</v>
       </c>
@@ -1339,9 +1373,9 @@
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C17" s="2"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="4"/>
       <c r="H17" s="6" t="s">
         <v>75</v>
       </c>
@@ -1566,17 +1600,29 @@
       <c r="C33" s="2"/>
       <c r="D33" s="12"/>
       <c r="E33" s="2"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="9"/>
+      <c r="H33" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I33" s="11">
+        <v>25</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C34" s="2"/>
       <c r="D34" s="12"/>
       <c r="E34" s="2"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="9"/>
+      <c r="H34" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34" s="12">
+        <v>20</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C35" s="2"/>
@@ -1614,6 +1660,459 @@
   <mergeCells count="2">
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="H4:J4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBAD9F1-0099-4C27-8F14-6139C4B3501A}">
+  <dimension ref="B1:L44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B3" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="30"/>
+      <c r="E10" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="J10" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
+    </row>
+    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="30"/>
+      <c r="E11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C12" s="30"/>
+      <c r="E12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="11">
+        <v>300</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" s="11">
+        <v>25</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C13" s="30"/>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13" s="12">
+        <v>475</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C14" s="30"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="12">
+        <v>390</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C15" s="30"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="2"/>
+      <c r="J15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K15" s="12">
+        <v>20</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C16" s="30"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="2"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C17" s="30"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="2"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C18" s="30"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="2"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C19" s="30"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C20" s="30"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C21" s="30"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C22" s="30"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C23" s="30"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C24" s="30"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C25" s="30"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C26" s="30"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C27" s="30"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C28" s="30"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C29" s="30"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C30" s="30"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C31" s="30"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C32" s="30"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C33" s="30"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C34" s="30"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C35" s="30"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C36" s="30"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E37" s="2"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E38" s="2"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E39" s="2"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E40" s="2"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E41" s="2"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E42" s="2"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E43" s="2"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E44" s="3"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="J10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1647,16 +2146,16 @@
       <c r="D4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="41"/>
-      <c r="K4" s="39" t="s">
+      <c r="G4" s="41"/>
+      <c r="H4" s="42"/>
+      <c r="K4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="40"/>
-      <c r="M4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="42"/>
     </row>
     <row r="5" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="24" t="s">
@@ -2117,16 +2616,16 @@
     </row>
     <row r="12" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="41"/>
-      <c r="K13" s="39" t="s">
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+      <c r="K13" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="40"/>
-      <c r="M13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="42"/>
     </row>
     <row r="14" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F14" s="21" t="s">
@@ -2147,13 +2646,13 @@
       <c r="M14" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="42" t="s">
+      <c r="O14" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
     </row>
     <row r="15" spans="3:19" x14ac:dyDescent="0.35">
       <c r="F15" s="4" t="s">
@@ -2174,11 +2673,11 @@
       <c r="M15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.35">
       <c r="F16" s="2" t="s">
@@ -2199,11 +2698,11 @@
       <c r="M16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
     </row>
     <row r="17" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F17" s="2"/>
@@ -2218,11 +2717,11 @@
       <c r="M17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
     </row>
     <row r="18" spans="6:19" x14ac:dyDescent="0.35">
       <c r="F18" s="2"/>
@@ -2573,16 +3072,16 @@
     </row>
     <row r="11" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="30"/>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="J11" s="39" t="s">
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
+      <c r="J11" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="40"/>
-      <c r="L11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
     </row>
     <row r="12" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="30"/>
@@ -2604,14 +3103,14 @@
       <c r="L12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="42" t="s">
+      <c r="N12" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C13" s="30"/>
@@ -2633,12 +3132,12 @@
       <c r="L13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C14" s="30"/>
@@ -2660,12 +3159,12 @@
       <c r="L14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C15" s="30"/>
@@ -2681,12 +3180,12 @@
       <c r="L15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C16" s="30"/>
@@ -3049,16 +3548,16 @@
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="30"/>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="J11" s="39" t="s">
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
+      <c r="J11" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="40"/>
-      <c r="L11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
     </row>
     <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="30"/>
@@ -3436,16 +3935,16 @@
       <c r="C2" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
-      <c r="J2" s="39" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
+      <c r="J2" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="42"/>
     </row>
     <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="28" t="s">
@@ -3472,14 +3971,14 @@
       <c r="L3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="42" t="s">
+      <c r="N3" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B4" s="28" t="s">
@@ -3506,12 +4005,12 @@
       <c r="L4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B5" s="28" t="s">
@@ -3538,12 +4037,12 @@
       <c r="L5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B6" s="28" t="s">
@@ -3558,12 +4057,12 @@
       <c r="J6" s="4"/>
       <c r="K6" s="12"/>
       <c r="L6" s="2"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B7" s="28" t="s">
@@ -3947,16 +4446,16 @@
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="30"/>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="J10" s="39" t="s">
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="J10" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="40"/>
-      <c r="L10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="30"/>
@@ -4429,7 +4928,7 @@
   <dimension ref="B1:P44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L44"/>
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4513,16 +5012,16 @@
     </row>
     <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="30"/>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="J10" s="39" t="s">
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="J10" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="40"/>
-      <c r="L10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="30"/>
@@ -4907,8 +5406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56653220-9795-4D3E-A3FB-8E6AD78BB38D}">
   <dimension ref="B1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4990,16 +5489,16 @@
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="30"/>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="J10" s="39" t="s">
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="J10" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="40"/>
-      <c r="L10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="30"/>

--- a/Game Stuff/Spreadsheet.xlsx
+++ b/Game Stuff/Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Nicos Blueprints_Kaladesh Refinery\Game Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A320A92-3A07-4D60-8BD6-9C718C83A64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBAF7AC-C41F-48E4-BECA-54D4140AFC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="-4944" windowWidth="17496" windowHeight="30216" firstSheet="7" activeTab="9" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
+    <workbookView xWindow="45972" yWindow="-4944" windowWidth="17496" windowHeight="30216" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
   </bookViews>
   <sheets>
     <sheet name="Material Summary" sheetId="1" r:id="rId1"/>
@@ -1107,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DEAD1A-BE12-4BD3-A45F-18807DFF108B}">
   <dimension ref="C3:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1607,7 +1607,7 @@
         <v>25</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.35">
@@ -1621,7 +1621,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.35">
@@ -1669,7 +1669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBAD9F1-0099-4C27-8F14-6139C4B3501A}">
   <dimension ref="B1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/Game Stuff/Spreadsheet.xlsx
+++ b/Game Stuff/Spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Nicos Blueprints_Kaladesh Refinery\Game Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Nicos Blueprints_Abyssal chains of shandalar\Game Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBAF7AC-C41F-48E4-BECA-54D4140AFC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF56F2DF-5903-4F0B-A121-7806DE3D8551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="-4944" windowWidth="17496" windowHeight="30216" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
+    <workbookView xWindow="6280" yWindow="3300" windowWidth="28820" windowHeight="15380" firstSheet="6" activeTab="10" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
   </bookViews>
   <sheets>
     <sheet name="Material Summary" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Ketria Crystals" sheetId="8" r:id="rId8"/>
     <sheet name="Ghirapur Gridworks" sheetId="10" r:id="rId9"/>
     <sheet name="Kaladesh Refinery" sheetId="11" r:id="rId10"/>
+    <sheet name="The Abyssal Chains of Shandalar" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="140">
   <si>
     <t>Item</t>
   </si>
@@ -350,9 +351,6 @@
     <t>Neko's Nexus, Ghirapur Gridworks</t>
   </si>
   <si>
-    <t xml:space="preserve">Middle belt going to Neko's Nexus / Ghirapur Gridworks  has an extra 331.25 </t>
-  </si>
-  <si>
     <t>Thran Foundy, Neko's Nexus, Ghirapur Gridworks</t>
   </si>
   <si>
@@ -411,6 +409,63 @@
   </si>
   <si>
     <t>3.96 Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottom left belt going to The Abyssal Chains of shandalar has an extra 366.1666 Copper Ingots </t>
+  </si>
+  <si>
+    <t>The Abyssal Chains of Shandalar</t>
+  </si>
+  <si>
+    <t>Belt</t>
+  </si>
+  <si>
+    <t>Bottom Left</t>
+  </si>
+  <si>
+    <t>Top Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle belt (Middle row and column) going to Neko's Nexus / Ghirapur Gridworks  has an extra 331.25 </t>
+  </si>
+  <si>
+    <t>Row 2 Column 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Row 3 Column 1 and 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Ingot </t>
+  </si>
+  <si>
+    <t>Row 2 Column 1</t>
+  </si>
+  <si>
+    <t>Plastic Belt going to the Abyssal Chains of Shandalar (Middle) has an extra 348 Plastic</t>
+  </si>
+  <si>
+    <t>Rubber Belt going to the Abyssal Chains of Shandalar (Right) has an extra 217.5 Rubber</t>
+  </si>
+  <si>
+    <t>Modular Engines</t>
+  </si>
+  <si>
+    <t>Adaptive Control Units</t>
+  </si>
+  <si>
+    <t>Darksteel Forge, Xantcha's Crucible, Kaladesh Refinery</t>
+  </si>
+  <si>
+    <t>231.9 MW</t>
+  </si>
+  <si>
+    <t>-231.9 MW</t>
+  </si>
+  <si>
+    <t>14.7 GWh</t>
+  </si>
+  <si>
+    <t>63.39 Hours</t>
   </si>
 </sst>
 </file>
@@ -442,7 +497,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -678,11 +733,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -770,6 +860,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1107,18 +1206,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DEAD1A-BE12-4BD3-A45F-18807DFF108B}">
   <dimension ref="C3:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -1203,7 +1302,7 @@
         <v>41</v>
       </c>
       <c r="D8" s="12">
-        <v>2234.098</v>
+        <v>1999.848</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>42</v>
@@ -1223,7 +1322,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="12">
-        <v>2002.85</v>
+        <v>1889.01666</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>44</v>
@@ -1320,13 +1419,13 @@
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C14" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14" s="12">
-        <v>475</v>
+        <v>467.5</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>72</v>
@@ -1343,10 +1442,10 @@
         <v>5</v>
       </c>
       <c r="D15" s="12">
-        <v>390</v>
+        <v>348</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>73</v>
@@ -1531,7 +1630,7 @@
       <c r="D28" s="12"/>
       <c r="E28" s="2"/>
       <c r="H28" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I28" s="15">
         <v>1.5</v>
@@ -1545,7 +1644,7 @@
       <c r="D29" s="12"/>
       <c r="E29" s="2"/>
       <c r="H29" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I29" s="15">
         <v>1.5</v>
@@ -1559,7 +1658,7 @@
       <c r="D30" s="12"/>
       <c r="E30" s="2"/>
       <c r="H30" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I30" s="15">
         <v>2.25</v>
@@ -1573,7 +1672,7 @@
       <c r="D31" s="12"/>
       <c r="E31" s="2"/>
       <c r="H31" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I31" s="15">
         <v>3</v>
@@ -1587,7 +1686,7 @@
       <c r="D32" s="12"/>
       <c r="E32" s="2"/>
       <c r="H32" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I32" s="15">
         <v>6</v>
@@ -1601,13 +1700,13 @@
       <c r="D33" s="12"/>
       <c r="E33" s="2"/>
       <c r="H33" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I33" s="11">
         <v>25</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.35">
@@ -1615,30 +1714,42 @@
       <c r="D34" s="12"/>
       <c r="E34" s="2"/>
       <c r="H34" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I34" s="12">
         <v>20</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C35" s="2"/>
       <c r="D35" s="12"/>
       <c r="E35" s="2"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="9"/>
+      <c r="H35" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I35" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C36" s="2"/>
       <c r="D36" s="12"/>
       <c r="E36" s="2"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="9"/>
+      <c r="H36" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I36" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C37" s="2"/>
@@ -1667,10 +1778,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBAD9F1-0099-4C27-8F14-6139C4B3501A}">
-  <dimension ref="B1:L44"/>
+  <dimension ref="B1:T44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1682,6 +1793,563 @@
     <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.08984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B3" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B4" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B7" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B8" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="30"/>
+      <c r="E10" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="J10" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="42"/>
+    </row>
+    <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="30"/>
+      <c r="E11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="C12" s="30"/>
+      <c r="E12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="11">
+        <v>300</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="11">
+        <v>25</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="26"/>
+      <c r="O12" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="C13" s="30"/>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" s="12">
+        <v>467.5</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="C14" s="30"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="12">
+        <v>348</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="C15" s="30"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="2"/>
+      <c r="J15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" s="12">
+        <v>20</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="C16" s="30"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="2"/>
+      <c r="J16" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="O16" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C17" s="30"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="2"/>
+      <c r="J17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="12">
+        <v>42</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C18" s="30"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="2"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="2"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C19" s="30"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="2"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C20" s="30"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C21" s="30"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C22" s="30"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C23" s="30"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C24" s="30"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C25" s="30"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C26" s="30"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C27" s="30"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C28" s="30"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C29" s="30"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C30" s="30"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C31" s="30"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C32" s="30"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C33" s="30"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C34" s="30"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C35" s="30"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C36" s="30"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="E37" s="2"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="E38" s="2"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="E39" s="2"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="E40" s="2"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="E41" s="2"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="E42" s="2"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="E43" s="2"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E44" s="3"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="O12:T15"/>
+    <mergeCell ref="O16:T19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1308C4-E9DD-438E-A79A-D3E0D96AB566}">
+  <dimension ref="B1:L44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1691,15 +2359,15 @@
         <v>9</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="87" x14ac:dyDescent="0.35">
       <c r="B3" s="34" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
@@ -1723,7 +2391,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -1731,7 +2399,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -1739,7 +2407,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1747,7 +2415,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1787,19 +2455,19 @@
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C12" s="30"/>
       <c r="E12" s="4" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="F12" s="11">
-        <v>300</v>
+        <v>18.75</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="K12" s="11">
-        <v>25</v>
+        <v>0.5</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>8</v>
@@ -1811,65 +2479,77 @@
         <v>19</v>
       </c>
       <c r="F13" s="12">
-        <v>1000</v>
+        <v>28.625</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="K13" s="12">
-        <v>475</v>
+        <v>0.5</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C14" s="30"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="4"/>
-      <c r="J14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="12">
-        <v>390</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="E14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="12">
+        <v>113.833</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C15" s="30"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="2"/>
-      <c r="J15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K15" s="12">
-        <v>20</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="E15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="12">
+        <v>234.25</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C16" s="30"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="12">
+        <v>42</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="12"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C17" s="30"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="J17" s="4"/>
       <c r="K17" s="12"/>
       <c r="L17" s="4"/>
@@ -2530,10 +3210,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A244D34F-6552-48EC-88C9-9BCAF12F75CF}">
-  <dimension ref="C3:S1048576"/>
+  <dimension ref="C3:T1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="W36" sqref="W36"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2545,12 +3225,13 @@
     <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.26953125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7265625" customWidth="1"/>
+    <col min="13" max="13" width="27" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C4" s="27" t="s">
         <v>9</v>
       </c>
@@ -2558,7 +3239,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C5" s="28" t="s">
         <v>10</v>
       </c>
@@ -2566,15 +3247,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="3:19" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:20" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="36" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C7" s="28" t="s">
         <v>12</v>
       </c>
@@ -2582,7 +3263,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C8" s="28" t="s">
         <v>13</v>
       </c>
@@ -2590,7 +3271,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C9" s="28" t="s">
         <v>14</v>
       </c>
@@ -2598,7 +3279,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C10" s="28" t="s">
         <v>31</v>
       </c>
@@ -2606,7 +3287,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="29" t="s">
         <v>32</v>
       </c>
@@ -2614,8 +3295,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F13" s="40" t="s">
         <v>15</v>
       </c>
@@ -2625,9 +3306,10 @@
         <v>16</v>
       </c>
       <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
-    </row>
-    <row r="14" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M13" s="41"/>
+      <c r="N13" s="42"/>
+    </row>
+    <row r="14" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F14" s="21" t="s">
         <v>0</v>
       </c>
@@ -2646,15 +3328,18 @@
       <c r="M14" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="P14" s="43"/>
+      <c r="N14" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="P14" s="43" t="s">
+        <v>126</v>
+      </c>
       <c r="Q14" s="43"/>
       <c r="R14" s="43"/>
       <c r="S14" s="43"/>
-    </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="T14" s="43"/>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.35">
       <c r="F15" s="4" t="s">
         <v>34</v>
       </c>
@@ -2668,18 +3353,19 @@
         <v>35</v>
       </c>
       <c r="L15" s="11">
-        <v>2234.098</v>
+        <v>1999.848</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O15" s="43"/>
+      <c r="N15" s="26"/>
       <c r="P15" s="43"/>
       <c r="Q15" s="43"/>
       <c r="R15" s="43"/>
       <c r="S15" s="43"/>
-    </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="T15" s="43"/>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.35">
       <c r="F16" s="2" t="s">
         <v>19</v>
       </c>
@@ -2698,13 +3384,16 @@
       <c r="M16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O16" s="43"/>
+      <c r="N16" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="P16" s="43"/>
       <c r="Q16" s="43"/>
       <c r="R16" s="43"/>
       <c r="S16" s="43"/>
-    </row>
-    <row r="17" spans="6:19" x14ac:dyDescent="0.35">
+      <c r="T16" s="43"/>
+    </row>
+    <row r="17" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F17" s="2"/>
       <c r="G17" s="12"/>
       <c r="H17" s="2"/>
@@ -2717,13 +3406,16 @@
       <c r="M17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="O17" s="43"/>
+      <c r="N17" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="P17" s="43"/>
       <c r="Q17" s="43"/>
       <c r="R17" s="43"/>
       <c r="S17" s="43"/>
-    </row>
-    <row r="18" spans="6:19" x14ac:dyDescent="0.35">
+      <c r="T17" s="43"/>
+    </row>
+    <row r="18" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F18" s="2"/>
       <c r="G18" s="12"/>
       <c r="H18" s="2"/>
@@ -2736,238 +3428,282 @@
       <c r="M18" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="19" spans="6:19" x14ac:dyDescent="0.35">
+      <c r="N18" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F19" s="2"/>
       <c r="G19" s="12"/>
       <c r="H19" s="2"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="6:19" x14ac:dyDescent="0.35">
+      <c r="K19" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L19" s="12">
+        <v>234.25</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F20" s="2"/>
       <c r="G20" s="12"/>
       <c r="H20" s="2"/>
       <c r="K20" s="4"/>
       <c r="L20" s="12"/>
       <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="6:19" x14ac:dyDescent="0.35">
+      <c r="N20" s="2"/>
+      <c r="P20">
+        <f>2234.098-234.25</f>
+        <v>1999.848</v>
+      </c>
+    </row>
+    <row r="21" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F21" s="2"/>
       <c r="G21" s="12"/>
       <c r="H21" s="2"/>
       <c r="K21" s="4"/>
       <c r="L21" s="12"/>
       <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="6:19" x14ac:dyDescent="0.35">
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F22" s="2"/>
       <c r="G22" s="12"/>
       <c r="H22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="12"/>
       <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="6:19" x14ac:dyDescent="0.35">
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F23" s="2"/>
       <c r="G23" s="12"/>
       <c r="H23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="12"/>
       <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="6:19" x14ac:dyDescent="0.35">
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F24" s="2"/>
       <c r="G24" s="12"/>
       <c r="H24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="12"/>
       <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="6:19" x14ac:dyDescent="0.35">
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F25" s="2"/>
       <c r="G25" s="12"/>
       <c r="H25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="12"/>
       <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="6:19" x14ac:dyDescent="0.35">
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F26" s="2"/>
       <c r="G26" s="12"/>
       <c r="H26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="12"/>
       <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="6:19" x14ac:dyDescent="0.35">
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F27" s="2"/>
       <c r="G27" s="12"/>
       <c r="H27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="12"/>
       <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="6:19" x14ac:dyDescent="0.35">
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F28" s="2"/>
       <c r="G28" s="12"/>
       <c r="H28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="12"/>
       <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="6:19" x14ac:dyDescent="0.35">
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F29" s="2"/>
       <c r="G29" s="12"/>
       <c r="H29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="12"/>
       <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="6:19" x14ac:dyDescent="0.35">
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F30" s="2"/>
       <c r="G30" s="12"/>
       <c r="H30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="12"/>
       <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="6:19" x14ac:dyDescent="0.35">
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F31" s="2"/>
       <c r="G31" s="12"/>
       <c r="H31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="12"/>
       <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="6:19" x14ac:dyDescent="0.35">
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F32" s="2"/>
       <c r="G32" s="12"/>
       <c r="H32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="12"/>
       <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F33" s="2"/>
       <c r="G33" s="12"/>
       <c r="H33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="12"/>
       <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F34" s="2"/>
       <c r="G34" s="12"/>
       <c r="H34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="12"/>
       <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F35" s="2"/>
       <c r="G35" s="12"/>
       <c r="H35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="12"/>
       <c r="M35" s="2"/>
-    </row>
-    <row r="36" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F36" s="2"/>
       <c r="G36" s="12"/>
       <c r="H36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="12"/>
       <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F37" s="2"/>
       <c r="G37" s="12"/>
       <c r="H37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="12"/>
       <c r="M37" s="2"/>
-    </row>
-    <row r="38" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F38" s="2"/>
       <c r="G38" s="12"/>
       <c r="H38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="12"/>
       <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F39" s="2"/>
       <c r="G39" s="12"/>
       <c r="H39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="12"/>
       <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F40" s="2"/>
       <c r="G40" s="12"/>
       <c r="H40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="12"/>
       <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F41" s="2"/>
       <c r="G41" s="12"/>
       <c r="H41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="12"/>
       <c r="M41" s="2"/>
-    </row>
-    <row r="42" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F42" s="2"/>
       <c r="G42" s="12"/>
       <c r="H42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="12"/>
       <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F43" s="2"/>
       <c r="G43" s="12"/>
       <c r="H43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="12"/>
       <c r="M43" s="2"/>
-    </row>
-    <row r="44" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F44" s="2"/>
       <c r="G44" s="12"/>
       <c r="H44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="12"/>
       <c r="M44" s="2"/>
-    </row>
-    <row r="45" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F45" s="2"/>
       <c r="G45" s="12"/>
       <c r="H45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="12"/>
       <c r="M45" s="2"/>
-    </row>
-    <row r="46" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F46" s="2"/>
       <c r="G46" s="12"/>
       <c r="H46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="12"/>
       <c r="M46" s="2"/>
-    </row>
-    <row r="47" spans="6:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F47" s="3"/>
       <c r="G47" s="13"/>
       <c r="H47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="13"/>
       <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
     </row>
     <row r="1048576" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K1048576" s="4"/>
@@ -2975,8 +3711,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F13:H13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="O14:S17"/>
+    <mergeCell ref="P14:T17"/>
+    <mergeCell ref="K13:N13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2984,10 +3720,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD23EB3-FE0B-4D28-A04E-DA4ABD2C8717}">
-  <dimension ref="B1:S45"/>
+  <dimension ref="B1:T45"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12:T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2998,12 +3734,14 @@
     <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.453125" customWidth="1"/>
-    <col min="12" max="12" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.6328125" customWidth="1"/>
+    <col min="15" max="15" width="18.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B2" s="27" t="s">
         <v>9</v>
       </c>
@@ -3011,7 +3749,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B3" s="28" t="s">
         <v>10</v>
       </c>
@@ -3019,7 +3757,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="36" t="s">
         <v>11</v>
       </c>
@@ -3027,7 +3765,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B5" s="28" t="s">
         <v>12</v>
       </c>
@@ -3035,7 +3773,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B6" s="28" t="s">
         <v>13</v>
       </c>
@@ -3043,7 +3781,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B7" s="28" t="s">
         <v>14</v>
       </c>
@@ -3051,7 +3789,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B8" s="28" t="s">
         <v>31</v>
       </c>
@@ -3059,7 +3797,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="29" t="s">
         <v>32</v>
       </c>
@@ -3067,10 +3805,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="30"/>
     </row>
-    <row r="11" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="30"/>
       <c r="E11" s="40" t="s">
         <v>15</v>
@@ -3081,9 +3819,10 @@
         <v>16</v>
       </c>
       <c r="K11" s="41"/>
-      <c r="L11" s="42"/>
-    </row>
-    <row r="12" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
+    </row>
+    <row r="12" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="30"/>
       <c r="E12" s="21" t="s">
         <v>0</v>
@@ -3094,25 +3833,28 @@
       <c r="G12" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L12" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="O12" s="43"/>
+      <c r="M12" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" s="43" t="s">
+        <v>104</v>
+      </c>
       <c r="P12" s="43"/>
       <c r="Q12" s="43"/>
       <c r="R12" s="43"/>
       <c r="S12" s="43"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="T12" s="43"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C13" s="30"/>
       <c r="E13" s="4" t="s">
         <v>49</v>
@@ -3127,19 +3869,20 @@
         <v>43</v>
       </c>
       <c r="K13" s="11">
-        <v>2002.85</v>
-      </c>
-      <c r="L13" s="4" t="s">
+        <v>1889.01666</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="43"/>
+      <c r="M13" s="26"/>
       <c r="O13" s="43"/>
       <c r="P13" s="43"/>
       <c r="Q13" s="43"/>
       <c r="R13" s="43"/>
       <c r="S13" s="43"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="T13" s="43"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C14" s="30"/>
       <c r="E14" s="2" t="s">
         <v>19</v>
@@ -3156,17 +3899,20 @@
       <c r="K14" s="12">
         <v>142.5</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="N14" s="43"/>
+      <c r="M14" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="O14" s="43"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="43"/>
       <c r="R14" s="43"/>
       <c r="S14" s="43"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="T14" s="43"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C15" s="30"/>
       <c r="E15" s="2"/>
       <c r="F15" s="12"/>
@@ -3177,282 +3923,350 @@
       <c r="K15" s="12">
         <v>104.65</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="N15" s="43"/>
+      <c r="M15" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="O15" s="43"/>
       <c r="P15" s="43"/>
       <c r="Q15" s="43"/>
       <c r="R15" s="43"/>
       <c r="S15" s="43"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="T15" s="43"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C16" s="30"/>
       <c r="E16" s="2"/>
       <c r="F16" s="12"/>
       <c r="G16" s="2"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="J16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="12">
+        <v>113.833</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C17" s="30"/>
       <c r="E17" s="2"/>
       <c r="F17" s="12"/>
       <c r="G17" s="2"/>
       <c r="J17" s="4"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L17" s="6"/>
+      <c r="M17" s="2"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C18" s="30"/>
       <c r="E18" s="2"/>
       <c r="F18" s="12"/>
       <c r="G18" s="2"/>
       <c r="J18" s="4"/>
       <c r="K18" s="12"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L18" s="6"/>
+      <c r="M18" s="2"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C19" s="30"/>
       <c r="E19" s="2"/>
       <c r="F19" s="12"/>
       <c r="G19" s="2"/>
       <c r="J19" s="4"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L19" s="6"/>
+      <c r="M19" s="2"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C20" s="30"/>
       <c r="E20" s="2"/>
       <c r="F20" s="12"/>
       <c r="G20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="12"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L20" s="6"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C21" s="30"/>
       <c r="E21" s="2"/>
       <c r="F21" s="12"/>
       <c r="G21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="12"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L21" s="6"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C22" s="30"/>
       <c r="E22" s="2"/>
       <c r="F22" s="12"/>
       <c r="G22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="12"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L22" s="6"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C23" s="30"/>
       <c r="E23" s="2"/>
       <c r="F23" s="12"/>
       <c r="G23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L23" s="6"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C24" s="30"/>
       <c r="E24" s="2"/>
       <c r="F24" s="12"/>
       <c r="G24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="12"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L24" s="6"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C25" s="30"/>
       <c r="E25" s="2"/>
       <c r="F25" s="12"/>
       <c r="G25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="12"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L25" s="6"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C26" s="30"/>
       <c r="E26" s="2"/>
       <c r="F26" s="12"/>
       <c r="G26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="12"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L26" s="6"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C27" s="30"/>
       <c r="E27" s="2"/>
       <c r="F27" s="12"/>
       <c r="G27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="12"/>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L27" s="6"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C28" s="30"/>
       <c r="E28" s="2"/>
       <c r="F28" s="12"/>
       <c r="G28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="12"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L28" s="6"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C29" s="30"/>
       <c r="E29" s="2"/>
       <c r="F29" s="12"/>
       <c r="G29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="12"/>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L29" s="6"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C30" s="30"/>
       <c r="E30" s="2"/>
       <c r="F30" s="12"/>
       <c r="G30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="12"/>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L30" s="6"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C31" s="30"/>
       <c r="E31" s="2"/>
       <c r="F31" s="12"/>
       <c r="G31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="12"/>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L31" s="6"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C32" s="30"/>
       <c r="E32" s="2"/>
       <c r="F32" s="12"/>
       <c r="G32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="12"/>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L32" s="6"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C33" s="30"/>
       <c r="E33" s="2"/>
       <c r="F33" s="12"/>
       <c r="G33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="12"/>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L33" s="6"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C34" s="30"/>
       <c r="E34" s="2"/>
       <c r="F34" s="12"/>
       <c r="G34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="12"/>
-      <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L34" s="6"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C35" s="30"/>
       <c r="E35" s="2"/>
       <c r="F35" s="12"/>
       <c r="G35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="12"/>
-      <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L35" s="6"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C36" s="30"/>
       <c r="E36" s="2"/>
       <c r="F36" s="12"/>
       <c r="G36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="12"/>
-      <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L36" s="6"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E37" s="2"/>
       <c r="F37" s="12"/>
       <c r="G37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="12"/>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L37" s="6"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E38" s="2"/>
       <c r="F38" s="12"/>
       <c r="G38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="12"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L38" s="6"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E39" s="2"/>
       <c r="F39" s="12"/>
       <c r="G39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="12"/>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L39" s="6"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E40" s="2"/>
       <c r="F40" s="12"/>
       <c r="G40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="12"/>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L40" s="6"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E41" s="2"/>
       <c r="F41" s="12"/>
       <c r="G41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="12"/>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L41" s="6"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E42" s="2"/>
       <c r="F42" s="12"/>
       <c r="G42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="12"/>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L42" s="6"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E43" s="2"/>
       <c r="F43" s="12"/>
       <c r="G43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="12"/>
-      <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L43" s="6"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E44" s="2"/>
       <c r="F44" s="12"/>
       <c r="G44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="12"/>
-      <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L44" s="6"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E45" s="3"/>
       <c r="F45" s="13"/>
       <c r="G45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="13"/>
-      <c r="L45" s="3"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="E11:G11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="N12:S15"/>
+    <mergeCell ref="O12:T15"/>
+    <mergeCell ref="O16:T19"/>
+    <mergeCell ref="J11:M11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4363,8 +5177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C5DD3A-A518-4C27-BB69-BA9A009C7B9C}">
   <dimension ref="B1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5044,7 +5858,7 @@
         <v>24</v>
       </c>
       <c r="P11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.35">
@@ -5068,7 +5882,7 @@
         <v>8</v>
       </c>
       <c r="P12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.35">
@@ -5460,7 +6274,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -5468,7 +6282,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -5476,7 +6290,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5484,7 +6298,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5533,7 +6347,7 @@
         <v>50</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K12" s="11">
         <v>1.5</v>
@@ -5554,7 +6368,7 @@
         <v>33</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K13" s="12">
         <v>1.5</v>
@@ -5575,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K14" s="12">
         <v>2.25</v>
@@ -5596,7 +6410,7 @@
         <v>91</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K15" s="12">
         <v>3</v>
@@ -5617,7 +6431,7 @@
         <v>91</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K16" s="12">
         <v>6</v>

--- a/Game Stuff/Spreadsheet.xlsx
+++ b/Game Stuff/Spreadsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Nicos Blueprints_Abyssal chains of shandalar\Game Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Nicos Blueprints_Riveteers District - Final\Game Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF56F2DF-5903-4F0B-A121-7806DE3D8551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2E70E9-A7EE-4AF7-9F91-96A7B04A868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="3300" windowWidth="28820" windowHeight="15380" firstSheet="6" activeTab="10" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
+    <workbookView xWindow="45972" yWindow="-4944" windowWidth="17496" windowHeight="30216" firstSheet="11" activeTab="11" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
   </bookViews>
   <sheets>
     <sheet name="Material Summary" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Ghirapur Gridworks" sheetId="10" r:id="rId9"/>
     <sheet name="Kaladesh Refinery" sheetId="11" r:id="rId10"/>
     <sheet name="The Abyssal Chains of Shandalar" sheetId="12" r:id="rId11"/>
+    <sheet name="Riveteers District" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="155">
   <si>
     <t>Item</t>
   </si>
@@ -466,6 +467,51 @@
   </si>
   <si>
     <t>63.39 Hours</t>
+  </si>
+  <si>
+    <t>Bottom Right going to Riveteers District has an extra 233.33 Copper Ingots</t>
+  </si>
+  <si>
+    <t>Riverteers District</t>
+  </si>
+  <si>
+    <t>Bottom Right</t>
+  </si>
+  <si>
+    <t>Riveteers District</t>
+  </si>
+  <si>
+    <t>Bauxite</t>
+  </si>
+  <si>
+    <t>Water Exctractors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xantcha's Crucible </t>
+  </si>
+  <si>
+    <t>Alclcad Aluminum Sheet</t>
+  </si>
+  <si>
+    <t>Aluminum Scrap</t>
+  </si>
+  <si>
+    <t>Aluminum Ingots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluminum Casing </t>
+  </si>
+  <si>
+    <t>1458.4 MW</t>
+  </si>
+  <si>
+    <t>-1458.4 MW</t>
+  </si>
+  <si>
+    <t>7300 Wh</t>
+  </si>
+  <si>
+    <t>4.80 Hours</t>
   </si>
 </sst>
 </file>
@@ -497,7 +543,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -688,17 +734,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -768,6 +803,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -785,7 +855,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -795,22 +864,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -824,7 +884,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -849,6 +909,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -861,15 +930,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1204,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DEAD1A-BE12-4BD3-A45F-18807DFF108B}">
-  <dimension ref="C3:J38"/>
+  <dimension ref="C3:J59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E55" sqref="E54:E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1222,38 +1290,38 @@
   <sheetData>
     <row r="3" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="40" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="42"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
     </row>
     <row r="5" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="17" t="s">
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="44" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1261,19 +1329,19 @@
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="35">
         <v>15</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="46" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1281,7 +1349,7 @@
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>58.332999999999998</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1290,7 +1358,7 @@
       <c r="H7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="13">
         <v>5</v>
       </c>
       <c r="J7" s="8" t="s">
@@ -1301,16 +1369,16 @@
       <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>1999.848</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="13">
         <v>1.4065000000000001</v>
       </c>
       <c r="J8" s="8" t="s">
@@ -1321,16 +1389,16 @@
       <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="12">
-        <v>1889.01666</v>
+      <c r="D9" s="11">
+        <v>1655.6866600000001</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="13">
         <v>2.25</v>
       </c>
       <c r="J9" s="8" t="s">
@@ -1341,16 +1409,16 @@
       <c r="C10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>204</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="13">
         <v>2.5</v>
       </c>
       <c r="J10" s="8" t="s">
@@ -1361,16 +1429,16 @@
       <c r="C11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>1140</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="13">
         <v>45</v>
       </c>
       <c r="J11" s="8" t="s">
@@ -1381,16 +1449,16 @@
       <c r="C12" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>669.33299999999997</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="13">
         <v>5</v>
       </c>
       <c r="J12" s="8" t="s">
@@ -1401,16 +1469,16 @@
       <c r="C13" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>635.40554999999995</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="13">
         <v>7.3125</v>
       </c>
       <c r="J13" s="8" t="s">
@@ -1421,16 +1489,16 @@
       <c r="C14" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>467.5</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="13">
         <v>3</v>
       </c>
       <c r="J14" s="8" t="s">
@@ -1441,7 +1509,7 @@
       <c r="C15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>348</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -1450,7 +1518,7 @@
       <c r="H15" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="13">
         <v>30</v>
       </c>
       <c r="J15" s="8" t="s">
@@ -1458,13 +1526,19 @@
       </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C16" s="4"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="4"/>
+      <c r="C16" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="13">
+        <v>246.666</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="H16" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="13">
         <v>0.5</v>
       </c>
       <c r="J16" s="8" t="s">
@@ -1473,12 +1547,12 @@
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C17" s="4"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="4"/>
       <c r="H17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="13">
         <v>33.125</v>
       </c>
       <c r="J17" s="8" t="s">
@@ -1487,12 +1561,12 @@
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C18" s="2"/>
-      <c r="D18" s="12"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="2"/>
       <c r="H18" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="13">
         <v>61.6875</v>
       </c>
       <c r="J18" s="8" t="s">
@@ -1501,12 +1575,12 @@
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C19" s="2"/>
-      <c r="D19" s="12"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="2"/>
       <c r="H19" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="13">
         <v>7.25</v>
       </c>
       <c r="J19" s="8" t="s">
@@ -1515,12 +1589,12 @@
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C20" s="2"/>
-      <c r="D20" s="12"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="2"/>
       <c r="H20" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="13">
         <v>30</v>
       </c>
       <c r="J20" s="8" t="s">
@@ -1529,12 +1603,12 @@
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C21" s="2"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="2"/>
       <c r="H21" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="13">
         <v>45</v>
       </c>
       <c r="J21" s="8" t="s">
@@ -1543,12 +1617,12 @@
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C22" s="2"/>
-      <c r="D22" s="12"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="2"/>
       <c r="H22" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="13">
         <v>22.5</v>
       </c>
       <c r="J22" s="8" t="s">
@@ -1557,12 +1631,12 @@
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C23" s="2"/>
-      <c r="D23" s="12"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="2"/>
       <c r="H23" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="13">
         <v>20.5</v>
       </c>
       <c r="J23" s="8" t="s">
@@ -1571,12 +1645,12 @@
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C24" s="2"/>
-      <c r="D24" s="12"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="2"/>
       <c r="H24" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="13">
         <v>15</v>
       </c>
       <c r="J24" s="8" t="s">
@@ -1585,12 +1659,12 @@
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C25" s="2"/>
-      <c r="D25" s="12"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="2"/>
       <c r="H25" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="13">
         <v>25</v>
       </c>
       <c r="J25" s="8" t="s">
@@ -1599,12 +1673,12 @@
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C26" s="2"/>
-      <c r="D26" s="12"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="2"/>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="13">
         <v>23.332999999999998</v>
       </c>
       <c r="J26" s="8" t="s">
@@ -1613,12 +1687,12 @@
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C27" s="2"/>
-      <c r="D27" s="12"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="2"/>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="13">
         <v>19.443999999999999</v>
       </c>
       <c r="J27" s="8" t="s">
@@ -1627,145 +1701,274 @@
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C28" s="2"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="2"/>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I28" s="13">
         <v>1.5</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="J28" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C29" s="2"/>
-      <c r="D29" s="12"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="2"/>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="13">
         <v>1.5</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C30" s="2"/>
-      <c r="D30" s="12"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="2"/>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="13">
         <v>2.25</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J30" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C31" s="2"/>
-      <c r="D31" s="12"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="2"/>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I31" s="13">
         <v>3</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J31" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C32" s="2"/>
-      <c r="D32" s="12"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="2"/>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="13">
         <v>6</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C33" s="2"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="11"/>
       <c r="E33" s="2"/>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="13">
         <v>25</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J33" s="8" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C34" s="2"/>
-      <c r="D34" s="12"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="2"/>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="13">
         <v>20</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="J34" s="8" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C35" s="2"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="2"/>
       <c r="H35" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="I35" s="15">
+      <c r="I35" s="13">
         <v>0.5</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C36" s="2"/>
-      <c r="D36" s="12"/>
+      <c r="D36" s="11"/>
       <c r="E36" s="2"/>
       <c r="H36" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="I36" s="15">
+      <c r="I36" s="13">
         <v>0.5</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="J36" s="8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C37" s="2"/>
-      <c r="D37" s="12"/>
+      <c r="D37" s="11"/>
       <c r="E37" s="2"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="9"/>
+      <c r="H37" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I37" s="13">
+        <v>49.332999999999998</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="38" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C38" s="3"/>
-      <c r="D38" s="13"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="3"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="10"/>
+      <c r="H38" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I38" s="13">
+        <v>12</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="H39" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="I39" s="13">
+        <v>200</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="H40" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I40" s="13">
+        <v>222</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="H41" s="6"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="H42" s="6"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="H43" s="6"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="8"/>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="H44" s="6"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="8"/>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="H45" s="6"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="H46" s="6"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="8"/>
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="H47" s="6"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="H48" s="6"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="8"/>
+    </row>
+    <row r="49" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H49" s="6"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H50" s="6"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="8"/>
+    </row>
+    <row r="51" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H51" s="6"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="8"/>
+    </row>
+    <row r="52" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H52" s="6"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="8"/>
+    </row>
+    <row r="53" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H53" s="6"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="8"/>
+    </row>
+    <row r="54" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H54" s="6"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="8"/>
+    </row>
+    <row r="55" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H55" s="6"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="8"/>
+    </row>
+    <row r="56" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H56" s="6"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="8"/>
+    </row>
+    <row r="57" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H57" s="6"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="8"/>
+    </row>
+    <row r="58" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H58" s="6"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="8"/>
+    </row>
+    <row r="59" spans="8:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H59" s="7"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1799,113 +2002,113 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="27" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="28" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="28" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="28" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="28" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="29" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="30"/>
-      <c r="E10" s="40" t="s">
+      <c r="C10" s="26"/>
+      <c r="E10" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
-      <c r="J10" s="40" t="s">
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="J10" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="42"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="41"/>
     </row>
     <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="30"/>
-      <c r="E11" s="21" t="s">
+      <c r="C11" s="26"/>
+      <c r="E11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="21" t="s">
+      <c r="L11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="46" t="s">
+      <c r="M11" s="38" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C12" s="30"/>
+      <c r="C12" s="26"/>
       <c r="E12" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>300</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -1914,28 +2117,28 @@
       <c r="J12" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="10">
         <v>25</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="26"/>
-      <c r="O12" s="43" t="s">
+      <c r="M12" s="22"/>
+      <c r="O12" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C13" s="30"/>
+      <c r="C13" s="26"/>
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>1000</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -1944,381 +2147,381 @@
       <c r="J13" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="11">
         <v>467.5</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C14" s="30"/>
+      <c r="C14" s="26"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="12"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="4"/>
       <c r="J14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="11">
         <v>348</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>25</v>
       </c>
       <c r="M14" s="2"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C15" s="30"/>
+      <c r="C15" s="26"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="12"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="2"/>
       <c r="J15" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="11">
         <v>20</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="M15" s="2"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C16" s="30"/>
+      <c r="C16" s="26"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="12"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="2"/>
       <c r="J16" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="11">
         <v>7.5</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>122</v>
       </c>
       <c r="M16" s="2"/>
-      <c r="O16" s="43" t="s">
+      <c r="O16" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C17" s="30"/>
+      <c r="C17" s="26"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="12"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="2"/>
       <c r="J17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="11">
         <v>42</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>122</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C18" s="30"/>
+      <c r="C18" s="26"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="12"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="2"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="12"/>
+      <c r="K18" s="11"/>
       <c r="L18" s="4"/>
       <c r="M18" s="2"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C19" s="30"/>
+      <c r="C19" s="26"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="12"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="12"/>
+      <c r="K19" s="11"/>
       <c r="L19" s="4"/>
       <c r="M19" s="2"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C20" s="30"/>
+      <c r="C20" s="26"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="12"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="12"/>
+      <c r="K20" s="11"/>
       <c r="L20" s="4"/>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C21" s="30"/>
+      <c r="C21" s="26"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="12"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="12"/>
+      <c r="K21" s="11"/>
       <c r="L21" s="4"/>
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C22" s="30"/>
+      <c r="C22" s="26"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="12"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="12"/>
+      <c r="K22" s="11"/>
       <c r="L22" s="4"/>
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C23" s="30"/>
+      <c r="C23" s="26"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="12"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="12"/>
+      <c r="K23" s="11"/>
       <c r="L23" s="4"/>
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C24" s="30"/>
+      <c r="C24" s="26"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="12"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="12"/>
+      <c r="K24" s="11"/>
       <c r="L24" s="4"/>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C25" s="30"/>
+      <c r="C25" s="26"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="12"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="12"/>
+      <c r="K25" s="11"/>
       <c r="L25" s="4"/>
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C26" s="30"/>
+      <c r="C26" s="26"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="12"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="12"/>
+      <c r="K26" s="11"/>
       <c r="L26" s="4"/>
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C27" s="30"/>
+      <c r="C27" s="26"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="12"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="12"/>
+      <c r="K27" s="11"/>
       <c r="L27" s="4"/>
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C28" s="30"/>
+      <c r="C28" s="26"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="12"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="12"/>
+      <c r="K28" s="11"/>
       <c r="L28" s="4"/>
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C29" s="30"/>
+      <c r="C29" s="26"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="12"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="12"/>
+      <c r="K29" s="11"/>
       <c r="L29" s="4"/>
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C30" s="30"/>
+      <c r="C30" s="26"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="12"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="12"/>
+      <c r="K30" s="11"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C31" s="30"/>
+      <c r="C31" s="26"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="12"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="12"/>
+      <c r="K31" s="11"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C32" s="30"/>
+      <c r="C32" s="26"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="12"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="12"/>
+      <c r="K32" s="11"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C33" s="30"/>
+      <c r="C33" s="26"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="12"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="12"/>
+      <c r="K33" s="11"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C34" s="30"/>
+      <c r="C34" s="26"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="12"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="12"/>
+      <c r="K34" s="11"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C35" s="30"/>
+      <c r="C35" s="26"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="12"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="12"/>
+      <c r="K35" s="11"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C36" s="30"/>
+      <c r="C36" s="26"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="12"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="12"/>
+      <c r="K36" s="11"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E37" s="2"/>
-      <c r="F37" s="12"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="12"/>
+      <c r="K37" s="11"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E38" s="2"/>
-      <c r="F38" s="12"/>
+      <c r="F38" s="11"/>
       <c r="G38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="12"/>
+      <c r="K38" s="11"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E39" s="2"/>
-      <c r="F39" s="12"/>
+      <c r="F39" s="11"/>
       <c r="G39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="12"/>
+      <c r="K39" s="11"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E40" s="2"/>
-      <c r="F40" s="12"/>
+      <c r="F40" s="11"/>
       <c r="G40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="12"/>
+      <c r="K40" s="11"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E41" s="2"/>
-      <c r="F41" s="12"/>
+      <c r="F41" s="11"/>
       <c r="G41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="12"/>
+      <c r="K41" s="11"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E42" s="2"/>
-      <c r="F42" s="12"/>
+      <c r="F42" s="11"/>
       <c r="G42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="12"/>
+      <c r="K42" s="11"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E43" s="2"/>
-      <c r="F43" s="12"/>
+      <c r="F43" s="11"/>
       <c r="G43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="12"/>
+      <c r="K43" s="11"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
     <row r="44" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E44" s="3"/>
-      <c r="F44" s="13"/>
+      <c r="F44" s="12"/>
       <c r="G44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="13"/>
+      <c r="K44" s="12"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
     </row>
@@ -2337,7 +2540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1308C4-E9DD-438E-A79A-D3E0D96AB566}">
   <dimension ref="B1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
@@ -2355,109 +2558,109 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="27" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="87" x14ac:dyDescent="0.35">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="31" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="28" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="28" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="28" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="28" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="29" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="30"/>
-      <c r="E10" s="40" t="s">
+      <c r="C10" s="26"/>
+      <c r="E10" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
-      <c r="J10" s="40" t="s">
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="J10" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="41"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="30"/>
-      <c r="E11" s="21" t="s">
+      <c r="C11" s="26"/>
+      <c r="E11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="21" t="s">
+      <c r="L11" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C12" s="30"/>
+      <c r="C12" s="26"/>
       <c r="E12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>18.75</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -2466,7 +2669,7 @@
       <c r="J12" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="10">
         <v>0.5</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -2474,11 +2677,11 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C13" s="30"/>
+      <c r="C13" s="26"/>
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>28.625</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -2487,7 +2690,7 @@
       <c r="J13" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="11">
         <v>0.5</v>
       </c>
       <c r="L13" s="4" t="s">
@@ -2495,298 +2698,782 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C14" s="30"/>
+      <c r="C14" s="26"/>
       <c r="E14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>113.833</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="12"/>
+      <c r="K14" s="11"/>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C15" s="30"/>
+      <c r="C15" s="26"/>
       <c r="E15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>234.25</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="12"/>
+      <c r="K15" s="11"/>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C16" s="30"/>
+      <c r="C16" s="26"/>
       <c r="E16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>42</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>117</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="12"/>
+      <c r="K16" s="11"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="30"/>
+      <c r="C17" s="26"/>
       <c r="E17" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>7.5</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>117</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="12"/>
+      <c r="K17" s="11"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="30"/>
+      <c r="C18" s="26"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="12"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="2"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="12"/>
+      <c r="K18" s="11"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="30"/>
+      <c r="C19" s="26"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="12"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="12"/>
+      <c r="K19" s="11"/>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C20" s="30"/>
+      <c r="C20" s="26"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="12"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="12"/>
+      <c r="K20" s="11"/>
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="30"/>
+      <c r="C21" s="26"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="12"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="12"/>
+      <c r="K21" s="11"/>
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="30"/>
+      <c r="C22" s="26"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="12"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="12"/>
+      <c r="K22" s="11"/>
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C23" s="30"/>
+      <c r="C23" s="26"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="12"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="12"/>
+      <c r="K23" s="11"/>
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C24" s="30"/>
+      <c r="C24" s="26"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="12"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="12"/>
+      <c r="K24" s="11"/>
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C25" s="30"/>
+      <c r="C25" s="26"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="12"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="12"/>
+      <c r="K25" s="11"/>
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="30"/>
+      <c r="C26" s="26"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="12"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="12"/>
+      <c r="K26" s="11"/>
       <c r="L26" s="4"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C27" s="30"/>
+      <c r="C27" s="26"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="12"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="12"/>
+      <c r="K27" s="11"/>
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C28" s="30"/>
+      <c r="C28" s="26"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="12"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="12"/>
+      <c r="K28" s="11"/>
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C29" s="30"/>
+      <c r="C29" s="26"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="12"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="12"/>
+      <c r="K29" s="11"/>
       <c r="L29" s="4"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C30" s="30"/>
+      <c r="C30" s="26"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="12"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="12"/>
+      <c r="K30" s="11"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C31" s="30"/>
+      <c r="C31" s="26"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="12"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="12"/>
+      <c r="K31" s="11"/>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C32" s="30"/>
+      <c r="C32" s="26"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="12"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="12"/>
+      <c r="K32" s="11"/>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C33" s="30"/>
+      <c r="C33" s="26"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="12"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="12"/>
+      <c r="K33" s="11"/>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C34" s="30"/>
+      <c r="C34" s="26"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="12"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="12"/>
+      <c r="K34" s="11"/>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C35" s="30"/>
+      <c r="C35" s="26"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="12"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="12"/>
+      <c r="K35" s="11"/>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C36" s="30"/>
+      <c r="C36" s="26"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="12"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="12"/>
+      <c r="K36" s="11"/>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E37" s="2"/>
-      <c r="F37" s="12"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="12"/>
+      <c r="K37" s="11"/>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E38" s="2"/>
-      <c r="F38" s="12"/>
+      <c r="F38" s="11"/>
       <c r="G38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="12"/>
+      <c r="K38" s="11"/>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E39" s="2"/>
-      <c r="F39" s="12"/>
+      <c r="F39" s="11"/>
       <c r="G39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="12"/>
+      <c r="K39" s="11"/>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E40" s="2"/>
-      <c r="F40" s="12"/>
+      <c r="F40" s="11"/>
       <c r="G40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="12"/>
+      <c r="K40" s="11"/>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E41" s="2"/>
-      <c r="F41" s="12"/>
+      <c r="F41" s="11"/>
       <c r="G41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="12"/>
+      <c r="K41" s="11"/>
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E42" s="2"/>
-      <c r="F42" s="12"/>
+      <c r="F42" s="11"/>
       <c r="G42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="12"/>
+      <c r="K42" s="11"/>
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E43" s="2"/>
-      <c r="F43" s="12"/>
+      <c r="F43" s="11"/>
       <c r="G43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="12"/>
+      <c r="K43" s="11"/>
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E44" s="3"/>
-      <c r="F44" s="13"/>
+      <c r="F44" s="12"/>
       <c r="G44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="13"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="J10:L10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED21A768-E1F1-4F70-B6C9-A662B38F9ACD}">
+  <dimension ref="B1:L44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B3" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="26"/>
+      <c r="E10" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="J10" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="40"/>
+      <c r="L10" s="41"/>
+    </row>
+    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="26"/>
+      <c r="E11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C12" s="26"/>
+      <c r="E12" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="10">
+        <v>600</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K12" s="10">
+        <v>49.332999999999998</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C13" s="26"/>
+      <c r="E13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" s="11">
+        <v>246.666</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C14" s="26"/>
+      <c r="E14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="11">
+        <v>400</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" s="11">
+        <v>12</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C15" s="26"/>
+      <c r="E15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="11">
+        <v>200</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K15" s="11">
+        <v>200</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C16" s="26"/>
+      <c r="E16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="11">
+        <v>240</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" s="11">
+        <v>222</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C17" s="26"/>
+      <c r="E17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="11">
+        <v>246.67</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C18" s="26"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="2"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C19" s="26"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C20" s="26"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C21" s="26"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C22" s="26"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C23" s="26"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C24" s="26"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C25" s="26"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C26" s="26"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C27" s="26"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C28" s="26"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C29" s="26"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C30" s="26"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C31" s="26"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C32" s="26"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C33" s="26"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C34" s="26"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C35" s="26"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C36" s="26"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E37" s="2"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E38" s="2"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E39" s="2"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E40" s="2"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E41" s="2"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E42" s="2"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E43" s="2"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E44" s="3"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="12"/>
       <c r="L44" s="3"/>
     </row>
   </sheetData>
@@ -2820,51 +3507,51 @@
   <sheetData>
     <row r="3" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="K4" s="40" t="s">
+      <c r="G4" s="40"/>
+      <c r="H4" s="41"/>
+      <c r="K4" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="42"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41"/>
     </row>
     <row r="5" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2873,7 +3560,7 @@
       <c r="F6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>480</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -2882,7 +3569,7 @@
       <c r="K6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <v>15</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -2890,7 +3577,7 @@
       </c>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2899,7 +3586,7 @@
       <c r="F7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>480</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -2908,7 +3595,7 @@
       <c r="K7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <v>5</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -2916,7 +3603,7 @@
       </c>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="20" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2925,7 +3612,7 @@
       <c r="F8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>780</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -2934,7 +3621,7 @@
       <c r="K8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="11">
         <v>58.332999999999998</v>
       </c>
       <c r="M8" s="2" t="s">
@@ -2942,7 +3629,7 @@
       </c>
     </row>
     <row r="9" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="21" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -2951,7 +3638,7 @@
       <c r="F9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>300</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -2960,7 +3647,7 @@
       <c r="K9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="11">
         <v>10</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -2969,234 +3656,234 @@
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.35">
       <c r="F10" s="2"/>
-      <c r="G10" s="12"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="12"/>
+      <c r="L10" s="11"/>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.35">
       <c r="F11" s="2"/>
-      <c r="G11" s="12"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="12"/>
+      <c r="L11" s="11"/>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.35">
       <c r="F12" s="2"/>
-      <c r="G12" s="12"/>
+      <c r="G12" s="11"/>
       <c r="H12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="12"/>
+      <c r="L12" s="11"/>
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="3:13" x14ac:dyDescent="0.35">
       <c r="F13" s="2"/>
-      <c r="G13" s="12"/>
+      <c r="G13" s="11"/>
       <c r="H13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="12"/>
+      <c r="L13" s="11"/>
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.35">
       <c r="F14" s="2"/>
-      <c r="G14" s="12"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="12"/>
+      <c r="L14" s="11"/>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.35">
       <c r="F15" s="2"/>
-      <c r="G15" s="12"/>
+      <c r="G15" s="11"/>
       <c r="H15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="12"/>
+      <c r="L15" s="11"/>
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.35">
       <c r="F16" s="2"/>
-      <c r="G16" s="12"/>
+      <c r="G16" s="11"/>
       <c r="H16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="12"/>
+      <c r="L16" s="11"/>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F17" s="2"/>
-      <c r="G17" s="12"/>
+      <c r="G17" s="11"/>
       <c r="H17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="12"/>
+      <c r="L17" s="11"/>
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F18" s="2"/>
-      <c r="G18" s="12"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="12"/>
+      <c r="L18" s="11"/>
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F19" s="2"/>
-      <c r="G19" s="12"/>
+      <c r="G19" s="11"/>
       <c r="H19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="12"/>
+      <c r="L19" s="11"/>
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F20" s="2"/>
-      <c r="G20" s="12"/>
+      <c r="G20" s="11"/>
       <c r="H20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="12"/>
+      <c r="L20" s="11"/>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F21" s="2"/>
-      <c r="G21" s="12"/>
+      <c r="G21" s="11"/>
       <c r="H21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="12"/>
+      <c r="L21" s="11"/>
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F22" s="2"/>
-      <c r="G22" s="12"/>
+      <c r="G22" s="11"/>
       <c r="H22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="12"/>
+      <c r="L22" s="11"/>
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F23" s="2"/>
-      <c r="G23" s="12"/>
+      <c r="G23" s="11"/>
       <c r="H23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="12"/>
+      <c r="L23" s="11"/>
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F24" s="2"/>
-      <c r="G24" s="12"/>
+      <c r="G24" s="11"/>
       <c r="H24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="12"/>
+      <c r="L24" s="11"/>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F25" s="2"/>
-      <c r="G25" s="12"/>
+      <c r="G25" s="11"/>
       <c r="H25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="12"/>
+      <c r="L25" s="11"/>
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F26" s="2"/>
-      <c r="G26" s="12"/>
+      <c r="G26" s="11"/>
       <c r="H26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="12"/>
+      <c r="L26" s="11"/>
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F27" s="2"/>
-      <c r="G27" s="12"/>
+      <c r="G27" s="11"/>
       <c r="H27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="12"/>
+      <c r="L27" s="11"/>
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F28" s="2"/>
-      <c r="G28" s="12"/>
+      <c r="G28" s="11"/>
       <c r="H28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="12"/>
+      <c r="L28" s="11"/>
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F29" s="2"/>
-      <c r="G29" s="12"/>
+      <c r="G29" s="11"/>
       <c r="H29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="12"/>
+      <c r="L29" s="11"/>
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F30" s="2"/>
-      <c r="G30" s="12"/>
+      <c r="G30" s="11"/>
       <c r="H30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="12"/>
+      <c r="L30" s="11"/>
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F31" s="2"/>
-      <c r="G31" s="12"/>
+      <c r="G31" s="11"/>
       <c r="H31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="12"/>
+      <c r="L31" s="11"/>
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F32" s="2"/>
-      <c r="G32" s="12"/>
+      <c r="G32" s="11"/>
       <c r="H32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="12"/>
+      <c r="L32" s="11"/>
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F33" s="2"/>
-      <c r="G33" s="12"/>
+      <c r="G33" s="11"/>
       <c r="H33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="12"/>
+      <c r="L33" s="11"/>
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F34" s="2"/>
-      <c r="G34" s="12"/>
+      <c r="G34" s="11"/>
       <c r="H34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="12"/>
+      <c r="L34" s="11"/>
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F35" s="2"/>
-      <c r="G35" s="12"/>
+      <c r="G35" s="11"/>
       <c r="H35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="12"/>
+      <c r="L35" s="11"/>
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F36" s="2"/>
-      <c r="G36" s="12"/>
+      <c r="G36" s="11"/>
       <c r="H36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="12"/>
+      <c r="L36" s="11"/>
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F37" s="2"/>
-      <c r="G37" s="12"/>
+      <c r="G37" s="11"/>
       <c r="H37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="12"/>
+      <c r="L37" s="11"/>
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="6:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F38" s="3"/>
-      <c r="G38" s="13"/>
+      <c r="G38" s="12"/>
       <c r="H38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="13"/>
+      <c r="L38" s="12"/>
       <c r="M38" s="3"/>
     </row>
   </sheetData>
@@ -3219,7 +3906,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6328125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="22.6328125" style="26" customWidth="1"/>
     <col min="6" max="6" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
@@ -3232,118 +3919,118 @@
   <sheetData>
     <row r="3" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="27" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="3:20" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="33" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="28" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="28" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="28" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="28" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="29" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="42"/>
-      <c r="K13" s="40" t="s">
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
+      <c r="K13" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="42"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="41"/>
     </row>
     <row r="14" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="K14" s="21" t="s">
+      <c r="K14" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="M14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="46" t="s">
+      <c r="N14" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="P14" s="43" t="s">
+      <c r="P14" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
     </row>
     <row r="15" spans="3:20" x14ac:dyDescent="0.35">
       <c r="F15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="10">
         <v>1800</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -3352,24 +4039,24 @@
       <c r="K15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="10">
         <v>1999.848</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N15" s="26"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
+      <c r="N15" s="22"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
     </row>
     <row r="16" spans="3:20" x14ac:dyDescent="0.35">
       <c r="F16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="11">
         <v>514.27200000000005</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -3378,7 +4065,7 @@
       <c r="K16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="11">
         <v>960</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -3387,20 +4074,20 @@
       <c r="N16" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
     </row>
     <row r="17" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F17" s="2"/>
-      <c r="G17" s="12"/>
+      <c r="G17" s="11"/>
       <c r="H17" s="2"/>
       <c r="K17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="11">
         <v>111.25</v>
       </c>
       <c r="M17" s="2" t="s">
@@ -3409,20 +4096,20 @@
       <c r="N17" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
     </row>
     <row r="18" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F18" s="2"/>
-      <c r="G18" s="12"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="2"/>
       <c r="K18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="11">
         <v>37.5</v>
       </c>
       <c r="M18" s="2" t="s">
@@ -3434,12 +4121,12 @@
     </row>
     <row r="19" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F19" s="2"/>
-      <c r="G19" s="12"/>
+      <c r="G19" s="11"/>
       <c r="H19" s="2"/>
       <c r="K19" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="11">
         <v>234.25</v>
       </c>
       <c r="M19" s="2" t="s">
@@ -3451,10 +4138,10 @@
     </row>
     <row r="20" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F20" s="2"/>
-      <c r="G20" s="12"/>
+      <c r="G20" s="11"/>
       <c r="H20" s="2"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="12"/>
+      <c r="L20" s="11"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="P20">
@@ -3464,244 +4151,244 @@
     </row>
     <row r="21" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F21" s="2"/>
-      <c r="G21" s="12"/>
+      <c r="G21" s="11"/>
       <c r="H21" s="2"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="12"/>
+      <c r="L21" s="11"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F22" s="2"/>
-      <c r="G22" s="12"/>
+      <c r="G22" s="11"/>
       <c r="H22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="12"/>
+      <c r="L22" s="11"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F23" s="2"/>
-      <c r="G23" s="12"/>
+      <c r="G23" s="11"/>
       <c r="H23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="12"/>
+      <c r="L23" s="11"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F24" s="2"/>
-      <c r="G24" s="12"/>
+      <c r="G24" s="11"/>
       <c r="H24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="12"/>
+      <c r="L24" s="11"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F25" s="2"/>
-      <c r="G25" s="12"/>
+      <c r="G25" s="11"/>
       <c r="H25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="12"/>
+      <c r="L25" s="11"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F26" s="2"/>
-      <c r="G26" s="12"/>
+      <c r="G26" s="11"/>
       <c r="H26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="12"/>
+      <c r="L26" s="11"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
     <row r="27" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F27" s="2"/>
-      <c r="G27" s="12"/>
+      <c r="G27" s="11"/>
       <c r="H27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="12"/>
+      <c r="L27" s="11"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
     <row r="28" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F28" s="2"/>
-      <c r="G28" s="12"/>
+      <c r="G28" s="11"/>
       <c r="H28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="12"/>
+      <c r="L28" s="11"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
     <row r="29" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F29" s="2"/>
-      <c r="G29" s="12"/>
+      <c r="G29" s="11"/>
       <c r="H29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="12"/>
+      <c r="L29" s="11"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
     <row r="30" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F30" s="2"/>
-      <c r="G30" s="12"/>
+      <c r="G30" s="11"/>
       <c r="H30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="12"/>
+      <c r="L30" s="11"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
     <row r="31" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F31" s="2"/>
-      <c r="G31" s="12"/>
+      <c r="G31" s="11"/>
       <c r="H31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="12"/>
+      <c r="L31" s="11"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
     <row r="32" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F32" s="2"/>
-      <c r="G32" s="12"/>
+      <c r="G32" s="11"/>
       <c r="H32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="12"/>
+      <c r="L32" s="11"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
     <row r="33" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F33" s="2"/>
-      <c r="G33" s="12"/>
+      <c r="G33" s="11"/>
       <c r="H33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="12"/>
+      <c r="L33" s="11"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
     <row r="34" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F34" s="2"/>
-      <c r="G34" s="12"/>
+      <c r="G34" s="11"/>
       <c r="H34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="12"/>
+      <c r="L34" s="11"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
     <row r="35" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F35" s="2"/>
-      <c r="G35" s="12"/>
+      <c r="G35" s="11"/>
       <c r="H35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="12"/>
+      <c r="L35" s="11"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
     <row r="36" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F36" s="2"/>
-      <c r="G36" s="12"/>
+      <c r="G36" s="11"/>
       <c r="H36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="12"/>
+      <c r="L36" s="11"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
     <row r="37" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F37" s="2"/>
-      <c r="G37" s="12"/>
+      <c r="G37" s="11"/>
       <c r="H37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="12"/>
+      <c r="L37" s="11"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
     <row r="38" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F38" s="2"/>
-      <c r="G38" s="12"/>
+      <c r="G38" s="11"/>
       <c r="H38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="12"/>
+      <c r="L38" s="11"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
     <row r="39" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F39" s="2"/>
-      <c r="G39" s="12"/>
+      <c r="G39" s="11"/>
       <c r="H39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="12"/>
+      <c r="L39" s="11"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
     <row r="40" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F40" s="2"/>
-      <c r="G40" s="12"/>
+      <c r="G40" s="11"/>
       <c r="H40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="12"/>
+      <c r="L40" s="11"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
     <row r="41" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F41" s="2"/>
-      <c r="G41" s="12"/>
+      <c r="G41" s="11"/>
       <c r="H41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="12"/>
+      <c r="L41" s="11"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
     <row r="42" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F42" s="2"/>
-      <c r="G42" s="12"/>
+      <c r="G42" s="11"/>
       <c r="H42" s="2"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="12"/>
+      <c r="L42" s="11"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
     <row r="43" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F43" s="2"/>
-      <c r="G43" s="12"/>
+      <c r="G43" s="11"/>
       <c r="H43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="12"/>
+      <c r="L43" s="11"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
     <row r="44" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F44" s="2"/>
-      <c r="G44" s="12"/>
+      <c r="G44" s="11"/>
       <c r="H44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="12"/>
+      <c r="L44" s="11"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
     </row>
     <row r="45" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F45" s="2"/>
-      <c r="G45" s="12"/>
+      <c r="G45" s="11"/>
       <c r="H45" s="2"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="12"/>
+      <c r="L45" s="11"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
     </row>
     <row r="46" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F46" s="2"/>
-      <c r="G46" s="12"/>
+      <c r="G46" s="11"/>
       <c r="H46" s="2"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="12"/>
+      <c r="L46" s="11"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
     </row>
     <row r="47" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F47" s="3"/>
-      <c r="G47" s="13"/>
+      <c r="G47" s="12"/>
       <c r="H47" s="3"/>
       <c r="K47" s="3"/>
-      <c r="L47" s="13"/>
+      <c r="L47" s="12"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
     </row>
@@ -3723,7 +4410,7 @@
   <dimension ref="B1:T45"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12:T15"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3734,7 +4421,7 @@
     <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.453125" customWidth="1"/>
     <col min="12" max="12" width="27.6328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.6328125" customWidth="1"/>
     <col min="15" max="15" width="18.08984375" customWidth="1"/>
@@ -3742,124 +4429,124 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="27" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="34" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="28" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="28" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="28" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="29" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="30"/>
+      <c r="C10" s="26"/>
     </row>
     <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="30"/>
-      <c r="E11" s="40" t="s">
+      <c r="C11" s="26"/>
+      <c r="E11" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
-      <c r="J11" s="40" t="s">
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="J11" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="41"/>
     </row>
     <row r="12" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="30"/>
-      <c r="E12" s="21" t="s">
+      <c r="C12" s="26"/>
+      <c r="E12" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="44" t="s">
+      <c r="J12" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="K12" s="45" t="s">
+      <c r="K12" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="L12" s="44" t="s">
+      <c r="L12" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="46" t="s">
+      <c r="M12" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="O12" s="43" t="s">
+      <c r="O12" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C13" s="30"/>
+      <c r="C13" s="26"/>
       <c r="E13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>900</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -3868,26 +4555,26 @@
       <c r="J13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="11">
-        <v>1889.01666</v>
+      <c r="K13" s="10">
+        <v>1655.6866600000001</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="26"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
+      <c r="M13" s="22"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C14" s="30"/>
+      <c r="C14" s="26"/>
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>600</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -3896,7 +4583,7 @@
       <c r="J14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="11">
         <v>142.5</v>
       </c>
       <c r="L14" s="6" t="s">
@@ -3905,22 +4592,22 @@
       <c r="M14" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C15" s="30"/>
+      <c r="C15" s="26"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="12"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="2"/>
       <c r="J15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="11">
         <v>104.65</v>
       </c>
       <c r="L15" s="6" t="s">
@@ -3929,22 +4616,22 @@
       <c r="M15" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C16" s="30"/>
+      <c r="C16" s="26"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="12"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="2"/>
       <c r="J16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="11">
         <v>113.833</v>
       </c>
       <c r="L16" s="6" t="s">
@@ -3953,320 +4640,355 @@
       <c r="M16" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="O16" s="43" t="s">
+      <c r="O16" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C17" s="30"/>
+      <c r="C17" s="26"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="12"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="2"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="2"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
+      <c r="J17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="11">
+        <v>246.67</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C18" s="30"/>
+      <c r="C18" s="26"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="12"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="2"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="12"/>
+      <c r="K18" s="11"/>
       <c r="L18" s="6"/>
       <c r="M18" s="2"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C19" s="30"/>
+      <c r="C19" s="26"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="12"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="2"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="12"/>
+      <c r="K19" s="11"/>
       <c r="L19" s="6"/>
       <c r="M19" s="2"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C20" s="30"/>
+      <c r="C20" s="26"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="12"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="12"/>
+      <c r="K20" s="11"/>
       <c r="L20" s="6"/>
       <c r="M20" s="2"/>
+      <c r="O20" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C21" s="30"/>
+      <c r="C21" s="26"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="12"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="12"/>
+      <c r="K21" s="11"/>
       <c r="L21" s="6"/>
       <c r="M21" s="2"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C22" s="30"/>
+      <c r="C22" s="26"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="12"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="12"/>
+      <c r="K22" s="11"/>
       <c r="L22" s="6"/>
       <c r="M22" s="2"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C23" s="30"/>
+      <c r="C23" s="26"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="12"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="12"/>
+      <c r="K23" s="11"/>
       <c r="L23" s="6"/>
       <c r="M23" s="2"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C24" s="30"/>
+      <c r="C24" s="26"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="12"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="12"/>
+      <c r="K24" s="11"/>
       <c r="L24" s="6"/>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C25" s="30"/>
+      <c r="C25" s="26"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="12"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="12"/>
+      <c r="K25" s="11"/>
       <c r="L25" s="6"/>
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C26" s="30"/>
+      <c r="C26" s="26"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="12"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="12"/>
+      <c r="K26" s="11"/>
       <c r="L26" s="6"/>
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C27" s="30"/>
+      <c r="C27" s="26"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="12"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="12"/>
+      <c r="K27" s="11"/>
       <c r="L27" s="6"/>
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C28" s="30"/>
+      <c r="C28" s="26"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="12"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="12"/>
+      <c r="K28" s="11"/>
       <c r="L28" s="6"/>
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C29" s="30"/>
+      <c r="C29" s="26"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="12"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="12"/>
+      <c r="K29" s="11"/>
       <c r="L29" s="6"/>
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C30" s="30"/>
+      <c r="C30" s="26"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="12"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="12"/>
+      <c r="K30" s="11"/>
       <c r="L30" s="6"/>
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C31" s="30"/>
+      <c r="C31" s="26"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="12"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="12"/>
+      <c r="K31" s="11"/>
       <c r="L31" s="6"/>
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C32" s="30"/>
+      <c r="C32" s="26"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="12"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="12"/>
+      <c r="K32" s="11"/>
       <c r="L32" s="6"/>
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C33" s="30"/>
+      <c r="C33" s="26"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="12"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="12"/>
+      <c r="K33" s="11"/>
       <c r="L33" s="6"/>
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C34" s="30"/>
+      <c r="C34" s="26"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="12"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="12"/>
+      <c r="K34" s="11"/>
       <c r="L34" s="6"/>
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C35" s="30"/>
+      <c r="C35" s="26"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="12"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="12"/>
+      <c r="K35" s="11"/>
       <c r="L35" s="6"/>
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C36" s="30"/>
+      <c r="C36" s="26"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="12"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="12"/>
+      <c r="K36" s="11"/>
       <c r="L36" s="6"/>
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E37" s="2"/>
-      <c r="F37" s="12"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="12"/>
+      <c r="K37" s="11"/>
       <c r="L37" s="6"/>
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E38" s="2"/>
-      <c r="F38" s="12"/>
+      <c r="F38" s="11"/>
       <c r="G38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="12"/>
+      <c r="K38" s="11"/>
       <c r="L38" s="6"/>
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E39" s="2"/>
-      <c r="F39" s="12"/>
+      <c r="F39" s="11"/>
       <c r="G39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="12"/>
+      <c r="K39" s="11"/>
       <c r="L39" s="6"/>
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E40" s="2"/>
-      <c r="F40" s="12"/>
+      <c r="F40" s="11"/>
       <c r="G40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="12"/>
+      <c r="K40" s="11"/>
       <c r="L40" s="6"/>
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E41" s="2"/>
-      <c r="F41" s="12"/>
+      <c r="F41" s="11"/>
       <c r="G41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="12"/>
+      <c r="K41" s="11"/>
       <c r="L41" s="6"/>
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E42" s="2"/>
-      <c r="F42" s="12"/>
+      <c r="F42" s="11"/>
       <c r="G42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="12"/>
+      <c r="K42" s="11"/>
       <c r="L42" s="6"/>
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E43" s="2"/>
-      <c r="F43" s="12"/>
+      <c r="F43" s="11"/>
       <c r="G43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="12"/>
+      <c r="K43" s="11"/>
       <c r="L43" s="6"/>
       <c r="M43" s="2"/>
     </row>
     <row r="44" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E44" s="2"/>
-      <c r="F44" s="12"/>
+      <c r="F44" s="11"/>
       <c r="G44" s="2"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="12"/>
+      <c r="K44" s="11"/>
       <c r="L44" s="6"/>
       <c r="M44" s="2"/>
     </row>
     <row r="45" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E45" s="3"/>
-      <c r="F45" s="13"/>
+      <c r="F45" s="12"/>
       <c r="G45" s="3"/>
       <c r="J45" s="3"/>
-      <c r="K45" s="13"/>
+      <c r="K45" s="12"/>
       <c r="L45" s="7"/>
       <c r="M45" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="O12:T15"/>
     <mergeCell ref="O16:T19"/>
     <mergeCell ref="J11:M11"/>
+    <mergeCell ref="O20:T23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4294,112 +5016,112 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="34" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="28" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="28" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="28" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="28" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="29" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="30"/>
+      <c r="C10" s="26"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="30"/>
-      <c r="E11" s="40" t="s">
+      <c r="C11" s="26"/>
+      <c r="E11" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
-      <c r="J11" s="40" t="s">
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="J11" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="41"/>
-      <c r="L11" s="42"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="41"/>
     </row>
     <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="30"/>
-      <c r="E12" s="21" t="s">
+      <c r="C12" s="26"/>
+      <c r="E12" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L12" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C13" s="30"/>
+      <c r="C13" s="26"/>
       <c r="E13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>480</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -4408,7 +5130,7 @@
       <c r="J13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="10">
         <v>204</v>
       </c>
       <c r="L13" s="4" t="s">
@@ -4416,11 +5138,11 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C14" s="30"/>
+      <c r="C14" s="26"/>
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>480</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -4429,7 +5151,7 @@
       <c r="J14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="11">
         <v>18</v>
       </c>
       <c r="L14" s="2" t="s">
@@ -4437,14 +5159,14 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C15" s="30"/>
+      <c r="C15" s="26"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="12"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="2"/>
       <c r="J15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="11">
         <v>18</v>
       </c>
       <c r="L15" s="2" t="s">
@@ -4452,264 +5174,264 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C16" s="30"/>
+      <c r="C16" s="26"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="12"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="2"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="12"/>
+      <c r="K16" s="11"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="30"/>
+      <c r="C17" s="26"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="12"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="2"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="12"/>
+      <c r="K17" s="11"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="30"/>
+      <c r="C18" s="26"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="12"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="2"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="12"/>
+      <c r="K18" s="11"/>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="30"/>
+      <c r="C19" s="26"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="12"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="2"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="12"/>
+      <c r="K19" s="11"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C20" s="30"/>
+      <c r="C20" s="26"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="12"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="12"/>
+      <c r="K20" s="11"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="30"/>
+      <c r="C21" s="26"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="12"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="12"/>
+      <c r="K21" s="11"/>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="30"/>
+      <c r="C22" s="26"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="12"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="12"/>
+      <c r="K22" s="11"/>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C23" s="30"/>
+      <c r="C23" s="26"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="12"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="12"/>
+      <c r="K23" s="11"/>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C24" s="30"/>
+      <c r="C24" s="26"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="12"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="12"/>
+      <c r="K24" s="11"/>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C25" s="30"/>
+      <c r="C25" s="26"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="12"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="12"/>
+      <c r="K25" s="11"/>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="30"/>
+      <c r="C26" s="26"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="12"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="12"/>
+      <c r="K26" s="11"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C27" s="30"/>
+      <c r="C27" s="26"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="12"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="12"/>
+      <c r="K27" s="11"/>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C28" s="30"/>
+      <c r="C28" s="26"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="12"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="12"/>
+      <c r="K28" s="11"/>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C29" s="30"/>
+      <c r="C29" s="26"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="12"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="12"/>
+      <c r="K29" s="11"/>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C30" s="30"/>
+      <c r="C30" s="26"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="12"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="12"/>
+      <c r="K30" s="11"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C31" s="30"/>
+      <c r="C31" s="26"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="12"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="12"/>
+      <c r="K31" s="11"/>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C32" s="30"/>
+      <c r="C32" s="26"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="12"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="12"/>
+      <c r="K32" s="11"/>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C33" s="30"/>
+      <c r="C33" s="26"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="12"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="12"/>
+      <c r="K33" s="11"/>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C34" s="30"/>
+      <c r="C34" s="26"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="12"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="12"/>
+      <c r="K34" s="11"/>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C35" s="30"/>
+      <c r="C35" s="26"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="12"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="12"/>
+      <c r="K35" s="11"/>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C36" s="30"/>
+      <c r="C36" s="26"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="12"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="12"/>
+      <c r="K36" s="11"/>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E37" s="2"/>
-      <c r="F37" s="12"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="12"/>
+      <c r="K37" s="11"/>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E38" s="2"/>
-      <c r="F38" s="12"/>
+      <c r="F38" s="11"/>
       <c r="G38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="12"/>
+      <c r="K38" s="11"/>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E39" s="2"/>
-      <c r="F39" s="12"/>
+      <c r="F39" s="11"/>
       <c r="G39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="12"/>
+      <c r="K39" s="11"/>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E40" s="2"/>
-      <c r="F40" s="12"/>
+      <c r="F40" s="11"/>
       <c r="G40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="12"/>
+      <c r="K40" s="11"/>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E41" s="2"/>
-      <c r="F41" s="12"/>
+      <c r="F41" s="11"/>
       <c r="G41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="12"/>
+      <c r="K41" s="11"/>
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E42" s="2"/>
-      <c r="F42" s="12"/>
+      <c r="F42" s="11"/>
       <c r="G42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="12"/>
+      <c r="K42" s="11"/>
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E43" s="2"/>
-      <c r="F43" s="12"/>
+      <c r="F43" s="11"/>
       <c r="G43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="12"/>
+      <c r="K43" s="11"/>
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E44" s="2"/>
-      <c r="F44" s="12"/>
+      <c r="F44" s="11"/>
       <c r="G44" s="2"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="12"/>
+      <c r="K44" s="11"/>
       <c r="L44" s="2"/>
     </row>
     <row r="45" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E45" s="3"/>
-      <c r="F45" s="13"/>
+      <c r="F45" s="12"/>
       <c r="G45" s="3"/>
       <c r="J45" s="3"/>
-      <c r="K45" s="13"/>
+      <c r="K45" s="12"/>
       <c r="L45" s="3"/>
     </row>
   </sheetData>
@@ -4743,68 +5465,68 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
-      <c r="J2" s="40" t="s">
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
+      <c r="J2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="41"/>
     </row>
     <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="43" t="s">
+      <c r="N3" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="28" t="s">
         <v>84</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>960</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -4813,30 +5535,30 @@
       <c r="J4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>1140</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="28" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>960</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -4845,322 +5567,322 @@
       <c r="J5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="11">
         <v>300</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="28" t="s">
         <v>59</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="12"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="2"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="12"/>
+      <c r="K6" s="11"/>
       <c r="L6" s="2"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="28" t="s">
         <v>60</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="12"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="2"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="12"/>
+      <c r="K7" s="11"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="28" t="s">
         <v>61</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="12"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="2"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="12"/>
+      <c r="K8" s="11"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="29" t="s">
         <v>62</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="12"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="2"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="12"/>
+      <c r="K9" s="11"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C10" s="30"/>
+      <c r="C10" s="26"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="12"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="2"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="12"/>
+      <c r="K10" s="11"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C11" s="30"/>
+      <c r="C11" s="26"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="12"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="12"/>
+      <c r="K11" s="11"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C12" s="30"/>
+      <c r="C12" s="26"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="12"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="12"/>
+      <c r="K12" s="11"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C13" s="30"/>
+      <c r="C13" s="26"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="12"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="12"/>
+      <c r="K13" s="11"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C14" s="30"/>
+      <c r="C14" s="26"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="12"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="12"/>
+      <c r="K14" s="11"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C15" s="30"/>
+      <c r="C15" s="26"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="12"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="12"/>
+      <c r="K15" s="11"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C16" s="30"/>
+      <c r="C16" s="26"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="12"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="12"/>
+      <c r="K16" s="11"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="30"/>
+      <c r="C17" s="26"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="12"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="12"/>
+      <c r="K17" s="11"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="30"/>
+      <c r="C18" s="26"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="12"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="12"/>
+      <c r="K18" s="11"/>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="30"/>
+      <c r="C19" s="26"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="12"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="12"/>
+      <c r="K19" s="11"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C20" s="30"/>
+      <c r="C20" s="26"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="12"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="12"/>
+      <c r="K20" s="11"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="30"/>
+      <c r="C21" s="26"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="12"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="12"/>
+      <c r="K21" s="11"/>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="30"/>
+      <c r="C22" s="26"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="12"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="12"/>
+      <c r="K22" s="11"/>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C23" s="30"/>
+      <c r="C23" s="26"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="12"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="12"/>
+      <c r="K23" s="11"/>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C24" s="30"/>
+      <c r="C24" s="26"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="12"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="12"/>
+      <c r="K24" s="11"/>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C25" s="30"/>
+      <c r="C25" s="26"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="12"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="12"/>
+      <c r="K25" s="11"/>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="30"/>
+      <c r="C26" s="26"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="12"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="12"/>
+      <c r="K26" s="11"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C27" s="30"/>
+      <c r="C27" s="26"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="12"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="12"/>
+      <c r="K27" s="11"/>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C28" s="30"/>
+      <c r="C28" s="26"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="12"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="12"/>
+      <c r="K28" s="11"/>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C29" s="30"/>
+      <c r="C29" s="26"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="12"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="12"/>
+      <c r="K29" s="11"/>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C30" s="30"/>
+      <c r="C30" s="26"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="12"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="12"/>
+      <c r="K30" s="11"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C31" s="30"/>
+      <c r="C31" s="26"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="12"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="12"/>
+      <c r="K31" s="11"/>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C32" s="30"/>
+      <c r="C32" s="26"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="12"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="12"/>
+      <c r="K32" s="11"/>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C33" s="30"/>
+      <c r="C33" s="26"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="12"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="12"/>
+      <c r="K33" s="11"/>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C34" s="30"/>
+      <c r="C34" s="26"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="12"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="12"/>
+      <c r="K34" s="11"/>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C35" s="30"/>
+      <c r="C35" s="26"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="12"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="12"/>
+      <c r="K35" s="11"/>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C36" s="30"/>
+      <c r="C36" s="26"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="13"/>
+      <c r="F36" s="12"/>
       <c r="G36" s="3"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="13"/>
+      <c r="K36" s="12"/>
       <c r="L36" s="3"/>
     </row>
   </sheetData>
@@ -5178,7 +5900,7 @@
   <dimension ref="B1:L44"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L44"/>
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5195,109 +5917,109 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="27" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="31" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="28" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="28" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="29" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="30"/>
-      <c r="E10" s="40" t="s">
+      <c r="C10" s="26"/>
+      <c r="E10" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
-      <c r="J10" s="40" t="s">
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="J10" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="41"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="30"/>
-      <c r="E11" s="21" t="s">
+      <c r="C11" s="26"/>
+      <c r="E11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="21" t="s">
+      <c r="L11" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C12" s="30"/>
+      <c r="C12" s="26"/>
       <c r="E12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>480</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -5306,7 +6028,7 @@
       <c r="J12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="10">
         <v>61.6875</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -5314,11 +6036,11 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C13" s="30"/>
+      <c r="C13" s="26"/>
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>422.5</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -5327,7 +6049,7 @@
       <c r="J13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="11">
         <v>45</v>
       </c>
       <c r="L13" s="4" t="s">
@@ -5335,11 +6057,11 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C14" s="30"/>
+      <c r="C14" s="26"/>
       <c r="E14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>300</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -5348,7 +6070,7 @@
       <c r="J14" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="11">
         <v>45</v>
       </c>
       <c r="L14" s="4" t="s">
@@ -5356,11 +6078,11 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C15" s="30"/>
+      <c r="C15" s="26"/>
       <c r="E15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>142.5</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -5369,7 +6091,7 @@
       <c r="J15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="11">
         <v>33.125</v>
       </c>
       <c r="L15" s="4" t="s">
@@ -5377,11 +6099,11 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C16" s="30"/>
+      <c r="C16" s="26"/>
       <c r="E16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>111.25</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -5390,7 +6112,7 @@
       <c r="J16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="11">
         <v>30</v>
       </c>
       <c r="L16" s="4" t="s">
@@ -5398,11 +6120,11 @@
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="30"/>
+      <c r="C17" s="26"/>
       <c r="E17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -5411,7 +6133,7 @@
       <c r="J17" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="11">
         <v>30</v>
       </c>
       <c r="L17" s="4" t="s">
@@ -5419,14 +6141,14 @@
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="30"/>
+      <c r="C18" s="26"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="12"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="2"/>
       <c r="J18" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="11">
         <v>25</v>
       </c>
       <c r="L18" s="4" t="s">
@@ -5434,14 +6156,14 @@
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="30"/>
+      <c r="C19" s="26"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="12"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="2"/>
       <c r="J19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="11">
         <v>22.5</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -5449,14 +6171,14 @@
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C20" s="30"/>
+      <c r="C20" s="26"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="12"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="2"/>
       <c r="J20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="11">
         <v>20.5</v>
       </c>
       <c r="L20" s="4" t="s">
@@ -5464,14 +6186,14 @@
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="30"/>
+      <c r="C21" s="26"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="12"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="2"/>
       <c r="J21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="11">
         <v>15</v>
       </c>
       <c r="L21" s="4" t="s">
@@ -5479,14 +6201,14 @@
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="30"/>
+      <c r="C22" s="26"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="12"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="2"/>
       <c r="J22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="11">
         <v>7.3125</v>
       </c>
       <c r="L22" s="4" t="s">
@@ -5494,14 +6216,14 @@
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C23" s="30"/>
+      <c r="C23" s="26"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="12"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="2"/>
       <c r="J23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="11">
         <v>7.25</v>
       </c>
       <c r="L23" s="4" t="s">
@@ -5509,14 +6231,14 @@
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C24" s="30"/>
+      <c r="C24" s="26"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="12"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="2"/>
       <c r="J24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="11">
         <v>5</v>
       </c>
       <c r="L24" s="4" t="s">
@@ -5524,14 +6246,14 @@
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C25" s="30"/>
+      <c r="C25" s="26"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="12"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="2"/>
       <c r="J25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="11">
         <v>3</v>
       </c>
       <c r="L25" s="4" t="s">
@@ -5539,14 +6261,14 @@
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="30"/>
+      <c r="C26" s="26"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="12"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="2"/>
       <c r="J26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K26" s="11">
         <v>2.5</v>
       </c>
       <c r="L26" s="4" t="s">
@@ -5554,14 +6276,14 @@
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C27" s="30"/>
+      <c r="C27" s="26"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="12"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="2"/>
       <c r="J27" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="11">
         <v>2.25</v>
       </c>
       <c r="L27" s="4" t="s">
@@ -5569,14 +6291,14 @@
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C28" s="30"/>
+      <c r="C28" s="26"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="12"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="2"/>
       <c r="J28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K28" s="12">
+      <c r="K28" s="11">
         <v>1.4065000000000001</v>
       </c>
       <c r="L28" s="4" t="s">
@@ -5584,14 +6306,14 @@
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C29" s="30"/>
+      <c r="C29" s="26"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="12"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="2"/>
       <c r="J29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29" s="11">
         <v>0.5</v>
       </c>
       <c r="L29" s="4" t="s">
@@ -5599,130 +6321,130 @@
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C30" s="30"/>
+      <c r="C30" s="26"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="12"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="12"/>
+      <c r="K30" s="11"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C31" s="30"/>
+      <c r="C31" s="26"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="12"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="12"/>
+      <c r="K31" s="11"/>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C32" s="30"/>
+      <c r="C32" s="26"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="12"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="12"/>
+      <c r="K32" s="11"/>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C33" s="30"/>
+      <c r="C33" s="26"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="12"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="12"/>
+      <c r="K33" s="11"/>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C34" s="30"/>
+      <c r="C34" s="26"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="12"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="12"/>
+      <c r="K34" s="11"/>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C35" s="30"/>
+      <c r="C35" s="26"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="12"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="12"/>
+      <c r="K35" s="11"/>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C36" s="30"/>
+      <c r="C36" s="26"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="12"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="12"/>
+      <c r="K36" s="11"/>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E37" s="2"/>
-      <c r="F37" s="12"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="12"/>
+      <c r="K37" s="11"/>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E38" s="2"/>
-      <c r="F38" s="12"/>
+      <c r="F38" s="11"/>
       <c r="G38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="12"/>
+      <c r="K38" s="11"/>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E39" s="2"/>
-      <c r="F39" s="12"/>
+      <c r="F39" s="11"/>
       <c r="G39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="12"/>
+      <c r="K39" s="11"/>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E40" s="2"/>
-      <c r="F40" s="12"/>
+      <c r="F40" s="11"/>
       <c r="G40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="12"/>
+      <c r="K40" s="11"/>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E41" s="2"/>
-      <c r="F41" s="12"/>
+      <c r="F41" s="11"/>
       <c r="G41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="12"/>
+      <c r="K41" s="11"/>
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E42" s="2"/>
-      <c r="F42" s="12"/>
+      <c r="F42" s="11"/>
       <c r="G42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="12"/>
+      <c r="K42" s="11"/>
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E43" s="2"/>
-      <c r="F43" s="12"/>
+      <c r="F43" s="11"/>
       <c r="G43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="12"/>
+      <c r="K43" s="11"/>
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E44" s="3"/>
-      <c r="F44" s="13"/>
+      <c r="F44" s="12"/>
       <c r="G44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="13"/>
+      <c r="K44" s="12"/>
       <c r="L44" s="3"/>
     </row>
   </sheetData>
@@ -5741,8 +6463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122A4D2D-7EB7-44FE-A97D-7046CE3D43BD}">
   <dimension ref="B1:P44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5761,100 +6483,100 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="27" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="28" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="28" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="28" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="28" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="28" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="29" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="30"/>
-      <c r="E10" s="40" t="s">
+      <c r="C10" s="26"/>
+      <c r="E10" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
-      <c r="J10" s="40" t="s">
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="J10" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="41"/>
     </row>
     <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="30"/>
-      <c r="E11" s="21" t="s">
+      <c r="C11" s="26"/>
+      <c r="E11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="21" t="s">
+      <c r="L11" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P11" t="s">
@@ -5862,11 +6584,11 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="C12" s="30"/>
+      <c r="C12" s="26"/>
       <c r="E12" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>1260</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -5875,7 +6597,7 @@
       <c r="J12" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="10">
         <v>23.332999999999998</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -5886,11 +6608,11 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="C13" s="30"/>
+      <c r="C13" s="26"/>
       <c r="E13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>500</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -5899,7 +6621,7 @@
       <c r="J13" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="11">
         <v>19.443999999999999</v>
       </c>
       <c r="L13" s="4" t="s">
@@ -5907,11 +6629,11 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="C14" s="30"/>
+      <c r="C14" s="26"/>
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>533.33299999999997</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -5920,7 +6642,7 @@
       <c r="J14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="11">
         <v>669.33299999999997</v>
       </c>
       <c r="L14" s="4" t="s">
@@ -5928,14 +6650,14 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="C15" s="30"/>
+      <c r="C15" s="26"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="12"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="2"/>
       <c r="J15" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="11">
         <v>635.40554999999995</v>
       </c>
       <c r="L15" s="4" t="s">
@@ -5943,14 +6665,14 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="C16" s="30"/>
+      <c r="C16" s="26"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="12"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="2"/>
       <c r="J16" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="11">
         <v>54</v>
       </c>
       <c r="L16" s="4" t="s">
@@ -5958,14 +6680,14 @@
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="30"/>
+      <c r="C17" s="26"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="12"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="2"/>
       <c r="J17" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="11">
         <v>45.15</v>
       </c>
       <c r="L17" s="4" t="s">
@@ -5973,238 +6695,238 @@
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="30"/>
+      <c r="C18" s="26"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="12"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="2"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="12"/>
+      <c r="K18" s="11"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="30"/>
+      <c r="C19" s="26"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="12"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="12"/>
+      <c r="K19" s="11"/>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C20" s="30"/>
+      <c r="C20" s="26"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="12"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="12"/>
+      <c r="K20" s="11"/>
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="30"/>
+      <c r="C21" s="26"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="12"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="12"/>
+      <c r="K21" s="11"/>
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="30"/>
+      <c r="C22" s="26"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="12"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="12"/>
+      <c r="K22" s="11"/>
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C23" s="30"/>
+      <c r="C23" s="26"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="12"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="12"/>
+      <c r="K23" s="11"/>
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C24" s="30"/>
+      <c r="C24" s="26"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="12"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="12"/>
+      <c r="K24" s="11"/>
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C25" s="30"/>
+      <c r="C25" s="26"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="12"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="12"/>
+      <c r="K25" s="11"/>
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="30"/>
+      <c r="C26" s="26"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="12"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="12"/>
+      <c r="K26" s="11"/>
       <c r="L26" s="4"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C27" s="30"/>
+      <c r="C27" s="26"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="12"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="12"/>
+      <c r="K27" s="11"/>
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C28" s="30"/>
+      <c r="C28" s="26"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="12"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="12"/>
+      <c r="K28" s="11"/>
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C29" s="30"/>
+      <c r="C29" s="26"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="12"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="12"/>
+      <c r="K29" s="11"/>
       <c r="L29" s="4"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C30" s="30"/>
+      <c r="C30" s="26"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="12"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="12"/>
+      <c r="K30" s="11"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C31" s="30"/>
+      <c r="C31" s="26"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="12"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="12"/>
+      <c r="K31" s="11"/>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C32" s="30"/>
+      <c r="C32" s="26"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="12"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="12"/>
+      <c r="K32" s="11"/>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C33" s="30"/>
+      <c r="C33" s="26"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="12"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="12"/>
+      <c r="K33" s="11"/>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C34" s="30"/>
+      <c r="C34" s="26"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="12"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="12"/>
+      <c r="K34" s="11"/>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C35" s="30"/>
+      <c r="C35" s="26"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="12"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="12"/>
+      <c r="K35" s="11"/>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C36" s="30"/>
+      <c r="C36" s="26"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="12"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="12"/>
+      <c r="K36" s="11"/>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E37" s="2"/>
-      <c r="F37" s="12"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="12"/>
+      <c r="K37" s="11"/>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E38" s="2"/>
-      <c r="F38" s="12"/>
+      <c r="F38" s="11"/>
       <c r="G38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="12"/>
+      <c r="K38" s="11"/>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E39" s="2"/>
-      <c r="F39" s="12"/>
+      <c r="F39" s="11"/>
       <c r="G39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="12"/>
+      <c r="K39" s="11"/>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E40" s="2"/>
-      <c r="F40" s="12"/>
+      <c r="F40" s="11"/>
       <c r="G40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="12"/>
+      <c r="K40" s="11"/>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E41" s="2"/>
-      <c r="F41" s="12"/>
+      <c r="F41" s="11"/>
       <c r="G41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="12"/>
+      <c r="K41" s="11"/>
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E42" s="2"/>
-      <c r="F42" s="12"/>
+      <c r="F42" s="11"/>
       <c r="G42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="12"/>
+      <c r="K42" s="11"/>
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E43" s="2"/>
-      <c r="F43" s="12"/>
+      <c r="F43" s="11"/>
       <c r="G43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="12"/>
+      <c r="K43" s="11"/>
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E44" s="3"/>
-      <c r="F44" s="13"/>
+      <c r="F44" s="12"/>
       <c r="G44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="13"/>
+      <c r="K44" s="12"/>
       <c r="L44" s="3"/>
     </row>
   </sheetData>
@@ -6238,109 +6960,109 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="27" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="28" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="28" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="28" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="28" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="29" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="30"/>
-      <c r="E10" s="40" t="s">
+      <c r="C10" s="26"/>
+      <c r="E10" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
-      <c r="J10" s="40" t="s">
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="J10" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="41"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="30"/>
-      <c r="E11" s="21" t="s">
+      <c r="C11" s="26"/>
+      <c r="E11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="21" t="s">
+      <c r="L11" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C12" s="30"/>
+      <c r="C12" s="26"/>
       <c r="E12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>18</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -6349,7 +7071,7 @@
       <c r="J12" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="10">
         <v>1.5</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -6357,11 +7079,11 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C13" s="30"/>
+      <c r="C13" s="26"/>
       <c r="E13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>37.5</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -6370,7 +7092,7 @@
       <c r="J13" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="11">
         <v>1.5</v>
       </c>
       <c r="L13" s="4" t="s">
@@ -6378,11 +7100,11 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C14" s="30"/>
+      <c r="C14" s="26"/>
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>37.65</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -6391,7 +7113,7 @@
       <c r="J14" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="11">
         <v>2.25</v>
       </c>
       <c r="L14" s="4" t="s">
@@ -6399,11 +7121,11 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C15" s="30"/>
+      <c r="C15" s="26"/>
       <c r="E15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>45.15</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -6412,7 +7134,7 @@
       <c r="J15" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="11">
         <v>3</v>
       </c>
       <c r="L15" s="4" t="s">
@@ -6420,11 +7142,11 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C16" s="30"/>
+      <c r="C16" s="26"/>
       <c r="E16" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>54</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -6433,7 +7155,7 @@
       <c r="J16" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="11">
         <v>6</v>
       </c>
       <c r="L16" s="4" t="s">
@@ -6441,253 +7163,253 @@
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="30"/>
+      <c r="C17" s="26"/>
       <c r="E17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>104.65</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>91</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="12"/>
+      <c r="K17" s="11"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="30"/>
+      <c r="C18" s="26"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="12"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="2"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="12"/>
+      <c r="K18" s="11"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="30"/>
+      <c r="C19" s="26"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="12"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="12"/>
+      <c r="K19" s="11"/>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C20" s="30"/>
+      <c r="C20" s="26"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="12"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="12"/>
+      <c r="K20" s="11"/>
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="30"/>
+      <c r="C21" s="26"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="12"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="12"/>
+      <c r="K21" s="11"/>
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="30"/>
+      <c r="C22" s="26"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="12"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="12"/>
+      <c r="K22" s="11"/>
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C23" s="30"/>
+      <c r="C23" s="26"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="12"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="12"/>
+      <c r="K23" s="11"/>
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C24" s="30"/>
+      <c r="C24" s="26"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="12"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="12"/>
+      <c r="K24" s="11"/>
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C25" s="30"/>
+      <c r="C25" s="26"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="12"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="12"/>
+      <c r="K25" s="11"/>
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="30"/>
+      <c r="C26" s="26"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="12"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="12"/>
+      <c r="K26" s="11"/>
       <c r="L26" s="4"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C27" s="30"/>
+      <c r="C27" s="26"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="12"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="12"/>
+      <c r="K27" s="11"/>
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C28" s="30"/>
+      <c r="C28" s="26"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="12"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="12"/>
+      <c r="K28" s="11"/>
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C29" s="30"/>
+      <c r="C29" s="26"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="12"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="12"/>
+      <c r="K29" s="11"/>
       <c r="L29" s="4"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C30" s="30"/>
+      <c r="C30" s="26"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="12"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="12"/>
+      <c r="K30" s="11"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C31" s="30"/>
+      <c r="C31" s="26"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="12"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="12"/>
+      <c r="K31" s="11"/>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C32" s="30"/>
+      <c r="C32" s="26"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="12"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="12"/>
+      <c r="K32" s="11"/>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C33" s="30"/>
+      <c r="C33" s="26"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="12"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="12"/>
+      <c r="K33" s="11"/>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C34" s="30"/>
+      <c r="C34" s="26"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="12"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="12"/>
+      <c r="K34" s="11"/>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C35" s="30"/>
+      <c r="C35" s="26"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="12"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="12"/>
+      <c r="K35" s="11"/>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C36" s="30"/>
+      <c r="C36" s="26"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="12"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="12"/>
+      <c r="K36" s="11"/>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E37" s="2"/>
-      <c r="F37" s="12"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="12"/>
+      <c r="K37" s="11"/>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E38" s="2"/>
-      <c r="F38" s="12"/>
+      <c r="F38" s="11"/>
       <c r="G38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="12"/>
+      <c r="K38" s="11"/>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E39" s="2"/>
-      <c r="F39" s="12"/>
+      <c r="F39" s="11"/>
       <c r="G39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="12"/>
+      <c r="K39" s="11"/>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E40" s="2"/>
-      <c r="F40" s="12"/>
+      <c r="F40" s="11"/>
       <c r="G40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="12"/>
+      <c r="K40" s="11"/>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E41" s="2"/>
-      <c r="F41" s="12"/>
+      <c r="F41" s="11"/>
       <c r="G41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="12"/>
+      <c r="K41" s="11"/>
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E42" s="2"/>
-      <c r="F42" s="12"/>
+      <c r="F42" s="11"/>
       <c r="G42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="12"/>
+      <c r="K42" s="11"/>
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E43" s="2"/>
-      <c r="F43" s="12"/>
+      <c r="F43" s="11"/>
       <c r="G43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="12"/>
+      <c r="K43" s="11"/>
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E44" s="3"/>
-      <c r="F44" s="13"/>
+      <c r="F44" s="12"/>
       <c r="G44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="13"/>
+      <c r="K44" s="12"/>
       <c r="L44" s="3"/>
     </row>
   </sheetData>

--- a/Game Stuff/Spreadsheet.xlsx
+++ b/Game Stuff/Spreadsheet.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Nicos Blueprints_Riveteers District - Final\Game Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Nicos Blueprints_Phyrexian Datavault\Game Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2E70E9-A7EE-4AF7-9F91-96A7B04A868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE4B23D-EA0A-4594-9859-6DBA38760E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="-4944" windowWidth="17496" windowHeight="30216" firstSheet="11" activeTab="11" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
   </bookViews>
   <sheets>
     <sheet name="Material Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Chandra Flameworks" sheetId="2" r:id="rId2"/>
     <sheet name="Darksteel Forge" sheetId="3" r:id="rId3"/>
-    <sheet name="Xantcha's Crucible" sheetId="4" r:id="rId4"/>
-    <sheet name="Oran-Rief Mines" sheetId="5" r:id="rId5"/>
+    <sheet name="Oran-Rief Mines" sheetId="5" r:id="rId4"/>
+    <sheet name="Xantcha's Crucible" sheetId="4" r:id="rId5"/>
     <sheet name="Thran Foundry" sheetId="6" r:id="rId6"/>
     <sheet name="Neko's Nexus" sheetId="7" r:id="rId7"/>
     <sheet name="Ketria Crystals" sheetId="8" r:id="rId8"/>
@@ -25,6 +25,7 @@
     <sheet name="Kaladesh Refinery" sheetId="11" r:id="rId10"/>
     <sheet name="The Abyssal Chains of Shandalar" sheetId="12" r:id="rId11"/>
     <sheet name="Riveteers District" sheetId="13" r:id="rId12"/>
+    <sheet name="Phyrexian Datavault" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="175">
   <si>
     <t>Item</t>
   </si>
@@ -202,15 +203,6 @@
     <t>Oran-Rief Mines</t>
   </si>
   <si>
-    <t>803.3 MW</t>
-  </si>
-  <si>
-    <t>-803.3 MW</t>
-  </si>
-  <si>
-    <t>2.74 Hours</t>
-  </si>
-  <si>
     <t>2200 MWh</t>
   </si>
   <si>
@@ -334,27 +326,12 @@
     <t>Raw Quartz</t>
   </si>
   <si>
-    <t>1016.2 MW</t>
-  </si>
-  <si>
-    <t>-1016.2 MW</t>
-  </si>
-  <si>
     <t>4300 Wh</t>
   </si>
   <si>
-    <t>4.23 Hours</t>
-  </si>
-  <si>
     <t>Ghirapur Gridworks</t>
   </si>
   <si>
-    <t>Neko's Nexus, Ghirapur Gridworks</t>
-  </si>
-  <si>
-    <t>Thran Foundy, Neko's Nexus, Ghirapur Gridworks</t>
-  </si>
-  <si>
     <t>Uncompressed Quartz Crystal Line that goes to Ghirapur Gridworks has an extra 189.333</t>
   </si>
   <si>
@@ -469,9 +446,6 @@
     <t>63.39 Hours</t>
   </si>
   <si>
-    <t>Bottom Right going to Riveteers District has an extra 233.33 Copper Ingots</t>
-  </si>
-  <si>
     <t>Riverteers District</t>
   </si>
   <si>
@@ -512,6 +486,93 @@
   </si>
   <si>
     <t>4.80 Hours</t>
+  </si>
+  <si>
+    <t>1011.1 MW</t>
+  </si>
+  <si>
+    <t>-1011.1 MW</t>
+  </si>
+  <si>
+    <t>2.17 Hours</t>
+  </si>
+  <si>
+    <t>Alclad Aluminum Sheet</t>
+  </si>
+  <si>
+    <t>1108 MW</t>
+  </si>
+  <si>
+    <t>-1108 MW</t>
+  </si>
+  <si>
+    <t>3.88 Hours</t>
+  </si>
+  <si>
+    <t>On the desert</t>
+  </si>
+  <si>
+    <t>Phyrexian Datavault</t>
+  </si>
+  <si>
+    <t>Quartz Crystal Line going to Phyrexian Datavault has an extra 459.75</t>
+  </si>
+  <si>
+    <t>Rubber Line going to Phyrexian Datavault has an extra 257.5</t>
+  </si>
+  <si>
+    <t>Plastic Line going to Phyrexian Datavault has an extra 126.333</t>
+  </si>
+  <si>
+    <t>Silica Line going to Phyrexian Datavault has an extra 29.40555</t>
+  </si>
+  <si>
+    <t>Top belt going to Riveteers and Phyrexian Datavault district has an extra 116.666 Copper</t>
+  </si>
+  <si>
+    <t>Bottom belt going to  Phyrexian Datavault district has an extra 79.017 Copper</t>
+  </si>
+  <si>
+    <t>Middle belt going to  Phyrexian Datavault district has an extra 174 Copper</t>
+  </si>
+  <si>
+    <t>Kaladesh Refinery, Xantcha's Crucible, Oran-Rief Mines, Ketria Crystals, Riveteers District</t>
+  </si>
+  <si>
+    <t>Ghirapur Gridworks,Phyrexian Datavault</t>
+  </si>
+  <si>
+    <t>Neko's Nexus, Ghirapur Gridworks, Phyrexian Datavault, Riveteers District, The Abyssal Chains of Shandalar</t>
+  </si>
+  <si>
+    <t>Neko's Nexus, Ghirapur Gridworks, Phyrexian Datavault</t>
+  </si>
+  <si>
+    <t>Thran Foundy, Neko's Nexus, Ghirapur Gridworks, The Abyssal Chains of Shandalar</t>
+  </si>
+  <si>
+    <t>Phyrexian Datavault, The Abyssal Chains of Shandalar</t>
+  </si>
+  <si>
+    <t>Aluminum Casing</t>
+  </si>
+  <si>
+    <t>Supercomputers</t>
+  </si>
+  <si>
+    <t>Radio Control Units</t>
+  </si>
+  <si>
+    <t>3397.7 MW</t>
+  </si>
+  <si>
+    <t>-3397.7 MW</t>
+  </si>
+  <si>
+    <t>6000 MWh</t>
+  </si>
+  <si>
+    <t>1.76 Hours</t>
   </si>
 </sst>
 </file>
@@ -543,7 +604,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -730,32 +791,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -825,24 +860,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -853,8 +875,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -884,7 +904,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -909,6 +929,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -930,14 +956,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1274,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DEAD1A-BE12-4BD3-A45F-18807DFF108B}">
   <dimension ref="C3:J59"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E55" sqref="E54:E55"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1295,8 +1322,8 @@
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="41"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="39" t="s">
         <v>8</v>
       </c>
@@ -1304,24 +1331,24 @@
       <c r="J4" s="41"/>
     </row>
     <row r="5" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="43" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="38" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1329,19 +1356,19 @@
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="33">
         <v>15</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="20" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1349,19 +1376,19 @@
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <v>58.332999999999998</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="11">
         <v>5</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1369,606 +1396,624 @@
       <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <v>1999.848</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="13">
+      <c r="H8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="11">
         <v>1.4065000000000001</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>84</v>
+      <c r="J8" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="11">
-        <v>1655.6866600000001</v>
+      <c r="D9" s="8">
+        <v>369.67770000000002</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="13">
+      <c r="H9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="11">
         <v>2.25</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>84</v>
+      <c r="J9" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="11">
-        <v>204</v>
+        <v>53</v>
+      </c>
+      <c r="D10" s="8">
+        <v>93.665999999999997</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" s="13">
+      <c r="H10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="11">
         <v>2.5</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>84</v>
+      <c r="J10" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="11">
+        <v>54</v>
+      </c>
+      <c r="D11" s="9">
         <v>1140</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="13">
+        <v>55</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="11">
         <v>45</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>84</v>
+      <c r="J11" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C12" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="11">
-        <v>669.33299999999997</v>
+        <v>89</v>
+      </c>
+      <c r="D12" s="9">
+        <v>459.75</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="13">
+        <v>88</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="11">
         <v>5</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>84</v>
+      <c r="J12" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="11">
-        <v>635.40554999999995</v>
+        <v>90</v>
+      </c>
+      <c r="D13" s="9">
+        <v>29.405555</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="13">
+        <v>88</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="11">
         <v>7.3125</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>84</v>
+      <c r="J13" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C14" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="11">
-        <v>467.5</v>
+        <v>106</v>
+      </c>
+      <c r="D14" s="9">
+        <v>257.5</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="13">
+        <v>109</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="11">
         <v>3</v>
       </c>
-      <c r="J14" s="8" t="s">
-        <v>84</v>
+      <c r="J14" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="11">
-        <v>348</v>
+      <c r="D15" s="9">
+        <v>68</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="13">
+        <v>109</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="11">
         <v>30</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>84</v>
+      <c r="J15" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C16" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" s="13">
+        <v>149</v>
+      </c>
+      <c r="D16" s="11">
         <v>246.666</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="13">
+        <v>134</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="11">
         <v>0.5</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>84</v>
+      <c r="J16" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C17" s="4"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="4"/>
-      <c r="H17" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" s="13">
+      <c r="C17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="9">
+        <v>410</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="11">
         <v>33.125</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>84</v>
+      <c r="J17" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C18" s="2"/>
-      <c r="D18" s="11"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="2"/>
-      <c r="H18" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I18" s="13">
+      <c r="H18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="11">
         <v>61.6875</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>84</v>
+      <c r="J18" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C19" s="2"/>
-      <c r="D19" s="11"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="2"/>
-      <c r="H19" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I19" s="13">
+      <c r="H19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="11">
         <v>7.25</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>84</v>
+      <c r="J19" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C20" s="2"/>
-      <c r="D20" s="11"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="2"/>
-      <c r="H20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I20" s="13">
+      <c r="H20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" s="11">
         <v>30</v>
       </c>
-      <c r="J20" s="8" t="s">
-        <v>84</v>
+      <c r="J20" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C21" s="2"/>
-      <c r="D21" s="11"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="2"/>
-      <c r="H21" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" s="13">
+      <c r="H21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="11">
         <v>45</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>84</v>
+      <c r="J21" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C22" s="2"/>
-      <c r="D22" s="11"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="2"/>
-      <c r="H22" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I22" s="13">
+      <c r="H22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" s="11">
         <v>22.5</v>
       </c>
-      <c r="J22" s="8" t="s">
-        <v>84</v>
+      <c r="J22" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C23" s="2"/>
-      <c r="D23" s="11"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="2"/>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="11">
+        <v>20.5</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="I23" s="13">
-        <v>20.5</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C24" s="2"/>
-      <c r="D24" s="11"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="2"/>
-      <c r="H24" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24" s="13">
+      <c r="H24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="11">
         <v>15</v>
       </c>
-      <c r="J24" s="8" t="s">
-        <v>84</v>
+      <c r="J24" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C25" s="2"/>
-      <c r="D25" s="11"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="2"/>
-      <c r="H25" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I25" s="13">
+      <c r="H25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="11">
         <v>25</v>
       </c>
-      <c r="J25" s="8" t="s">
-        <v>84</v>
+      <c r="J25" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C26" s="2"/>
-      <c r="D26" s="11"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="2"/>
-      <c r="H26" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="I26" s="13">
-        <v>23.332999999999998</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>91</v>
+      <c r="H26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="11">
+        <v>26.25</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C27" s="2"/>
-      <c r="D27" s="11"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="2"/>
-      <c r="H27" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I27" s="13">
+      <c r="H27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="11">
         <v>19.443999999999999</v>
       </c>
-      <c r="J27" s="8" t="s">
-        <v>91</v>
+      <c r="J27" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C28" s="2"/>
-      <c r="D28" s="11"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="2"/>
-      <c r="H28" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I28" s="13">
+      <c r="H28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I28" s="11">
         <v>1.5</v>
       </c>
-      <c r="J28" s="8" t="s">
-        <v>99</v>
+      <c r="J28" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C29" s="2"/>
-      <c r="D29" s="11"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="2"/>
-      <c r="H29" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I29" s="13">
+      <c r="H29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I29" s="11">
         <v>1.5</v>
       </c>
-      <c r="J29" s="8" t="s">
-        <v>99</v>
+      <c r="J29" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C30" s="2"/>
-      <c r="D30" s="11"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="2"/>
-      <c r="H30" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I30" s="13">
+      <c r="H30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" s="11">
         <v>2.25</v>
       </c>
-      <c r="J30" s="8" t="s">
-        <v>99</v>
+      <c r="J30" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C31" s="2"/>
-      <c r="D31" s="11"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="2"/>
-      <c r="H31" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="I31" s="13">
+      <c r="H31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I31" s="11">
         <v>3</v>
       </c>
-      <c r="J31" s="8" t="s">
-        <v>99</v>
+      <c r="J31" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C32" s="2"/>
-      <c r="D32" s="11"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="2"/>
-      <c r="H32" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I32" s="13">
+      <c r="H32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I32" s="11">
         <v>6</v>
       </c>
-      <c r="J32" s="8" t="s">
-        <v>99</v>
+      <c r="J32" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C33" s="2"/>
-      <c r="D33" s="11"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="2"/>
-      <c r="H33" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="I33" s="13">
+      <c r="H33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33" s="11">
         <v>25</v>
       </c>
-      <c r="J33" s="8" t="s">
-        <v>117</v>
+      <c r="J33" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C34" s="2"/>
-      <c r="D34" s="11"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="2"/>
-      <c r="H34" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="I34" s="13">
+      <c r="H34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I34" s="11">
         <v>20</v>
       </c>
-      <c r="J34" s="8" t="s">
-        <v>117</v>
+      <c r="J34" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C35" s="2"/>
-      <c r="D35" s="11"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="2"/>
-      <c r="H35" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="I35" s="13">
+      <c r="H35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I35" s="11">
         <v>0.5</v>
       </c>
-      <c r="J35" s="8" t="s">
-        <v>122</v>
+      <c r="J35" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C36" s="2"/>
-      <c r="D36" s="11"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="2"/>
-      <c r="H36" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I36" s="13">
+      <c r="H36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I36" s="11">
         <v>0.5</v>
       </c>
-      <c r="J36" s="8" t="s">
-        <v>122</v>
+      <c r="J36" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C37" s="2"/>
-      <c r="D37" s="11"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="2"/>
-      <c r="H37" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="I37" s="13">
+      <c r="H37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I37" s="11">
         <v>49.332999999999998</v>
       </c>
-      <c r="J37" s="8" t="s">
-        <v>143</v>
+      <c r="J37" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C38" s="3"/>
-      <c r="D38" s="12"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="3"/>
-      <c r="H38" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="I38" s="13">
+      <c r="H38" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I38" s="11">
         <v>12</v>
       </c>
-      <c r="J38" s="8" t="s">
-        <v>143</v>
+      <c r="J38" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H39" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="I39" s="13">
+      <c r="H39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I39" s="11">
         <v>200</v>
       </c>
-      <c r="J39" s="8" t="s">
-        <v>143</v>
+      <c r="J39" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H40" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="I40" s="13">
-        <v>222</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>143</v>
+      <c r="H40" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I40" s="11">
+        <v>62</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H41" s="6"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="8"/>
+      <c r="H41" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="I41" s="11">
+        <v>10</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H42" s="6"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="8"/>
+      <c r="H42" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="I42" s="11">
+        <v>10</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H43" s="6"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="8"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="2"/>
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H44" s="6"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="8"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="2"/>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H45" s="6"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="8"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="2"/>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H46" s="6"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="8"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="2"/>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H47" s="6"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="8"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="2"/>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H48" s="6"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="8"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="2"/>
     </row>
     <row r="49" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H49" s="6"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="8"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="2"/>
     </row>
     <row r="50" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H50" s="6"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="8"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="2"/>
     </row>
     <row r="51" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H51" s="6"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="8"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="2"/>
     </row>
     <row r="52" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H52" s="6"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="8"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="2"/>
     </row>
     <row r="53" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H53" s="6"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="8"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="2"/>
     </row>
     <row r="54" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H54" s="6"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="8"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="2"/>
     </row>
     <row r="55" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H55" s="6"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="8"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="2"/>
     </row>
     <row r="56" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H56" s="6"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="8"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="2"/>
     </row>
     <row r="57" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H57" s="6"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="8"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="2"/>
     </row>
     <row r="58" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H58" s="6"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="8"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="2"/>
     </row>
     <row r="59" spans="8:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H59" s="7"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="9"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1983,14 +2028,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBAD9F1-0099-4C27-8F14-6139C4B3501A}">
   <dimension ref="B1:T44"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.90625" customWidth="1"/>
     <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
@@ -2002,71 +2047,71 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>117</v>
+      <c r="C2" s="25" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="2:20" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>27</v>
+      <c r="C4" s="44" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>118</v>
+      <c r="C6" s="26" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>119</v>
+      <c r="C7" s="26" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="26" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>120</v>
+      <c r="C9" s="27" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="26"/>
+      <c r="C10" s="24"/>
       <c r="E10" s="39" t="s">
         <v>15</v>
       </c>
@@ -2080,52 +2125,52 @@
       <c r="M10" s="41"/>
     </row>
     <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="26"/>
-      <c r="E11" s="17" t="s">
+      <c r="C11" s="24"/>
+      <c r="E11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="38" t="s">
-        <v>123</v>
+      <c r="M11" s="36" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C12" s="26"/>
+      <c r="C12" s="24"/>
       <c r="E12" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="10">
+        <v>108</v>
+      </c>
+      <c r="F12" s="8">
         <v>300</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="K12" s="10">
+        <v>106</v>
+      </c>
+      <c r="K12" s="8">
         <v>25</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="22"/>
+      <c r="M12" s="20"/>
       <c r="O12" s="42" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="P12" s="42"/>
       <c r="Q12" s="42"/>
@@ -2134,21 +2179,21 @@
       <c r="T12" s="42"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C13" s="26"/>
+      <c r="C13" s="24"/>
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <v>1000</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="K13" s="11">
-        <v>467.5</v>
+        <v>106</v>
+      </c>
+      <c r="K13" s="9">
+        <v>257.5</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>25</v>
@@ -2162,15 +2207,15 @@
       <c r="T13" s="42"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C14" s="26"/>
+      <c r="C14" s="24"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="11"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="4"/>
       <c r="J14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="11">
-        <v>348</v>
+      <c r="K14" s="9">
+        <v>68</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>25</v>
@@ -2184,14 +2229,14 @@
       <c r="T14" s="42"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C15" s="26"/>
+      <c r="C15" s="24"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="11"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="2"/>
       <c r="J15" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="K15" s="11">
+        <v>107</v>
+      </c>
+      <c r="K15" s="9">
         <v>20</v>
       </c>
       <c r="L15" s="4" t="s">
@@ -2206,22 +2251,22 @@
       <c r="T15" s="42"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C16" s="26"/>
+      <c r="C16" s="24"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="11"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="2"/>
       <c r="J16" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="L16" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="K16" s="11">
-        <v>7.5</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="M16" s="2"/>
       <c r="O16" s="42" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="P16" s="42"/>
       <c r="Q16" s="42"/>
@@ -2230,18 +2275,18 @@
       <c r="T16" s="42"/>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C17" s="26"/>
+      <c r="C17" s="24"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="11"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="2"/>
       <c r="J17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="9">
         <v>42</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="M17" s="2"/>
       <c r="O17" s="42"/>
@@ -2252,13 +2297,19 @@
       <c r="T17" s="42"/>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C18" s="26"/>
+      <c r="C18" s="24"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="2"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="4"/>
+      <c r="J18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="9">
+        <v>210</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="M18" s="2"/>
       <c r="O18" s="42"/>
       <c r="P18" s="42"/>
@@ -2268,13 +2319,19 @@
       <c r="T18" s="42"/>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C19" s="26"/>
+      <c r="C19" s="24"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="4"/>
+      <c r="J19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="9">
+        <v>280</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="M19" s="2"/>
       <c r="O19" s="42"/>
       <c r="P19" s="42"/>
@@ -2284,253 +2341,316 @@
       <c r="T19" s="42"/>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C20" s="26"/>
+      <c r="C20" s="24"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="11"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="11"/>
+      <c r="K20" s="9"/>
       <c r="L20" s="4"/>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C21" s="26"/>
+      <c r="C21" s="24"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="11"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="11"/>
+      <c r="K21" s="9"/>
       <c r="L21" s="4"/>
       <c r="M21" s="2"/>
+      <c r="O21" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C22" s="26"/>
+      <c r="C22" s="24"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="11"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="11"/>
+      <c r="K22" s="9"/>
       <c r="L22" s="4"/>
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C23" s="26"/>
+      <c r="C23" s="24"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="11"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="11"/>
+      <c r="K23" s="9"/>
       <c r="L23" s="4"/>
       <c r="M23" s="2"/>
+      <c r="O23" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C24" s="26"/>
+      <c r="C24" s="24"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="11"/>
+      <c r="K24" s="9"/>
       <c r="L24" s="4"/>
       <c r="M24" s="2"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C25" s="26"/>
+      <c r="C25" s="24"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="11"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="11"/>
+      <c r="K25" s="9"/>
       <c r="L25" s="4"/>
       <c r="M25" s="2"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C26" s="26"/>
+      <c r="C26" s="24"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="11"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="11"/>
+      <c r="K26" s="9"/>
       <c r="L26" s="4"/>
       <c r="M26" s="2"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C27" s="26"/>
+      <c r="C27" s="24"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="11"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="11"/>
+      <c r="K27" s="9"/>
       <c r="L27" s="4"/>
       <c r="M27" s="2"/>
+      <c r="O27" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C28" s="26"/>
+      <c r="C28" s="24"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="11"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="11"/>
+      <c r="K28" s="9"/>
       <c r="L28" s="4"/>
       <c r="M28" s="2"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C29" s="26"/>
+      <c r="C29" s="24"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="11"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="11"/>
+      <c r="K29" s="9"/>
       <c r="L29" s="4"/>
       <c r="M29" s="2"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C30" s="26"/>
+      <c r="C30" s="24"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="11"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="11"/>
+      <c r="K30" s="9"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C31" s="26"/>
+      <c r="C31" s="24"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="11"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="11"/>
+      <c r="K31" s="9"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C32" s="26"/>
+      <c r="C32" s="24"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="11"/>
+      <c r="F32" s="9"/>
       <c r="G32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="11"/>
+      <c r="K32" s="9"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C33" s="26"/>
+      <c r="C33" s="24"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="11"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="11"/>
+      <c r="K33" s="9"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C34" s="26"/>
+      <c r="C34" s="24"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="11"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="11"/>
+      <c r="K34" s="9"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C35" s="26"/>
+      <c r="C35" s="24"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="11"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="11"/>
+      <c r="K35" s="9"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C36" s="26"/>
+      <c r="C36" s="24"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="11"/>
+      <c r="F36" s="9"/>
       <c r="G36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="11"/>
+      <c r="K36" s="9"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E37" s="2"/>
-      <c r="F37" s="11"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="11"/>
+      <c r="K37" s="9"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E38" s="2"/>
-      <c r="F38" s="11"/>
+      <c r="F38" s="9"/>
       <c r="G38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="11"/>
+      <c r="K38" s="9"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E39" s="2"/>
-      <c r="F39" s="11"/>
+      <c r="F39" s="9"/>
       <c r="G39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="11"/>
+      <c r="K39" s="9"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E40" s="2"/>
-      <c r="F40" s="11"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="11"/>
+      <c r="K40" s="9"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E41" s="2"/>
-      <c r="F41" s="11"/>
+      <c r="F41" s="9"/>
       <c r="G41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="11"/>
+      <c r="K41" s="9"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E42" s="2"/>
-      <c r="F42" s="11"/>
+      <c r="F42" s="9"/>
       <c r="G42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="11"/>
+      <c r="K42" s="9"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E43" s="2"/>
-      <c r="F43" s="11"/>
+      <c r="F43" s="9"/>
       <c r="G43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="11"/>
+      <c r="K43" s="9"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
     <row r="44" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E44" s="3"/>
-      <c r="F44" s="12"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="12"/>
+      <c r="K44" s="10"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="O23:T26"/>
+    <mergeCell ref="O27:T30"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="J10:M10"/>
     <mergeCell ref="O12:T15"/>
     <mergeCell ref="O16:T19"/>
+    <mergeCell ref="O21:T21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2540,7 +2660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1308C4-E9DD-438E-A79A-D3E0D96AB566}">
   <dimension ref="B1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
@@ -2558,71 +2678,71 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>122</v>
+      <c r="C2" s="25" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="87" x14ac:dyDescent="0.35">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>135</v>
+      <c r="C3" s="29" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>136</v>
+      <c r="C6" s="26" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>137</v>
+      <c r="C7" s="26" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>138</v>
+      <c r="C8" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>139</v>
+      <c r="C9" s="27" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="26"/>
+      <c r="C10" s="24"/>
       <c r="E10" s="39" t="s">
         <v>15</v>
       </c>
@@ -2635,41 +2755,41 @@
       <c r="L10" s="41"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="26"/>
-      <c r="E11" s="17" t="s">
+      <c r="C11" s="24"/>
+      <c r="E11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C12" s="26"/>
+      <c r="C12" s="24"/>
       <c r="E12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="10">
+        <v>61</v>
+      </c>
+      <c r="F12" s="8">
         <v>18.75</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="K12" s="10">
+        <v>126</v>
+      </c>
+      <c r="K12" s="8">
         <v>0.5</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -2677,20 +2797,20 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C13" s="26"/>
+      <c r="C13" s="24"/>
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <v>28.625</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="K13" s="11">
+        <v>125</v>
+      </c>
+      <c r="K13" s="9">
         <v>0.5</v>
       </c>
       <c r="L13" s="4" t="s">
@@ -2698,298 +2818,298 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C14" s="26"/>
+      <c r="C14" s="24"/>
       <c r="E14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="9">
         <v>113.833</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="11"/>
+      <c r="K14" s="9"/>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C15" s="26"/>
+      <c r="C15" s="24"/>
       <c r="E15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="9">
         <v>234.25</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="11"/>
+      <c r="K15" s="9"/>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C16" s="26"/>
+      <c r="C16" s="24"/>
       <c r="E16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="9">
         <v>42</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="11"/>
+      <c r="K16" s="9"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="26"/>
+      <c r="C17" s="24"/>
       <c r="E17" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" s="11">
+        <v>106</v>
+      </c>
+      <c r="F17" s="9">
         <v>7.5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="11"/>
+      <c r="K17" s="9"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="26"/>
+      <c r="C18" s="24"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="2"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="11"/>
+      <c r="K18" s="9"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="26"/>
+      <c r="C19" s="24"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="11"/>
+      <c r="K19" s="9"/>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C20" s="26"/>
+      <c r="C20" s="24"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="11"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="11"/>
+      <c r="K20" s="9"/>
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="26"/>
+      <c r="C21" s="24"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="11"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="11"/>
+      <c r="K21" s="9"/>
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="26"/>
+      <c r="C22" s="24"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="11"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="11"/>
+      <c r="K22" s="9"/>
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C23" s="26"/>
+      <c r="C23" s="24"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="11"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="11"/>
+      <c r="K23" s="9"/>
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C24" s="26"/>
+      <c r="C24" s="24"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="11"/>
+      <c r="K24" s="9"/>
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C25" s="26"/>
+      <c r="C25" s="24"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="11"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="11"/>
+      <c r="K25" s="9"/>
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="26"/>
+      <c r="C26" s="24"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="11"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="11"/>
+      <c r="K26" s="9"/>
       <c r="L26" s="4"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C27" s="26"/>
+      <c r="C27" s="24"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="11"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="11"/>
+      <c r="K27" s="9"/>
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C28" s="26"/>
+      <c r="C28" s="24"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="11"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="11"/>
+      <c r="K28" s="9"/>
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C29" s="26"/>
+      <c r="C29" s="24"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="11"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="11"/>
+      <c r="K29" s="9"/>
       <c r="L29" s="4"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C30" s="26"/>
+      <c r="C30" s="24"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="11"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="11"/>
+      <c r="K30" s="9"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C31" s="26"/>
+      <c r="C31" s="24"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="11"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="11"/>
+      <c r="K31" s="9"/>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C32" s="26"/>
+      <c r="C32" s="24"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="11"/>
+      <c r="F32" s="9"/>
       <c r="G32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="11"/>
+      <c r="K32" s="9"/>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C33" s="26"/>
+      <c r="C33" s="24"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="11"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="11"/>
+      <c r="K33" s="9"/>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C34" s="26"/>
+      <c r="C34" s="24"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="11"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="11"/>
+      <c r="K34" s="9"/>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C35" s="26"/>
+      <c r="C35" s="24"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="11"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="11"/>
+      <c r="K35" s="9"/>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C36" s="26"/>
+      <c r="C36" s="24"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="11"/>
+      <c r="F36" s="9"/>
       <c r="G36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="11"/>
+      <c r="K36" s="9"/>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E37" s="2"/>
-      <c r="F37" s="11"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="11"/>
+      <c r="K37" s="9"/>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E38" s="2"/>
-      <c r="F38" s="11"/>
+      <c r="F38" s="9"/>
       <c r="G38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="11"/>
+      <c r="K38" s="9"/>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E39" s="2"/>
-      <c r="F39" s="11"/>
+      <c r="F39" s="9"/>
       <c r="G39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="11"/>
+      <c r="K39" s="9"/>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E40" s="2"/>
-      <c r="F40" s="11"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="11"/>
+      <c r="K40" s="9"/>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E41" s="2"/>
-      <c r="F41" s="11"/>
+      <c r="F41" s="9"/>
       <c r="G41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="11"/>
+      <c r="K41" s="9"/>
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E42" s="2"/>
-      <c r="F42" s="11"/>
+      <c r="F42" s="9"/>
       <c r="G42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="11"/>
+      <c r="K42" s="9"/>
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E43" s="2"/>
-      <c r="F43" s="11"/>
+      <c r="F43" s="9"/>
       <c r="G43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="11"/>
+      <c r="K43" s="9"/>
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E44" s="3"/>
-      <c r="F44" s="12"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="12"/>
+      <c r="K44" s="10"/>
       <c r="L44" s="3"/>
     </row>
   </sheetData>
@@ -3005,8 +3125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED21A768-E1F1-4F70-B6C9-A662B38F9ACD}">
   <dimension ref="B1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3018,77 +3138,77 @@
     <col min="7" max="7" width="16.36328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>152</v>
-      </c>
-    </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>153</v>
+      <c r="C8" s="26" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>154</v>
+      <c r="C9" s="27" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="26"/>
+      <c r="C10" s="24"/>
       <c r="E10" s="39" t="s">
         <v>15</v>
       </c>
@@ -3101,41 +3221,41 @@
       <c r="L10" s="41"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="26"/>
-      <c r="E11" s="17" t="s">
+      <c r="C11" s="24"/>
+      <c r="E11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C12" s="26"/>
+      <c r="C12" s="24"/>
       <c r="E12" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F12" s="10">
+        <v>135</v>
+      </c>
+      <c r="F12" s="8">
         <v>600</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="K12" s="10">
+        <v>138</v>
+      </c>
+      <c r="K12" s="8">
         <v>49.332999999999998</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -3143,20 +3263,20 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C13" s="26"/>
+      <c r="C13" s="24"/>
       <c r="E13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="11">
+        <v>61</v>
+      </c>
+      <c r="F13" s="9">
         <v>1000</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="K13" s="11">
+        <v>138</v>
+      </c>
+      <c r="K13" s="9">
         <v>246.666</v>
       </c>
       <c r="L13" s="4" t="s">
@@ -3164,20 +3284,20 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C14" s="26"/>
+      <c r="C14" s="24"/>
       <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="9">
         <v>400</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="K14" s="11">
+        <v>139</v>
+      </c>
+      <c r="K14" s="9">
         <v>12</v>
       </c>
       <c r="L14" s="4" t="s">
@@ -3185,20 +3305,20 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C15" s="26"/>
+      <c r="C15" s="24"/>
       <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="9">
         <v>200</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="K15" s="11">
+        <v>140</v>
+      </c>
+      <c r="K15" s="9">
         <v>200</v>
       </c>
       <c r="L15" s="4" t="s">
@@ -3206,274 +3326,763 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C16" s="26"/>
+      <c r="C16" s="24"/>
       <c r="E16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="9">
         <v>240</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="K16" s="11">
-        <v>222</v>
+        <v>141</v>
+      </c>
+      <c r="K16" s="9">
+        <v>62</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="26"/>
+      <c r="C17" s="24"/>
       <c r="E17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="9">
         <v>246.67</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="4"/>
+        <v>137</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="9">
+        <v>410</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="26"/>
+      <c r="C18" s="24"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="2"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="4"/>
+      <c r="J18" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K18" s="9">
+        <v>160</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="26"/>
+      <c r="C19" s="24"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="11"/>
+      <c r="K19" s="9"/>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C20" s="26"/>
+      <c r="C20" s="24"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="11"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="11"/>
+      <c r="K20" s="9"/>
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="26"/>
+      <c r="C21" s="24"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="11"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="11"/>
+      <c r="K21" s="9"/>
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="26"/>
+      <c r="C22" s="24"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="11"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="11"/>
+      <c r="K22" s="9"/>
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C23" s="26"/>
+      <c r="C23" s="24"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="11"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="11"/>
+      <c r="K23" s="9"/>
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C24" s="26"/>
+      <c r="C24" s="24"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="11"/>
+      <c r="K24" s="9"/>
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C25" s="26"/>
+      <c r="C25" s="24"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="11"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="11"/>
+      <c r="K25" s="9"/>
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="26"/>
+      <c r="C26" s="24"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="11"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="11"/>
+      <c r="K26" s="9"/>
       <c r="L26" s="4"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C27" s="26"/>
+      <c r="C27" s="24"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="11"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="11"/>
+      <c r="K27" s="9"/>
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C28" s="26"/>
+      <c r="C28" s="24"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="11"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="11"/>
+      <c r="K28" s="9"/>
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C29" s="26"/>
+      <c r="C29" s="24"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="11"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="11"/>
+      <c r="K29" s="9"/>
       <c r="L29" s="4"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C30" s="26"/>
+      <c r="C30" s="24"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="11"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="11"/>
+      <c r="K30" s="9"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C31" s="26"/>
+      <c r="C31" s="24"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="11"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="11"/>
+      <c r="K31" s="9"/>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C32" s="26"/>
+      <c r="C32" s="24"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="11"/>
+      <c r="F32" s="9"/>
       <c r="G32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="11"/>
+      <c r="K32" s="9"/>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C33" s="26"/>
+      <c r="C33" s="24"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="11"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="11"/>
+      <c r="K33" s="9"/>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C34" s="26"/>
+      <c r="C34" s="24"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="11"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="11"/>
+      <c r="K34" s="9"/>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C35" s="26"/>
+      <c r="C35" s="24"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="11"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="11"/>
+      <c r="K35" s="9"/>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C36" s="26"/>
+      <c r="C36" s="24"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="11"/>
+      <c r="F36" s="9"/>
       <c r="G36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="11"/>
+      <c r="K36" s="9"/>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E37" s="2"/>
-      <c r="F37" s="11"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="11"/>
+      <c r="K37" s="9"/>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E38" s="2"/>
-      <c r="F38" s="11"/>
+      <c r="F38" s="9"/>
       <c r="G38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="11"/>
+      <c r="K38" s="9"/>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E39" s="2"/>
-      <c r="F39" s="11"/>
+      <c r="F39" s="9"/>
       <c r="G39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="11"/>
+      <c r="K39" s="9"/>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E40" s="2"/>
-      <c r="F40" s="11"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="11"/>
+      <c r="K40" s="9"/>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E41" s="2"/>
-      <c r="F41" s="11"/>
+      <c r="F41" s="9"/>
       <c r="G41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="11"/>
+      <c r="K41" s="9"/>
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E42" s="2"/>
-      <c r="F42" s="11"/>
+      <c r="F42" s="9"/>
       <c r="G42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="11"/>
+      <c r="K42" s="9"/>
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E43" s="2"/>
-      <c r="F43" s="11"/>
+      <c r="F43" s="9"/>
       <c r="G43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="11"/>
+      <c r="K43" s="9"/>
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E44" s="3"/>
-      <c r="F44" s="12"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="12"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="J10:L10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2930F0-3027-4B2E-8126-4FAD3B96111E}">
+  <dimension ref="B1:L44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="24"/>
+      <c r="E10" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="J10" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="40"/>
+      <c r="L10" s="41"/>
+    </row>
+    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="24"/>
+      <c r="E11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C12" s="24"/>
+      <c r="E12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1272.67</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" s="45">
+        <v>10</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C13" s="24"/>
+      <c r="E13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="9">
+        <v>606</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="45">
+        <v>10</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C14" s="24"/>
+      <c r="E14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="9">
+        <v>300</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="45"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C15" s="24"/>
+      <c r="E15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="9">
+        <v>481</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="45"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C16" s="24"/>
+      <c r="E16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="9">
+        <v>210</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" s="45"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C17" s="24"/>
+      <c r="E17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="9">
+        <v>280</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" s="45"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C18" s="24"/>
+      <c r="E18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="9">
+        <v>158.33000000000001</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="45"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C19" s="24"/>
+      <c r="E19" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="9">
+        <v>160</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C20" s="24"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="2"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C21" s="24"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="2"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C22" s="24"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="2"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C23" s="24"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="2"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C24" s="24"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="2"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C25" s="24"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="2"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C26" s="24"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="2"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C27" s="24"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="2"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C28" s="24"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="2"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C29" s="24"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="2"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C30" s="24"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="2"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C31" s="24"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="2"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C32" s="24"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="2"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C33" s="24"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="2"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C34" s="24"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="2"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C35" s="24"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="2"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C36" s="24"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="2"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E37" s="2"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="2"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E38" s="2"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="2"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E39" s="2"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="2"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E40" s="2"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="2"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E41" s="2"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E42" s="2"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E43" s="2"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E44" s="3"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="10"/>
       <c r="L44" s="3"/>
     </row>
   </sheetData>
@@ -3507,10 +4116,10 @@
   <sheetData>
     <row r="3" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="39" t="s">
@@ -3525,33 +4134,33 @@
       <c r="M4" s="41"/>
     </row>
     <row r="5" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -3560,7 +4169,7 @@
       <c r="F6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <v>480</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -3569,7 +4178,7 @@
       <c r="K6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="8">
         <v>15</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -3577,7 +4186,7 @@
       </c>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -3586,7 +4195,7 @@
       <c r="F7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="9">
         <v>480</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -3595,7 +4204,7 @@
       <c r="K7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="9">
         <v>5</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -3603,7 +4212,7 @@
       </c>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -3612,7 +4221,7 @@
       <c r="F8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="9">
         <v>780</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -3621,7 +4230,7 @@
       <c r="K8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="9">
         <v>58.332999999999998</v>
       </c>
       <c r="M8" s="2" t="s">
@@ -3629,7 +4238,7 @@
       </c>
     </row>
     <row r="9" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -3638,7 +4247,7 @@
       <c r="F9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="9">
         <v>300</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -3647,7 +4256,7 @@
       <c r="K9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="9">
         <v>10</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -3656,234 +4265,234 @@
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.35">
       <c r="F10" s="2"/>
-      <c r="G10" s="11"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="11"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.35">
       <c r="F11" s="2"/>
-      <c r="G11" s="11"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="11"/>
+      <c r="L11" s="9"/>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.35">
       <c r="F12" s="2"/>
-      <c r="G12" s="11"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="11"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="3:13" x14ac:dyDescent="0.35">
       <c r="F13" s="2"/>
-      <c r="G13" s="11"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="11"/>
+      <c r="L13" s="9"/>
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.35">
       <c r="F14" s="2"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="11"/>
+      <c r="L14" s="9"/>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.35">
       <c r="F15" s="2"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="11"/>
+      <c r="L15" s="9"/>
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.35">
       <c r="F16" s="2"/>
-      <c r="G16" s="11"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="11"/>
+      <c r="L16" s="9"/>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F17" s="2"/>
-      <c r="G17" s="11"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="11"/>
+      <c r="L17" s="9"/>
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F18" s="2"/>
-      <c r="G18" s="11"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="11"/>
+      <c r="L18" s="9"/>
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F19" s="2"/>
-      <c r="G19" s="11"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="11"/>
+      <c r="L19" s="9"/>
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F20" s="2"/>
-      <c r="G20" s="11"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="11"/>
+      <c r="L20" s="9"/>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F21" s="2"/>
-      <c r="G21" s="11"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="11"/>
+      <c r="L21" s="9"/>
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F22" s="2"/>
-      <c r="G22" s="11"/>
+      <c r="G22" s="9"/>
       <c r="H22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="11"/>
+      <c r="L22" s="9"/>
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F23" s="2"/>
-      <c r="G23" s="11"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="11"/>
+      <c r="L23" s="9"/>
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F24" s="2"/>
-      <c r="G24" s="11"/>
+      <c r="G24" s="9"/>
       <c r="H24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="11"/>
+      <c r="L24" s="9"/>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F25" s="2"/>
-      <c r="G25" s="11"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="11"/>
+      <c r="L25" s="9"/>
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F26" s="2"/>
-      <c r="G26" s="11"/>
+      <c r="G26" s="9"/>
       <c r="H26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="11"/>
+      <c r="L26" s="9"/>
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F27" s="2"/>
-      <c r="G27" s="11"/>
+      <c r="G27" s="9"/>
       <c r="H27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="11"/>
+      <c r="L27" s="9"/>
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F28" s="2"/>
-      <c r="G28" s="11"/>
+      <c r="G28" s="9"/>
       <c r="H28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="11"/>
+      <c r="L28" s="9"/>
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F29" s="2"/>
-      <c r="G29" s="11"/>
+      <c r="G29" s="9"/>
       <c r="H29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="11"/>
+      <c r="L29" s="9"/>
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F30" s="2"/>
-      <c r="G30" s="11"/>
+      <c r="G30" s="9"/>
       <c r="H30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="11"/>
+      <c r="L30" s="9"/>
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F31" s="2"/>
-      <c r="G31" s="11"/>
+      <c r="G31" s="9"/>
       <c r="H31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="11"/>
+      <c r="L31" s="9"/>
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F32" s="2"/>
-      <c r="G32" s="11"/>
+      <c r="G32" s="9"/>
       <c r="H32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="11"/>
+      <c r="L32" s="9"/>
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F33" s="2"/>
-      <c r="G33" s="11"/>
+      <c r="G33" s="9"/>
       <c r="H33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="11"/>
+      <c r="L33" s="9"/>
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F34" s="2"/>
-      <c r="G34" s="11"/>
+      <c r="G34" s="9"/>
       <c r="H34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="11"/>
+      <c r="L34" s="9"/>
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F35" s="2"/>
-      <c r="G35" s="11"/>
+      <c r="G35" s="9"/>
       <c r="H35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="11"/>
+      <c r="L35" s="9"/>
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F36" s="2"/>
-      <c r="G36" s="11"/>
+      <c r="G36" s="9"/>
       <c r="H36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="11"/>
+      <c r="L36" s="9"/>
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F37" s="2"/>
-      <c r="G37" s="11"/>
+      <c r="G37" s="9"/>
       <c r="H37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="11"/>
+      <c r="L37" s="9"/>
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="6:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F38" s="3"/>
-      <c r="G38" s="12"/>
+      <c r="G38" s="10"/>
       <c r="H38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="12"/>
+      <c r="L38" s="10"/>
       <c r="M38" s="3"/>
     </row>
   </sheetData>
@@ -3899,14 +4508,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A244D34F-6552-48EC-88C9-9BCAF12F75CF}">
   <dimension ref="C3:T1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6328125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="22.6328125" style="24" customWidth="1"/>
     <col min="6" max="6" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
@@ -3919,66 +4528,66 @@
   <sheetData>
     <row r="3" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="3:20" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>101</v>
+      <c r="D6" s="31" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="26" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="27" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3997,29 +4606,29 @@
       <c r="N13" s="41"/>
     </row>
     <row r="14" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="M14" s="17" t="s">
+      <c r="M14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="38" t="s">
-        <v>123</v>
+      <c r="N14" s="36" t="s">
+        <v>115</v>
       </c>
       <c r="P14" s="42" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="Q14" s="42"/>
       <c r="R14" s="42"/>
@@ -4030,7 +4639,7 @@
       <c r="F15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="8">
         <v>1800</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -4039,13 +4648,13 @@
       <c r="K15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="8">
         <v>1999.848</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N15" s="22"/>
+      <c r="N15" s="20"/>
       <c r="P15" s="42"/>
       <c r="Q15" s="42"/>
       <c r="R15" s="42"/>
@@ -4056,7 +4665,7 @@
       <c r="F16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="9">
         <v>514.27200000000005</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -4065,14 +4674,14 @@
       <c r="K16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="9">
         <v>960</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="P16" s="42"/>
       <c r="Q16" s="42"/>
@@ -4082,19 +4691,19 @@
     </row>
     <row r="17" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F17" s="2"/>
-      <c r="G17" s="11"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="2"/>
       <c r="K17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="9">
         <v>111.25</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
@@ -4104,44 +4713,44 @@
     </row>
     <row r="18" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F18" s="2"/>
-      <c r="G18" s="11"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="2"/>
       <c r="K18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="9">
         <v>37.5</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F19" s="2"/>
-      <c r="G19" s="11"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="2"/>
       <c r="K19" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="L19" s="11">
+        <v>121</v>
+      </c>
+      <c r="L19" s="9">
         <v>234.25</v>
       </c>
       <c r="M19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N19" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="20" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F20" s="2"/>
-      <c r="G20" s="11"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="2"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="11"/>
+      <c r="L20" s="9"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="P20">
@@ -4151,244 +4760,244 @@
     </row>
     <row r="21" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F21" s="2"/>
-      <c r="G21" s="11"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="2"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="11"/>
+      <c r="L21" s="9"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F22" s="2"/>
-      <c r="G22" s="11"/>
+      <c r="G22" s="9"/>
       <c r="H22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="11"/>
+      <c r="L22" s="9"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F23" s="2"/>
-      <c r="G23" s="11"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="11"/>
+      <c r="L23" s="9"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F24" s="2"/>
-      <c r="G24" s="11"/>
+      <c r="G24" s="9"/>
       <c r="H24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="11"/>
+      <c r="L24" s="9"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F25" s="2"/>
-      <c r="G25" s="11"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="11"/>
+      <c r="L25" s="9"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F26" s="2"/>
-      <c r="G26" s="11"/>
+      <c r="G26" s="9"/>
       <c r="H26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="11"/>
+      <c r="L26" s="9"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
     <row r="27" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F27" s="2"/>
-      <c r="G27" s="11"/>
+      <c r="G27" s="9"/>
       <c r="H27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="11"/>
+      <c r="L27" s="9"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
     <row r="28" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F28" s="2"/>
-      <c r="G28" s="11"/>
+      <c r="G28" s="9"/>
       <c r="H28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="11"/>
+      <c r="L28" s="9"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
     <row r="29" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F29" s="2"/>
-      <c r="G29" s="11"/>
+      <c r="G29" s="9"/>
       <c r="H29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="11"/>
+      <c r="L29" s="9"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
     <row r="30" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F30" s="2"/>
-      <c r="G30" s="11"/>
+      <c r="G30" s="9"/>
       <c r="H30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="11"/>
+      <c r="L30" s="9"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
     <row r="31" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F31" s="2"/>
-      <c r="G31" s="11"/>
+      <c r="G31" s="9"/>
       <c r="H31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="11"/>
+      <c r="L31" s="9"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
     <row r="32" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F32" s="2"/>
-      <c r="G32" s="11"/>
+      <c r="G32" s="9"/>
       <c r="H32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="11"/>
+      <c r="L32" s="9"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
     <row r="33" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F33" s="2"/>
-      <c r="G33" s="11"/>
+      <c r="G33" s="9"/>
       <c r="H33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="11"/>
+      <c r="L33" s="9"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
     <row r="34" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F34" s="2"/>
-      <c r="G34" s="11"/>
+      <c r="G34" s="9"/>
       <c r="H34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="11"/>
+      <c r="L34" s="9"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
     <row r="35" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F35" s="2"/>
-      <c r="G35" s="11"/>
+      <c r="G35" s="9"/>
       <c r="H35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="11"/>
+      <c r="L35" s="9"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
     <row r="36" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F36" s="2"/>
-      <c r="G36" s="11"/>
+      <c r="G36" s="9"/>
       <c r="H36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="11"/>
+      <c r="L36" s="9"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
     <row r="37" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F37" s="2"/>
-      <c r="G37" s="11"/>
+      <c r="G37" s="9"/>
       <c r="H37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="11"/>
+      <c r="L37" s="9"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
     <row r="38" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F38" s="2"/>
-      <c r="G38" s="11"/>
+      <c r="G38" s="9"/>
       <c r="H38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="11"/>
+      <c r="L38" s="9"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
     <row r="39" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F39" s="2"/>
-      <c r="G39" s="11"/>
+      <c r="G39" s="9"/>
       <c r="H39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="11"/>
+      <c r="L39" s="9"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
     <row r="40" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F40" s="2"/>
-      <c r="G40" s="11"/>
+      <c r="G40" s="9"/>
       <c r="H40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="11"/>
+      <c r="L40" s="9"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
     <row r="41" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F41" s="2"/>
-      <c r="G41" s="11"/>
+      <c r="G41" s="9"/>
       <c r="H41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="11"/>
+      <c r="L41" s="9"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
     <row r="42" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F42" s="2"/>
-      <c r="G42" s="11"/>
+      <c r="G42" s="9"/>
       <c r="H42" s="2"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="11"/>
+      <c r="L42" s="9"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
     <row r="43" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F43" s="2"/>
-      <c r="G43" s="11"/>
+      <c r="G43" s="9"/>
       <c r="H43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="11"/>
+      <c r="L43" s="9"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
     <row r="44" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F44" s="2"/>
-      <c r="G44" s="11"/>
+      <c r="G44" s="9"/>
       <c r="H44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="11"/>
+      <c r="L44" s="9"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
     </row>
     <row r="45" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F45" s="2"/>
-      <c r="G45" s="11"/>
+      <c r="G45" s="9"/>
       <c r="H45" s="2"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="11"/>
+      <c r="L45" s="9"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
     </row>
     <row r="46" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F46" s="2"/>
-      <c r="G46" s="11"/>
+      <c r="G46" s="9"/>
       <c r="H46" s="2"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="11"/>
+      <c r="L46" s="9"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
     </row>
     <row r="47" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F47" s="3"/>
-      <c r="G47" s="12"/>
+      <c r="G47" s="10"/>
       <c r="H47" s="3"/>
       <c r="K47" s="3"/>
-      <c r="L47" s="12"/>
+      <c r="L47" s="10"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
     </row>
@@ -4406,600 +5015,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD23EB3-FE0B-4D28-A04E-DA4ABD2C8717}">
-  <dimension ref="B1:T45"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.453125" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" customWidth="1"/>
-    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.453125" customWidth="1"/>
-    <col min="12" max="12" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.6328125" customWidth="1"/>
-    <col min="15" max="15" width="18.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B3" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B5" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B6" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B7" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B8" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="26"/>
-    </row>
-    <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="26"/>
-      <c r="E11" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="J11" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="41"/>
-    </row>
-    <row r="12" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="26"/>
-      <c r="E12" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="O12" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C13" s="26"/>
-      <c r="E13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="10">
-        <v>900</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="10">
-        <v>1655.6866600000001</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="22"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C14" s="26"/>
-      <c r="E14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="11">
-        <v>600</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="11">
-        <v>142.5</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C15" s="26"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="2"/>
-      <c r="J15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K15" s="11">
-        <v>104.65</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C16" s="26"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="2"/>
-      <c r="J16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" s="11">
-        <v>113.833</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="O16" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C17" s="26"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="2"/>
-      <c r="J17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="11">
-        <v>246.67</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C18" s="26"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="2"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="2"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C19" s="26"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="2"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="2"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C20" s="26"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="2"/>
-      <c r="O20" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C21" s="26"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="2"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C22" s="26"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="2"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C23" s="26"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="2"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C24" s="26"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C25" s="26"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C26" s="26"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C27" s="26"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C28" s="26"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C29" s="26"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C30" s="26"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C31" s="26"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C32" s="26"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C33" s="26"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C34" s="26"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C35" s="26"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="2"/>
-    </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C36" s="26"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="E37" s="2"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="2"/>
-    </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="E38" s="2"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="E39" s="2"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="E40" s="2"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="E41" s="2"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="2"/>
-    </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="E42" s="2"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="E43" s="2"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="2"/>
-    </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="E44" s="2"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="2"/>
-    </row>
-    <row r="45" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E45" s="3"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="O12:T15"/>
-    <mergeCell ref="O16:T19"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="O20:T23"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1350C4-6C4D-4B59-A3BC-5B1F652DB40B}">
   <dimension ref="B1:L45"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5010,80 +5030,80 @@
     <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.54296875" customWidth="1"/>
     <col min="12" max="12" width="16.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>100</v>
+      <c r="C4" s="32" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>53</v>
+      <c r="C9" s="27" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="26"/>
+      <c r="C10" s="24"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="26"/>
+      <c r="C11" s="24"/>
       <c r="E11" s="39" t="s">
         <v>15</v>
       </c>
@@ -5096,348 +5116,1014 @@
       <c r="L11" s="41"/>
     </row>
     <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="26"/>
-      <c r="E12" s="17" t="s">
+      <c r="C12" s="24"/>
+      <c r="E12" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C13" s="26"/>
+      <c r="C13" s="24"/>
       <c r="E13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="10">
-        <v>480</v>
+        <v>52</v>
+      </c>
+      <c r="F13" s="8">
+        <v>576</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="10">
-        <v>204</v>
+        <v>53</v>
+      </c>
+      <c r="K13" s="8">
+        <v>93.665999999999997</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C14" s="26"/>
+      <c r="C14" s="24"/>
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="11">
-        <v>480</v>
+      <c r="F14" s="9">
+        <v>576</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="11">
+        <v>53</v>
+      </c>
+      <c r="K14" s="9">
         <v>18</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C15" s="26"/>
+      <c r="C15" s="24"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="11"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="2"/>
       <c r="J15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="11">
+        <v>53</v>
+      </c>
+      <c r="K15" s="9">
         <v>18</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C16" s="26"/>
+      <c r="C16" s="24"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="11"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="2"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="2"/>
+      <c r="J16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="9">
+        <v>158.333</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="26"/>
+      <c r="C17" s="24"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="11"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="2"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="11"/>
+      <c r="K17" s="9"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="26"/>
+      <c r="C18" s="24"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="2"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="11"/>
+      <c r="K18" s="9"/>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="26"/>
+      <c r="C19" s="24"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="2"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="11"/>
+      <c r="K19" s="9"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C20" s="26"/>
+      <c r="C20" s="24"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="11"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="11"/>
+      <c r="K20" s="9"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="26"/>
+      <c r="C21" s="24"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="11"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="11"/>
+      <c r="K21" s="9"/>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="26"/>
+      <c r="C22" s="24"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="11"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="11"/>
+      <c r="K22" s="9"/>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C23" s="26"/>
+      <c r="C23" s="24"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="11"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="11"/>
+      <c r="K23" s="9"/>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C24" s="26"/>
+      <c r="C24" s="24"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="11"/>
+      <c r="K24" s="9"/>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C25" s="26"/>
+      <c r="C25" s="24"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="11"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="11"/>
+      <c r="K25" s="9"/>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="26"/>
+      <c r="C26" s="24"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="11"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="11"/>
+      <c r="K26" s="9"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C27" s="26"/>
+      <c r="C27" s="24"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="11"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="11"/>
+      <c r="K27" s="9"/>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C28" s="26"/>
+      <c r="C28" s="24"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="11"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="11"/>
+      <c r="K28" s="9"/>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C29" s="26"/>
+      <c r="C29" s="24"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="11"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="11"/>
+      <c r="K29" s="9"/>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C30" s="26"/>
+      <c r="C30" s="24"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="11"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="11"/>
+      <c r="K30" s="9"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C31" s="26"/>
+      <c r="C31" s="24"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="11"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="11"/>
+      <c r="K31" s="9"/>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C32" s="26"/>
+      <c r="C32" s="24"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="11"/>
+      <c r="F32" s="9"/>
       <c r="G32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="11"/>
+      <c r="K32" s="9"/>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C33" s="26"/>
+      <c r="C33" s="24"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="11"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="11"/>
+      <c r="K33" s="9"/>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C34" s="26"/>
+      <c r="C34" s="24"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="11"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="11"/>
+      <c r="K34" s="9"/>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C35" s="26"/>
+      <c r="C35" s="24"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="11"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="11"/>
+      <c r="K35" s="9"/>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C36" s="26"/>
+      <c r="C36" s="24"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="11"/>
+      <c r="F36" s="9"/>
       <c r="G36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="11"/>
+      <c r="K36" s="9"/>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E37" s="2"/>
-      <c r="F37" s="11"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="11"/>
+      <c r="K37" s="9"/>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E38" s="2"/>
-      <c r="F38" s="11"/>
+      <c r="F38" s="9"/>
       <c r="G38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="11"/>
+      <c r="K38" s="9"/>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E39" s="2"/>
-      <c r="F39" s="11"/>
+      <c r="F39" s="9"/>
       <c r="G39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="11"/>
+      <c r="K39" s="9"/>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E40" s="2"/>
-      <c r="F40" s="11"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="11"/>
+      <c r="K40" s="9"/>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E41" s="2"/>
-      <c r="F41" s="11"/>
+      <c r="F41" s="9"/>
       <c r="G41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="11"/>
+      <c r="K41" s="9"/>
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E42" s="2"/>
-      <c r="F42" s="11"/>
+      <c r="F42" s="9"/>
       <c r="G42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="11"/>
+      <c r="K42" s="9"/>
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E43" s="2"/>
-      <c r="F43" s="11"/>
+      <c r="F43" s="9"/>
       <c r="G43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="11"/>
+      <c r="K43" s="9"/>
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E44" s="2"/>
-      <c r="F44" s="11"/>
+      <c r="F44" s="9"/>
       <c r="G44" s="2"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="11"/>
+      <c r="K44" s="9"/>
       <c r="L44" s="2"/>
     </row>
     <row r="45" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E45" s="3"/>
-      <c r="F45" s="12"/>
+      <c r="F45" s="10"/>
       <c r="G45" s="3"/>
       <c r="J45" s="3"/>
-      <c r="K45" s="12"/>
+      <c r="K45" s="10"/>
       <c r="L45" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="J11:L11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD23EB3-FE0B-4D28-A04E-DA4ABD2C8717}">
+  <dimension ref="B1:T45"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.36328125" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.54296875" customWidth="1"/>
+    <col min="12" max="12" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.6328125" customWidth="1"/>
+    <col min="15" max="15" width="18.08984375" customWidth="1"/>
+    <col min="23" max="24" width="19.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B8" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="24"/>
+    </row>
+    <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="24"/>
+      <c r="E11" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="J11" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="41"/>
+    </row>
+    <row r="12" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="24"/>
+      <c r="E12" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="C13" s="24"/>
+      <c r="E13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="8">
+        <v>900</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="8">
+        <f>2250-K14-K15-K16-K17-K18</f>
+        <v>369.67699999999968</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="20"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="C14" s="24"/>
+      <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="9">
+        <v>600</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="9">
+        <v>142.5</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="C15" s="24"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="2"/>
+      <c r="J15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="9">
+        <v>104.65</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="C16" s="24"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="2"/>
+      <c r="J16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="9">
+        <v>113.833</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O16" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C17" s="24"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="2"/>
+      <c r="J17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="9">
+        <v>246.67</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C18" s="24"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="2"/>
+      <c r="J18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="9">
+        <v>1272.67</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C19" s="24"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="2"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="2"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+    </row>
+    <row r="20" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="24"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C21" s="24"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="2"/>
+      <c r="O21" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C22" s="24"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C23" s="24"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="2"/>
+      <c r="O23" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C24" s="24"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="2"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C25" s="24"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="2"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C26" s="24"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="2"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C27" s="24"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="2"/>
+      <c r="O27" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C28" s="24"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="2"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C29" s="24"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="2"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C30" s="24"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="2"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C31" s="24"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="2"/>
+      <c r="O31" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C32" s="24"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="2"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+    </row>
+    <row r="33" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C33" s="24"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="2"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="42"/>
+    </row>
+    <row r="34" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C34" s="24"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="2"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+    </row>
+    <row r="35" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C35" s="24"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C36" s="24"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="E37" s="2"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="E38" s="2"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="E39" s="2"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="E40" s="2"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="E41" s="2"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="E42" s="2"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="E43" s="2"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="E44" s="2"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E45" s="3"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="O27:T30"/>
+    <mergeCell ref="O31:T34"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="O12:T15"/>
+    <mergeCell ref="O16:T19"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="O23:T26"/>
+    <mergeCell ref="O21:T21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5448,7 +6134,7 @@
   <dimension ref="B1:S36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5465,11 +6151,11 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>58</v>
+      <c r="C2" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="E2" s="39" t="s">
         <v>15</v>
@@ -5483,32 +6169,32 @@
       <c r="L2" s="41"/>
     </row>
     <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="15" t="s">
         <v>24</v>
       </c>
       <c r="N3" s="42" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O3" s="42"/>
       <c r="P3" s="42"/>
@@ -5517,25 +6203,25 @@
       <c r="S3" s="42"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>84</v>
+      <c r="C4" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>960</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>33</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" s="10">
+        <v>54</v>
+      </c>
+      <c r="K4" s="8">
         <v>1140</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -5549,29 +6235,29 @@
       <c r="S4" s="42"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="26" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>960</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="11">
+        <v>54</v>
+      </c>
+      <c r="K5" s="9">
         <v>300</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N5" s="42"/>
       <c r="O5" s="42"/>
@@ -5581,17 +6267,17 @@
       <c r="S5" s="42"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>59</v>
+      <c r="C6" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="11"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="2"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="11"/>
+      <c r="K6" s="9"/>
       <c r="L6" s="2"/>
       <c r="N6" s="42"/>
       <c r="O6" s="42"/>
@@ -5601,288 +6287,288 @@
       <c r="S6" s="42"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>60</v>
+      <c r="C7" s="26" t="s">
+        <v>57</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="11"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="2"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="11"/>
+      <c r="K7" s="9"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>61</v>
+      <c r="C8" s="26" t="s">
+        <v>58</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="11"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="2"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="11"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>62</v>
+      <c r="C9" s="27" t="s">
+        <v>59</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="11"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="2"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="11"/>
+      <c r="K9" s="9"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C10" s="26"/>
+      <c r="C10" s="24"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="11"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="2"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="11"/>
+      <c r="K10" s="9"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C11" s="26"/>
+      <c r="C11" s="24"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="11"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="11"/>
+      <c r="K11" s="9"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C12" s="26"/>
+      <c r="C12" s="24"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="11"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="11"/>
+      <c r="K12" s="9"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C13" s="26"/>
+      <c r="C13" s="24"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="11"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="11"/>
+      <c r="K13" s="9"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C14" s="26"/>
+      <c r="C14" s="24"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="11"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="11"/>
+      <c r="K14" s="9"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C15" s="26"/>
+      <c r="C15" s="24"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="11"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="11"/>
+      <c r="K15" s="9"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C16" s="26"/>
+      <c r="C16" s="24"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="11"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="11"/>
+      <c r="K16" s="9"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="26"/>
+      <c r="C17" s="24"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="11"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="11"/>
+      <c r="K17" s="9"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="26"/>
+      <c r="C18" s="24"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="11"/>
+      <c r="K18" s="9"/>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="26"/>
+      <c r="C19" s="24"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="11"/>
+      <c r="K19" s="9"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C20" s="26"/>
+      <c r="C20" s="24"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="11"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="11"/>
+      <c r="K20" s="9"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="26"/>
+      <c r="C21" s="24"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="11"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="11"/>
+      <c r="K21" s="9"/>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="26"/>
+      <c r="C22" s="24"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="11"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="11"/>
+      <c r="K22" s="9"/>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C23" s="26"/>
+      <c r="C23" s="24"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="11"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="11"/>
+      <c r="K23" s="9"/>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C24" s="26"/>
+      <c r="C24" s="24"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="11"/>
+      <c r="K24" s="9"/>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C25" s="26"/>
+      <c r="C25" s="24"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="11"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="11"/>
+      <c r="K25" s="9"/>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="26"/>
+      <c r="C26" s="24"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="11"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="11"/>
+      <c r="K26" s="9"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C27" s="26"/>
+      <c r="C27" s="24"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="11"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="11"/>
+      <c r="K27" s="9"/>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C28" s="26"/>
+      <c r="C28" s="24"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="11"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="11"/>
+      <c r="K28" s="9"/>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C29" s="26"/>
+      <c r="C29" s="24"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="11"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="11"/>
+      <c r="K29" s="9"/>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C30" s="26"/>
+      <c r="C30" s="24"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="11"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="11"/>
+      <c r="K30" s="9"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C31" s="26"/>
+      <c r="C31" s="24"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="11"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="11"/>
+      <c r="K31" s="9"/>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C32" s="26"/>
+      <c r="C32" s="24"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="11"/>
+      <c r="F32" s="9"/>
       <c r="G32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="11"/>
+      <c r="K32" s="9"/>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C33" s="26"/>
+      <c r="C33" s="24"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="11"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="11"/>
+      <c r="K33" s="9"/>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C34" s="26"/>
+      <c r="C34" s="24"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="11"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="11"/>
+      <c r="K34" s="9"/>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C35" s="26"/>
+      <c r="C35" s="24"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="11"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="11"/>
+      <c r="K35" s="9"/>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C36" s="26"/>
+      <c r="C36" s="24"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="12"/>
+      <c r="F36" s="10"/>
       <c r="G36" s="3"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="12"/>
+      <c r="K36" s="10"/>
       <c r="L36" s="3"/>
     </row>
   </sheetData>
@@ -5917,71 +6603,71 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="46" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="31" t="s">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="28" t="s">
+    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="27" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="26"/>
+      <c r="C10" s="24"/>
       <c r="E10" s="39" t="s">
         <v>15</v>
       </c>
@@ -5994,41 +6680,41 @@
       <c r="L10" s="41"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="26"/>
-      <c r="E11" s="17" t="s">
+      <c r="C11" s="24"/>
+      <c r="E11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C12" s="26"/>
+      <c r="C12" s="24"/>
       <c r="E12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="10">
+        <v>61</v>
+      </c>
+      <c r="F12" s="8">
         <v>480</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K12" s="10">
+        <v>73</v>
+      </c>
+      <c r="K12" s="8">
         <v>61.6875</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -6036,20 +6722,20 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C13" s="26"/>
+      <c r="C13" s="24"/>
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <v>422.5</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="11">
+        <v>66</v>
+      </c>
+      <c r="K13" s="9">
         <v>45</v>
       </c>
       <c r="L13" s="4" t="s">
@@ -6057,20 +6743,20 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C14" s="26"/>
+      <c r="C14" s="24"/>
       <c r="E14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="11">
+        <v>54</v>
+      </c>
+      <c r="F14" s="9">
         <v>300</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="11">
+        <v>76</v>
+      </c>
+      <c r="K14" s="9">
         <v>45</v>
       </c>
       <c r="L14" s="4" t="s">
@@ -6078,20 +6764,20 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C15" s="26"/>
+      <c r="C15" s="24"/>
       <c r="E15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="9">
         <v>142.5</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K15" s="11">
+        <v>72</v>
+      </c>
+      <c r="K15" s="9">
         <v>33.125</v>
       </c>
       <c r="L15" s="4" t="s">
@@ -6099,20 +6785,20 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C16" s="26"/>
+      <c r="C16" s="24"/>
       <c r="E16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="9">
         <v>111.25</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16" s="11">
+        <v>70</v>
+      </c>
+      <c r="K16" s="9">
         <v>30</v>
       </c>
       <c r="L16" s="4" t="s">
@@ -6120,20 +6806,20 @@
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="26"/>
+      <c r="C17" s="24"/>
       <c r="E17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="11">
+        <v>53</v>
+      </c>
+      <c r="F17" s="9">
         <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K17" s="11">
+        <v>75</v>
+      </c>
+      <c r="K17" s="9">
         <v>30</v>
       </c>
       <c r="L17" s="4" t="s">
@@ -6141,14 +6827,14 @@
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="26"/>
+      <c r="C18" s="24"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="2"/>
       <c r="J18" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K18" s="11">
+        <v>80</v>
+      </c>
+      <c r="K18" s="9">
         <v>25</v>
       </c>
       <c r="L18" s="4" t="s">
@@ -6156,14 +6842,14 @@
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="26"/>
+      <c r="C19" s="24"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K19" s="11">
+        <v>77</v>
+      </c>
+      <c r="K19" s="9">
         <v>22.5</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -6171,14 +6857,14 @@
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C20" s="26"/>
+      <c r="C20" s="24"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="11"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K20" s="11">
+        <v>78</v>
+      </c>
+      <c r="K20" s="9">
         <v>20.5</v>
       </c>
       <c r="L20" s="4" t="s">
@@ -6186,14 +6872,14 @@
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="26"/>
+      <c r="C21" s="24"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="11"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K21" s="11">
+        <v>79</v>
+      </c>
+      <c r="K21" s="9">
         <v>15</v>
       </c>
       <c r="L21" s="4" t="s">
@@ -6201,14 +6887,14 @@
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="26"/>
+      <c r="C22" s="24"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="11"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K22" s="11">
+        <v>68</v>
+      </c>
+      <c r="K22" s="9">
         <v>7.3125</v>
       </c>
       <c r="L22" s="4" t="s">
@@ -6216,14 +6902,14 @@
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C23" s="26"/>
+      <c r="C23" s="24"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="11"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K23" s="11">
+        <v>74</v>
+      </c>
+      <c r="K23" s="9">
         <v>7.25</v>
       </c>
       <c r="L23" s="4" t="s">
@@ -6231,14 +6917,14 @@
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C24" s="26"/>
+      <c r="C24" s="24"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K24" s="11">
+        <v>67</v>
+      </c>
+      <c r="K24" s="9">
         <v>5</v>
       </c>
       <c r="L24" s="4" t="s">
@@ -6246,14 +6932,14 @@
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C25" s="26"/>
+      <c r="C25" s="24"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="11"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="2"/>
       <c r="J25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K25" s="11">
+        <v>69</v>
+      </c>
+      <c r="K25" s="9">
         <v>3</v>
       </c>
       <c r="L25" s="4" t="s">
@@ -6261,14 +6947,14 @@
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="26"/>
+      <c r="C26" s="24"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="11"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="2"/>
       <c r="J26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K26" s="11">
+        <v>65</v>
+      </c>
+      <c r="K26" s="9">
         <v>2.5</v>
       </c>
       <c r="L26" s="4" t="s">
@@ -6276,14 +6962,14 @@
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C27" s="26"/>
+      <c r="C27" s="24"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="11"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="2"/>
       <c r="J27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K27" s="11">
+        <v>64</v>
+      </c>
+      <c r="K27" s="9">
         <v>2.25</v>
       </c>
       <c r="L27" s="4" t="s">
@@ -6291,14 +6977,14 @@
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C28" s="26"/>
+      <c r="C28" s="24"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="11"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="2"/>
       <c r="J28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K28" s="11">
+        <v>63</v>
+      </c>
+      <c r="K28" s="9">
         <v>1.4065000000000001</v>
       </c>
       <c r="L28" s="4" t="s">
@@ -6306,14 +6992,14 @@
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C29" s="26"/>
+      <c r="C29" s="24"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="11"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="2"/>
       <c r="J29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K29" s="11">
+        <v>71</v>
+      </c>
+      <c r="K29" s="9">
         <v>0.5</v>
       </c>
       <c r="L29" s="4" t="s">
@@ -6321,130 +7007,130 @@
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C30" s="26"/>
+      <c r="C30" s="24"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="11"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="11"/>
+      <c r="K30" s="9"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C31" s="26"/>
+      <c r="C31" s="24"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="11"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="11"/>
+      <c r="K31" s="9"/>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C32" s="26"/>
+      <c r="C32" s="24"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="11"/>
+      <c r="F32" s="9"/>
       <c r="G32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="11"/>
+      <c r="K32" s="9"/>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C33" s="26"/>
+      <c r="C33" s="24"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="11"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="11"/>
+      <c r="K33" s="9"/>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C34" s="26"/>
+      <c r="C34" s="24"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="11"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="11"/>
+      <c r="K34" s="9"/>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C35" s="26"/>
+      <c r="C35" s="24"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="11"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="11"/>
+      <c r="K35" s="9"/>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C36" s="26"/>
+      <c r="C36" s="24"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="11"/>
+      <c r="F36" s="9"/>
       <c r="G36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="11"/>
+      <c r="K36" s="9"/>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E37" s="2"/>
-      <c r="F37" s="11"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="11"/>
+      <c r="K37" s="9"/>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E38" s="2"/>
-      <c r="F38" s="11"/>
+      <c r="F38" s="9"/>
       <c r="G38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="11"/>
+      <c r="K38" s="9"/>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E39" s="2"/>
-      <c r="F39" s="11"/>
+      <c r="F39" s="9"/>
       <c r="G39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="11"/>
+      <c r="K39" s="9"/>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E40" s="2"/>
-      <c r="F40" s="11"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="11"/>
+      <c r="K40" s="9"/>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E41" s="2"/>
-      <c r="F41" s="11"/>
+      <c r="F41" s="9"/>
       <c r="G41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="11"/>
+      <c r="K41" s="9"/>
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E42" s="2"/>
-      <c r="F42" s="11"/>
+      <c r="F42" s="9"/>
       <c r="G42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="11"/>
+      <c r="K42" s="9"/>
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E43" s="2"/>
-      <c r="F43" s="11"/>
+      <c r="F43" s="9"/>
       <c r="G43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="11"/>
+      <c r="K43" s="9"/>
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E44" s="3"/>
-      <c r="F44" s="12"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="12"/>
+      <c r="K44" s="10"/>
       <c r="L44" s="3"/>
     </row>
   </sheetData>
@@ -6461,16 +7147,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122A4D2D-7EB7-44FE-A97D-7046CE3D43BD}">
-  <dimension ref="B1:P44"/>
+  <dimension ref="B1:S44"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1796875" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
@@ -6478,76 +7164,76 @@
     <col min="11" max="11" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.453125" customWidth="1"/>
-    <col min="16" max="16" width="72.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B3" s="30" t="s">
+      <c r="C2" s="25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="2:19" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B5" s="24" t="s">
+      <c r="C4" s="44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B6" s="24" t="s">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B7" s="24" t="s">
+      <c r="C6" s="26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B8" s="24" t="s">
+      <c r="C7" s="26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="25" t="s">
+      <c r="C8" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="26"/>
+      <c r="C9" s="27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="24"/>
       <c r="E10" s="39" t="s">
         <v>15</v>
       </c>
@@ -6559,380 +7245,503 @@
       <c r="K10" s="40"/>
       <c r="L10" s="41"/>
     </row>
-    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="26"/>
-      <c r="E11" s="17" t="s">
+    <row r="11" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="24"/>
+      <c r="E11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="C12" s="26"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="C12" s="24"/>
       <c r="E12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="10">
-        <v>1260</v>
+        <v>91</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1380</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="K12" s="10">
-        <v>23.332999999999998</v>
+        <v>89</v>
+      </c>
+      <c r="K12" s="8">
+        <v>26.25</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="C13" s="26"/>
+    </row>
+    <row r="13" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="24"/>
       <c r="E13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="11">
+        <v>61</v>
+      </c>
+      <c r="F13" s="9">
         <v>500</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="K13" s="11">
+        <v>90</v>
+      </c>
+      <c r="K13" s="9">
         <v>19.443999999999999</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="C14" s="26"/>
+      <c r="N13" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="C14" s="24"/>
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="11">
-        <v>533.33299999999997</v>
+      <c r="F14" s="9">
+        <v>600</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="K14" s="11">
-        <v>669.33299999999997</v>
+        <v>89</v>
+      </c>
+      <c r="K14" s="9">
+        <v>459.75</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="C15" s="26"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="C15" s="24"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="11"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="2"/>
       <c r="J15" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="K15" s="11">
-        <v>635.40554999999995</v>
+        <v>90</v>
+      </c>
+      <c r="K15" s="9">
+        <v>29.405550000000002</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="C16" s="26"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+    </row>
+    <row r="16" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="24"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="11"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="2"/>
       <c r="J16" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="K16" s="11">
+        <v>89</v>
+      </c>
+      <c r="K16" s="9">
         <v>54</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="26"/>
+        <v>93</v>
+      </c>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+    </row>
+    <row r="17" spans="3:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="24"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="11"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="2"/>
       <c r="J17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="9">
+        <v>45.15</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="K17" s="11">
-        <v>45.15</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="26"/>
+      <c r="N17" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C18" s="24"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="2"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="26"/>
+      <c r="J18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="9">
+        <v>300</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C19" s="24"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C20" s="26"/>
+      <c r="J19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" s="9">
+        <v>606</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C20" s="24"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="11"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="11"/>
+      <c r="K20" s="9"/>
       <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="26"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C21" s="24"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="11"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="11"/>
+      <c r="K21" s="9"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="26"/>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C22" s="24"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="11"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="11"/>
+      <c r="K22" s="9"/>
       <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C23" s="26"/>
+      <c r="N22" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C23" s="24"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="11"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="11"/>
+      <c r="K23" s="9"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C24" s="26"/>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C24" s="24"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="11"/>
+      <c r="K24" s="9"/>
       <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C25" s="26"/>
+      <c r="N24" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C25" s="24"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="11"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="11"/>
+      <c r="K25" s="9"/>
       <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="26"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C26" s="24"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="11"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="11"/>
+      <c r="K26" s="9"/>
       <c r="L26" s="4"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C27" s="26"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C27" s="24"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="11"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="11"/>
+      <c r="K27" s="9"/>
       <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C28" s="26"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C28" s="24"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="11"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="11"/>
+      <c r="K28" s="9"/>
       <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C29" s="26"/>
+      <c r="N28" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C29" s="24"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="11"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="11"/>
+      <c r="K29" s="9"/>
       <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C30" s="26"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C30" s="24"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="11"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="11"/>
+      <c r="K30" s="9"/>
       <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C31" s="26"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C31" s="24"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="11"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="11"/>
+      <c r="K31" s="9"/>
       <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C32" s="26"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="42"/>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C32" s="24"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="11"/>
+      <c r="F32" s="9"/>
       <c r="G32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="11"/>
+      <c r="K32" s="9"/>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C33" s="26"/>
+      <c r="C33" s="24"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="11"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="11"/>
+      <c r="K33" s="9"/>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C34" s="26"/>
+      <c r="C34" s="24"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="11"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="11"/>
+      <c r="K34" s="9"/>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C35" s="26"/>
+      <c r="C35" s="24"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="11"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="11"/>
+      <c r="K35" s="9"/>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C36" s="26"/>
+      <c r="C36" s="24"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="11"/>
+      <c r="F36" s="9"/>
       <c r="G36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="11"/>
+      <c r="K36" s="9"/>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E37" s="2"/>
-      <c r="F37" s="11"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="11"/>
+      <c r="K37" s="9"/>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E38" s="2"/>
-      <c r="F38" s="11"/>
+      <c r="F38" s="9"/>
       <c r="G38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="11"/>
+      <c r="K38" s="9"/>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E39" s="2"/>
-      <c r="F39" s="11"/>
+      <c r="F39" s="9"/>
       <c r="G39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="11"/>
+      <c r="K39" s="9"/>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E40" s="2"/>
-      <c r="F40" s="11"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="11"/>
+      <c r="K40" s="9"/>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E41" s="2"/>
-      <c r="F41" s="11"/>
+      <c r="F41" s="9"/>
       <c r="G41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="11"/>
+      <c r="K41" s="9"/>
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E42" s="2"/>
-      <c r="F42" s="11"/>
+      <c r="F42" s="9"/>
       <c r="G42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="11"/>
+      <c r="K42" s="9"/>
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E43" s="2"/>
-      <c r="F43" s="11"/>
+      <c r="F43" s="9"/>
       <c r="G43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="11"/>
+      <c r="K43" s="9"/>
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E44" s="3"/>
-      <c r="F44" s="12"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="12"/>
+      <c r="K44" s="10"/>
       <c r="L44" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
+    <mergeCell ref="N28:S31"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="J10:L10"/>
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="N24:S27"/>
+    <mergeCell ref="N13:S16"/>
+    <mergeCell ref="N17:S20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6942,8 +7751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56653220-9795-4D3E-A3FB-8E6AD78BB38D}">
   <dimension ref="B1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L44"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6960,71 +7769,71 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>107</v>
-      </c>
-    </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>108</v>
+      <c r="C9" s="27" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="26"/>
+      <c r="C10" s="24"/>
       <c r="E10" s="39" t="s">
         <v>15</v>
       </c>
@@ -7037,41 +7846,41 @@
       <c r="L10" s="41"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="26"/>
-      <c r="E11" s="17" t="s">
+      <c r="C11" s="24"/>
+      <c r="E11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C12" s="26"/>
+      <c r="C12" s="24"/>
       <c r="E12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="10">
+        <v>53</v>
+      </c>
+      <c r="F12" s="8">
         <v>18</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>50</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K12" s="10">
+        <v>101</v>
+      </c>
+      <c r="K12" s="8">
         <v>1.5</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -7079,20 +7888,20 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C13" s="26"/>
+      <c r="C13" s="24"/>
       <c r="E13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <v>37.5</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>33</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="K13" s="11">
+        <v>102</v>
+      </c>
+      <c r="K13" s="9">
         <v>1.5</v>
       </c>
       <c r="L13" s="4" t="s">
@@ -7100,20 +7909,20 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C14" s="26"/>
+      <c r="C14" s="24"/>
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="9">
         <v>37.65</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="K14" s="11">
+        <v>103</v>
+      </c>
+      <c r="K14" s="9">
         <v>2.25</v>
       </c>
       <c r="L14" s="4" t="s">
@@ -7121,20 +7930,20 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C15" s="26"/>
+      <c r="C15" s="24"/>
       <c r="E15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="11">
+        <v>90</v>
+      </c>
+      <c r="F15" s="9">
         <v>45.15</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="K15" s="11">
+        <v>104</v>
+      </c>
+      <c r="K15" s="9">
         <v>3</v>
       </c>
       <c r="L15" s="4" t="s">
@@ -7142,20 +7951,20 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C16" s="26"/>
+      <c r="C16" s="24"/>
       <c r="E16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="11">
+        <v>89</v>
+      </c>
+      <c r="F16" s="9">
         <v>54</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="K16" s="11">
+        <v>105</v>
+      </c>
+      <c r="K16" s="9">
         <v>6</v>
       </c>
       <c r="L16" s="4" t="s">
@@ -7163,253 +7972,253 @@
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="26"/>
+      <c r="C17" s="24"/>
       <c r="E17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="9">
         <v>104.65</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="11"/>
+      <c r="K17" s="9"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="26"/>
+      <c r="C18" s="24"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="2"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="11"/>
+      <c r="K18" s="9"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="26"/>
+      <c r="C19" s="24"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="11"/>
+      <c r="K19" s="9"/>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C20" s="26"/>
+      <c r="C20" s="24"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="11"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="11"/>
+      <c r="K20" s="9"/>
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="26"/>
+      <c r="C21" s="24"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="11"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="11"/>
+      <c r="K21" s="9"/>
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="26"/>
+      <c r="C22" s="24"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="11"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="11"/>
+      <c r="K22" s="9"/>
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C23" s="26"/>
+      <c r="C23" s="24"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="11"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="11"/>
+      <c r="K23" s="9"/>
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C24" s="26"/>
+      <c r="C24" s="24"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="11"/>
+      <c r="K24" s="9"/>
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C25" s="26"/>
+      <c r="C25" s="24"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="11"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="11"/>
+      <c r="K25" s="9"/>
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="26"/>
+      <c r="C26" s="24"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="11"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="11"/>
+      <c r="K26" s="9"/>
       <c r="L26" s="4"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C27" s="26"/>
+      <c r="C27" s="24"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="11"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="11"/>
+      <c r="K27" s="9"/>
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C28" s="26"/>
+      <c r="C28" s="24"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="11"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="11"/>
+      <c r="K28" s="9"/>
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C29" s="26"/>
+      <c r="C29" s="24"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="11"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="11"/>
+      <c r="K29" s="9"/>
       <c r="L29" s="4"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C30" s="26"/>
+      <c r="C30" s="24"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="11"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="11"/>
+      <c r="K30" s="9"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C31" s="26"/>
+      <c r="C31" s="24"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="11"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="11"/>
+      <c r="K31" s="9"/>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C32" s="26"/>
+      <c r="C32" s="24"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="11"/>
+      <c r="F32" s="9"/>
       <c r="G32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="11"/>
+      <c r="K32" s="9"/>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C33" s="26"/>
+      <c r="C33" s="24"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="11"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="11"/>
+      <c r="K33" s="9"/>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C34" s="26"/>
+      <c r="C34" s="24"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="11"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="11"/>
+      <c r="K34" s="9"/>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C35" s="26"/>
+      <c r="C35" s="24"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="11"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="11"/>
+      <c r="K35" s="9"/>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C36" s="26"/>
+      <c r="C36" s="24"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="11"/>
+      <c r="F36" s="9"/>
       <c r="G36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="11"/>
+      <c r="K36" s="9"/>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E37" s="2"/>
-      <c r="F37" s="11"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="11"/>
+      <c r="K37" s="9"/>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E38" s="2"/>
-      <c r="F38" s="11"/>
+      <c r="F38" s="9"/>
       <c r="G38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="11"/>
+      <c r="K38" s="9"/>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E39" s="2"/>
-      <c r="F39" s="11"/>
+      <c r="F39" s="9"/>
       <c r="G39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="11"/>
+      <c r="K39" s="9"/>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E40" s="2"/>
-      <c r="F40" s="11"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="11"/>
+      <c r="K40" s="9"/>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E41" s="2"/>
-      <c r="F41" s="11"/>
+      <c r="F41" s="9"/>
       <c r="G41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="11"/>
+      <c r="K41" s="9"/>
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E42" s="2"/>
-      <c r="F42" s="11"/>
+      <c r="F42" s="9"/>
       <c r="G42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="11"/>
+      <c r="K42" s="9"/>
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E43" s="2"/>
-      <c r="F43" s="11"/>
+      <c r="F43" s="9"/>
       <c r="G43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="11"/>
+      <c r="K43" s="9"/>
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E44" s="3"/>
-      <c r="F44" s="12"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="12"/>
+      <c r="K44" s="10"/>
       <c r="L44" s="3"/>
     </row>
   </sheetData>

--- a/Game Stuff/Spreadsheet.xlsx
+++ b/Game Stuff/Spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Nicos Blueprints_Phyrexian Datavault\Game Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\jUND ICONOCLAST\Game Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE4B23D-EA0A-4594-9859-6DBA38760E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F8CFFF-043A-41C0-A981-8B04EF560A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="4" activeTab="11" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
   </bookViews>
   <sheets>
     <sheet name="Material Summary" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="177">
   <si>
     <t>Item</t>
   </si>
@@ -573,6 +573,12 @@
   </si>
   <si>
     <t>1.76 Hours</t>
+  </si>
+  <si>
+    <t>Empty Fluid Tank</t>
+  </si>
+  <si>
+    <t>Jund Pyroclast</t>
   </si>
 </sst>
 </file>
@@ -864,7 +870,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -944,6 +950,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -957,12 +972,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1301,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DEAD1A-BE12-4BD3-A45F-18807DFF108B}">
   <dimension ref="C3:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J59"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1310,25 +1319,25 @@
     <col min="3" max="3" width="23.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="44"/>
     </row>
     <row r="5" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="15" t="s">
@@ -1354,13 +1363,13 @@
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C6" s="4" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="D6" s="8">
-        <v>10</v>
+        <v>410</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="H6" s="20" t="s">
         <v>5</v>
@@ -1573,15 +1582,9 @@
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C17" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="9">
-        <v>410</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>134</v>
-      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="4"/>
       <c r="H17" s="2" t="s">
         <v>72</v>
       </c>
@@ -1891,7 +1894,7 @@
         <v>140</v>
       </c>
       <c r="I39" s="11">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>134</v>
@@ -1909,7 +1912,7 @@
       </c>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H41" s="11" t="s">
+      <c r="H41" s="41" t="s">
         <v>169</v>
       </c>
       <c r="I41" s="11">
@@ -1920,7 +1923,7 @@
       </c>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H42" s="11" t="s">
+      <c r="H42" s="41" t="s">
         <v>170</v>
       </c>
       <c r="I42" s="11">
@@ -1931,14 +1934,26 @@
       </c>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H43" s="2"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="2"/>
+      <c r="H43" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I43" s="11">
+        <v>5</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H44" s="2"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="2"/>
+      <c r="H44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="11">
+        <v>10</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H45" s="2"/>
@@ -2066,7 +2081,7 @@
       <c r="B4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="39" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2112,17 +2127,17 @@
     </row>
     <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="24"/>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="J10" s="39" t="s">
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="J10" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="41"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="44"/>
     </row>
     <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="24"/>
@@ -2169,14 +2184,14 @@
         <v>8</v>
       </c>
       <c r="M12" s="20"/>
-      <c r="O12" s="42" t="s">
+      <c r="O12" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C13" s="24"/>
@@ -2199,12 +2214,12 @@
         <v>25</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C14" s="24"/>
@@ -2221,12 +2236,12 @@
         <v>25</v>
       </c>
       <c r="M14" s="2"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C15" s="24"/>
@@ -2243,12 +2258,12 @@
         <v>8</v>
       </c>
       <c r="M15" s="2"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C16" s="24"/>
@@ -2265,14 +2280,14 @@
         <v>114</v>
       </c>
       <c r="M16" s="2"/>
-      <c r="O16" s="42" t="s">
+      <c r="O16" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C17" s="24"/>
@@ -2289,12 +2304,12 @@
         <v>114</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C18" s="24"/>
@@ -2311,12 +2326,12 @@
         <v>154</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C19" s="24"/>
@@ -2333,12 +2348,12 @@
         <v>154</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C20" s="24"/>
@@ -2359,14 +2374,14 @@
       <c r="K21" s="9"/>
       <c r="L21" s="4"/>
       <c r="M21" s="2"/>
-      <c r="O21" s="43" t="s">
+      <c r="O21" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C22" s="24"/>
@@ -2387,14 +2402,14 @@
       <c r="K23" s="9"/>
       <c r="L23" s="4"/>
       <c r="M23" s="2"/>
-      <c r="O23" s="42" t="s">
+      <c r="O23" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C24" s="24"/>
@@ -2405,12 +2420,12 @@
       <c r="K24" s="9"/>
       <c r="L24" s="4"/>
       <c r="M24" s="2"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C25" s="24"/>
@@ -2421,12 +2436,12 @@
       <c r="K25" s="9"/>
       <c r="L25" s="4"/>
       <c r="M25" s="2"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C26" s="24"/>
@@ -2437,12 +2452,12 @@
       <c r="K26" s="9"/>
       <c r="L26" s="4"/>
       <c r="M26" s="2"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C27" s="24"/>
@@ -2453,14 +2468,14 @@
       <c r="K27" s="9"/>
       <c r="L27" s="4"/>
       <c r="M27" s="2"/>
-      <c r="O27" s="42" t="s">
+      <c r="O27" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C28" s="24"/>
@@ -2471,12 +2486,12 @@
       <c r="K28" s="9"/>
       <c r="L28" s="4"/>
       <c r="M28" s="2"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C29" s="24"/>
@@ -2487,12 +2502,12 @@
       <c r="K29" s="9"/>
       <c r="L29" s="4"/>
       <c r="M29" s="2"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C30" s="24"/>
@@ -2503,12 +2518,12 @@
       <c r="K30" s="9"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="42"/>
-      <c r="T30" s="42"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C31" s="24"/>
@@ -2743,16 +2758,16 @@
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="24"/>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="J10" s="39" t="s">
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="J10" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="40"/>
-      <c r="L10" s="41"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="44"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="24"/>
@@ -3125,8 +3140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED21A768-E1F1-4F70-B6C9-A662B38F9ACD}">
   <dimension ref="B1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3209,16 +3224,16 @@
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="24"/>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="J10" s="39" t="s">
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="J10" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="40"/>
-      <c r="L10" s="41"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="44"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="24"/>
@@ -3319,7 +3334,7 @@
         <v>140</v>
       </c>
       <c r="K15" s="9">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>8</v>
@@ -3387,18 +3402,30 @@
       <c r="E19" s="2"/>
       <c r="F19" s="9"/>
       <c r="G19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="4"/>
+      <c r="J19" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="K19" s="9">
+        <v>5</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C20" s="24"/>
       <c r="E20" s="2"/>
       <c r="F20" s="9"/>
       <c r="G20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="4"/>
+      <c r="J20" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K20" s="9">
+        <v>150</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C21" s="24"/>
@@ -3704,16 +3731,16 @@
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="24"/>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="J10" s="39" t="s">
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="J10" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="40"/>
-      <c r="L10" s="41"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="44"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="24"/>
@@ -3747,7 +3774,7 @@
       <c r="G12" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="J12" s="45">
+      <c r="J12" s="40">
         <v>10</v>
       </c>
       <c r="K12" s="8" t="s">
@@ -3768,7 +3795,7 @@
       <c r="G13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J13" s="45">
+      <c r="J13" s="40">
         <v>10</v>
       </c>
       <c r="K13" s="9" t="s">
@@ -3789,7 +3816,7 @@
       <c r="G14" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J14" s="45"/>
+      <c r="J14" s="40"/>
       <c r="K14" s="9"/>
       <c r="L14" s="4"/>
     </row>
@@ -3804,7 +3831,7 @@
       <c r="G15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="45"/>
+      <c r="J15" s="40"/>
       <c r="K15" s="9"/>
       <c r="L15" s="4"/>
     </row>
@@ -3819,7 +3846,7 @@
       <c r="G16" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J16" s="45"/>
+      <c r="J16" s="40"/>
       <c r="K16" s="9"/>
       <c r="L16" s="4"/>
     </row>
@@ -3834,7 +3861,7 @@
       <c r="G17" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J17" s="45"/>
+      <c r="J17" s="40"/>
       <c r="K17" s="9"/>
       <c r="L17" s="4"/>
     </row>
@@ -3849,7 +3876,7 @@
       <c r="G18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J18" s="45"/>
+      <c r="J18" s="40"/>
       <c r="K18" s="9"/>
       <c r="L18" s="4"/>
     </row>
@@ -4099,7 +4126,7 @@
   <dimension ref="C3:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4122,16 +4149,16 @@
       <c r="D4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="41"/>
-      <c r="K4" s="39" t="s">
+      <c r="G4" s="43"/>
+      <c r="H4" s="44"/>
+      <c r="K4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="40"/>
-      <c r="M4" s="41"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="44"/>
     </row>
     <row r="5" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="18" t="s">
@@ -4259,8 +4286,8 @@
       <c r="L9" s="9">
         <v>10</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>25</v>
+      <c r="M9" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.35">
@@ -4593,17 +4620,17 @@
     </row>
     <row r="12" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="41"/>
-      <c r="K13" s="39" t="s">
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
+      <c r="K13" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="41"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="44"/>
     </row>
     <row r="14" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F14" s="15" t="s">
@@ -4627,13 +4654,13 @@
       <c r="N14" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="P14" s="42" t="s">
+      <c r="P14" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
     </row>
     <row r="15" spans="3:20" x14ac:dyDescent="0.35">
       <c r="F15" s="4" t="s">
@@ -4655,11 +4682,11 @@
         <v>25</v>
       </c>
       <c r="N15" s="20"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
     </row>
     <row r="16" spans="3:20" x14ac:dyDescent="0.35">
       <c r="F16" s="2" t="s">
@@ -4683,11 +4710,11 @@
       <c r="N16" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
     </row>
     <row r="17" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F17" s="2"/>
@@ -4705,11 +4732,11 @@
       <c r="N17" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
     </row>
     <row r="18" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F18" s="2"/>
@@ -5104,16 +5131,16 @@
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="24"/>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="J11" s="39" t="s">
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
+      <c r="J11" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="40"/>
-      <c r="L11" s="41"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="44"/>
     </row>
     <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="24"/>
@@ -5562,17 +5589,17 @@
     </row>
     <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="24"/>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="J11" s="39" t="s">
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
+      <c r="J11" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="41"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
     </row>
     <row r="12" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="24"/>
@@ -5597,14 +5624,14 @@
       <c r="M12" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="O12" s="42" t="s">
+      <c r="O12" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C13" s="24"/>
@@ -5628,12 +5655,12 @@
         <v>25</v>
       </c>
       <c r="M13" s="20"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C14" s="24"/>
@@ -5658,12 +5685,12 @@
       <c r="M14" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C15" s="24"/>
@@ -5682,12 +5709,12 @@
       <c r="M15" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C16" s="24"/>
@@ -5706,14 +5733,14 @@
       <c r="M16" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="O16" s="42" t="s">
+      <c r="O16" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C17" s="24"/>
@@ -5732,12 +5759,12 @@
       <c r="M17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C18" s="24"/>
@@ -5754,12 +5781,12 @@
         <v>154</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C19" s="24"/>
@@ -5770,12 +5797,12 @@
       <c r="K19" s="9"/>
       <c r="L19" s="6"/>
       <c r="M19" s="2"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
     </row>
     <row r="20" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C20" s="24"/>
@@ -5796,14 +5823,14 @@
       <c r="K21" s="9"/>
       <c r="L21" s="6"/>
       <c r="M21" s="2"/>
-      <c r="O21" s="43" t="s">
+      <c r="O21" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C22" s="24"/>
@@ -5824,14 +5851,14 @@
       <c r="K23" s="9"/>
       <c r="L23" s="6"/>
       <c r="M23" s="2"/>
-      <c r="O23" s="42" t="s">
+      <c r="O23" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C24" s="24"/>
@@ -5842,12 +5869,12 @@
       <c r="K24" s="9"/>
       <c r="L24" s="6"/>
       <c r="M24" s="2"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C25" s="24"/>
@@ -5858,12 +5885,12 @@
       <c r="K25" s="9"/>
       <c r="L25" s="6"/>
       <c r="M25" s="2"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C26" s="24"/>
@@ -5874,12 +5901,12 @@
       <c r="K26" s="9"/>
       <c r="L26" s="6"/>
       <c r="M26" s="2"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C27" s="24"/>
@@ -5890,14 +5917,14 @@
       <c r="K27" s="9"/>
       <c r="L27" s="6"/>
       <c r="M27" s="2"/>
-      <c r="O27" s="42" t="s">
+      <c r="O27" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C28" s="24"/>
@@ -5908,12 +5935,12 @@
       <c r="K28" s="9"/>
       <c r="L28" s="6"/>
       <c r="M28" s="2"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C29" s="24"/>
@@ -5924,12 +5951,12 @@
       <c r="K29" s="9"/>
       <c r="L29" s="6"/>
       <c r="M29" s="2"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C30" s="24"/>
@@ -5940,12 +5967,12 @@
       <c r="K30" s="9"/>
       <c r="L30" s="6"/>
       <c r="M30" s="2"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="42"/>
-      <c r="T30" s="42"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C31" s="24"/>
@@ -5956,14 +5983,14 @@
       <c r="K31" s="9"/>
       <c r="L31" s="6"/>
       <c r="M31" s="2"/>
-      <c r="O31" s="42" t="s">
+      <c r="O31" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
     </row>
     <row r="32" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C32" s="24"/>
@@ -5974,12 +6001,12 @@
       <c r="K32" s="9"/>
       <c r="L32" s="6"/>
       <c r="M32" s="2"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
     </row>
     <row r="33" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C33" s="24"/>
@@ -5990,12 +6017,12 @@
       <c r="K33" s="9"/>
       <c r="L33" s="6"/>
       <c r="M33" s="2"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="42"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
     </row>
     <row r="34" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C34" s="24"/>
@@ -6006,12 +6033,12 @@
       <c r="K34" s="9"/>
       <c r="L34" s="6"/>
       <c r="M34" s="2"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="42"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
     </row>
     <row r="35" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C35" s="24"/>
@@ -6157,16 +6184,16 @@
       <c r="C2" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
-      <c r="J2" s="39" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="J2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="41"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="44"/>
     </row>
     <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="22" t="s">
@@ -6193,14 +6220,14 @@
       <c r="L3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="42" t="s">
+      <c r="N3" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B4" s="22" t="s">
@@ -6227,12 +6254,12 @@
       <c r="L4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B5" s="22" t="s">
@@ -6259,12 +6286,12 @@
       <c r="L5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B6" s="22" t="s">
@@ -6279,12 +6306,12 @@
       <c r="J6" s="4"/>
       <c r="K6" s="9"/>
       <c r="L6" s="2"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B7" s="22" t="s">
@@ -6668,16 +6695,16 @@
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="24"/>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="J10" s="39" t="s">
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="J10" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="40"/>
-      <c r="L10" s="41"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="44"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="24"/>
@@ -7188,7 +7215,7 @@
       <c r="B4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="39" t="s">
         <v>163</v>
       </c>
     </row>
@@ -7234,16 +7261,16 @@
     </row>
     <row r="10" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="24"/>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="J10" s="39" t="s">
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="J10" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="40"/>
-      <c r="L10" s="41"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="44"/>
     </row>
     <row r="11" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="24"/>
@@ -7307,14 +7334,14 @@
       <c r="L13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="42" t="s">
+      <c r="N13" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C14" s="24"/>
@@ -7336,12 +7363,12 @@
       <c r="L14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C15" s="24"/>
@@ -7357,12 +7384,12 @@
       <c r="L15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
     </row>
     <row r="16" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="24"/>
@@ -7378,12 +7405,12 @@
       <c r="L16" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
     </row>
     <row r="17" spans="3:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="24"/>
@@ -7399,14 +7426,14 @@
       <c r="L17" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="N17" s="42" t="s">
+      <c r="N17" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C18" s="24"/>
@@ -7422,12 +7449,12 @@
       <c r="L18" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C19" s="24"/>
@@ -7443,12 +7470,12 @@
       <c r="L19" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C20" s="24"/>
@@ -7458,12 +7485,12 @@
       <c r="J20" s="2"/>
       <c r="K20" s="9"/>
       <c r="L20" s="4"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C21" s="24"/>
@@ -7482,14 +7509,14 @@
       <c r="J22" s="2"/>
       <c r="K22" s="9"/>
       <c r="L22" s="4"/>
-      <c r="N22" s="43" t="s">
+      <c r="N22" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C23" s="24"/>
@@ -7508,14 +7535,14 @@
       <c r="J24" s="2"/>
       <c r="K24" s="9"/>
       <c r="L24" s="4"/>
-      <c r="N24" s="42" t="s">
+      <c r="N24" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C25" s="24"/>
@@ -7525,12 +7552,12 @@
       <c r="J25" s="2"/>
       <c r="K25" s="9"/>
       <c r="L25" s="4"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C26" s="24"/>
@@ -7540,12 +7567,12 @@
       <c r="J26" s="2"/>
       <c r="K26" s="9"/>
       <c r="L26" s="4"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C27" s="24"/>
@@ -7555,12 +7582,12 @@
       <c r="J27" s="2"/>
       <c r="K27" s="9"/>
       <c r="L27" s="4"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C28" s="24"/>
@@ -7570,14 +7597,14 @@
       <c r="J28" s="2"/>
       <c r="K28" s="9"/>
       <c r="L28" s="4"/>
-      <c r="N28" s="42" t="s">
+      <c r="N28" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C29" s="24"/>
@@ -7587,12 +7614,12 @@
       <c r="J29" s="2"/>
       <c r="K29" s="9"/>
       <c r="L29" s="4"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C30" s="24"/>
@@ -7602,12 +7629,12 @@
       <c r="J30" s="2"/>
       <c r="K30" s="9"/>
       <c r="L30" s="2"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="42"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
     </row>
     <row r="31" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C31" s="24"/>
@@ -7617,12 +7644,12 @@
       <c r="J31" s="2"/>
       <c r="K31" s="9"/>
       <c r="L31" s="2"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
     </row>
     <row r="32" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C32" s="24"/>
@@ -7834,16 +7861,16 @@
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="24"/>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="J10" s="39" t="s">
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="J10" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="40"/>
-      <c r="L10" s="41"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="44"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="24"/>

--- a/Game Stuff/Spreadsheet.xlsx
+++ b/Game Stuff/Spreadsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\jUND ICONOCLAST\Game Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Keldon Armory\Game Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F8CFFF-043A-41C0-A981-8B04EF560A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CCBF14-8178-4A79-85EC-A95819CF0016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="4" activeTab="11" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
+    <workbookView xWindow="45972" yWindow="-4944" windowWidth="17496" windowHeight="30216" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
   </bookViews>
   <sheets>
     <sheet name="Material Summary" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,8 @@
     <sheet name="The Abyssal Chains of Shandalar" sheetId="12" r:id="rId11"/>
     <sheet name="Riveteers District" sheetId="13" r:id="rId12"/>
     <sheet name="Phyrexian Datavault" sheetId="14" r:id="rId13"/>
+    <sheet name="Jund Pyroclast" sheetId="15" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="212">
   <si>
     <t>Item</t>
   </si>
@@ -515,21 +517,12 @@
     <t>Phyrexian Datavault</t>
   </si>
   <si>
-    <t>Quartz Crystal Line going to Phyrexian Datavault has an extra 459.75</t>
-  </si>
-  <si>
-    <t>Rubber Line going to Phyrexian Datavault has an extra 257.5</t>
-  </si>
-  <si>
     <t>Plastic Line going to Phyrexian Datavault has an extra 126.333</t>
   </si>
   <si>
     <t>Silica Line going to Phyrexian Datavault has an extra 29.40555</t>
   </si>
   <si>
-    <t>Top belt going to Riveteers and Phyrexian Datavault district has an extra 116.666 Copper</t>
-  </si>
-  <si>
     <t>Bottom belt going to  Phyrexian Datavault district has an extra 79.017 Copper</t>
   </si>
   <si>
@@ -539,21 +532,6 @@
     <t>Kaladesh Refinery, Xantcha's Crucible, Oran-Rief Mines, Ketria Crystals, Riveteers District</t>
   </si>
   <si>
-    <t>Ghirapur Gridworks,Phyrexian Datavault</t>
-  </si>
-  <si>
-    <t>Neko's Nexus, Ghirapur Gridworks, Phyrexian Datavault, Riveteers District, The Abyssal Chains of Shandalar</t>
-  </si>
-  <si>
-    <t>Neko's Nexus, Ghirapur Gridworks, Phyrexian Datavault</t>
-  </si>
-  <si>
-    <t>Thran Foundy, Neko's Nexus, Ghirapur Gridworks, The Abyssal Chains of Shandalar</t>
-  </si>
-  <si>
-    <t>Phyrexian Datavault, The Abyssal Chains of Shandalar</t>
-  </si>
-  <si>
     <t>Aluminum Casing</t>
   </si>
   <si>
@@ -579,6 +557,135 @@
   </si>
   <si>
     <t>Jund Pyroclast</t>
+  </si>
+  <si>
+    <t>2800 MWh</t>
+  </si>
+  <si>
+    <t>Infinite</t>
+  </si>
+  <si>
+    <t>17042.1 MW</t>
+  </si>
+  <si>
+    <t>18917.3 Mw</t>
+  </si>
+  <si>
+    <t>1875.2 MW</t>
+  </si>
+  <si>
+    <t>Nitrogen Gas</t>
+  </si>
+  <si>
+    <t>Extractor</t>
+  </si>
+  <si>
+    <t>Polymer Resin</t>
+  </si>
+  <si>
+    <t>Compacted Coal</t>
+  </si>
+  <si>
+    <t>Packaged Rocket Fuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copper Ingots </t>
+  </si>
+  <si>
+    <t>Keldon Armory</t>
+  </si>
+  <si>
+    <t>Top belt going to Riveteers, Phyrexian Datavault district and Keldon Armory has an extra 103.46666 Copper</t>
+  </si>
+  <si>
+    <t>Rubber Line going to Phyrexian Datavault has an extra 254.7</t>
+  </si>
+  <si>
+    <t>Phyrexian Datavault, The Abyssal Chains of Shandalar, Keldon Armory</t>
+  </si>
+  <si>
+    <t>Phyrexian Datavault, Keldon Armory, Jund Pyroclast</t>
+  </si>
+  <si>
+    <t>Neko's Nexus, Ghirapur Gridworks, Phyrexian Datavault, Riveteers District, The Abyssal Chains of Shandalar, Keldon Armory</t>
+  </si>
+  <si>
+    <t>Ghirapur Gridworks,Phyrexian Datavault, Keldon Armory</t>
+  </si>
+  <si>
+    <t>Quartz Crystal Line going to Phyrexian Datavault and Keldon Armory has an extra 440.75</t>
+  </si>
+  <si>
+    <t>Top belt going to has an extra 780 Iron Ingots</t>
+  </si>
+  <si>
+    <t>Middle belt going to has an extra 780 Iron Ingots</t>
+  </si>
+  <si>
+    <t>Bottom belt going to Keldon Armory has an extra 289.848 Iron Ingots</t>
+  </si>
+  <si>
+    <t>Thran Foundy, Neko's Nexus, Ghirapur Gridworks, The Abyssal Chains of Shandalar, Keldon Armory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neko's Nexus, Ghirapur Gridworks, Phyrexian Datavault, Keldon Armory </t>
+  </si>
+  <si>
+    <t>Kaladesh Refinery, Riveteers District, Oran-Rief Mines, Xantcha's Crucible, Ketria Crystals, Darksteel Forge</t>
+  </si>
+  <si>
+    <t>1390.1 MW</t>
+  </si>
+  <si>
+    <t>-1390.1 MW</t>
+  </si>
+  <si>
+    <t>Miner (Jund Pyroclast)</t>
+  </si>
+  <si>
+    <t>Nobelisk</t>
+  </si>
+  <si>
+    <t>Pulse Nobelisk</t>
+  </si>
+  <si>
+    <t>Cluster Nobelisk</t>
+  </si>
+  <si>
+    <t>Black Powder</t>
+  </si>
+  <si>
+    <t>Smokeless Powder</t>
+  </si>
+  <si>
+    <t>Rifle Ammo</t>
+  </si>
+  <si>
+    <t>Homing Rifle Ammo</t>
+  </si>
+  <si>
+    <t>Turbo Rifle Ammo</t>
+  </si>
+  <si>
+    <t>Iron Rebar</t>
+  </si>
+  <si>
+    <t>Shatter Rebar</t>
+  </si>
+  <si>
+    <t>Stun Rebar</t>
+  </si>
+  <si>
+    <t>Explosive Rebar</t>
+  </si>
+  <si>
+    <t>Packaged Turbo Fuel</t>
+  </si>
+  <si>
+    <t>Packaged Fuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keldon Armory </t>
   </si>
 </sst>
 </file>
@@ -610,7 +717,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -866,11 +973,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -891,9 +1048,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -931,9 +1085,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -973,6 +1124,26 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1308,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DEAD1A-BE12-4BD3-A45F-18807DFF108B}">
-  <dimension ref="C3:J59"/>
+  <dimension ref="C3:J96"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1326,70 +1497,70 @@
   <sheetData>
     <row r="3" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="42" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="44"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="42"/>
     </row>
     <row r="5" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="37" t="s">
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="36" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C6" s="4" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="D6" s="8">
-        <v>410</v>
+        <v>246.666</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="52">
         <v>15</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="48" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D7" s="9">
-        <v>58.332999999999998</v>
+        <v>77.665999999999997</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>6</v>
@@ -1397,19 +1568,19 @@
       <c r="I7" s="11">
         <v>5</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="49" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D8" s="9">
-        <v>1999.848</v>
+        <v>356.47699999999998</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>63</v>
@@ -1417,19 +1588,19 @@
       <c r="I8" s="11">
         <v>1.4065000000000001</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="49" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" s="8">
-        <v>369.67770000000002</v>
+        <v>1849.848</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>64</v>
@@ -1437,19 +1608,19 @@
       <c r="I9" s="11">
         <v>2.25</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="49" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="D10" s="8">
-        <v>93.665999999999997</v>
+        <v>58.332999999999998</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>65</v>
@@ -1457,19 +1628,19 @@
       <c r="I10" s="11">
         <v>2.5</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="49" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C11" s="2" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="D11" s="9">
-        <v>1140</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>66</v>
@@ -1477,19 +1648,19 @@
       <c r="I11" s="11">
         <v>45</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="49" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C12" s="4" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="D12" s="9">
-        <v>459.75</v>
+        <v>29.17</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>67</v>
@@ -1497,19 +1668,19 @@
       <c r="I12" s="11">
         <v>5</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="49" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C13" s="4" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="D13" s="9">
-        <v>29.405555</v>
+        <v>391.64166599999999</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>88</v>
+        <v>211</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>68</v>
@@ -1517,19 +1688,19 @@
       <c r="I13" s="11">
         <v>7.3125</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="49" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C14" s="4" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D14" s="9">
-        <v>257.5</v>
+        <v>440.75</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>69</v>
@@ -1537,16 +1708,16 @@
       <c r="I14" s="11">
         <v>3</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="49" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C15" s="4" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="D15" s="9">
-        <v>68</v>
+        <v>254.7</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>109</v>
@@ -1557,16 +1728,16 @@
       <c r="I15" s="11">
         <v>30</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="49" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C16" s="6" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="D16" s="11">
-        <v>246.666</v>
+        <v>402.65</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>134</v>
@@ -1577,35 +1748,47 @@
       <c r="I16" s="11">
         <v>0.5</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="49" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C17" s="4"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="9">
+        <v>29.405555</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="H17" s="2" t="s">
         <v>72</v>
       </c>
       <c r="I17" s="11">
         <v>33.125</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="49" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C18" s="2"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1140</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="H18" s="2" t="s">
         <v>73</v>
       </c>
       <c r="I18" s="11">
         <v>61.6875</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="49" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1619,7 +1802,7 @@
       <c r="I19" s="11">
         <v>7.25</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="49" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1633,7 +1816,7 @@
       <c r="I20" s="11">
         <v>30</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="49" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1647,7 +1830,7 @@
       <c r="I21" s="11">
         <v>45</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="49" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1661,7 +1844,7 @@
       <c r="I22" s="11">
         <v>22.5</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="49" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1675,7 +1858,7 @@
       <c r="I23" s="11">
         <v>20.5</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" s="49" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1689,7 +1872,7 @@
       <c r="I24" s="11">
         <v>15</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="49" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1703,7 +1886,7 @@
       <c r="I25" s="11">
         <v>25</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="49" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1717,7 +1900,7 @@
       <c r="I26" s="11">
         <v>26.25</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="49" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1731,7 +1914,7 @@
       <c r="I27" s="11">
         <v>19.443999999999999</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="49" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1745,7 +1928,7 @@
       <c r="I28" s="11">
         <v>1.5</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="49" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1759,7 +1942,7 @@
       <c r="I29" s="11">
         <v>1.5</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="49" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1773,7 +1956,7 @@
       <c r="I30" s="11">
         <v>2.25</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="49" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1787,7 +1970,7 @@
       <c r="I31" s="11">
         <v>3</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="49" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1801,7 +1984,7 @@
       <c r="I32" s="11">
         <v>6</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="49" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1815,7 +1998,7 @@
       <c r="I33" s="11">
         <v>25</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" s="49" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1829,7 +2012,7 @@
       <c r="I34" s="11">
         <v>20</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="49" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1843,7 +2026,7 @@
       <c r="I35" s="11">
         <v>0.5</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J35" s="49" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1857,7 +2040,7 @@
       <c r="I36" s="11">
         <v>0.5</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J36" s="49" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1871,7 +2054,7 @@
       <c r="I37" s="11">
         <v>49.332999999999998</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J37" s="49" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1885,7 +2068,7 @@
       <c r="I38" s="11">
         <v>12</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="49" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1894,9 +2077,9 @@
         <v>140</v>
       </c>
       <c r="I39" s="11">
-        <v>195</v>
-      </c>
-      <c r="J39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J39" s="49" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1905,42 +2088,42 @@
         <v>141</v>
       </c>
       <c r="I40" s="11">
-        <v>62</v>
-      </c>
-      <c r="J40" s="2" t="s">
+        <v>61.7</v>
+      </c>
+      <c r="J40" s="49" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H41" s="41" t="s">
-        <v>169</v>
+      <c r="H41" s="39" t="s">
+        <v>161</v>
       </c>
       <c r="I41" s="11">
         <v>10</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" s="49" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H42" s="41" t="s">
-        <v>170</v>
+      <c r="H42" s="39" t="s">
+        <v>162</v>
       </c>
       <c r="I42" s="11">
         <v>10</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" s="49" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H43" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="I43" s="11">
         <v>5</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="J43" s="49" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1951,86 +2134,460 @@
       <c r="I44" s="11">
         <v>10</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="J44" s="49" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H45" s="2"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="2"/>
+      <c r="H45" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="I45" s="38">
+        <v>12.5</v>
+      </c>
+      <c r="J45" s="50" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H46" s="2"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="2"/>
+      <c r="H46" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="I46" s="38">
+        <v>12.5</v>
+      </c>
+      <c r="J46" s="50" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H47" s="2"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="2"/>
+      <c r="H47" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="I47" s="38">
+        <v>150</v>
+      </c>
+      <c r="J47" s="50" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H48" s="2"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="2"/>
+      <c r="H48" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="I48" s="38">
+        <v>2</v>
+      </c>
+      <c r="J48" s="49" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="49" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H49" s="2"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="2"/>
+      <c r="H49" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="I49" s="38">
+        <v>2</v>
+      </c>
+      <c r="J49" s="49" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="50" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H50" s="2"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="2"/>
+      <c r="H50" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="I50" s="38">
+        <v>2</v>
+      </c>
+      <c r="J50" s="49" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="51" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H51" s="2"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="2"/>
+      <c r="H51" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="I51" s="38">
+        <v>5</v>
+      </c>
+      <c r="J51" s="49" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="52" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H52" s="2"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="2"/>
+      <c r="H52" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="I52" s="38">
+        <v>5</v>
+      </c>
+      <c r="J52" s="49" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="53" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H53" s="2"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="2"/>
+      <c r="H53" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="I53" s="38">
+        <v>5</v>
+      </c>
+      <c r="J53" s="49" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="54" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H54" s="2"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="2"/>
+      <c r="H54" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="I54" s="38">
+        <v>5</v>
+      </c>
+      <c r="J54" s="49" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="55" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H55" s="2"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="2"/>
+      <c r="H55" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="I55" s="11">
+        <v>5</v>
+      </c>
+      <c r="J55" s="49" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="56" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H56" s="2"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="2"/>
+      <c r="H56" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="I56" s="11">
+        <v>5</v>
+      </c>
+      <c r="J56" s="49" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="57" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H57" s="2"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="2"/>
+      <c r="H57" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="I57" s="11">
+        <v>5</v>
+      </c>
+      <c r="J57" s="49" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="58" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H58" s="2"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="8:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H59" s="3"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="3"/>
+      <c r="H58" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="I58" s="11">
+        <v>5</v>
+      </c>
+      <c r="J58" s="49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H59" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="I59" s="11">
+        <v>5</v>
+      </c>
+      <c r="J59" s="49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H60" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="I60" s="11">
+        <v>5</v>
+      </c>
+      <c r="J60" s="49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H61" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="I61" s="11">
+        <v>11.41666</v>
+      </c>
+      <c r="J61" s="49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H62" s="2"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="49"/>
+    </row>
+    <row r="63" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H63" s="2"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="49"/>
+    </row>
+    <row r="64" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H64" s="2"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="49"/>
+    </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="H65" s="2"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="49"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="H66" s="2"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="49"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C67" s="46"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="49"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="49"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="46"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="49"/>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C70" s="47"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="46"/>
+      <c r="F70" s="46"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="49"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C71" s="47"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="49"/>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C72" s="47"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="46"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="49"/>
+    </row>
+    <row r="73" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C73" s="47"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="49"/>
+    </row>
+    <row r="74" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C74" s="47"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="49"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="49"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C76" s="47"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="46"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="49"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="49"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C78" s="47"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="46"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="49"/>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C79" s="47"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="46"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="49"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C80" s="47"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="46"/>
+      <c r="F80" s="46"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="49"/>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C81" s="47"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="46"/>
+      <c r="F81" s="46"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="49"/>
+    </row>
+    <row r="82" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="46"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="49"/>
+    </row>
+    <row r="83" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C83" s="46"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="46"/>
+      <c r="F83" s="46"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="49"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C84" s="46"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="49"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C85" s="46"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="46"/>
+      <c r="F85" s="46"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="49"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C86" s="46"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="46"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="49"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C87" s="46"/>
+      <c r="D87" s="47"/>
+      <c r="E87" s="46"/>
+      <c r="F87" s="46"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="49"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="H88" s="2"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="49"/>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="H89" s="2"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="49"/>
+    </row>
+    <row r="90" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="H90" s="2"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="49"/>
+    </row>
+    <row r="91" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="H91" s="2"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="49"/>
+    </row>
+    <row r="92" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="H92" s="2"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="49"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="H93" s="2"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="49"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="H94" s="2"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="49"/>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="H95" s="2"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="49"/>
+    </row>
+    <row r="96" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H96" s="3"/>
+      <c r="I96" s="53"/>
+      <c r="J96" s="51"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:E18">
+    <sortCondition ref="C6:C18"/>
+  </sortState>
   <mergeCells count="2">
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="H4:J4"/>
@@ -2044,7 +2601,7 @@
   <dimension ref="B1:T44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2062,109 +2619,109 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="30" t="s">
+    <row r="4" spans="2:20" ht="58" x14ac:dyDescent="0.35">
+      <c r="B4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>167</v>
+      <c r="C4" s="37" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="24"/>
-      <c r="E10" s="42" t="s">
+      <c r="C10" s="23"/>
+      <c r="E10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="J10" s="42" t="s">
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="J10" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="44"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="42"/>
     </row>
     <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="24"/>
-      <c r="E11" s="15" t="s">
+      <c r="C11" s="23"/>
+      <c r="E11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="36" t="s">
+      <c r="M11" s="34" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C12" s="24"/>
+      <c r="C12" s="23"/>
       <c r="E12" s="4" t="s">
         <v>108</v>
       </c>
@@ -2183,18 +2740,18 @@
       <c r="L12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="20"/>
-      <c r="O12" s="45" t="s">
+      <c r="M12" s="19"/>
+      <c r="O12" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C13" s="24"/>
+      <c r="C13" s="23"/>
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
@@ -2208,21 +2765,21 @@
         <v>106</v>
       </c>
       <c r="K13" s="9">
-        <v>257.5</v>
+        <v>254.7</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C14" s="24"/>
+      <c r="C14" s="23"/>
       <c r="E14" s="2"/>
       <c r="F14" s="9"/>
       <c r="G14" s="4"/>
@@ -2236,15 +2793,15 @@
         <v>25</v>
       </c>
       <c r="M14" s="2"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C15" s="24"/>
+      <c r="C15" s="23"/>
       <c r="E15" s="2"/>
       <c r="F15" s="9"/>
       <c r="G15" s="2"/>
@@ -2258,15 +2815,15 @@
         <v>8</v>
       </c>
       <c r="M15" s="2"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C16" s="24"/>
+      <c r="C16" s="23"/>
       <c r="E16" s="2"/>
       <c r="F16" s="9"/>
       <c r="G16" s="2"/>
@@ -2280,17 +2837,17 @@
         <v>114</v>
       </c>
       <c r="M16" s="2"/>
-      <c r="O16" s="45" t="s">
+      <c r="O16" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C17" s="24"/>
+      <c r="C17" s="23"/>
       <c r="E17" s="2"/>
       <c r="F17" s="9"/>
       <c r="G17" s="2"/>
@@ -2304,15 +2861,15 @@
         <v>114</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C18" s="24"/>
+      <c r="C18" s="23"/>
       <c r="E18" s="2"/>
       <c r="F18" s="9"/>
       <c r="G18" s="2"/>
@@ -2326,15 +2883,15 @@
         <v>154</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C19" s="24"/>
+      <c r="C19" s="23"/>
       <c r="E19" s="2"/>
       <c r="F19" s="9"/>
       <c r="G19" s="2"/>
@@ -2348,25 +2905,31 @@
         <v>154</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C20" s="24"/>
+      <c r="C20" s="23"/>
       <c r="E20" s="2"/>
       <c r="F20" s="9"/>
       <c r="G20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="4"/>
+      <c r="J20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C21" s="24"/>
+      <c r="C21" s="23"/>
       <c r="E21" s="2"/>
       <c r="F21" s="9"/>
       <c r="G21" s="2"/>
@@ -2374,17 +2937,17 @@
       <c r="K21" s="9"/>
       <c r="L21" s="4"/>
       <c r="M21" s="2"/>
-      <c r="O21" s="46" t="s">
+      <c r="O21" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C22" s="24"/>
+      <c r="C22" s="23"/>
       <c r="E22" s="2"/>
       <c r="F22" s="9"/>
       <c r="G22" s="2"/>
@@ -2394,7 +2957,7 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C23" s="24"/>
+      <c r="C23" s="23"/>
       <c r="E23" s="2"/>
       <c r="F23" s="9"/>
       <c r="G23" s="2"/>
@@ -2402,17 +2965,17 @@
       <c r="K23" s="9"/>
       <c r="L23" s="4"/>
       <c r="M23" s="2"/>
-      <c r="O23" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
+      <c r="O23" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C24" s="24"/>
+      <c r="C24" s="23"/>
       <c r="E24" s="2"/>
       <c r="F24" s="9"/>
       <c r="G24" s="2"/>
@@ -2420,15 +2983,15 @@
       <c r="K24" s="9"/>
       <c r="L24" s="4"/>
       <c r="M24" s="2"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C25" s="24"/>
+      <c r="C25" s="23"/>
       <c r="E25" s="2"/>
       <c r="F25" s="9"/>
       <c r="G25" s="2"/>
@@ -2436,15 +2999,15 @@
       <c r="K25" s="9"/>
       <c r="L25" s="4"/>
       <c r="M25" s="2"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C26" s="24"/>
+      <c r="C26" s="23"/>
       <c r="E26" s="2"/>
       <c r="F26" s="9"/>
       <c r="G26" s="2"/>
@@ -2452,15 +3015,15 @@
       <c r="K26" s="9"/>
       <c r="L26" s="4"/>
       <c r="M26" s="2"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C27" s="24"/>
+      <c r="C27" s="23"/>
       <c r="E27" s="2"/>
       <c r="F27" s="9"/>
       <c r="G27" s="2"/>
@@ -2468,17 +3031,17 @@
       <c r="K27" s="9"/>
       <c r="L27" s="4"/>
       <c r="M27" s="2"/>
-      <c r="O27" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
+      <c r="O27" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C28" s="24"/>
+      <c r="C28" s="23"/>
       <c r="E28" s="2"/>
       <c r="F28" s="9"/>
       <c r="G28" s="2"/>
@@ -2486,15 +3049,15 @@
       <c r="K28" s="9"/>
       <c r="L28" s="4"/>
       <c r="M28" s="2"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C29" s="24"/>
+      <c r="C29" s="23"/>
       <c r="E29" s="2"/>
       <c r="F29" s="9"/>
       <c r="G29" s="2"/>
@@ -2502,15 +3065,15 @@
       <c r="K29" s="9"/>
       <c r="L29" s="4"/>
       <c r="M29" s="2"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C30" s="24"/>
+      <c r="C30" s="23"/>
       <c r="E30" s="2"/>
       <c r="F30" s="9"/>
       <c r="G30" s="2"/>
@@ -2518,15 +3081,15 @@
       <c r="K30" s="9"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C31" s="24"/>
+      <c r="C31" s="23"/>
       <c r="E31" s="2"/>
       <c r="F31" s="9"/>
       <c r="G31" s="2"/>
@@ -2536,7 +3099,7 @@
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C32" s="24"/>
+      <c r="C32" s="23"/>
       <c r="E32" s="2"/>
       <c r="F32" s="9"/>
       <c r="G32" s="2"/>
@@ -2546,7 +3109,7 @@
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C33" s="24"/>
+      <c r="C33" s="23"/>
       <c r="E33" s="2"/>
       <c r="F33" s="9"/>
       <c r="G33" s="2"/>
@@ -2556,7 +3119,7 @@
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C34" s="24"/>
+      <c r="C34" s="23"/>
       <c r="E34" s="2"/>
       <c r="F34" s="9"/>
       <c r="G34" s="2"/>
@@ -2566,7 +3129,7 @@
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C35" s="24"/>
+      <c r="C35" s="23"/>
       <c r="E35" s="2"/>
       <c r="F35" s="9"/>
       <c r="G35" s="2"/>
@@ -2576,7 +3139,7 @@
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C36" s="24"/>
+      <c r="C36" s="23"/>
       <c r="E36" s="2"/>
       <c r="F36" s="9"/>
       <c r="G36" s="2"/>
@@ -2693,105 +3256,105 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="87" x14ac:dyDescent="0.35">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="24"/>
-      <c r="E10" s="42" t="s">
+      <c r="C10" s="23"/>
+      <c r="E10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="J10" s="42" t="s">
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="J10" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="43"/>
-      <c r="L10" s="44"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="24"/>
-      <c r="E11" s="15" t="s">
+      <c r="C11" s="23"/>
+      <c r="E11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C12" s="24"/>
+      <c r="C12" s="23"/>
       <c r="E12" s="4" t="s">
         <v>61</v>
       </c>
@@ -2812,7 +3375,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C13" s="24"/>
+      <c r="C13" s="23"/>
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
@@ -2833,7 +3396,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C14" s="24"/>
+      <c r="C14" s="23"/>
       <c r="E14" s="2" t="s">
         <v>43</v>
       </c>
@@ -2848,7 +3411,7 @@
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C15" s="24"/>
+      <c r="C15" s="23"/>
       <c r="E15" s="2" t="s">
         <v>41</v>
       </c>
@@ -2863,7 +3426,7 @@
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C16" s="24"/>
+      <c r="C16" s="23"/>
       <c r="E16" s="2" t="s">
         <v>5</v>
       </c>
@@ -2878,7 +3441,7 @@
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="24"/>
+      <c r="C17" s="23"/>
       <c r="E17" s="2" t="s">
         <v>106</v>
       </c>
@@ -2893,7 +3456,7 @@
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="24"/>
+      <c r="C18" s="23"/>
       <c r="E18" s="2"/>
       <c r="F18" s="9"/>
       <c r="G18" s="2"/>
@@ -2902,7 +3465,7 @@
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="24"/>
+      <c r="C19" s="23"/>
       <c r="E19" s="2"/>
       <c r="F19" s="9"/>
       <c r="G19" s="2"/>
@@ -2911,7 +3474,7 @@
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C20" s="24"/>
+      <c r="C20" s="23"/>
       <c r="E20" s="2"/>
       <c r="F20" s="9"/>
       <c r="G20" s="2"/>
@@ -2920,7 +3483,7 @@
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="24"/>
+      <c r="C21" s="23"/>
       <c r="E21" s="2"/>
       <c r="F21" s="9"/>
       <c r="G21" s="2"/>
@@ -2929,7 +3492,7 @@
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="24"/>
+      <c r="C22" s="23"/>
       <c r="E22" s="2"/>
       <c r="F22" s="9"/>
       <c r="G22" s="2"/>
@@ -2938,7 +3501,7 @@
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C23" s="24"/>
+      <c r="C23" s="23"/>
       <c r="E23" s="2"/>
       <c r="F23" s="9"/>
       <c r="G23" s="2"/>
@@ -2947,7 +3510,7 @@
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C24" s="24"/>
+      <c r="C24" s="23"/>
       <c r="E24" s="2"/>
       <c r="F24" s="9"/>
       <c r="G24" s="2"/>
@@ -2956,7 +3519,7 @@
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C25" s="24"/>
+      <c r="C25" s="23"/>
       <c r="E25" s="2"/>
       <c r="F25" s="9"/>
       <c r="G25" s="2"/>
@@ -2965,7 +3528,7 @@
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="24"/>
+      <c r="C26" s="23"/>
       <c r="E26" s="2"/>
       <c r="F26" s="9"/>
       <c r="G26" s="2"/>
@@ -2974,7 +3537,7 @@
       <c r="L26" s="4"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C27" s="24"/>
+      <c r="C27" s="23"/>
       <c r="E27" s="2"/>
       <c r="F27" s="9"/>
       <c r="G27" s="2"/>
@@ -2983,7 +3546,7 @@
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C28" s="24"/>
+      <c r="C28" s="23"/>
       <c r="E28" s="2"/>
       <c r="F28" s="9"/>
       <c r="G28" s="2"/>
@@ -2992,7 +3555,7 @@
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C29" s="24"/>
+      <c r="C29" s="23"/>
       <c r="E29" s="2"/>
       <c r="F29" s="9"/>
       <c r="G29" s="2"/>
@@ -3001,7 +3564,7 @@
       <c r="L29" s="4"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C30" s="24"/>
+      <c r="C30" s="23"/>
       <c r="E30" s="2"/>
       <c r="F30" s="9"/>
       <c r="G30" s="2"/>
@@ -3010,7 +3573,7 @@
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C31" s="24"/>
+      <c r="C31" s="23"/>
       <c r="E31" s="2"/>
       <c r="F31" s="9"/>
       <c r="G31" s="2"/>
@@ -3019,7 +3582,7 @@
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C32" s="24"/>
+      <c r="C32" s="23"/>
       <c r="E32" s="2"/>
       <c r="F32" s="9"/>
       <c r="G32" s="2"/>
@@ -3028,7 +3591,7 @@
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C33" s="24"/>
+      <c r="C33" s="23"/>
       <c r="E33" s="2"/>
       <c r="F33" s="9"/>
       <c r="G33" s="2"/>
@@ -3037,7 +3600,7 @@
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C34" s="24"/>
+      <c r="C34" s="23"/>
       <c r="E34" s="2"/>
       <c r="F34" s="9"/>
       <c r="G34" s="2"/>
@@ -3046,7 +3609,7 @@
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C35" s="24"/>
+      <c r="C35" s="23"/>
       <c r="E35" s="2"/>
       <c r="F35" s="9"/>
       <c r="G35" s="2"/>
@@ -3055,7 +3618,7 @@
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C36" s="24"/>
+      <c r="C36" s="23"/>
       <c r="E36" s="2"/>
       <c r="F36" s="9"/>
       <c r="G36" s="2"/>
@@ -3140,14 +3703,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED21A768-E1F1-4F70-B6C9-A662B38F9ACD}">
   <dimension ref="B1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.36328125" bestFit="1" customWidth="1"/>
@@ -3159,105 +3722,105 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="22" t="s">
+    <row r="4" spans="2:12" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>154</v>
+      <c r="C4" s="30" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="24"/>
-      <c r="E10" s="42" t="s">
+      <c r="C10" s="23"/>
+      <c r="E10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="J10" s="42" t="s">
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="J10" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="43"/>
-      <c r="L10" s="44"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="24"/>
-      <c r="E11" s="15" t="s">
+      <c r="C11" s="23"/>
+      <c r="E11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C12" s="24"/>
+      <c r="C12" s="23"/>
       <c r="E12" s="4" t="s">
         <v>135</v>
       </c>
@@ -3273,12 +3836,12 @@
       <c r="K12" s="8">
         <v>49.332999999999998</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C13" s="24"/>
+      <c r="C13" s="23"/>
       <c r="E13" s="2" t="s">
         <v>61</v>
       </c>
@@ -3299,7 +3862,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C14" s="24"/>
+      <c r="C14" s="23"/>
       <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
@@ -3320,7 +3883,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C15" s="24"/>
+      <c r="C15" s="23"/>
       <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
@@ -3341,7 +3904,7 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C16" s="24"/>
+      <c r="C16" s="23"/>
       <c r="E16" s="2" t="s">
         <v>19</v>
       </c>
@@ -3362,7 +3925,7 @@
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="24"/>
+      <c r="C17" s="23"/>
       <c r="E17" s="2" t="s">
         <v>43</v>
       </c>
@@ -3376,77 +3939,89 @@
         <v>90</v>
       </c>
       <c r="K17" s="9">
-        <v>410</v>
+        <v>7.35</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>25</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="24"/>
+      <c r="C18" s="23"/>
       <c r="E18" s="2"/>
       <c r="F18" s="9"/>
       <c r="G18" s="2"/>
       <c r="J18" s="4" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="K18" s="9">
-        <v>160</v>
+        <v>402.65</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="24"/>
+      <c r="C19" s="23"/>
       <c r="E19" s="2"/>
       <c r="F19" s="9"/>
       <c r="G19" s="2"/>
-      <c r="J19" s="2" t="s">
-        <v>175</v>
+      <c r="J19" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="K19" s="9">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C20" s="24"/>
+      <c r="C20" s="23"/>
       <c r="E20" s="2"/>
       <c r="F20" s="9"/>
       <c r="G20" s="2"/>
-      <c r="J20" s="4" t="s">
-        <v>140</v>
+      <c r="J20" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="K20" s="9">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>176</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="24"/>
+      <c r="C21" s="23"/>
       <c r="E21" s="2"/>
       <c r="F21" s="9"/>
       <c r="G21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K21" s="9">
+        <v>150</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="24"/>
+      <c r="C22" s="23"/>
       <c r="E22" s="2"/>
       <c r="F22" s="9"/>
       <c r="G22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="4"/>
+      <c r="J22" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C23" s="24"/>
+      <c r="C23" s="23"/>
       <c r="E23" s="2"/>
       <c r="F23" s="9"/>
       <c r="G23" s="2"/>
@@ -3455,7 +4030,7 @@
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C24" s="24"/>
+      <c r="C24" s="23"/>
       <c r="E24" s="2"/>
       <c r="F24" s="9"/>
       <c r="G24" s="2"/>
@@ -3464,7 +4039,7 @@
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C25" s="24"/>
+      <c r="C25" s="23"/>
       <c r="E25" s="2"/>
       <c r="F25" s="9"/>
       <c r="G25" s="2"/>
@@ -3473,7 +4048,7 @@
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="24"/>
+      <c r="C26" s="23"/>
       <c r="E26" s="2"/>
       <c r="F26" s="9"/>
       <c r="G26" s="2"/>
@@ -3482,7 +4057,7 @@
       <c r="L26" s="4"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C27" s="24"/>
+      <c r="C27" s="23"/>
       <c r="E27" s="2"/>
       <c r="F27" s="9"/>
       <c r="G27" s="2"/>
@@ -3491,7 +4066,7 @@
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C28" s="24"/>
+      <c r="C28" s="23"/>
       <c r="E28" s="2"/>
       <c r="F28" s="9"/>
       <c r="G28" s="2"/>
@@ -3500,7 +4075,7 @@
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C29" s="24"/>
+      <c r="C29" s="23"/>
       <c r="E29" s="2"/>
       <c r="F29" s="9"/>
       <c r="G29" s="2"/>
@@ -3509,7 +4084,7 @@
       <c r="L29" s="4"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C30" s="24"/>
+      <c r="C30" s="23"/>
       <c r="E30" s="2"/>
       <c r="F30" s="9"/>
       <c r="G30" s="2"/>
@@ -3518,7 +4093,7 @@
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C31" s="24"/>
+      <c r="C31" s="23"/>
       <c r="E31" s="2"/>
       <c r="F31" s="9"/>
       <c r="G31" s="2"/>
@@ -3527,7 +4102,7 @@
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C32" s="24"/>
+      <c r="C32" s="23"/>
       <c r="E32" s="2"/>
       <c r="F32" s="9"/>
       <c r="G32" s="2"/>
@@ -3536,7 +4111,7 @@
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C33" s="24"/>
+      <c r="C33" s="23"/>
       <c r="E33" s="2"/>
       <c r="F33" s="9"/>
       <c r="G33" s="2"/>
@@ -3545,7 +4120,7 @@
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C34" s="24"/>
+      <c r="C34" s="23"/>
       <c r="E34" s="2"/>
       <c r="F34" s="9"/>
       <c r="G34" s="2"/>
@@ -3554,7 +4129,7 @@
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C35" s="24"/>
+      <c r="C35" s="23"/>
       <c r="E35" s="2"/>
       <c r="F35" s="9"/>
       <c r="G35" s="2"/>
@@ -3563,7 +4138,7 @@
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C36" s="24"/>
+      <c r="C36" s="23"/>
       <c r="E36" s="2"/>
       <c r="F36" s="9"/>
       <c r="G36" s="2"/>
@@ -3648,8 +4223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2930F0-3027-4B2E-8126-4FAD3B96111E}">
   <dimension ref="B1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:L13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3666,105 +4241,105 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>162</v>
+      <c r="C3" s="28" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>171</v>
+      <c r="C6" s="25" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>172</v>
+      <c r="C7" s="25" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>173</v>
+      <c r="C8" s="25" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>174</v>
+      <c r="C9" s="26" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="24"/>
-      <c r="E10" s="42" t="s">
+      <c r="C10" s="23"/>
+      <c r="E10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="J10" s="42" t="s">
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="J10" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="43"/>
-      <c r="L10" s="44"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="24"/>
-      <c r="E11" s="15" t="s">
+      <c r="C11" s="23"/>
+      <c r="E11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C12" s="24"/>
+      <c r="C12" s="23"/>
       <c r="E12" s="4" t="s">
         <v>43</v>
       </c>
@@ -3774,18 +4349,18 @@
       <c r="G12" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="38">
         <v>10</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C13" s="24"/>
+      <c r="C13" s="23"/>
       <c r="E13" s="2" t="s">
         <v>90</v>
       </c>
@@ -3795,18 +4370,18 @@
       <c r="G13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="38">
         <v>10</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C14" s="24"/>
+      <c r="C14" s="23"/>
       <c r="E14" s="2" t="s">
         <v>89</v>
       </c>
@@ -3816,12 +4391,12 @@
       <c r="G14" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J14" s="40"/>
+      <c r="J14" s="38"/>
       <c r="K14" s="9"/>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C15" s="24"/>
+      <c r="C15" s="23"/>
       <c r="E15" s="2" t="s">
         <v>19</v>
       </c>
@@ -3831,12 +4406,12 @@
       <c r="G15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="40"/>
+      <c r="J15" s="38"/>
       <c r="K15" s="9"/>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C16" s="24"/>
+      <c r="C16" s="23"/>
       <c r="E16" s="2" t="s">
         <v>106</v>
       </c>
@@ -3846,12 +4421,12 @@
       <c r="G16" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J16" s="40"/>
+      <c r="J16" s="38"/>
       <c r="K16" s="9"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="24"/>
+      <c r="C17" s="23"/>
       <c r="E17" s="2" t="s">
         <v>5</v>
       </c>
@@ -3861,12 +4436,12 @@
       <c r="G17" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J17" s="40"/>
+      <c r="J17" s="38"/>
       <c r="K17" s="9"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="24"/>
+      <c r="C18" s="23"/>
       <c r="E18" s="2" t="s">
         <v>53</v>
       </c>
@@ -3876,14 +4451,14 @@
       <c r="G18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J18" s="40"/>
+      <c r="J18" s="38"/>
       <c r="K18" s="9"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="24"/>
+      <c r="C19" s="23"/>
       <c r="E19" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F19" s="9">
         <v>160</v>
@@ -3896,7 +4471,7 @@
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C20" s="24"/>
+      <c r="C20" s="23"/>
       <c r="E20" s="2"/>
       <c r="F20" s="9"/>
       <c r="G20" s="2"/>
@@ -3905,7 +4480,7 @@
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="24"/>
+      <c r="C21" s="23"/>
       <c r="E21" s="2"/>
       <c r="F21" s="9"/>
       <c r="G21" s="2"/>
@@ -3914,7 +4489,7 @@
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="24"/>
+      <c r="C22" s="23"/>
       <c r="E22" s="2"/>
       <c r="F22" s="9"/>
       <c r="G22" s="2"/>
@@ -3923,7 +4498,7 @@
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C23" s="24"/>
+      <c r="C23" s="23"/>
       <c r="E23" s="2"/>
       <c r="F23" s="9"/>
       <c r="G23" s="2"/>
@@ -3932,7 +4507,7 @@
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C24" s="24"/>
+      <c r="C24" s="23"/>
       <c r="E24" s="2"/>
       <c r="F24" s="9"/>
       <c r="G24" s="2"/>
@@ -3941,7 +4516,7 @@
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C25" s="24"/>
+      <c r="C25" s="23"/>
       <c r="E25" s="2"/>
       <c r="F25" s="9"/>
       <c r="G25" s="2"/>
@@ -3950,7 +4525,7 @@
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="24"/>
+      <c r="C26" s="23"/>
       <c r="E26" s="2"/>
       <c r="F26" s="9"/>
       <c r="G26" s="2"/>
@@ -3959,7 +4534,7 @@
       <c r="L26" s="4"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C27" s="24"/>
+      <c r="C27" s="23"/>
       <c r="E27" s="2"/>
       <c r="F27" s="9"/>
       <c r="G27" s="2"/>
@@ -3968,7 +4543,7 @@
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C28" s="24"/>
+      <c r="C28" s="23"/>
       <c r="E28" s="2"/>
       <c r="F28" s="9"/>
       <c r="G28" s="2"/>
@@ -3977,7 +4552,7 @@
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C29" s="24"/>
+      <c r="C29" s="23"/>
       <c r="E29" s="2"/>
       <c r="F29" s="9"/>
       <c r="G29" s="2"/>
@@ -3986,7 +4561,7 @@
       <c r="L29" s="4"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C30" s="24"/>
+      <c r="C30" s="23"/>
       <c r="E30" s="2"/>
       <c r="F30" s="9"/>
       <c r="G30" s="2"/>
@@ -3995,7 +4570,7 @@
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C31" s="24"/>
+      <c r="C31" s="23"/>
       <c r="E31" s="2"/>
       <c r="F31" s="9"/>
       <c r="G31" s="2"/>
@@ -4004,7 +4579,7 @@
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C32" s="24"/>
+      <c r="C32" s="23"/>
       <c r="E32" s="2"/>
       <c r="F32" s="9"/>
       <c r="G32" s="2"/>
@@ -4013,7 +4588,7 @@
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C33" s="24"/>
+      <c r="C33" s="23"/>
       <c r="E33" s="2"/>
       <c r="F33" s="9"/>
       <c r="G33" s="2"/>
@@ -4022,7 +4597,7 @@
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C34" s="24"/>
+      <c r="C34" s="23"/>
       <c r="E34" s="2"/>
       <c r="F34" s="9"/>
       <c r="G34" s="2"/>
@@ -4031,7 +4606,7 @@
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C35" s="24"/>
+      <c r="C35" s="23"/>
       <c r="E35" s="2"/>
       <c r="F35" s="9"/>
       <c r="G35" s="2"/>
@@ -4040,7 +4615,1055 @@
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C36" s="24"/>
+      <c r="C36" s="23"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="2"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E37" s="2"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="2"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E38" s="2"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="2"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E39" s="2"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="2"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E40" s="2"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="2"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E41" s="2"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E42" s="2"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E43" s="2"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E44" s="3"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="J10:L10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1051D7C-48A2-4264-A591-A5BE1589053B}">
+  <dimension ref="B1:L44"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.54296875" customWidth="1"/>
+    <col min="11" max="11" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="23"/>
+      <c r="E10" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="J10" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
+    </row>
+    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="23"/>
+      <c r="E11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C12" s="23"/>
+      <c r="E12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="8">
+        <v>980.42</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="38">
+        <v>29.17</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C13" s="23"/>
+      <c r="E13" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="9">
+        <v>300</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="J13" s="38">
+        <v>12.5</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C14" s="23"/>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="9">
+        <v>150</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="38">
+        <v>12.5</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C15" s="23"/>
+      <c r="E15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="9">
+        <v>150</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" s="38">
+        <v>150</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C16" s="23"/>
+      <c r="E16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="9">
+        <v>400</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="38"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C17" s="23"/>
+      <c r="E17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="9">
+        <v>200</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="38"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C18" s="23"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="2"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C19" s="23"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="2"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C20" s="23"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="2"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C21" s="23"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="2"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C22" s="23"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="2"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C23" s="23"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="2"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C24" s="23"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="2"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C25" s="23"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="2"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C26" s="23"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="2"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C27" s="23"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="2"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C28" s="23"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="2"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C29" s="23"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="2"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C30" s="23"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="2"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C31" s="23"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="2"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C32" s="23"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="2"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C33" s="23"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="2"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C34" s="23"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="2"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C35" s="23"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="2"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C36" s="23"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="2"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E37" s="2"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="2"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E38" s="2"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="2"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E39" s="2"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="2"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E40" s="2"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="2"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E41" s="2"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E42" s="2"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E43" s="2"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E44" s="3"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="J10:L10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAE874B-EB1A-40E9-945A-ABFDF311093C}">
+  <dimension ref="B1:L44"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="B3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="25"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="23"/>
+      <c r="E10" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="J10" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
+    </row>
+    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="23"/>
+      <c r="E11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C12" s="23"/>
+      <c r="E12" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" s="38">
+        <v>2</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C13" s="23"/>
+      <c r="E13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="38">
+        <v>2</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C14" s="23"/>
+      <c r="E14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="9">
+        <v>7.35</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" s="38">
+        <v>2</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C15" s="23"/>
+      <c r="E15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="9">
+        <v>9.6</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="38">
+        <v>5</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C16" s="23"/>
+      <c r="E16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="9">
+        <v>13.2</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="38">
+        <v>5</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C17" s="23"/>
+      <c r="E17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="9">
+        <v>19</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" s="38">
+        <v>5</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C18" s="23"/>
+      <c r="E18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="9">
+        <v>30.4666</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J18" s="38">
+        <v>5</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C19" s="23"/>
+      <c r="E19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="9">
+        <v>30.4666</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J19" s="11">
+        <v>5</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C20" s="23"/>
+      <c r="E20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="9">
+        <v>150</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="11">
+        <v>5</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C21" s="23"/>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="9">
+        <v>150</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="11">
+        <v>5</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C22" s="23"/>
+      <c r="E22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="9">
+        <v>461.41665999999998</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="11">
+        <v>5</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C23" s="23"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="2"/>
+      <c r="J23" s="11">
+        <v>5</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C24" s="23"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="2"/>
+      <c r="J24" s="11">
+        <v>5</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C25" s="23"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="2"/>
+      <c r="J25" s="11">
+        <v>11.41666</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C26" s="23"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="2"/>
+      <c r="J26" s="11">
+        <v>391.64166599999999</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C27" s="23"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="2"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C28" s="23"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="2"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C29" s="23"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="2"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C30" s="23"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="2"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C31" s="23"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="2"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C32" s="23"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="2"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C33" s="23"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="2"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C34" s="23"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="2"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C35" s="23"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="2"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C36" s="23"/>
       <c r="E36" s="2"/>
       <c r="F36" s="9"/>
       <c r="G36" s="2"/>
@@ -4126,7 +5749,7 @@
   <dimension ref="C3:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4143,51 +5766,51 @@
   <sheetData>
     <row r="3" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
-      <c r="K4" s="42" t="s">
+      <c r="G4" s="41"/>
+      <c r="H4" s="42"/>
+      <c r="K4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="43"/>
-      <c r="M4" s="44"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="42"/>
     </row>
     <row r="5" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -4213,7 +5836,7 @@
       </c>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -4239,7 +5862,7 @@
       </c>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -4265,7 +5888,7 @@
       </c>
     </row>
     <row r="9" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -4533,16 +6156,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A244D34F-6552-48EC-88C9-9BCAF12F75CF}">
-  <dimension ref="C3:T1048576"/>
+  <dimension ref="C3:U1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6328125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="22.6328125" style="23" customWidth="1"/>
     <col min="6" max="6" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
@@ -4553,116 +6176,117 @@
     <col min="20" max="20" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C4" s="21" t="s">
+    <row r="3" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="C4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C5" s="22" t="s">
+    <row r="5" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="C5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="3:20" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="30" t="s">
+    <row r="6" spans="3:21" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="31" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C7" s="22" t="s">
+      <c r="D6" s="30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="C7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C8" s="22" t="s">
+    <row r="8" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="C8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C9" s="22" t="s">
+    <row r="9" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="C9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C10" s="22" t="s">
+    <row r="10" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="C10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="23" t="s">
+    <row r="11" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F13" s="42" t="s">
+    <row r="12" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F13" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="44"/>
-      <c r="K13" s="42" t="s">
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+      <c r="K13" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="44"/>
-    </row>
-    <row r="14" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F14" s="15" t="s">
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="42"/>
+    </row>
+    <row r="14" spans="3:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F14" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="M14" s="15" t="s">
+      <c r="M14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="36" t="s">
+      <c r="N14" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="P14" s="45" t="s">
+      <c r="P14" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-    </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+    </row>
+    <row r="15" spans="3:21" x14ac:dyDescent="0.35">
       <c r="F15" s="4" t="s">
         <v>34</v>
       </c>
@@ -4676,19 +6300,20 @@
         <v>35</v>
       </c>
       <c r="L15" s="8">
-        <v>1999.848</v>
+        <v>1849.848</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N15" s="20"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-    </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="N15" s="19"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+    </row>
+    <row r="16" spans="3:21" x14ac:dyDescent="0.35">
       <c r="F16" s="2" t="s">
         <v>19</v>
       </c>
@@ -4710,13 +6335,14 @@
       <c r="N16" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-    </row>
-    <row r="17" spans="6:20" x14ac:dyDescent="0.35">
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+    </row>
+    <row r="17" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F17" s="2"/>
       <c r="G17" s="9"/>
       <c r="H17" s="2"/>
@@ -4732,13 +6358,14 @@
       <c r="N17" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-    </row>
-    <row r="18" spans="6:20" x14ac:dyDescent="0.35">
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+    </row>
+    <row r="18" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F18" s="2"/>
       <c r="G18" s="9"/>
       <c r="H18" s="2"/>
@@ -4755,7 +6382,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="6:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F19" s="2"/>
       <c r="G19" s="9"/>
       <c r="H19" s="2"/>
@@ -4772,20 +6399,30 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="6:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F20" s="2"/>
       <c r="G20" s="9"/>
       <c r="H20" s="2"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="2"/>
+      <c r="K20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="9">
+        <v>150</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="N20" s="2"/>
-      <c r="P20">
-        <f>2234.098-234.25</f>
-        <v>1999.848</v>
-      </c>
-    </row>
-    <row r="21" spans="6:20" x14ac:dyDescent="0.35">
+      <c r="P20" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+    </row>
+    <row r="21" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F21" s="2"/>
       <c r="G21" s="9"/>
       <c r="H21" s="2"/>
@@ -4794,7 +6431,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="6:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F22" s="2"/>
       <c r="G22" s="9"/>
       <c r="H22" s="2"/>
@@ -4802,8 +6439,16 @@
       <c r="L22" s="9"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="6:20" x14ac:dyDescent="0.35">
+      <c r="P22" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+    </row>
+    <row r="23" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F23" s="2"/>
       <c r="G23" s="9"/>
       <c r="H23" s="2"/>
@@ -4811,8 +6456,14 @@
       <c r="L23" s="9"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="6:20" x14ac:dyDescent="0.35">
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+    </row>
+    <row r="24" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F24" s="2"/>
       <c r="G24" s="9"/>
       <c r="H24" s="2"/>
@@ -4820,8 +6471,14 @@
       <c r="L24" s="9"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="6:20" x14ac:dyDescent="0.35">
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+    </row>
+    <row r="25" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F25" s="2"/>
       <c r="G25" s="9"/>
       <c r="H25" s="2"/>
@@ -4829,8 +6486,14 @@
       <c r="L25" s="9"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="6:20" x14ac:dyDescent="0.35">
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+    </row>
+    <row r="26" spans="6:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F26" s="2"/>
       <c r="G26" s="9"/>
       <c r="H26" s="2"/>
@@ -4838,8 +6501,16 @@
       <c r="L26" s="9"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="6:20" x14ac:dyDescent="0.35">
+      <c r="P26" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+    </row>
+    <row r="27" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F27" s="2"/>
       <c r="G27" s="9"/>
       <c r="H27" s="2"/>
@@ -4847,8 +6518,14 @@
       <c r="L27" s="9"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="6:20" x14ac:dyDescent="0.35">
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+    </row>
+    <row r="28" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F28" s="2"/>
       <c r="G28" s="9"/>
       <c r="H28" s="2"/>
@@ -4856,8 +6533,14 @@
       <c r="L28" s="9"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="6:20" x14ac:dyDescent="0.35">
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+    </row>
+    <row r="29" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F29" s="2"/>
       <c r="G29" s="9"/>
       <c r="H29" s="2"/>
@@ -4865,8 +6548,14 @@
       <c r="L29" s="9"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-    </row>
-    <row r="30" spans="6:20" x14ac:dyDescent="0.35">
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+    </row>
+    <row r="30" spans="6:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F30" s="2"/>
       <c r="G30" s="9"/>
       <c r="H30" s="2"/>
@@ -4874,8 +6563,16 @@
       <c r="L30" s="9"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-    </row>
-    <row r="31" spans="6:20" x14ac:dyDescent="0.35">
+      <c r="P30" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+    </row>
+    <row r="31" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F31" s="2"/>
       <c r="G31" s="9"/>
       <c r="H31" s="2"/>
@@ -4883,8 +6580,14 @@
       <c r="L31" s="9"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-    </row>
-    <row r="32" spans="6:20" x14ac:dyDescent="0.35">
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+    </row>
+    <row r="32" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F32" s="2"/>
       <c r="G32" s="9"/>
       <c r="H32" s="2"/>
@@ -4892,8 +6595,14 @@
       <c r="L32" s="9"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-    </row>
-    <row r="33" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+    </row>
+    <row r="33" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F33" s="2"/>
       <c r="G33" s="9"/>
       <c r="H33" s="2"/>
@@ -4901,8 +6610,14 @@
       <c r="L33" s="9"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-    </row>
-    <row r="34" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+    </row>
+    <row r="34" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F34" s="2"/>
       <c r="G34" s="9"/>
       <c r="H34" s="2"/>
@@ -4911,7 +6626,7 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F35" s="2"/>
       <c r="G35" s="9"/>
       <c r="H35" s="2"/>
@@ -4920,7 +6635,7 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F36" s="2"/>
       <c r="G36" s="9"/>
       <c r="H36" s="2"/>
@@ -4929,7 +6644,7 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F37" s="2"/>
       <c r="G37" s="9"/>
       <c r="H37" s="2"/>
@@ -4938,7 +6653,7 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F38" s="2"/>
       <c r="G38" s="9"/>
       <c r="H38" s="2"/>
@@ -4947,7 +6662,7 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F39" s="2"/>
       <c r="G39" s="9"/>
       <c r="H39" s="2"/>
@@ -4956,7 +6671,7 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F40" s="2"/>
       <c r="G40" s="9"/>
       <c r="H40" s="2"/>
@@ -4965,7 +6680,7 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F41" s="2"/>
       <c r="G41" s="9"/>
       <c r="H41" s="2"/>
@@ -4974,7 +6689,7 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F42" s="2"/>
       <c r="G42" s="9"/>
       <c r="H42" s="2"/>
@@ -4983,7 +6698,7 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F43" s="2"/>
       <c r="G43" s="9"/>
       <c r="H43" s="2"/>
@@ -4992,7 +6707,7 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F44" s="2"/>
       <c r="G44" s="9"/>
       <c r="H44" s="2"/>
@@ -5001,7 +6716,7 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F45" s="2"/>
       <c r="G45" s="9"/>
       <c r="H45" s="2"/>
@@ -5010,7 +6725,7 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F46" s="2"/>
       <c r="G46" s="9"/>
       <c r="H46" s="2"/>
@@ -5019,7 +6734,7 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F47" s="3"/>
       <c r="G47" s="10"/>
       <c r="H47" s="3"/>
@@ -5032,10 +6747,14 @@
       <c r="K1048576" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="P26:U29"/>
+    <mergeCell ref="P30:U33"/>
+    <mergeCell ref="P14:U17"/>
     <mergeCell ref="F13:H13"/>
-    <mergeCell ref="P14:T17"/>
     <mergeCell ref="K13:N13"/>
+    <mergeCell ref="P20:U20"/>
+    <mergeCell ref="P22:U25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5045,8 +6764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1350C4-6C4D-4B59-A3BC-5B1F652DB40B}">
   <dimension ref="B1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5063,108 +6782,108 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="30" t="s">
+    <row r="4" spans="2:12" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>165</v>
+      <c r="C4" s="31" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="24"/>
+      <c r="C10" s="23"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="24"/>
-      <c r="E11" s="42" t="s">
+      <c r="C11" s="23"/>
+      <c r="E11" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
-      <c r="J11" s="42" t="s">
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
+      <c r="J11" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="43"/>
-      <c r="L11" s="44"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
     </row>
     <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="24"/>
-      <c r="E12" s="15" t="s">
+      <c r="C12" s="23"/>
+      <c r="E12" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C13" s="24"/>
+      <c r="C13" s="23"/>
       <c r="E13" s="4" t="s">
         <v>52</v>
       </c>
@@ -5178,14 +6897,14 @@
         <v>53</v>
       </c>
       <c r="K13" s="8">
-        <v>93.665999999999997</v>
+        <v>77.665999999999997</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C14" s="24"/>
+      <c r="C14" s="23"/>
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
@@ -5206,7 +6925,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C15" s="24"/>
+      <c r="C15" s="23"/>
       <c r="E15" s="2"/>
       <c r="F15" s="9"/>
       <c r="G15" s="2"/>
@@ -5221,7 +6940,7 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C16" s="24"/>
+      <c r="C16" s="23"/>
       <c r="E16" s="2"/>
       <c r="F16" s="9"/>
       <c r="G16" s="2"/>
@@ -5236,16 +6955,22 @@
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="24"/>
+      <c r="C17" s="23"/>
       <c r="E17" s="2"/>
       <c r="F17" s="9"/>
       <c r="G17" s="2"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="2"/>
+      <c r="J17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="9">
+        <v>9.6</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="24"/>
+      <c r="C18" s="23"/>
       <c r="E18" s="2"/>
       <c r="F18" s="9"/>
       <c r="G18" s="2"/>
@@ -5254,7 +6979,7 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="24"/>
+      <c r="C19" s="23"/>
       <c r="E19" s="2"/>
       <c r="F19" s="9"/>
       <c r="G19" s="2"/>
@@ -5263,7 +6988,7 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C20" s="24"/>
+      <c r="C20" s="23"/>
       <c r="E20" s="2"/>
       <c r="F20" s="9"/>
       <c r="G20" s="2"/>
@@ -5272,7 +6997,7 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="24"/>
+      <c r="C21" s="23"/>
       <c r="E21" s="2"/>
       <c r="F21" s="9"/>
       <c r="G21" s="2"/>
@@ -5281,7 +7006,7 @@
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="24"/>
+      <c r="C22" s="23"/>
       <c r="E22" s="2"/>
       <c r="F22" s="9"/>
       <c r="G22" s="2"/>
@@ -5290,7 +7015,7 @@
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C23" s="24"/>
+      <c r="C23" s="23"/>
       <c r="E23" s="2"/>
       <c r="F23" s="9"/>
       <c r="G23" s="2"/>
@@ -5299,7 +7024,7 @@
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C24" s="24"/>
+      <c r="C24" s="23"/>
       <c r="E24" s="2"/>
       <c r="F24" s="9"/>
       <c r="G24" s="2"/>
@@ -5308,7 +7033,7 @@
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C25" s="24"/>
+      <c r="C25" s="23"/>
       <c r="E25" s="2"/>
       <c r="F25" s="9"/>
       <c r="G25" s="2"/>
@@ -5317,7 +7042,7 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="24"/>
+      <c r="C26" s="23"/>
       <c r="E26" s="2"/>
       <c r="F26" s="9"/>
       <c r="G26" s="2"/>
@@ -5326,7 +7051,7 @@
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C27" s="24"/>
+      <c r="C27" s="23"/>
       <c r="E27" s="2"/>
       <c r="F27" s="9"/>
       <c r="G27" s="2"/>
@@ -5335,7 +7060,7 @@
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C28" s="24"/>
+      <c r="C28" s="23"/>
       <c r="E28" s="2"/>
       <c r="F28" s="9"/>
       <c r="G28" s="2"/>
@@ -5344,7 +7069,7 @@
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C29" s="24"/>
+      <c r="C29" s="23"/>
       <c r="E29" s="2"/>
       <c r="F29" s="9"/>
       <c r="G29" s="2"/>
@@ -5353,7 +7078,7 @@
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C30" s="24"/>
+      <c r="C30" s="23"/>
       <c r="E30" s="2"/>
       <c r="F30" s="9"/>
       <c r="G30" s="2"/>
@@ -5362,7 +7087,7 @@
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C31" s="24"/>
+      <c r="C31" s="23"/>
       <c r="E31" s="2"/>
       <c r="F31" s="9"/>
       <c r="G31" s="2"/>
@@ -5371,7 +7096,7 @@
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C32" s="24"/>
+      <c r="C32" s="23"/>
       <c r="E32" s="2"/>
       <c r="F32" s="9"/>
       <c r="G32" s="2"/>
@@ -5380,7 +7105,7 @@
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C33" s="24"/>
+      <c r="C33" s="23"/>
       <c r="E33" s="2"/>
       <c r="F33" s="9"/>
       <c r="G33" s="2"/>
@@ -5389,7 +7114,7 @@
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C34" s="24"/>
+      <c r="C34" s="23"/>
       <c r="E34" s="2"/>
       <c r="F34" s="9"/>
       <c r="G34" s="2"/>
@@ -5398,7 +7123,7 @@
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C35" s="24"/>
+      <c r="C35" s="23"/>
       <c r="E35" s="2"/>
       <c r="F35" s="9"/>
       <c r="G35" s="2"/>
@@ -5407,7 +7132,7 @@
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C36" s="24"/>
+      <c r="C36" s="23"/>
       <c r="E36" s="2"/>
       <c r="F36" s="9"/>
       <c r="G36" s="2"/>
@@ -5500,8 +7225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD23EB3-FE0B-4D28-A04E-DA4ABD2C8717}">
   <dimension ref="B1:T45"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5511,7 +7236,7 @@
     <col min="5" max="5" width="10.08984375" customWidth="1"/>
     <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.54296875" customWidth="1"/>
     <col min="12" max="12" width="27.6328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.6328125" customWidth="1"/>
@@ -5521,120 +7246,120 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:20" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>164</v>
+      <c r="C4" s="31" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="24"/>
+      <c r="C10" s="23"/>
     </row>
     <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="24"/>
-      <c r="E11" s="42" t="s">
+      <c r="C11" s="23"/>
+      <c r="E11" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
-      <c r="J11" s="42" t="s">
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
+      <c r="J11" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
     </row>
     <row r="12" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="24"/>
-      <c r="E12" s="15" t="s">
+      <c r="C12" s="23"/>
+      <c r="E12" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="K12" s="35" t="s">
+      <c r="K12" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="L12" s="34" t="s">
+      <c r="L12" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="36" t="s">
+      <c r="M12" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="O12" s="45" t="s">
+      <c r="O12" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C13" s="24"/>
+      <c r="C13" s="23"/>
       <c r="E13" s="4" t="s">
         <v>49</v>
       </c>
@@ -5648,22 +7373,22 @@
         <v>43</v>
       </c>
       <c r="K13" s="8">
-        <f>2250-K14-K15-K16-K17-K18</f>
-        <v>369.67699999999968</v>
+        <f>2250-K14-K15-K16-K17-K18-K19</f>
+        <v>356.47699999999969</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="20"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
+      <c r="M13" s="19"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C14" s="24"/>
+      <c r="C14" s="23"/>
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
@@ -5685,15 +7410,15 @@
       <c r="M14" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C15" s="24"/>
+      <c r="C15" s="23"/>
       <c r="E15" s="2"/>
       <c r="F15" s="9"/>
       <c r="G15" s="2"/>
@@ -5709,15 +7434,15 @@
       <c r="M15" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C16" s="24"/>
+      <c r="C16" s="23"/>
       <c r="E16" s="2"/>
       <c r="F16" s="9"/>
       <c r="G16" s="2"/>
@@ -5733,17 +7458,17 @@
       <c r="M16" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="O16" s="45" t="s">
+      <c r="O16" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C17" s="24"/>
+      <c r="C17" s="23"/>
       <c r="E17" s="2"/>
       <c r="F17" s="9"/>
       <c r="G17" s="2"/>
@@ -5759,15 +7484,15 @@
       <c r="M17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C18" s="24"/>
+      <c r="C18" s="23"/>
       <c r="E18" s="2"/>
       <c r="F18" s="9"/>
       <c r="G18" s="2"/>
@@ -5781,31 +7506,37 @@
         <v>154</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C19" s="24"/>
+      <c r="C19" s="23"/>
       <c r="E19" s="2"/>
       <c r="F19" s="9"/>
       <c r="G19" s="2"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="6"/>
+      <c r="J19" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="K19" s="9">
+        <v>13.2</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>180</v>
+      </c>
       <c r="M19" s="2"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
     </row>
     <row r="20" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="24"/>
+      <c r="C20" s="23"/>
       <c r="E20" s="2"/>
       <c r="F20" s="9"/>
       <c r="G20" s="2"/>
@@ -5815,7 +7546,7 @@
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C21" s="24"/>
+      <c r="C21" s="23"/>
       <c r="E21" s="2"/>
       <c r="F21" s="9"/>
       <c r="G21" s="2"/>
@@ -5823,17 +7554,17 @@
       <c r="K21" s="9"/>
       <c r="L21" s="6"/>
       <c r="M21" s="2"/>
-      <c r="O21" s="46" t="s">
+      <c r="O21" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C22" s="24"/>
+      <c r="C22" s="23"/>
       <c r="E22" s="2"/>
       <c r="F22" s="9"/>
       <c r="G22" s="2"/>
@@ -5843,7 +7574,7 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C23" s="24"/>
+      <c r="C23" s="23"/>
       <c r="E23" s="2"/>
       <c r="F23" s="9"/>
       <c r="G23" s="2"/>
@@ -5851,17 +7582,17 @@
       <c r="K23" s="9"/>
       <c r="L23" s="6"/>
       <c r="M23" s="2"/>
-      <c r="O23" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
+      <c r="O23" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C24" s="24"/>
+      <c r="C24" s="23"/>
       <c r="E24" s="2"/>
       <c r="F24" s="9"/>
       <c r="G24" s="2"/>
@@ -5869,15 +7600,15 @@
       <c r="K24" s="9"/>
       <c r="L24" s="6"/>
       <c r="M24" s="2"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C25" s="24"/>
+      <c r="C25" s="23"/>
       <c r="E25" s="2"/>
       <c r="F25" s="9"/>
       <c r="G25" s="2"/>
@@ -5885,15 +7616,15 @@
       <c r="K25" s="9"/>
       <c r="L25" s="6"/>
       <c r="M25" s="2"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C26" s="24"/>
+      <c r="C26" s="23"/>
       <c r="E26" s="2"/>
       <c r="F26" s="9"/>
       <c r="G26" s="2"/>
@@ -5901,15 +7632,15 @@
       <c r="K26" s="9"/>
       <c r="L26" s="6"/>
       <c r="M26" s="2"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C27" s="24"/>
+      <c r="C27" s="23"/>
       <c r="E27" s="2"/>
       <c r="F27" s="9"/>
       <c r="G27" s="2"/>
@@ -5917,17 +7648,17 @@
       <c r="K27" s="9"/>
       <c r="L27" s="6"/>
       <c r="M27" s="2"/>
-      <c r="O27" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
+      <c r="O27" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C28" s="24"/>
+      <c r="C28" s="23"/>
       <c r="E28" s="2"/>
       <c r="F28" s="9"/>
       <c r="G28" s="2"/>
@@ -5935,15 +7666,15 @@
       <c r="K28" s="9"/>
       <c r="L28" s="6"/>
       <c r="M28" s="2"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C29" s="24"/>
+      <c r="C29" s="23"/>
       <c r="E29" s="2"/>
       <c r="F29" s="9"/>
       <c r="G29" s="2"/>
@@ -5951,15 +7682,15 @@
       <c r="K29" s="9"/>
       <c r="L29" s="6"/>
       <c r="M29" s="2"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C30" s="24"/>
+      <c r="C30" s="23"/>
       <c r="E30" s="2"/>
       <c r="F30" s="9"/>
       <c r="G30" s="2"/>
@@ -5967,15 +7698,15 @@
       <c r="K30" s="9"/>
       <c r="L30" s="6"/>
       <c r="M30" s="2"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C31" s="24"/>
+      <c r="C31" s="23"/>
       <c r="E31" s="2"/>
       <c r="F31" s="9"/>
       <c r="G31" s="2"/>
@@ -5983,17 +7714,17 @@
       <c r="K31" s="9"/>
       <c r="L31" s="6"/>
       <c r="M31" s="2"/>
-      <c r="O31" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
+      <c r="O31" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
     </row>
     <row r="32" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C32" s="24"/>
+      <c r="C32" s="23"/>
       <c r="E32" s="2"/>
       <c r="F32" s="9"/>
       <c r="G32" s="2"/>
@@ -6001,15 +7732,15 @@
       <c r="K32" s="9"/>
       <c r="L32" s="6"/>
       <c r="M32" s="2"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
     </row>
     <row r="33" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C33" s="24"/>
+      <c r="C33" s="23"/>
       <c r="E33" s="2"/>
       <c r="F33" s="9"/>
       <c r="G33" s="2"/>
@@ -6017,15 +7748,15 @@
       <c r="K33" s="9"/>
       <c r="L33" s="6"/>
       <c r="M33" s="2"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
     </row>
     <row r="34" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C34" s="24"/>
+      <c r="C34" s="23"/>
       <c r="E34" s="2"/>
       <c r="F34" s="9"/>
       <c r="G34" s="2"/>
@@ -6033,15 +7764,15 @@
       <c r="K34" s="9"/>
       <c r="L34" s="6"/>
       <c r="M34" s="2"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="45"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
     </row>
     <row r="35" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C35" s="24"/>
+      <c r="C35" s="23"/>
       <c r="E35" s="2"/>
       <c r="F35" s="9"/>
       <c r="G35" s="2"/>
@@ -6051,7 +7782,7 @@
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C36" s="24"/>
+      <c r="C36" s="23"/>
       <c r="E36" s="2"/>
       <c r="F36" s="9"/>
       <c r="G36" s="2"/>
@@ -6178,62 +7909,62 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
-      <c r="J2" s="42" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
+      <c r="J2" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="44"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="42"/>
     </row>
     <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="45" t="s">
+      <c r="N3" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>81</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -6254,18 +7985,18 @@
       <c r="L4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -6286,18 +8017,18 @@
       <c r="L5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="2"/>
@@ -6306,18 +8037,18 @@
       <c r="J6" s="4"/>
       <c r="K6" s="9"/>
       <c r="L6" s="2"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>57</v>
       </c>
       <c r="E7" s="2"/>
@@ -6328,10 +8059,10 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>58</v>
       </c>
       <c r="E8" s="2"/>
@@ -6342,10 +8073,10 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>59</v>
       </c>
       <c r="E9" s="2"/>
@@ -6356,7 +8087,7 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C10" s="24"/>
+      <c r="C10" s="23"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9"/>
       <c r="G10" s="2"/>
@@ -6365,7 +8096,7 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C11" s="24"/>
+      <c r="C11" s="23"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9"/>
       <c r="G11" s="2"/>
@@ -6374,7 +8105,7 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C12" s="24"/>
+      <c r="C12" s="23"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9"/>
       <c r="G12" s="2"/>
@@ -6383,7 +8114,7 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C13" s="24"/>
+      <c r="C13" s="23"/>
       <c r="E13" s="2"/>
       <c r="F13" s="9"/>
       <c r="G13" s="2"/>
@@ -6392,7 +8123,7 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C14" s="24"/>
+      <c r="C14" s="23"/>
       <c r="E14" s="2"/>
       <c r="F14" s="9"/>
       <c r="G14" s="2"/>
@@ -6401,7 +8132,7 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C15" s="24"/>
+      <c r="C15" s="23"/>
       <c r="E15" s="2"/>
       <c r="F15" s="9"/>
       <c r="G15" s="2"/>
@@ -6410,7 +8141,7 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C16" s="24"/>
+      <c r="C16" s="23"/>
       <c r="E16" s="2"/>
       <c r="F16" s="9"/>
       <c r="G16" s="2"/>
@@ -6419,7 +8150,7 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="24"/>
+      <c r="C17" s="23"/>
       <c r="E17" s="2"/>
       <c r="F17" s="9"/>
       <c r="G17" s="2"/>
@@ -6428,7 +8159,7 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="24"/>
+      <c r="C18" s="23"/>
       <c r="E18" s="2"/>
       <c r="F18" s="9"/>
       <c r="G18" s="2"/>
@@ -6437,7 +8168,7 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="24"/>
+      <c r="C19" s="23"/>
       <c r="E19" s="2"/>
       <c r="F19" s="9"/>
       <c r="G19" s="2"/>
@@ -6446,7 +8177,7 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C20" s="24"/>
+      <c r="C20" s="23"/>
       <c r="E20" s="2"/>
       <c r="F20" s="9"/>
       <c r="G20" s="2"/>
@@ -6455,7 +8186,7 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="24"/>
+      <c r="C21" s="23"/>
       <c r="E21" s="2"/>
       <c r="F21" s="9"/>
       <c r="G21" s="2"/>
@@ -6464,7 +8195,7 @@
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="24"/>
+      <c r="C22" s="23"/>
       <c r="E22" s="2"/>
       <c r="F22" s="9"/>
       <c r="G22" s="2"/>
@@ -6473,7 +8204,7 @@
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C23" s="24"/>
+      <c r="C23" s="23"/>
       <c r="E23" s="2"/>
       <c r="F23" s="9"/>
       <c r="G23" s="2"/>
@@ -6482,7 +8213,7 @@
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C24" s="24"/>
+      <c r="C24" s="23"/>
       <c r="E24" s="2"/>
       <c r="F24" s="9"/>
       <c r="G24" s="2"/>
@@ -6491,7 +8222,7 @@
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C25" s="24"/>
+      <c r="C25" s="23"/>
       <c r="E25" s="2"/>
       <c r="F25" s="9"/>
       <c r="G25" s="2"/>
@@ -6500,7 +8231,7 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="24"/>
+      <c r="C26" s="23"/>
       <c r="E26" s="2"/>
       <c r="F26" s="9"/>
       <c r="G26" s="2"/>
@@ -6509,7 +8240,7 @@
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C27" s="24"/>
+      <c r="C27" s="23"/>
       <c r="E27" s="2"/>
       <c r="F27" s="9"/>
       <c r="G27" s="2"/>
@@ -6518,7 +8249,7 @@
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C28" s="24"/>
+      <c r="C28" s="23"/>
       <c r="E28" s="2"/>
       <c r="F28" s="9"/>
       <c r="G28" s="2"/>
@@ -6527,7 +8258,7 @@
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C29" s="24"/>
+      <c r="C29" s="23"/>
       <c r="E29" s="2"/>
       <c r="F29" s="9"/>
       <c r="G29" s="2"/>
@@ -6536,7 +8267,7 @@
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C30" s="24"/>
+      <c r="C30" s="23"/>
       <c r="E30" s="2"/>
       <c r="F30" s="9"/>
       <c r="G30" s="2"/>
@@ -6545,7 +8276,7 @@
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C31" s="24"/>
+      <c r="C31" s="23"/>
       <c r="E31" s="2"/>
       <c r="F31" s="9"/>
       <c r="G31" s="2"/>
@@ -6554,7 +8285,7 @@
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C32" s="24"/>
+      <c r="C32" s="23"/>
       <c r="E32" s="2"/>
       <c r="F32" s="9"/>
       <c r="G32" s="2"/>
@@ -6563,7 +8294,7 @@
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C33" s="24"/>
+      <c r="C33" s="23"/>
       <c r="E33" s="2"/>
       <c r="F33" s="9"/>
       <c r="G33" s="2"/>
@@ -6572,7 +8303,7 @@
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C34" s="24"/>
+      <c r="C34" s="23"/>
       <c r="E34" s="2"/>
       <c r="F34" s="9"/>
       <c r="G34" s="2"/>
@@ -6581,7 +8312,7 @@
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C35" s="24"/>
+      <c r="C35" s="23"/>
       <c r="E35" s="2"/>
       <c r="F35" s="9"/>
       <c r="G35" s="2"/>
@@ -6590,7 +8321,7 @@
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C36" s="24"/>
+      <c r="C36" s="23"/>
       <c r="E36" s="3"/>
       <c r="F36" s="10"/>
       <c r="G36" s="3"/>
@@ -6630,105 +8361,105 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="24"/>
-      <c r="E10" s="42" t="s">
+      <c r="C10" s="23"/>
+      <c r="E10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="J10" s="42" t="s">
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="J10" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="43"/>
-      <c r="L10" s="44"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="24"/>
-      <c r="E11" s="15" t="s">
+      <c r="C11" s="23"/>
+      <c r="E11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C12" s="24"/>
+      <c r="C12" s="23"/>
       <c r="E12" s="4" t="s">
         <v>61</v>
       </c>
@@ -6749,7 +8480,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C13" s="24"/>
+      <c r="C13" s="23"/>
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
@@ -6770,7 +8501,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C14" s="24"/>
+      <c r="C14" s="23"/>
       <c r="E14" s="2" t="s">
         <v>54</v>
       </c>
@@ -6791,7 +8522,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C15" s="24"/>
+      <c r="C15" s="23"/>
       <c r="E15" s="2" t="s">
         <v>43</v>
       </c>
@@ -6812,7 +8543,7 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C16" s="24"/>
+      <c r="C16" s="23"/>
       <c r="E16" s="2" t="s">
         <v>41</v>
       </c>
@@ -6833,7 +8564,7 @@
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="24"/>
+      <c r="C17" s="23"/>
       <c r="E17" s="2" t="s">
         <v>53</v>
       </c>
@@ -6854,7 +8585,7 @@
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="24"/>
+      <c r="C18" s="23"/>
       <c r="E18" s="2"/>
       <c r="F18" s="9"/>
       <c r="G18" s="2"/>
@@ -6869,7 +8600,7 @@
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="24"/>
+      <c r="C19" s="23"/>
       <c r="E19" s="2"/>
       <c r="F19" s="9"/>
       <c r="G19" s="2"/>
@@ -6884,7 +8615,7 @@
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C20" s="24"/>
+      <c r="C20" s="23"/>
       <c r="E20" s="2"/>
       <c r="F20" s="9"/>
       <c r="G20" s="2"/>
@@ -6899,7 +8630,7 @@
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="24"/>
+      <c r="C21" s="23"/>
       <c r="E21" s="2"/>
       <c r="F21" s="9"/>
       <c r="G21" s="2"/>
@@ -6914,7 +8645,7 @@
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="24"/>
+      <c r="C22" s="23"/>
       <c r="E22" s="2"/>
       <c r="F22" s="9"/>
       <c r="G22" s="2"/>
@@ -6929,7 +8660,7 @@
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C23" s="24"/>
+      <c r="C23" s="23"/>
       <c r="E23" s="2"/>
       <c r="F23" s="9"/>
       <c r="G23" s="2"/>
@@ -6944,7 +8675,7 @@
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C24" s="24"/>
+      <c r="C24" s="23"/>
       <c r="E24" s="2"/>
       <c r="F24" s="9"/>
       <c r="G24" s="2"/>
@@ -6959,7 +8690,7 @@
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C25" s="24"/>
+      <c r="C25" s="23"/>
       <c r="E25" s="2"/>
       <c r="F25" s="9"/>
       <c r="G25" s="2"/>
@@ -6974,7 +8705,7 @@
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="24"/>
+      <c r="C26" s="23"/>
       <c r="E26" s="2"/>
       <c r="F26" s="9"/>
       <c r="G26" s="2"/>
@@ -6989,7 +8720,7 @@
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C27" s="24"/>
+      <c r="C27" s="23"/>
       <c r="E27" s="2"/>
       <c r="F27" s="9"/>
       <c r="G27" s="2"/>
@@ -7004,7 +8735,7 @@
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C28" s="24"/>
+      <c r="C28" s="23"/>
       <c r="E28" s="2"/>
       <c r="F28" s="9"/>
       <c r="G28" s="2"/>
@@ -7019,7 +8750,7 @@
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C29" s="24"/>
+      <c r="C29" s="23"/>
       <c r="E29" s="2"/>
       <c r="F29" s="9"/>
       <c r="G29" s="2"/>
@@ -7034,7 +8765,7 @@
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C30" s="24"/>
+      <c r="C30" s="23"/>
       <c r="E30" s="2"/>
       <c r="F30" s="9"/>
       <c r="G30" s="2"/>
@@ -7043,7 +8774,7 @@
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C31" s="24"/>
+      <c r="C31" s="23"/>
       <c r="E31" s="2"/>
       <c r="F31" s="9"/>
       <c r="G31" s="2"/>
@@ -7052,7 +8783,7 @@
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C32" s="24"/>
+      <c r="C32" s="23"/>
       <c r="E32" s="2"/>
       <c r="F32" s="9"/>
       <c r="G32" s="2"/>
@@ -7061,7 +8792,7 @@
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C33" s="24"/>
+      <c r="C33" s="23"/>
       <c r="E33" s="2"/>
       <c r="F33" s="9"/>
       <c r="G33" s="2"/>
@@ -7070,7 +8801,7 @@
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C34" s="24"/>
+      <c r="C34" s="23"/>
       <c r="E34" s="2"/>
       <c r="F34" s="9"/>
       <c r="G34" s="2"/>
@@ -7079,7 +8810,7 @@
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C35" s="24"/>
+      <c r="C35" s="23"/>
       <c r="E35" s="2"/>
       <c r="F35" s="9"/>
       <c r="G35" s="2"/>
@@ -7088,7 +8819,7 @@
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C36" s="24"/>
+      <c r="C36" s="23"/>
       <c r="E36" s="2"/>
       <c r="F36" s="9"/>
       <c r="G36" s="2"/>
@@ -7176,8 +8907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122A4D2D-7EB7-44FE-A97D-7046CE3D43BD}">
   <dimension ref="B1:S44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7196,105 +8927,105 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>163</v>
+      <c r="C4" s="37" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="24"/>
-      <c r="E10" s="42" t="s">
+      <c r="C10" s="23"/>
+      <c r="E10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="J10" s="42" t="s">
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="J10" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="43"/>
-      <c r="L10" s="44"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="24"/>
-      <c r="E11" s="15" t="s">
+      <c r="C11" s="23"/>
+      <c r="E11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C12" s="24"/>
+      <c r="C12" s="23"/>
       <c r="E12" s="4" t="s">
         <v>91</v>
       </c>
@@ -7315,7 +9046,7 @@
       </c>
     </row>
     <row r="13" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="24"/>
+      <c r="C13" s="23"/>
       <c r="E13" s="2" t="s">
         <v>61</v>
       </c>
@@ -7334,17 +9065,17 @@
       <c r="L13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="45" t="s">
+      <c r="N13" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C14" s="24"/>
+      <c r="C14" s="23"/>
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
@@ -7358,20 +9089,20 @@
         <v>89</v>
       </c>
       <c r="K14" s="9">
-        <v>459.75</v>
+        <v>440.75</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C15" s="24"/>
+      <c r="C15" s="23"/>
       <c r="E15" s="2"/>
       <c r="F15" s="9"/>
       <c r="G15" s="2"/>
@@ -7384,15 +9115,15 @@
       <c r="L15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
     </row>
     <row r="16" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="24"/>
+      <c r="C16" s="23"/>
       <c r="E16" s="2"/>
       <c r="F16" s="9"/>
       <c r="G16" s="2"/>
@@ -7405,15 +9136,15 @@
       <c r="L16" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
     </row>
     <row r="17" spans="3:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="24"/>
+      <c r="C17" s="23"/>
       <c r="E17" s="2"/>
       <c r="F17" s="9"/>
       <c r="G17" s="2"/>
@@ -7426,17 +9157,17 @@
       <c r="L17" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="N17" s="45" t="s">
+      <c r="N17" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C18" s="24"/>
+      <c r="C18" s="23"/>
       <c r="E18" s="2"/>
       <c r="F18" s="9"/>
       <c r="G18" s="2"/>
@@ -7449,15 +9180,15 @@
       <c r="L18" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C19" s="24"/>
+      <c r="C19" s="23"/>
       <c r="E19" s="2"/>
       <c r="F19" s="9"/>
       <c r="G19" s="2"/>
@@ -7470,30 +9201,36 @@
       <c r="L19" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C20" s="24"/>
+      <c r="C20" s="23"/>
       <c r="E20" s="2"/>
       <c r="F20" s="9"/>
       <c r="G20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="4"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
+      <c r="J20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="9">
+        <v>19</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C21" s="24"/>
+      <c r="C21" s="23"/>
       <c r="E21" s="2"/>
       <c r="F21" s="9"/>
       <c r="G21" s="2"/>
@@ -7502,24 +9239,24 @@
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C22" s="24"/>
+      <c r="C22" s="23"/>
       <c r="E22" s="2"/>
       <c r="F22" s="9"/>
       <c r="G22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="9"/>
       <c r="L22" s="4"/>
-      <c r="N22" s="46" t="s">
+      <c r="N22" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C23" s="24"/>
+      <c r="C23" s="23"/>
       <c r="E23" s="2"/>
       <c r="F23" s="9"/>
       <c r="G23" s="2"/>
@@ -7528,131 +9265,131 @@
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C24" s="24"/>
+      <c r="C24" s="23"/>
       <c r="E24" s="2"/>
       <c r="F24" s="9"/>
       <c r="G24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="9"/>
       <c r="L24" s="4"/>
-      <c r="N24" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
+      <c r="N24" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C25" s="24"/>
+      <c r="C25" s="23"/>
       <c r="E25" s="2"/>
       <c r="F25" s="9"/>
       <c r="G25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="9"/>
       <c r="L25" s="4"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C26" s="24"/>
+      <c r="C26" s="23"/>
       <c r="E26" s="2"/>
       <c r="F26" s="9"/>
       <c r="G26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="9"/>
       <c r="L26" s="4"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C27" s="24"/>
+      <c r="C27" s="23"/>
       <c r="E27" s="2"/>
       <c r="F27" s="9"/>
       <c r="G27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="9"/>
       <c r="L27" s="4"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C28" s="24"/>
+      <c r="C28" s="23"/>
       <c r="E28" s="2"/>
       <c r="F28" s="9"/>
       <c r="G28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="9"/>
       <c r="L28" s="4"/>
-      <c r="N28" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
+      <c r="N28" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C29" s="24"/>
+      <c r="C29" s="23"/>
       <c r="E29" s="2"/>
       <c r="F29" s="9"/>
       <c r="G29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="9"/>
       <c r="L29" s="4"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C30" s="24"/>
+      <c r="C30" s="23"/>
       <c r="E30" s="2"/>
       <c r="F30" s="9"/>
       <c r="G30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="9"/>
       <c r="L30" s="2"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
     </row>
     <row r="31" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C31" s="24"/>
+      <c r="C31" s="23"/>
       <c r="E31" s="2"/>
       <c r="F31" s="9"/>
       <c r="G31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="9"/>
       <c r="L31" s="2"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
     </row>
     <row r="32" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C32" s="24"/>
+      <c r="C32" s="23"/>
       <c r="E32" s="2"/>
       <c r="F32" s="9"/>
       <c r="G32" s="2"/>
@@ -7661,7 +9398,7 @@
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C33" s="24"/>
+      <c r="C33" s="23"/>
       <c r="E33" s="2"/>
       <c r="F33" s="9"/>
       <c r="G33" s="2"/>
@@ -7670,7 +9407,7 @@
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C34" s="24"/>
+      <c r="C34" s="23"/>
       <c r="E34" s="2"/>
       <c r="F34" s="9"/>
       <c r="G34" s="2"/>
@@ -7679,7 +9416,7 @@
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C35" s="24"/>
+      <c r="C35" s="23"/>
       <c r="E35" s="2"/>
       <c r="F35" s="9"/>
       <c r="G35" s="2"/>
@@ -7688,7 +9425,7 @@
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C36" s="24"/>
+      <c r="C36" s="23"/>
       <c r="E36" s="2"/>
       <c r="F36" s="9"/>
       <c r="G36" s="2"/>
@@ -7796,105 +9533,105 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="24"/>
-      <c r="E10" s="42" t="s">
+      <c r="C10" s="23"/>
+      <c r="E10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="J10" s="42" t="s">
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="J10" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="43"/>
-      <c r="L10" s="44"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="24"/>
-      <c r="E11" s="15" t="s">
+      <c r="C11" s="23"/>
+      <c r="E11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C12" s="24"/>
+      <c r="C12" s="23"/>
       <c r="E12" s="4" t="s">
         <v>53</v>
       </c>
@@ -7915,7 +9652,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C13" s="24"/>
+      <c r="C13" s="23"/>
       <c r="E13" s="2" t="s">
         <v>41</v>
       </c>
@@ -7936,7 +9673,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C14" s="24"/>
+      <c r="C14" s="23"/>
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
@@ -7957,7 +9694,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C15" s="24"/>
+      <c r="C15" s="23"/>
       <c r="E15" s="2" t="s">
         <v>90</v>
       </c>
@@ -7978,7 +9715,7 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C16" s="24"/>
+      <c r="C16" s="23"/>
       <c r="E16" s="2" t="s">
         <v>89</v>
       </c>
@@ -7999,7 +9736,7 @@
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="24"/>
+      <c r="C17" s="23"/>
       <c r="E17" s="2" t="s">
         <v>43</v>
       </c>
@@ -8014,7 +9751,7 @@
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="24"/>
+      <c r="C18" s="23"/>
       <c r="E18" s="2"/>
       <c r="F18" s="9"/>
       <c r="G18" s="2"/>
@@ -8023,7 +9760,7 @@
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="24"/>
+      <c r="C19" s="23"/>
       <c r="E19" s="2"/>
       <c r="F19" s="9"/>
       <c r="G19" s="2"/>
@@ -8032,7 +9769,7 @@
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C20" s="24"/>
+      <c r="C20" s="23"/>
       <c r="E20" s="2"/>
       <c r="F20" s="9"/>
       <c r="G20" s="2"/>
@@ -8041,7 +9778,7 @@
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="24"/>
+      <c r="C21" s="23"/>
       <c r="E21" s="2"/>
       <c r="F21" s="9"/>
       <c r="G21" s="2"/>
@@ -8050,7 +9787,7 @@
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="24"/>
+      <c r="C22" s="23"/>
       <c r="E22" s="2"/>
       <c r="F22" s="9"/>
       <c r="G22" s="2"/>
@@ -8059,7 +9796,7 @@
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C23" s="24"/>
+      <c r="C23" s="23"/>
       <c r="E23" s="2"/>
       <c r="F23" s="9"/>
       <c r="G23" s="2"/>
@@ -8068,7 +9805,7 @@
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C24" s="24"/>
+      <c r="C24" s="23"/>
       <c r="E24" s="2"/>
       <c r="F24" s="9"/>
       <c r="G24" s="2"/>
@@ -8077,7 +9814,7 @@
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C25" s="24"/>
+      <c r="C25" s="23"/>
       <c r="E25" s="2"/>
       <c r="F25" s="9"/>
       <c r="G25" s="2"/>
@@ -8086,7 +9823,7 @@
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="24"/>
+      <c r="C26" s="23"/>
       <c r="E26" s="2"/>
       <c r="F26" s="9"/>
       <c r="G26" s="2"/>
@@ -8095,7 +9832,7 @@
       <c r="L26" s="4"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C27" s="24"/>
+      <c r="C27" s="23"/>
       <c r="E27" s="2"/>
       <c r="F27" s="9"/>
       <c r="G27" s="2"/>
@@ -8104,7 +9841,7 @@
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C28" s="24"/>
+      <c r="C28" s="23"/>
       <c r="E28" s="2"/>
       <c r="F28" s="9"/>
       <c r="G28" s="2"/>
@@ -8113,7 +9850,7 @@
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C29" s="24"/>
+      <c r="C29" s="23"/>
       <c r="E29" s="2"/>
       <c r="F29" s="9"/>
       <c r="G29" s="2"/>
@@ -8122,7 +9859,7 @@
       <c r="L29" s="4"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C30" s="24"/>
+      <c r="C30" s="23"/>
       <c r="E30" s="2"/>
       <c r="F30" s="9"/>
       <c r="G30" s="2"/>
@@ -8131,7 +9868,7 @@
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C31" s="24"/>
+      <c r="C31" s="23"/>
       <c r="E31" s="2"/>
       <c r="F31" s="9"/>
       <c r="G31" s="2"/>
@@ -8140,7 +9877,7 @@
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C32" s="24"/>
+      <c r="C32" s="23"/>
       <c r="E32" s="2"/>
       <c r="F32" s="9"/>
       <c r="G32" s="2"/>
@@ -8149,7 +9886,7 @@
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C33" s="24"/>
+      <c r="C33" s="23"/>
       <c r="E33" s="2"/>
       <c r="F33" s="9"/>
       <c r="G33" s="2"/>
@@ -8158,7 +9895,7 @@
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C34" s="24"/>
+      <c r="C34" s="23"/>
       <c r="E34" s="2"/>
       <c r="F34" s="9"/>
       <c r="G34" s="2"/>
@@ -8167,7 +9904,7 @@
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C35" s="24"/>
+      <c r="C35" s="23"/>
       <c r="E35" s="2"/>
       <c r="F35" s="9"/>
       <c r="G35" s="2"/>
@@ -8176,7 +9913,7 @@
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C36" s="24"/>
+      <c r="C36" s="23"/>
       <c r="E36" s="2"/>
       <c r="F36" s="9"/>
       <c r="G36" s="2"/>

--- a/Game Stuff/Spreadsheet.xlsx
+++ b/Game Stuff/Spreadsheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Keldon Armory\Game Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Obelisk Of Alara\Game Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CCBF14-8178-4A79-85EC-A95819CF0016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B5D07D-A665-4A27-B6CF-AF9F3E3226C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45972" yWindow="-4944" windowWidth="17496" windowHeight="30216" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
   </bookViews>
@@ -22,12 +22,14 @@
     <sheet name="Neko's Nexus" sheetId="7" r:id="rId7"/>
     <sheet name="Ketria Crystals" sheetId="8" r:id="rId8"/>
     <sheet name="Ghirapur Gridworks" sheetId="10" r:id="rId9"/>
-    <sheet name="Kaladesh Refinery" sheetId="11" r:id="rId10"/>
-    <sheet name="The Abyssal Chains of Shandalar" sheetId="12" r:id="rId11"/>
+    <sheet name="The Abyssal Chains of Shandalar" sheetId="12" r:id="rId10"/>
+    <sheet name="Kaladesh Refinery" sheetId="11" r:id="rId11"/>
     <sheet name="Riveteers District" sheetId="13" r:id="rId12"/>
     <sheet name="Phyrexian Datavault" sheetId="14" r:id="rId13"/>
     <sheet name="Jund Pyroclast" sheetId="15" r:id="rId14"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId15"/>
+    <sheet name="Keldon Armory" sheetId="18" r:id="rId15"/>
+    <sheet name="Urabrask's Refinery" sheetId="16" r:id="rId16"/>
+    <sheet name="Obelisks of Alara " sheetId="19" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="244">
   <si>
     <t>Item</t>
   </si>
@@ -301,18 +303,9 @@
     <t>Darksteel Forge, Xantcha's Crucible, Oran-Rief Mines, Thran Foundry</t>
   </si>
   <si>
-    <t>822.8 MW</t>
-  </si>
-  <si>
-    <t>-822.8 MW</t>
-  </si>
-  <si>
     <t>13.1 GWh</t>
   </si>
   <si>
-    <t>15.92 Hours</t>
-  </si>
-  <si>
     <t>Top right belt going to Neko's Nexus has an extra 180 steel on it</t>
   </si>
   <si>
@@ -598,24 +591,9 @@
     <t>Top belt going to Riveteers, Phyrexian Datavault district and Keldon Armory has an extra 103.46666 Copper</t>
   </si>
   <si>
-    <t>Rubber Line going to Phyrexian Datavault has an extra 254.7</t>
-  </si>
-  <si>
-    <t>Phyrexian Datavault, The Abyssal Chains of Shandalar, Keldon Armory</t>
-  </si>
-  <si>
-    <t>Phyrexian Datavault, Keldon Armory, Jund Pyroclast</t>
-  </si>
-  <si>
     <t>Neko's Nexus, Ghirapur Gridworks, Phyrexian Datavault, Riveteers District, The Abyssal Chains of Shandalar, Keldon Armory</t>
   </si>
   <si>
-    <t>Ghirapur Gridworks,Phyrexian Datavault, Keldon Armory</t>
-  </si>
-  <si>
-    <t>Quartz Crystal Line going to Phyrexian Datavault and Keldon Armory has an extra 440.75</t>
-  </si>
-  <si>
     <t>Top belt going to has an extra 780 Iron Ingots</t>
   </si>
   <si>
@@ -628,7 +606,91 @@
     <t>Thran Foundy, Neko's Nexus, Ghirapur Gridworks, The Abyssal Chains of Shandalar, Keldon Armory</t>
   </si>
   <si>
-    <t xml:space="preserve">Neko's Nexus, Ghirapur Gridworks, Phyrexian Datavault, Keldon Armory </t>
+    <t>Nobelisk</t>
+  </si>
+  <si>
+    <t>Pulse Nobelisk</t>
+  </si>
+  <si>
+    <t>Cluster Nobelisk</t>
+  </si>
+  <si>
+    <t>Black Powder</t>
+  </si>
+  <si>
+    <t>Smokeless Powder</t>
+  </si>
+  <si>
+    <t>Rifle Ammo</t>
+  </si>
+  <si>
+    <t>Homing Rifle Ammo</t>
+  </si>
+  <si>
+    <t>Turbo Rifle Ammo</t>
+  </si>
+  <si>
+    <t>Iron Rebar</t>
+  </si>
+  <si>
+    <t>Shatter Rebar</t>
+  </si>
+  <si>
+    <t>Stun Rebar</t>
+  </si>
+  <si>
+    <t>Explosive Rebar</t>
+  </si>
+  <si>
+    <t>Packaged Turbo Fuel</t>
+  </si>
+  <si>
+    <t>Packaged Fuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keldon Armory </t>
+  </si>
+  <si>
+    <t>Urabrask's Refinery</t>
+  </si>
+  <si>
+    <t>0 MW</t>
+  </si>
+  <si>
+    <t>4330.4 MW</t>
+  </si>
+  <si>
+    <t>-4330.4 MW</t>
+  </si>
+  <si>
+    <t>5800 MWh</t>
+  </si>
+  <si>
+    <t>1.33 Hours</t>
+  </si>
+  <si>
+    <t>Riveteers District Miner</t>
+  </si>
+  <si>
+    <t>805.9 MW</t>
+  </si>
+  <si>
+    <t>-805.9 MW</t>
+  </si>
+  <si>
+    <t>16.25 Hours</t>
+  </si>
+  <si>
+    <t>Obelisk of Alara</t>
+  </si>
+  <si>
+    <t>Neko's Nexus, Obelisk of Alara</t>
+  </si>
+  <si>
+    <t>Bottom Container has an extra 417.333</t>
+  </si>
+  <si>
+    <t>Top Container has an extra 360</t>
   </si>
   <si>
     <t>Kaladesh Refinery, Riveteers District, Oran-Rief Mines, Xantcha's Crucible, Ketria Crystals, Darksteel Forge</t>
@@ -643,49 +705,85 @@
     <t>Miner (Jund Pyroclast)</t>
   </si>
   <si>
-    <t>Nobelisk</t>
-  </si>
-  <si>
-    <t>Pulse Nobelisk</t>
-  </si>
-  <si>
-    <t>Cluster Nobelisk</t>
-  </si>
-  <si>
-    <t>Black Powder</t>
-  </si>
-  <si>
-    <t>Smokeless Powder</t>
-  </si>
-  <si>
-    <t>Rifle Ammo</t>
-  </si>
-  <si>
-    <t>Homing Rifle Ammo</t>
-  </si>
-  <si>
-    <t>Turbo Rifle Ammo</t>
-  </si>
-  <si>
-    <t>Iron Rebar</t>
-  </si>
-  <si>
-    <t>Shatter Rebar</t>
-  </si>
-  <si>
-    <t>Stun Rebar</t>
-  </si>
-  <si>
-    <t>Explosive Rebar</t>
-  </si>
-  <si>
-    <t>Packaged Turbo Fuel</t>
-  </si>
-  <si>
-    <t>Packaged Fuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keldon Armory </t>
+    <t>Obelisks of Alara</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>Quartz Crystal Line going to Phyrexian Datavault, Keldon Armory and Obelisks of Alara has an extra 372.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phyrexian Datavault, The Abyssal Chains of Shandalar, Keldon Armory, Obelisks of Alara </t>
+  </si>
+  <si>
+    <t>Rubber Line going to Phyrexian Datavaul, Keldon Armory and Obelisk of Alara  has an extra 145.2 available</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Neko's Nexus, Ghirapur Gridworks, Phyrexian Datavault, Keldon Armory , Obelisks of Alara</t>
+  </si>
+  <si>
+    <t>Phyrexian Datavault, Keldon Armory, Jund Pyroclast, Urabrask's Refinery, Obelisks of Alara</t>
+  </si>
+  <si>
+    <t>Oran Rief Mines</t>
+  </si>
+  <si>
+    <t>3181.7 MW</t>
+  </si>
+  <si>
+    <t>-3181.7 MW</t>
+  </si>
+  <si>
+    <t>45.8 GWh</t>
+  </si>
+  <si>
+    <t>14.39 Hours</t>
+  </si>
+  <si>
+    <t>Iron ore</t>
+  </si>
+  <si>
+    <t>Quartz Crystal</t>
+  </si>
+  <si>
+    <t>Ghirapur Gridworks,Phyrexian Datavault, Keldon Armory, Obelisks of Alara</t>
+  </si>
+  <si>
+    <t>Steel Ingot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thran Foundry </t>
+  </si>
+  <si>
+    <t>Caterium Ingot</t>
+  </si>
+  <si>
+    <t>Aluminum Ingot</t>
+  </si>
+  <si>
+    <t>Riveteers District, Ketria Crystals, Thran Foundry, Oran-Rief Mines, Urabrask's Refinery</t>
+  </si>
+  <si>
+    <t>Heat Sink</t>
+  </si>
+  <si>
+    <t>Smart Plating</t>
+  </si>
+  <si>
+    <t>Fused Modular Frame</t>
+  </si>
+  <si>
+    <t>Turbo Motor</t>
+  </si>
+  <si>
+    <t>Cooling System</t>
+  </si>
+  <si>
+    <t>Thermal Propulsion Rocket</t>
   </si>
 </sst>
 </file>
@@ -717,7 +815,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1023,11 +1121,269 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1110,6 +1466,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1125,25 +1525,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1479,10 +1913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DEAD1A-BE12-4BD3-A45F-18807DFF108B}">
-  <dimension ref="C3:J96"/>
+  <dimension ref="B2:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1495,29 +1929,32 @@
     <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="40" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="42"/>
-    </row>
-    <row r="5" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="14" t="s">
+      <c r="I4" s="61"/>
+      <c r="J4" s="62"/>
+    </row>
+    <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="36" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="15"/>
@@ -1532,1057 +1969,1024 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C6" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="8">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C6" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="44">
         <v>246.666</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>134</v>
+      <c r="E6" s="40" t="s">
+        <v>131</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6" s="56">
         <v>15</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="40" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="9">
-        <v>77.665999999999997</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>50</v>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="11">
+        <v>356.47699999999998</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>44</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="57">
         <v>5</v>
       </c>
-      <c r="J7" s="49" t="s">
+      <c r="J7" s="41" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="9">
-        <v>356.47699999999998</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>44</v>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1849.848</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>42</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="57">
         <v>1.4065000000000001</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="8">
-        <v>1849.848</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>42</v>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="11">
+        <v>58.332999999999998</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="57">
         <v>2.25</v>
       </c>
-      <c r="J9" s="49" t="s">
+      <c r="J9" s="41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C10" s="2" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="8">
-        <v>58.332999999999998</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>4</v>
+      <c r="D10" s="11">
+        <v>68</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>106</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="57">
         <v>2.5</v>
       </c>
-      <c r="J10" s="49" t="s">
+      <c r="J10" s="41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C11" s="2" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="9">
-        <v>68</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>109</v>
+      <c r="D11" s="11">
+        <v>29.17</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>165</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="57">
         <v>45</v>
       </c>
-      <c r="J11" s="49" t="s">
+      <c r="J11" s="41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C12" s="4" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="9">
-        <v>29.17</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>168</v>
+      <c r="D12" s="11">
+        <v>391.64166599999999</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>198</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="57">
         <v>5</v>
       </c>
-      <c r="J12" s="49" t="s">
+      <c r="J12" s="41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="9">
-        <v>391.64166599999999</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>211</v>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="11">
+        <v>372.75</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>85</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="57">
         <v>7.3125</v>
       </c>
-      <c r="J13" s="49" t="s">
+      <c r="J13" s="41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C14" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="9">
-        <v>440.75</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>88</v>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="11">
+        <v>145.19999999999999</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>106</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="57">
         <v>3</v>
       </c>
-      <c r="J14" s="49" t="s">
+      <c r="J14" s="41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C15" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="9">
-        <v>254.7</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>109</v>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="11">
+        <v>226.25</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>131</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="57">
         <v>30</v>
       </c>
-      <c r="J15" s="49" t="s">
+      <c r="J15" s="41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C16" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D16" s="11">
-        <v>402.65</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>134</v>
+        <v>29.405555</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>85</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="57">
         <v>0.5</v>
       </c>
-      <c r="J16" s="49" t="s">
+      <c r="J16" s="41" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C17" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="9">
-        <v>29.405555</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>88</v>
+      <c r="C17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="11">
+        <v>777.33299999999997</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>55</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="57">
         <v>33.125</v>
       </c>
-      <c r="J17" s="49" t="s">
+      <c r="J17" s="41" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="9">
-        <v>1140</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>55</v>
+      <c r="C18" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="11">
+        <v>1965</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>199</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="57">
         <v>61.6875</v>
       </c>
-      <c r="J18" s="49" t="s">
+      <c r="J18" s="41" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C19" s="2"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="2"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="41"/>
       <c r="H19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="57">
         <v>7.25</v>
       </c>
-      <c r="J19" s="49" t="s">
+      <c r="J19" s="41" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C20" s="2"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="2"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="41"/>
       <c r="H20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="57">
         <v>30</v>
       </c>
-      <c r="J20" s="49" t="s">
+      <c r="J20" s="41" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C21" s="2"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="2"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="41"/>
       <c r="H21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="57">
         <v>45</v>
       </c>
-      <c r="J21" s="49" t="s">
+      <c r="J21" s="41" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C22" s="2"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="2"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="41"/>
       <c r="H22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="57">
         <v>22.5</v>
       </c>
-      <c r="J22" s="49" t="s">
+      <c r="J22" s="41" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C23" s="2"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="2"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="41"/>
       <c r="H23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="57">
         <v>20.5</v>
       </c>
-      <c r="J23" s="49" t="s">
+      <c r="J23" s="41" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C24" s="2"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="2"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="41"/>
       <c r="H24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="57">
         <v>15</v>
       </c>
-      <c r="J24" s="49" t="s">
+      <c r="J24" s="41" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C25" s="2"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="2"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="41"/>
       <c r="H25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="57">
         <v>25</v>
       </c>
-      <c r="J25" s="49" t="s">
+      <c r="J25" s="41" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C26" s="2"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="2"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="41"/>
       <c r="H26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I26" s="11">
+        <v>86</v>
+      </c>
+      <c r="I26" s="57">
         <v>26.25</v>
       </c>
-      <c r="J26" s="49" t="s">
-        <v>88</v>
+      <c r="J26" s="41" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C27" s="2"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="2"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="41"/>
       <c r="H27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I27" s="57">
+        <v>19.443999999999999</v>
+      </c>
+      <c r="J27" s="41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C28" s="6"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="41"/>
+      <c r="H28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="57">
+        <v>1.5</v>
+      </c>
+      <c r="J28" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="I27" s="11">
-        <v>19.443999999999999</v>
-      </c>
-      <c r="J27" s="49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C28" s="2"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="2"/>
-      <c r="H28" s="2" t="s">
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C29" s="6"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="41"/>
+      <c r="H29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="57">
+        <v>1.5</v>
+      </c>
+      <c r="J29" s="41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C30" s="6"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="41"/>
+      <c r="H30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="57">
+        <v>2.25</v>
+      </c>
+      <c r="J30" s="41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C31" s="6"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="41"/>
+      <c r="H31" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I28" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="J28" s="49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C29" s="2"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="2"/>
-      <c r="H29" s="2" t="s">
+      <c r="I31" s="57">
+        <v>3</v>
+      </c>
+      <c r="J31" s="41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C32" s="6"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="41"/>
+      <c r="H32" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I29" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="J29" s="49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C30" s="2"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="2"/>
-      <c r="H30" s="2" t="s">
+      <c r="I32" s="57">
+        <v>6</v>
+      </c>
+      <c r="J32" s="41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C33" s="6"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="41"/>
+      <c r="H33" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I30" s="11">
-        <v>2.25</v>
-      </c>
-      <c r="J30" s="49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C31" s="2"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="2"/>
-      <c r="H31" s="2" t="s">
+      <c r="I33" s="57">
+        <v>25</v>
+      </c>
+      <c r="J33" s="41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C34" s="6"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="41"/>
+      <c r="H34" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I31" s="11">
-        <v>3</v>
-      </c>
-      <c r="J31" s="49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C32" s="2"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="2"/>
-      <c r="H32" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I32" s="11">
-        <v>6</v>
-      </c>
-      <c r="J32" s="49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C33" s="2"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="2"/>
-      <c r="H33" s="2" t="s">
+      <c r="I34" s="57">
+        <v>20</v>
+      </c>
+      <c r="J34" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="I33" s="11">
-        <v>25</v>
-      </c>
-      <c r="J33" s="49" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C34" s="2"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="2"/>
-      <c r="H34" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I34" s="11">
-        <v>20</v>
-      </c>
-      <c r="J34" s="49" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C35" s="2"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="2"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="41"/>
       <c r="H35" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I35" s="11">
+        <v>122</v>
+      </c>
+      <c r="I35" s="57">
         <v>0.5</v>
       </c>
-      <c r="J35" s="49" t="s">
-        <v>114</v>
+      <c r="J35" s="41" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C36" s="2"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="2"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="41"/>
       <c r="H36" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I36" s="11">
+        <v>123</v>
+      </c>
+      <c r="I36" s="57">
         <v>0.5</v>
       </c>
-      <c r="J36" s="49" t="s">
-        <v>114</v>
+      <c r="J36" s="41" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C37" s="2"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="2"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="41"/>
       <c r="H37" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I37" s="11">
+        <v>135</v>
+      </c>
+      <c r="I37" s="57">
         <v>49.332999999999998</v>
       </c>
-      <c r="J37" s="49" t="s">
-        <v>134</v>
+      <c r="J37" s="41" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C38" s="3"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="3"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="43"/>
       <c r="H38" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I38" s="11">
+        <v>136</v>
+      </c>
+      <c r="I38" s="57">
         <v>12</v>
       </c>
-      <c r="J38" s="49" t="s">
-        <v>134</v>
+      <c r="J38" s="41" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H39" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I39" s="11">
+        <v>137</v>
+      </c>
+      <c r="I39" s="57">
         <v>45</v>
       </c>
-      <c r="J39" s="49" t="s">
-        <v>134</v>
+      <c r="J39" s="41" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H40" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I40" s="11">
+        <v>138</v>
+      </c>
+      <c r="I40" s="57">
         <v>61.7</v>
       </c>
-      <c r="J40" s="49" t="s">
-        <v>134</v>
+      <c r="J40" s="41" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H41" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="I41" s="11">
+        <v>158</v>
+      </c>
+      <c r="I41" s="57">
         <v>10</v>
       </c>
-      <c r="J41" s="49" t="s">
-        <v>154</v>
+      <c r="J41" s="41" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H42" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="I42" s="11">
+        <v>159</v>
+      </c>
+      <c r="I42" s="57">
         <v>10</v>
       </c>
-      <c r="J42" s="49" t="s">
-        <v>154</v>
+      <c r="J42" s="41" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H43" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I43" s="11">
+        <v>164</v>
+      </c>
+      <c r="I43" s="57">
         <v>5</v>
       </c>
-      <c r="J43" s="49" t="s">
-        <v>134</v>
+      <c r="J43" s="41" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I44" s="57">
         <v>10</v>
       </c>
-      <c r="J44" s="49" t="s">
+      <c r="J44" s="41" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H45" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="I45" s="38">
+        <v>173</v>
+      </c>
+      <c r="I45" s="58">
         <v>12.5</v>
       </c>
-      <c r="J45" s="50" t="s">
-        <v>168</v>
+      <c r="J45" s="42" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H46" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="I46" s="38">
+        <v>174</v>
+      </c>
+      <c r="I46" s="58">
         <v>12.5</v>
       </c>
-      <c r="J46" s="50" t="s">
-        <v>168</v>
+      <c r="J46" s="42" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H47" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="I47" s="38">
-        <v>150</v>
-      </c>
-      <c r="J47" s="50" t="s">
-        <v>168</v>
+        <v>175</v>
+      </c>
+      <c r="I47" s="58">
+        <v>148.44999999999999</v>
+      </c>
+      <c r="J47" s="42" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H48" s="54" t="s">
-        <v>197</v>
-      </c>
-      <c r="I48" s="38">
+      <c r="H48" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="I48" s="58">
         <v>2</v>
       </c>
-      <c r="J48" s="49" t="s">
-        <v>180</v>
+      <c r="J48" s="41" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H49" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="I49" s="38">
+        <v>185</v>
+      </c>
+      <c r="I49" s="58">
         <v>2</v>
       </c>
-      <c r="J49" s="49" t="s">
-        <v>180</v>
+      <c r="J49" s="41" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H50" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="I50" s="38">
+        <v>186</v>
+      </c>
+      <c r="I50" s="58">
         <v>2</v>
       </c>
-      <c r="J50" s="49" t="s">
-        <v>180</v>
+      <c r="J50" s="41" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H51" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="I51" s="38">
+        <v>187</v>
+      </c>
+      <c r="I51" s="58">
         <v>5</v>
       </c>
-      <c r="J51" s="49" t="s">
-        <v>180</v>
+      <c r="J51" s="41" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H52" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="I52" s="38">
+        <v>188</v>
+      </c>
+      <c r="I52" s="58">
         <v>5</v>
       </c>
-      <c r="J52" s="49" t="s">
-        <v>180</v>
+      <c r="J52" s="41" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H53" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="I53" s="38">
+        <v>189</v>
+      </c>
+      <c r="I53" s="58">
         <v>5</v>
       </c>
-      <c r="J53" s="49" t="s">
-        <v>180</v>
+      <c r="J53" s="41" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H54" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="I54" s="38">
+        <v>190</v>
+      </c>
+      <c r="I54" s="58">
         <v>5</v>
       </c>
-      <c r="J54" s="49" t="s">
-        <v>180</v>
+      <c r="J54" s="41" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H55" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="I55" s="11">
+        <v>191</v>
+      </c>
+      <c r="I55" s="57">
         <v>5</v>
       </c>
-      <c r="J55" s="49" t="s">
-        <v>180</v>
+      <c r="J55" s="41" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H56" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="I56" s="11">
+        <v>192</v>
+      </c>
+      <c r="I56" s="57">
         <v>5</v>
       </c>
-      <c r="J56" s="49" t="s">
-        <v>180</v>
+      <c r="J56" s="41" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H57" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="I57" s="11">
+        <v>193</v>
+      </c>
+      <c r="I57" s="57">
         <v>5</v>
       </c>
-      <c r="J57" s="49" t="s">
-        <v>180</v>
+      <c r="J57" s="41" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H58" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="I58" s="11">
+        <v>194</v>
+      </c>
+      <c r="I58" s="57">
         <v>5</v>
       </c>
-      <c r="J58" s="49" t="s">
-        <v>180</v>
+      <c r="J58" s="41" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H59" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="I59" s="11">
+        <v>195</v>
+      </c>
+      <c r="I59" s="57">
         <v>5</v>
       </c>
-      <c r="J59" s="49" t="s">
-        <v>180</v>
+      <c r="J59" s="41" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H60" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="I60" s="11">
+        <v>196</v>
+      </c>
+      <c r="I60" s="57">
         <v>5</v>
       </c>
-      <c r="J60" s="49" t="s">
-        <v>180</v>
+      <c r="J60" s="41" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H61" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="I61" s="11">
+        <v>197</v>
+      </c>
+      <c r="I61" s="57">
         <v>11.41666</v>
       </c>
-      <c r="J61" s="49" t="s">
-        <v>180</v>
+      <c r="J61" s="41" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H62" s="2"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="49"/>
+      <c r="H62" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I62" s="57">
+        <v>12.067</v>
+      </c>
+      <c r="J62" s="41" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="63" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H63" s="2"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="49"/>
+      <c r="H63" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="I63" s="58">
+        <v>5</v>
+      </c>
+      <c r="J63" s="41" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="64" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H64" s="2"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="49"/>
+      <c r="H64" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="I64" s="58">
+        <v>2.5</v>
+      </c>
+      <c r="J64" s="41" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H65" s="2"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="49"/>
+      <c r="H65" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="I65" s="58">
+        <v>2</v>
+      </c>
+      <c r="J65" s="41" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H66" s="2"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="49"/>
+      <c r="H66" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="I66" s="58">
+        <v>2</v>
+      </c>
+      <c r="J66" s="41" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C67" s="46"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="46"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="49"/>
+      <c r="H67" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="I67" s="58">
+        <v>2</v>
+      </c>
+      <c r="J67" s="41" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="46"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="49"/>
+      <c r="C68" s="1"/>
+      <c r="H68" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="I68" s="58">
+        <v>1</v>
+      </c>
+      <c r="J68" s="41" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="46"/>
-      <c r="F69" s="46"/>
+      <c r="C69" s="1"/>
       <c r="H69" s="2"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="49"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="41"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C70" s="47"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="46"/>
-      <c r="F70" s="46"/>
+      <c r="C70" s="1"/>
       <c r="H70" s="2"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="49"/>
+      <c r="I70" s="57"/>
+      <c r="J70" s="41"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C71" s="47"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="46"/>
       <c r="H71" s="2"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="49"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="41"/>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C72" s="47"/>
-      <c r="D72" s="47"/>
-      <c r="E72" s="46"/>
-      <c r="F72" s="46"/>
       <c r="H72" s="2"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="49"/>
+      <c r="I72" s="57"/>
+      <c r="J72" s="41"/>
     </row>
     <row r="73" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C73" s="47"/>
-      <c r="D73" s="47"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="46"/>
       <c r="H73" s="2"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="49"/>
+      <c r="I73" s="57"/>
+      <c r="J73" s="41"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C74" s="47"/>
-      <c r="D74" s="47"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="46"/>
       <c r="H74" s="2"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="49"/>
+      <c r="I74" s="57"/>
+      <c r="J74" s="41"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="46"/>
       <c r="H75" s="2"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="49"/>
+      <c r="I75" s="57"/>
+      <c r="J75" s="41"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C76" s="47"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="46"/>
       <c r="H76" s="2"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="49"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="41"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C77" s="47"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="46"/>
-      <c r="F77" s="46"/>
+      <c r="C77" s="1"/>
       <c r="H77" s="2"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="49"/>
+      <c r="I77" s="57"/>
+      <c r="J77" s="41"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C78" s="47"/>
-      <c r="D78" s="47"/>
-      <c r="E78" s="46"/>
-      <c r="F78" s="46"/>
+      <c r="C78" s="1"/>
       <c r="H78" s="2"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="49"/>
+      <c r="I78" s="57"/>
+      <c r="J78" s="41"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C79" s="47"/>
-      <c r="D79" s="47"/>
-      <c r="E79" s="46"/>
-      <c r="F79" s="46"/>
+      <c r="C79" s="1"/>
       <c r="H79" s="2"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="49"/>
+      <c r="I79" s="57"/>
+      <c r="J79" s="41"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C80" s="47"/>
-      <c r="D80" s="47"/>
-      <c r="E80" s="46"/>
-      <c r="F80" s="46"/>
+      <c r="C80" s="1"/>
       <c r="H80" s="2"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="49"/>
+      <c r="I80" s="57"/>
+      <c r="J80" s="41"/>
     </row>
     <row r="81" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C81" s="47"/>
-      <c r="D81" s="47"/>
-      <c r="E81" s="46"/>
-      <c r="F81" s="46"/>
+      <c r="C81" s="1"/>
       <c r="H81" s="2"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="49"/>
+      <c r="I81" s="57"/>
+      <c r="J81" s="41"/>
     </row>
     <row r="82" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C82" s="47"/>
-      <c r="D82" s="47"/>
-      <c r="E82" s="46"/>
-      <c r="F82" s="46"/>
+      <c r="C82" s="1"/>
       <c r="H82" s="2"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="49"/>
+      <c r="I82" s="57"/>
+      <c r="J82" s="41"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C83" s="46"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="46"/>
-      <c r="F83" s="46"/>
       <c r="H83" s="2"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="49"/>
+      <c r="I83" s="57"/>
+      <c r="J83" s="41"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C84" s="46"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="46"/>
       <c r="H84" s="2"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="49"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="41"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C85" s="46"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="46"/>
-      <c r="F85" s="46"/>
       <c r="H85" s="2"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="49"/>
+      <c r="I85" s="57"/>
+      <c r="J85" s="41"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C86" s="46"/>
-      <c r="D86" s="47"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="46"/>
       <c r="H86" s="2"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="49"/>
+      <c r="I86" s="57"/>
+      <c r="J86" s="41"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C87" s="46"/>
-      <c r="D87" s="47"/>
-      <c r="E87" s="46"/>
-      <c r="F87" s="46"/>
       <c r="H87" s="2"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="49"/>
+      <c r="I87" s="57"/>
+      <c r="J87" s="41"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H88" s="2"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="49"/>
+      <c r="I88" s="57"/>
+      <c r="J88" s="41"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H89" s="2"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="49"/>
+      <c r="I89" s="57"/>
+      <c r="J89" s="41"/>
     </row>
     <row r="90" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H90" s="2"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="49"/>
+      <c r="I90" s="57"/>
+      <c r="J90" s="41"/>
     </row>
     <row r="91" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H91" s="2"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="49"/>
+      <c r="I91" s="57"/>
+      <c r="J91" s="41"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H92" s="2"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="49"/>
+      <c r="I92" s="57"/>
+      <c r="J92" s="41"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H93" s="2"/>
-      <c r="I93" s="11"/>
-      <c r="J93" s="49"/>
+      <c r="I93" s="57"/>
+      <c r="J93" s="41"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H94" s="2"/>
-      <c r="I94" s="11"/>
-      <c r="J94" s="49"/>
+      <c r="I94" s="57"/>
+      <c r="J94" s="41"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H95" s="2"/>
-      <c r="I95" s="11"/>
-      <c r="J95" s="49"/>
+      <c r="I95" s="57"/>
+      <c r="J95" s="41"/>
     </row>
     <row r="96" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H96" s="3"/>
-      <c r="I96" s="53"/>
-      <c r="J96" s="51"/>
+      <c r="I96" s="59"/>
+      <c r="J96" s="43"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:E18">
@@ -2597,644 +3001,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBAD9F1-0099-4C27-8F14-6139C4B3501A}">
-  <dimension ref="B1:T44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.90625" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B3" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20" ht="58" x14ac:dyDescent="0.35">
-      <c r="B4" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B5" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B6" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B7" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B8" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="23"/>
-      <c r="E10" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
-      <c r="J10" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="42"/>
-    </row>
-    <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="23"/>
-      <c r="E11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="34" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C12" s="23"/>
-      <c r="E12" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" s="8">
-        <v>300</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K12" s="8">
-        <v>25</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="19"/>
-      <c r="O12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C13" s="23"/>
-      <c r="E13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="9">
-        <v>1000</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K13" s="9">
-        <v>254.7</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C14" s="23"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="4"/>
-      <c r="J14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="9">
-        <v>68</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C15" s="23"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="2"/>
-      <c r="J15" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K15" s="9">
-        <v>20</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C16" s="23"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="2"/>
-      <c r="J16" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K16" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="O16" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C17" s="23"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="2"/>
-      <c r="J17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="9">
-        <v>42</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C18" s="23"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="2"/>
-      <c r="J18" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K18" s="9">
-        <v>210</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C19" s="23"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="2"/>
-      <c r="J19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="9">
-        <v>280</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C20" s="23"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="2"/>
-      <c r="J20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K20" s="9">
-        <v>2.8</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C21" s="23"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="2"/>
-      <c r="O21" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C22" s="23"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C23" s="23"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="2"/>
-      <c r="O23" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C24" s="23"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="2"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C25" s="23"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="2"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C26" s="23"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="2"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C27" s="23"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="2"/>
-      <c r="O27" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C28" s="23"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="2"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C29" s="23"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="2"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C30" s="23"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C31" s="23"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C32" s="23"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C33" s="23"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C34" s="23"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C35" s="23"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-    </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C36" s="23"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="E37" s="2"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-    </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="E38" s="2"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="E39" s="2"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="E40" s="2"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="E41" s="2"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-    </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="E42" s="2"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="E43" s="2"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-    </row>
-    <row r="44" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E44" s="3"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="O23:T26"/>
-    <mergeCell ref="O27:T30"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="O12:T15"/>
-    <mergeCell ref="O16:T19"/>
-    <mergeCell ref="O21:T21"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1308C4-E9DD-438E-A79A-D3E0D96AB566}">
   <dimension ref="B1:L44"/>
   <sheetViews>
@@ -3260,7 +3026,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="87" x14ac:dyDescent="0.35">
@@ -3268,7 +3034,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
@@ -3292,7 +3058,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -3300,7 +3066,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -3308,7 +3074,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3316,21 +3082,21 @@
         <v>32</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
-      <c r="J10" s="40" t="s">
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
+      <c r="J10" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="62"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -3365,7 +3131,7 @@
         <v>60</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K12" s="8">
         <v>0.5</v>
@@ -3386,7 +3152,7 @@
         <v>62</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K13" s="9">
         <v>0.5</v>
@@ -3434,7 +3200,7 @@
         <v>42</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="9"/>
@@ -3443,13 +3209,13 @@
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C17" s="23"/>
       <c r="E17" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F17" s="9">
         <v>7.5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="9"/>
@@ -3694,6 +3460,650 @@
   <mergeCells count="2">
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="J10:L10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBAD9F1-0099-4C27-8F14-6139C4B3501A}">
+  <dimension ref="B1:T44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.90625" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="23"/>
+      <c r="E10" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
+      <c r="J10" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="62"/>
+    </row>
+    <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="23"/>
+      <c r="E11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="C12" s="23"/>
+      <c r="E12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="8">
+        <v>300</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" s="8">
+        <v>25</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="19"/>
+      <c r="O12" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="C13" s="23"/>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" s="9">
+        <v>145.19999999999999</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="63"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="C14" s="23"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="9">
+        <v>68</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="C15" s="23"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="2"/>
+      <c r="J15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15" s="9">
+        <v>20</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="C16" s="23"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="2"/>
+      <c r="J16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="O16" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C17" s="23"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="2"/>
+      <c r="J17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="9">
+        <v>42</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C18" s="23"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="2"/>
+      <c r="J18" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K18" s="9">
+        <v>210</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C19" s="23"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="9">
+        <v>280</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="63"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C20" s="23"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C21" s="23"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K21" s="9">
+        <v>109.5</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="O21" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C22" s="23"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C23" s="23"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="2"/>
+      <c r="O23" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="63"/>
+      <c r="T23" s="63"/>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C24" s="23"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="2"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C25" s="23"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="2"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C26" s="23"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="2"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="63"/>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C27" s="23"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="2"/>
+      <c r="O27" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="63"/>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C28" s="23"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="2"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C29" s="23"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="2"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="63"/>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C30" s="23"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="63"/>
+      <c r="T30" s="63"/>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C31" s="23"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C32" s="23"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C33" s="23"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C34" s="23"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C35" s="23"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C36" s="23"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="E37" s="2"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="E38" s="2"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="E39" s="2"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="E40" s="2"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="E41" s="2"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="E42" s="2"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="E43" s="2"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E44" s="3"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="O23:T26"/>
+    <mergeCell ref="O27:T30"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="O12:T15"/>
+    <mergeCell ref="O16:T19"/>
+    <mergeCell ref="O21:T21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3704,7 +4114,7 @@
   <dimension ref="B1:L44"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3726,7 +4136,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
@@ -3742,7 +4152,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
@@ -3758,7 +4168,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -3766,7 +4176,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -3774,7 +4184,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3782,21 +4192,21 @@
         <v>32</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
-      <c r="J10" s="40" t="s">
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
+      <c r="J10" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="62"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -3822,7 +4232,7 @@
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C12" s="23"/>
       <c r="E12" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F12" s="8">
         <v>600</v>
@@ -3830,13 +4240,13 @@
       <c r="G12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K12" s="8">
+      <c r="J12" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" s="44">
         <v>49.332999999999998</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="40" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3852,12 +4262,12 @@
         <v>60</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K13" s="9">
+        <v>135</v>
+      </c>
+      <c r="K13" s="11">
         <v>246.666</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="42" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3873,12 +4283,12 @@
         <v>60</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="K14" s="9">
+        <v>136</v>
+      </c>
+      <c r="K14" s="11">
         <v>12</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="42" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3894,12 +4304,12 @@
         <v>60</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="K15" s="9">
+        <v>137</v>
+      </c>
+      <c r="K15" s="11">
         <v>45</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="42" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3912,15 +4322,15 @@
         <v>240</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K16" s="9">
+        <v>138</v>
+      </c>
+      <c r="K16" s="11">
         <v>62</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="42" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3933,16 +4343,16 @@
         <v>246.67</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K17" s="9">
+        <v>87</v>
+      </c>
+      <c r="K17" s="11">
         <v>7.35</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>180</v>
+      <c r="L17" s="42" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
@@ -3951,12 +4361,12 @@
       <c r="F18" s="9"/>
       <c r="G18" s="2"/>
       <c r="J18" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K18" s="9">
-        <v>402.65</v>
-      </c>
-      <c r="L18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="11">
+        <v>226.25</v>
+      </c>
+      <c r="L18" s="42" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3966,13 +4376,13 @@
       <c r="F19" s="9"/>
       <c r="G19" s="2"/>
       <c r="J19" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K19" s="9">
+        <v>138</v>
+      </c>
+      <c r="K19" s="11">
         <v>160</v>
       </c>
-      <c r="L19" s="4" t="s">
-        <v>154</v>
+      <c r="L19" s="42" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
@@ -3981,12 +4391,12 @@
       <c r="F20" s="9"/>
       <c r="G20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="K20" s="9">
+        <v>164</v>
+      </c>
+      <c r="K20" s="11">
         <v>5</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="42" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3996,13 +4406,13 @@
       <c r="F21" s="9"/>
       <c r="G21" s="2"/>
       <c r="J21" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="K21" s="9">
+        <v>137</v>
+      </c>
+      <c r="K21" s="11">
         <v>150</v>
       </c>
-      <c r="L21" s="4" t="s">
-        <v>168</v>
+      <c r="L21" s="42" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
@@ -4011,13 +4421,13 @@
       <c r="F22" s="9"/>
       <c r="G22" s="2"/>
       <c r="J22" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K22" s="9">
+        <v>138</v>
+      </c>
+      <c r="K22" s="11">
         <v>0.3</v>
       </c>
-      <c r="L22" s="4" t="s">
-        <v>180</v>
+      <c r="L22" s="42" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.35">
@@ -4025,9 +4435,15 @@
       <c r="E23" s="2"/>
       <c r="F23" s="9"/>
       <c r="G23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="4"/>
+      <c r="J23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="11">
+        <v>176.4</v>
+      </c>
+      <c r="L23" s="42" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C24" s="23"/>
@@ -4035,8 +4451,8 @@
       <c r="F24" s="9"/>
       <c r="G24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="4"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="42"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C25" s="23"/>
@@ -4044,8 +4460,8 @@
       <c r="F25" s="9"/>
       <c r="G25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="4"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="42"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C26" s="23"/>
@@ -4053,8 +4469,8 @@
       <c r="F26" s="9"/>
       <c r="G26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="4"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="42"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C27" s="23"/>
@@ -4062,8 +4478,8 @@
       <c r="F27" s="9"/>
       <c r="G27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="4"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="42"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C28" s="23"/>
@@ -4071,8 +4487,8 @@
       <c r="F28" s="9"/>
       <c r="G28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="4"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="42"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C29" s="23"/>
@@ -4080,8 +4496,8 @@
       <c r="F29" s="9"/>
       <c r="G29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="4"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="42"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C30" s="23"/>
@@ -4089,8 +4505,8 @@
       <c r="F30" s="9"/>
       <c r="G30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="2"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="41"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C31" s="23"/>
@@ -4098,8 +4514,8 @@
       <c r="F31" s="9"/>
       <c r="G31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="2"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="41"/>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C32" s="23"/>
@@ -4107,8 +4523,8 @@
       <c r="F32" s="9"/>
       <c r="G32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="2"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="41"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C33" s="23"/>
@@ -4116,8 +4532,8 @@
       <c r="F33" s="9"/>
       <c r="G33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="2"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="41"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C34" s="23"/>
@@ -4125,8 +4541,8 @@
       <c r="F34" s="9"/>
       <c r="G34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="2"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="41"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C35" s="23"/>
@@ -4134,8 +4550,8 @@
       <c r="F35" s="9"/>
       <c r="G35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="2"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="41"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C36" s="23"/>
@@ -4143,72 +4559,72 @@
       <c r="F36" s="9"/>
       <c r="G36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="2"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="41"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E37" s="2"/>
       <c r="F37" s="9"/>
       <c r="G37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="2"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="41"/>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E38" s="2"/>
       <c r="F38" s="9"/>
       <c r="G38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="2"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="41"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E39" s="2"/>
       <c r="F39" s="9"/>
       <c r="G39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="2"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="41"/>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E40" s="2"/>
       <c r="F40" s="9"/>
       <c r="G40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="2"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="41"/>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E41" s="2"/>
       <c r="F41" s="9"/>
       <c r="G41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="2"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="41"/>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E42" s="2"/>
       <c r="F42" s="9"/>
       <c r="G42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="2"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="41"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E43" s="2"/>
       <c r="F43" s="9"/>
       <c r="G43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="2"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="41"/>
     </row>
     <row r="44" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E44" s="3"/>
       <c r="F44" s="10"/>
       <c r="G44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="3"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4245,7 +4661,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4253,7 +4669,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
@@ -4277,7 +4693,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -4285,7 +4701,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -4293,7 +4709,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4301,21 +4717,21 @@
         <v>32</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
-      <c r="J10" s="40" t="s">
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
+      <c r="J10" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="62"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -4347,13 +4763,13 @@
         <v>1272.67</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J12" s="38">
         <v>10</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>8</v>
@@ -4362,19 +4778,19 @@
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C13" s="23"/>
       <c r="E13" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F13" s="9">
         <v>606</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J13" s="38">
         <v>10</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>8</v>
@@ -4383,13 +4799,13 @@
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C14" s="23"/>
       <c r="E14" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F14" s="9">
         <v>300</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J14" s="38"/>
       <c r="K14" s="9"/>
@@ -4413,13 +4829,13 @@
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C16" s="23"/>
       <c r="E16" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F16" s="9">
         <v>210</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J16" s="38"/>
       <c r="K16" s="9"/>
@@ -4434,7 +4850,7 @@
         <v>280</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J17" s="38"/>
       <c r="K17" s="9"/>
@@ -4458,13 +4874,13 @@
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C19" s="23"/>
       <c r="E19" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F19" s="9">
         <v>160</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="9"/>
@@ -4700,8 +5116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1051D7C-48A2-4264-A591-A5BE1589053B}">
   <dimension ref="B1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4711,7 +5127,7 @@
     <col min="5" max="5" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.54296875" customWidth="1"/>
+    <col min="10" max="10" width="8.453125" customWidth="1"/>
     <col min="11" max="11" width="18.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.26953125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4722,7 +5138,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
@@ -4730,7 +5146,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
@@ -4738,7 +5154,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
@@ -4746,7 +5162,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
@@ -4754,7 +5170,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -4762,7 +5178,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -4770,7 +5186,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4778,21 +5194,21 @@
         <v>32</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
-      <c r="J10" s="40" t="s">
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
+      <c r="J10" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="62"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -4839,19 +5255,19 @@
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C13" s="23"/>
       <c r="E13" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F13" s="9">
         <v>300</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J13" s="38">
         <v>12.5</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>8</v>
@@ -4872,7 +5288,7 @@
         <v>12.5</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>8</v>
@@ -4881,19 +5297,19 @@
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C15" s="23"/>
       <c r="E15" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F15" s="9">
         <v>150</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J15" s="38">
-        <v>150</v>
+        <v>148.44999999999999</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>8</v>
@@ -4910,9 +5326,15 @@
       <c r="G16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="4"/>
+      <c r="J16" s="38">
+        <v>1.55</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C17" s="23"/>
@@ -5174,11 +5596,399 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C186B3A-157D-4021-977B-A5A4DB537283}">
+  <dimension ref="D3:N28"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6328125" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="4:14" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="41"/>
+    </row>
+    <row r="8" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D10" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G12" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="81"/>
+      <c r="I12" s="82"/>
+      <c r="L12" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="81"/>
+      <c r="N12" s="82"/>
+    </row>
+    <row r="13" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G13" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="G14" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" s="5">
+        <v>2</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N14" s="42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="G15" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="I15" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="L15" s="6">
+        <v>2</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="N15" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="G16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="2">
+        <v>7.35</v>
+      </c>
+      <c r="I16" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" s="6">
+        <v>2</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N16" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="I17" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="6">
+        <v>5</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N17" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="I18" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="6">
+        <v>5</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="N18" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G19" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="2">
+        <v>15</v>
+      </c>
+      <c r="I19" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" s="6">
+        <v>5</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="N19" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="2">
+        <v>30.4666</v>
+      </c>
+      <c r="I20" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="L20" s="6">
+        <v>5</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="N20" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="2">
+        <v>30.4666</v>
+      </c>
+      <c r="I21" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="L21" s="6">
+        <v>5</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="N21" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="2">
+        <v>150</v>
+      </c>
+      <c r="I22" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="6">
+        <v>5</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N22" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="2">
+        <v>150</v>
+      </c>
+      <c r="I23" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="6">
+        <v>5</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="N23" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="7:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="3">
+        <v>461.41665999999998</v>
+      </c>
+      <c r="I24" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="6">
+        <v>5</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="N24" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="L25" s="6">
+        <v>5</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="N25" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="L26" s="6">
+        <v>5</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="N26" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="L27" s="6">
+        <v>11.41666</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="N27" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="7:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L28" s="7">
+        <v>391.64166599999999</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N28" s="43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="L12:N12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAE874B-EB1A-40E9-945A-ABFDF311093C}">
-  <dimension ref="B1:L44"/>
+  <dimension ref="B1:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:L26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5187,9 +5997,517 @@
     <col min="3" max="3" width="23.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B4" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="23"/>
+      <c r="E10" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
+      <c r="J10" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="61"/>
+      <c r="L10" s="62"/>
+    </row>
+    <row r="11" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="23"/>
+      <c r="E11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="23"/>
+      <c r="E12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="8">
+        <v>2214.2849999999999</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="38">
+        <v>1965</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C13" s="23"/>
+      <c r="E13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="9">
+        <v>620</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="38">
+        <v>515</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="N13" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="C14" s="23"/>
+      <c r="E14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1148.5714</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="38"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="4"/>
+      <c r="N14" s="5">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="C15" s="23"/>
+      <c r="E15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="9">
+        <v>180</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J15" s="38"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="4"/>
+      <c r="N15" s="6">
+        <v>2</v>
+      </c>
+      <c r="O15" s="2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="C16" s="23"/>
+      <c r="E16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1240</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="38"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="4"/>
+      <c r="N16" s="6">
+        <v>3</v>
+      </c>
+      <c r="O16" s="2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="23"/>
+      <c r="E17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="9">
+        <v>744</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="38"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="4"/>
+      <c r="N17" s="7">
+        <v>4</v>
+      </c>
+      <c r="O17" s="3">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C18" s="23"/>
+      <c r="E18" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1680</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="38"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C19" s="23"/>
+      <c r="E19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="9">
+        <v>180</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C20" s="23"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="2"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C21" s="23"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="2"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C22" s="23"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="2"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C23" s="23"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="2"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C24" s="23"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="2"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C25" s="23"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="2"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C26" s="23"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="2"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C27" s="23"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="2"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C28" s="23"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="2"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C29" s="23"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="2"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C30" s="23"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="2"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C31" s="23"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="2"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C32" s="23"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="2"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C33" s="23"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="2"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C34" s="23"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="2"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C35" s="23"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="2"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C36" s="23"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="2"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E37" s="2"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="2"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E38" s="2"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="2"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E39" s="2"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="2"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E40" s="2"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="2"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E41" s="2"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E42" s="2"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E43" s="2"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E44" s="3"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="J10:L10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E188AE-32E3-44FC-A747-B6B7B3960AE2}">
+  <dimension ref="B1:L44"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.54296875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5199,24 +6517,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="58" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="45" t="s">
-        <v>193</v>
+      <c r="C3" s="28" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>27</v>
-      </c>
+      <c r="C4" s="25"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" s="21" t="s">
@@ -5229,7 +6545,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -5237,7 +6553,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -5245,7 +6561,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>51</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5253,21 +6569,21 @@
         <v>32</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>170</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
-      <c r="J10" s="40" t="s">
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
+      <c r="J10" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="62"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -5293,19 +6609,19 @@
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C12" s="23"/>
       <c r="E12" s="4" t="s">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="F12" s="8">
-        <v>0.3</v>
+        <v>485.50555000000003</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="J12" s="38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>8</v>
@@ -5314,19 +6630,19 @@
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C13" s="23"/>
       <c r="E13" s="2" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="F13" s="9">
-        <v>2.8</v>
+        <v>461.4</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="J13" s="38">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>8</v>
@@ -5335,19 +6651,19 @@
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C14" s="23"/>
       <c r="E14" s="2" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="F14" s="9">
-        <v>7.35</v>
+        <v>421.338888</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="J14" s="38">
         <v>2</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>8</v>
@@ -5356,19 +6672,19 @@
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C15" s="23"/>
       <c r="E15" s="2" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="F15" s="9">
-        <v>9.6</v>
+        <v>176.4</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="J15" s="38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>8</v>
@@ -5377,19 +6693,19 @@
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C16" s="23"/>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="F16" s="9">
-        <v>13.2</v>
+        <v>72</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="J16" s="38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>8</v>
@@ -5398,19 +6714,19 @@
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C17" s="23"/>
       <c r="E17" s="2" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="F17" s="9">
-        <v>19</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>88</v>
+        <v>599.9</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="J17" s="38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>8</v>
@@ -5419,167 +6735,113 @@
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C18" s="23"/>
       <c r="E18" s="2" t="s">
-        <v>18</v>
+        <v>233</v>
       </c>
       <c r="F18" s="9">
-        <v>30.4666</v>
+        <v>392.66660000000002</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="J18" s="38">
-        <v>5</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="J18" s="38"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C19" s="23"/>
       <c r="E19" s="2" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="F19" s="9">
-        <v>30.4666</v>
+        <v>109.5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="J19" s="11">
-        <v>5</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C20" s="23"/>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="F20" s="9">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="11">
-        <v>5</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="4"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C21" s="23"/>
       <c r="E21" s="2" t="s">
-        <v>20</v>
+        <v>236</v>
       </c>
       <c r="F21" s="9">
-        <v>150</v>
+        <v>515</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="11">
-        <v>5</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="J21" s="11"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="4"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C22" s="23"/>
       <c r="E22" s="2" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="F22" s="9">
-        <v>461.41665999999998</v>
+        <v>1.55</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" s="11">
-        <v>5</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="4"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C23" s="23"/>
       <c r="E23" s="2"/>
       <c r="F23" s="9"/>
       <c r="G23" s="2"/>
-      <c r="J23" s="11">
-        <v>5</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="J23" s="11"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="4"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C24" s="23"/>
       <c r="E24" s="2"/>
       <c r="F24" s="9"/>
       <c r="G24" s="2"/>
-      <c r="J24" s="11">
-        <v>5</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="J24" s="11"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="4"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C25" s="23"/>
       <c r="E25" s="2"/>
       <c r="F25" s="9"/>
       <c r="G25" s="2"/>
-      <c r="J25" s="11">
-        <v>11.41666</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="J25" s="11"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="4"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C26" s="23"/>
       <c r="E26" s="2"/>
       <c r="F26" s="9"/>
       <c r="G26" s="2"/>
-      <c r="J26" s="11">
-        <v>391.64166599999999</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="J26" s="11"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="4"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C27" s="23"/>
@@ -5772,16 +7034,16 @@
       <c r="D4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="K4" s="40" t="s">
+      <c r="G4" s="61"/>
+      <c r="H4" s="62"/>
+      <c r="K4" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="42"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="62"/>
     </row>
     <row r="5" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="17" t="s">
@@ -6198,7 +7460,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="3:21" x14ac:dyDescent="0.35">
@@ -6243,17 +7505,17 @@
     </row>
     <row r="12" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="42"/>
-      <c r="K13" s="40" t="s">
+      <c r="G13" s="61"/>
+      <c r="H13" s="62"/>
+      <c r="K13" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="42"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="62"/>
     </row>
     <row r="14" spans="3:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F14" s="14" t="s">
@@ -6275,16 +7537,16 @@
         <v>24</v>
       </c>
       <c r="N14" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="P14" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="P14" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="63"/>
     </row>
     <row r="15" spans="3:21" x14ac:dyDescent="0.35">
       <c r="F15" s="4" t="s">
@@ -6306,12 +7568,12 @@
         <v>25</v>
       </c>
       <c r="N15" s="19"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
     </row>
     <row r="16" spans="3:21" x14ac:dyDescent="0.35">
       <c r="F16" s="2" t="s">
@@ -6333,14 +7595,14 @@
         <v>55</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
+        <v>117</v>
+      </c>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
     </row>
     <row r="17" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F17" s="2"/>
@@ -6356,14 +7618,14 @@
         <v>81</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
+        <v>116</v>
+      </c>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
     </row>
     <row r="18" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F18" s="2"/>
@@ -6376,10 +7638,10 @@
         <v>37.5</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="6:21" x14ac:dyDescent="0.35">
@@ -6387,16 +7649,16 @@
       <c r="G19" s="9"/>
       <c r="H19" s="2"/>
       <c r="K19" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L19" s="9">
         <v>234.25</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="6:21" x14ac:dyDescent="0.35">
@@ -6410,17 +7672,17 @@
         <v>150</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="P20" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
+      <c r="P20" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="64"/>
     </row>
     <row r="21" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F21" s="2"/>
@@ -6439,14 +7701,14 @@
       <c r="L22" s="9"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-      <c r="P22" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
+      <c r="P22" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="63"/>
     </row>
     <row r="23" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F23" s="2"/>
@@ -6456,12 +7718,12 @@
       <c r="L23" s="9"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="63"/>
+      <c r="T23" s="63"/>
+      <c r="U23" s="63"/>
     </row>
     <row r="24" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F24" s="2"/>
@@ -6471,12 +7733,12 @@
       <c r="L24" s="9"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="63"/>
     </row>
     <row r="25" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F25" s="2"/>
@@ -6486,12 +7748,12 @@
       <c r="L25" s="9"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="63"/>
     </row>
     <row r="26" spans="6:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F26" s="2"/>
@@ -6501,14 +7763,14 @@
       <c r="L26" s="9"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="P26" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
+      <c r="P26" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="63"/>
     </row>
     <row r="27" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F27" s="2"/>
@@ -6518,12 +7780,12 @@
       <c r="L27" s="9"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="63"/>
     </row>
     <row r="28" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F28" s="2"/>
@@ -6533,12 +7795,12 @@
       <c r="L28" s="9"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="63"/>
     </row>
     <row r="29" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F29" s="2"/>
@@ -6548,12 +7810,12 @@
       <c r="L29" s="9"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="63"/>
+      <c r="U29" s="63"/>
     </row>
     <row r="30" spans="6:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F30" s="2"/>
@@ -6563,14 +7825,14 @@
       <c r="L30" s="9"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="P30" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
+      <c r="P30" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="63"/>
+      <c r="T30" s="63"/>
+      <c r="U30" s="63"/>
     </row>
     <row r="31" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F31" s="2"/>
@@ -6580,12 +7842,12 @@
       <c r="L31" s="9"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="63"/>
+      <c r="T31" s="63"/>
+      <c r="U31" s="63"/>
     </row>
     <row r="32" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F32" s="2"/>
@@ -6595,12 +7857,12 @@
       <c r="L32" s="9"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="63"/>
+      <c r="T32" s="63"/>
+      <c r="U32" s="63"/>
     </row>
     <row r="33" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F33" s="2"/>
@@ -6610,12 +7872,12 @@
       <c r="L33" s="9"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="43"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="63"/>
+      <c r="R33" s="63"/>
+      <c r="S33" s="63"/>
+      <c r="T33" s="63"/>
+      <c r="U33" s="63"/>
     </row>
     <row r="34" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F34" s="2"/>
@@ -6762,10 +8024,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1350C4-6C4D-4B59-A3BC-5B1F652DB40B}">
-  <dimension ref="B1:L45"/>
+  <dimension ref="B1:O48"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6778,6 +8040,7 @@
     <col min="10" max="10" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.54296875" customWidth="1"/>
     <col min="12" max="12" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -6797,12 +8060,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
@@ -6818,7 +8081,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -6826,7 +8089,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -6842,7 +8105,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6850,16 +8113,16 @@
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
-      <c r="J11" s="40" t="s">
+      <c r="F11" s="61"/>
+      <c r="G11" s="62"/>
+      <c r="J11" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="41"/>
-      <c r="L11" s="42"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="62"/>
     </row>
     <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="23"/>
@@ -6897,10 +8160,10 @@
         <v>53</v>
       </c>
       <c r="K13" s="8">
-        <v>77.665999999999997</v>
+        <v>12.067</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
@@ -6936,7 +8199,7 @@
         <v>18</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
@@ -6951,7 +8214,7 @@
         <v>158.333</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
@@ -6966,7 +8229,7 @@
         <v>9.6</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
@@ -6974,9 +8237,15 @@
       <c r="E18" s="2"/>
       <c r="F18" s="9"/>
       <c r="G18" s="2"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="2"/>
+      <c r="J18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="9">
+        <v>72</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C19" s="23"/>
@@ -7104,7 +8373,7 @@
       <c r="K32" s="9"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C33" s="23"/>
       <c r="E33" s="2"/>
       <c r="F33" s="9"/>
@@ -7113,7 +8382,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C34" s="23"/>
       <c r="E34" s="2"/>
       <c r="F34" s="9"/>
@@ -7122,7 +8391,7 @@
       <c r="K34" s="9"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C35" s="23"/>
       <c r="E35" s="2"/>
       <c r="F35" s="9"/>
@@ -7131,7 +8400,7 @@
       <c r="K35" s="9"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C36" s="23"/>
       <c r="E36" s="2"/>
       <c r="F36" s="9"/>
@@ -7140,7 +8409,7 @@
       <c r="K36" s="9"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.35">
       <c r="E37" s="2"/>
       <c r="F37" s="9"/>
       <c r="G37" s="2"/>
@@ -7148,7 +8417,7 @@
       <c r="K37" s="9"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.35">
       <c r="E38" s="2"/>
       <c r="F38" s="9"/>
       <c r="G38" s="2"/>
@@ -7156,7 +8425,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.35">
       <c r="E39" s="2"/>
       <c r="F39" s="9"/>
       <c r="G39" s="2"/>
@@ -7164,7 +8433,7 @@
       <c r="K39" s="9"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.35">
       <c r="E40" s="2"/>
       <c r="F40" s="9"/>
       <c r="G40" s="2"/>
@@ -7172,7 +8441,7 @@
       <c r="K40" s="9"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.35">
       <c r="E41" s="2"/>
       <c r="F41" s="9"/>
       <c r="G41" s="2"/>
@@ -7180,7 +8449,7 @@
       <c r="K41" s="9"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.35">
       <c r="E42" s="2"/>
       <c r="F42" s="9"/>
       <c r="G42" s="2"/>
@@ -7188,7 +8457,7 @@
       <c r="K42" s="9"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.35">
       <c r="E43" s="2"/>
       <c r="F43" s="9"/>
       <c r="G43" s="2"/>
@@ -7196,7 +8465,7 @@
       <c r="K43" s="9"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.35">
       <c r="E44" s="2"/>
       <c r="F44" s="9"/>
       <c r="G44" s="2"/>
@@ -7204,13 +8473,18 @@
       <c r="K44" s="9"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E45" s="3"/>
       <c r="F45" s="10"/>
       <c r="G45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="10"/>
       <c r="L45" s="3"/>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="O48" t="s">
+        <v>222</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7226,7 +8500,7 @@
   <dimension ref="B1:T45"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H105" sqref="H105"/>
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7266,7 +8540,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.35">
@@ -7314,17 +8588,17 @@
     </row>
     <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
-      <c r="J11" s="40" t="s">
+      <c r="F11" s="61"/>
+      <c r="G11" s="62"/>
+      <c r="J11" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="62"/>
     </row>
     <row r="12" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="23"/>
@@ -7347,16 +8621,16 @@
         <v>24</v>
       </c>
       <c r="M12" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="O12" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
+        <v>112</v>
+      </c>
+      <c r="O12" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C13" s="23"/>
@@ -7380,12 +8654,12 @@
         <v>25</v>
       </c>
       <c r="M13" s="19"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="63"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C14" s="23"/>
@@ -7408,14 +8682,14 @@
         <v>81</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
+        <v>114</v>
+      </c>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C15" s="23"/>
@@ -7429,17 +8703,17 @@
         <v>104.65</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
+        <v>114</v>
+      </c>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C16" s="23"/>
@@ -7453,19 +8727,19 @@
         <v>113.833</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O16" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
+      <c r="O16" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C17" s="23"/>
@@ -7479,17 +8753,17 @@
         <v>246.67</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
+        <v>130</v>
+      </c>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C18" s="23"/>
@@ -7503,15 +8777,15 @@
         <v>1272.67</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C19" s="23"/>
@@ -7519,21 +8793,21 @@
       <c r="F19" s="9"/>
       <c r="G19" s="2"/>
       <c r="J19" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K19" s="9">
         <v>13.2</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="63"/>
     </row>
     <row r="20" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C20" s="23"/>
@@ -7554,14 +8828,14 @@
       <c r="K21" s="9"/>
       <c r="L21" s="6"/>
       <c r="M21" s="2"/>
-      <c r="O21" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
+      <c r="O21" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C22" s="23"/>
@@ -7582,14 +8856,14 @@
       <c r="K23" s="9"/>
       <c r="L23" s="6"/>
       <c r="M23" s="2"/>
-      <c r="O23" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
+      <c r="O23" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="63"/>
+      <c r="T23" s="63"/>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C24" s="23"/>
@@ -7600,12 +8874,12 @@
       <c r="K24" s="9"/>
       <c r="L24" s="6"/>
       <c r="M24" s="2"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C25" s="23"/>
@@ -7616,12 +8890,12 @@
       <c r="K25" s="9"/>
       <c r="L25" s="6"/>
       <c r="M25" s="2"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C26" s="23"/>
@@ -7632,12 +8906,12 @@
       <c r="K26" s="9"/>
       <c r="L26" s="6"/>
       <c r="M26" s="2"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="63"/>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C27" s="23"/>
@@ -7648,14 +8922,14 @@
       <c r="K27" s="9"/>
       <c r="L27" s="6"/>
       <c r="M27" s="2"/>
-      <c r="O27" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
+      <c r="O27" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="63"/>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C28" s="23"/>
@@ -7666,12 +8940,12 @@
       <c r="K28" s="9"/>
       <c r="L28" s="6"/>
       <c r="M28" s="2"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C29" s="23"/>
@@ -7682,12 +8956,12 @@
       <c r="K29" s="9"/>
       <c r="L29" s="6"/>
       <c r="M29" s="2"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C30" s="23"/>
@@ -7698,12 +8972,12 @@
       <c r="K30" s="9"/>
       <c r="L30" s="6"/>
       <c r="M30" s="2"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="63"/>
+      <c r="T30" s="63"/>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C31" s="23"/>
@@ -7714,14 +8988,14 @@
       <c r="K31" s="9"/>
       <c r="L31" s="6"/>
       <c r="M31" s="2"/>
-      <c r="O31" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
+      <c r="O31" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="63"/>
+      <c r="T31" s="63"/>
     </row>
     <row r="32" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C32" s="23"/>
@@ -7732,12 +9006,12 @@
       <c r="K32" s="9"/>
       <c r="L32" s="6"/>
       <c r="M32" s="2"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="63"/>
+      <c r="T32" s="63"/>
     </row>
     <row r="33" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C33" s="23"/>
@@ -7748,12 +9022,12 @@
       <c r="K33" s="9"/>
       <c r="L33" s="6"/>
       <c r="M33" s="2"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="43"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="63"/>
+      <c r="R33" s="63"/>
+      <c r="S33" s="63"/>
+      <c r="T33" s="63"/>
     </row>
     <row r="34" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C34" s="23"/>
@@ -7764,12 +9038,12 @@
       <c r="K34" s="9"/>
       <c r="L34" s="6"/>
       <c r="M34" s="2"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="43"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="63"/>
+      <c r="R34" s="63"/>
+      <c r="S34" s="63"/>
+      <c r="T34" s="63"/>
     </row>
     <row r="35" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C35" s="23"/>
@@ -7892,19 +9166,19 @@
   <dimension ref="B1:S36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.08984375" customWidth="1"/>
     <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -7915,16 +9189,16 @@
       <c r="C2" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
-      <c r="J2" s="40" t="s">
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
+      <c r="J2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="62"/>
     </row>
     <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="21" t="s">
@@ -7951,21 +9225,21 @@
       <c r="L3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
+      <c r="N3" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B4" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>41</v>
@@ -7980,17 +9254,17 @@
         <v>54</v>
       </c>
       <c r="K4" s="8">
-        <v>1140</v>
+        <v>777.33299999999997</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B5" s="21" t="s">
@@ -8017,12 +9291,12 @@
       <c r="L5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B6" s="21" t="s">
@@ -8034,15 +9308,21 @@
       <c r="E6" s="2"/>
       <c r="F6" s="9"/>
       <c r="G6" s="2"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="2"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
+      <c r="J6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="9">
+        <v>392.666</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B7" s="21" t="s">
@@ -8086,7 +9366,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9"/>
@@ -8094,6 +9374,14 @@
       <c r="J10" s="4"/>
       <c r="K10" s="9"/>
       <c r="L10" s="2"/>
+      <c r="N10" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="76"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C11" s="23"/>
@@ -8103,6 +9391,14 @@
       <c r="J11" s="2"/>
       <c r="K11" s="9"/>
       <c r="L11" s="2"/>
+      <c r="N11" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="79"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C12" s="23"/>
@@ -8112,8 +9408,14 @@
       <c r="J12" s="2"/>
       <c r="K12" s="9"/>
       <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="N12" s="68"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="70"/>
+    </row>
+    <row r="13" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C13" s="23"/>
       <c r="E13" s="2"/>
       <c r="F13" s="9"/>
@@ -8121,6 +9423,12 @@
       <c r="J13" s="2"/>
       <c r="K13" s="9"/>
       <c r="L13" s="2"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="73"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C14" s="23"/>
@@ -8130,6 +9438,14 @@
       <c r="J14" s="2"/>
       <c r="K14" s="9"/>
       <c r="L14" s="2"/>
+      <c r="N14" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="67"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C15" s="23"/>
@@ -8139,8 +9455,14 @@
       <c r="J15" s="2"/>
       <c r="K15" s="9"/>
       <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="N15" s="68"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="70"/>
+    </row>
+    <row r="16" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C16" s="23"/>
       <c r="E16" s="2"/>
       <c r="F16" s="9"/>
@@ -8148,6 +9470,12 @@
       <c r="J16" s="2"/>
       <c r="K16" s="9"/>
       <c r="L16" s="2"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="73"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C17" s="23"/>
@@ -8330,10 +9658,13 @@
       <c r="L36" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="N14:S16"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="N3:S6"/>
+    <mergeCell ref="N10:S10"/>
+    <mergeCell ref="N11:S13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8344,7 +9675,7 @@
   <dimension ref="B1:L44"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8397,7 +9728,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>83</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -8405,7 +9736,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>84</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -8413,7 +9744,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8421,21 +9752,21 @@
         <v>32</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
-      <c r="J10" s="40" t="s">
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
+      <c r="J10" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="62"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -8907,8 +10238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122A4D2D-7EB7-44FE-A97D-7046CE3D43BD}">
   <dimension ref="B1:S44"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8931,7 +10262,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.35">
@@ -8942,12 +10273,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:19" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.35">
@@ -8963,7 +10294,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.35">
@@ -8971,7 +10302,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.35">
@@ -8979,7 +10310,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8987,21 +10318,21 @@
         <v>32</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
-      <c r="J10" s="40" t="s">
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
+      <c r="J10" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="62"/>
     </row>
     <row r="11" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -9027,7 +10358,7 @@
     <row r="12" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C12" s="23"/>
       <c r="E12" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F12" s="8">
         <v>1380</v>
@@ -9036,7 +10367,7 @@
         <v>60</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K12" s="8">
         <v>26.25</v>
@@ -9057,7 +10388,7 @@
         <v>60</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K13" s="9">
         <v>19.443999999999999</v>
@@ -9065,14 +10396,14 @@
       <c r="L13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
+      <c r="N13" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C14" s="23"/>
@@ -9086,20 +10417,20 @@
         <v>62</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K14" s="9">
-        <v>440.75</v>
+        <v>372.75</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C15" s="23"/>
@@ -9107,7 +10438,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="2"/>
       <c r="J15" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K15" s="9">
         <v>29.405550000000002</v>
@@ -9115,12 +10446,12 @@
       <c r="L15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
     </row>
     <row r="16" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="23"/>
@@ -9128,20 +10459,20 @@
       <c r="F16" s="9"/>
       <c r="G16" s="2"/>
       <c r="J16" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K16" s="9">
         <v>54</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
+        <v>90</v>
+      </c>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
     </row>
     <row r="17" spans="3:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="23"/>
@@ -9149,22 +10480,22 @@
       <c r="F17" s="9"/>
       <c r="G17" s="2"/>
       <c r="J17" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K17" s="9">
         <v>45.15</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="N17" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
+        <v>90</v>
+      </c>
+      <c r="N17" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C18" s="23"/>
@@ -9172,20 +10503,20 @@
       <c r="F18" s="9"/>
       <c r="G18" s="2"/>
       <c r="J18" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K18" s="9">
         <v>300</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
+        <v>151</v>
+      </c>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C19" s="23"/>
@@ -9193,20 +10524,20 @@
       <c r="F19" s="9"/>
       <c r="G19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K19" s="9">
         <v>606</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
+        <v>151</v>
+      </c>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="63"/>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C20" s="23"/>
@@ -9214,29 +10545,35 @@
       <c r="F20" s="9"/>
       <c r="G20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K20" s="9">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
+        <v>177</v>
+      </c>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="63"/>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C21" s="23"/>
       <c r="E21" s="2"/>
       <c r="F21" s="9"/>
       <c r="G21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="4"/>
+      <c r="J21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K21" s="9">
+        <v>72</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C22" s="23"/>
@@ -9246,14 +10583,14 @@
       <c r="J22" s="2"/>
       <c r="K22" s="9"/>
       <c r="L22" s="4"/>
-      <c r="N22" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
+      <c r="N22" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C23" s="23"/>
@@ -9272,14 +10609,14 @@
       <c r="J24" s="2"/>
       <c r="K24" s="9"/>
       <c r="L24" s="4"/>
-      <c r="N24" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
+      <c r="N24" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="63"/>
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C25" s="23"/>
@@ -9289,12 +10626,12 @@
       <c r="J25" s="2"/>
       <c r="K25" s="9"/>
       <c r="L25" s="4"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="63"/>
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C26" s="23"/>
@@ -9304,12 +10641,12 @@
       <c r="J26" s="2"/>
       <c r="K26" s="9"/>
       <c r="L26" s="4"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C27" s="23"/>
@@ -9319,12 +10656,12 @@
       <c r="J27" s="2"/>
       <c r="K27" s="9"/>
       <c r="L27" s="4"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C28" s="23"/>
@@ -9334,14 +10671,14 @@
       <c r="J28" s="2"/>
       <c r="K28" s="9"/>
       <c r="L28" s="4"/>
-      <c r="N28" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
+      <c r="N28" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C29" s="23"/>
@@ -9351,12 +10688,12 @@
       <c r="J29" s="2"/>
       <c r="K29" s="9"/>
       <c r="L29" s="4"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="63"/>
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C30" s="23"/>
@@ -9366,12 +10703,12 @@
       <c r="J30" s="2"/>
       <c r="K30" s="9"/>
       <c r="L30" s="2"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="63"/>
     </row>
     <row r="31" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C31" s="23"/>
@@ -9381,12 +10718,12 @@
       <c r="J31" s="2"/>
       <c r="K31" s="9"/>
       <c r="L31" s="2"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="63"/>
     </row>
     <row r="32" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C32" s="23"/>
@@ -9537,7 +10874,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
@@ -9569,7 +10906,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -9577,7 +10914,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -9585,7 +10922,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9593,21 +10930,21 @@
         <v>32</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
-      <c r="J10" s="40" t="s">
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
+      <c r="J10" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="62"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -9642,7 +10979,7 @@
         <v>50</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K12" s="8">
         <v>1.5</v>
@@ -9663,7 +11000,7 @@
         <v>33</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K13" s="9">
         <v>1.5</v>
@@ -9684,7 +11021,7 @@
         <v>62</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K14" s="9">
         <v>2.25</v>
@@ -9696,16 +11033,16 @@
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C15" s="23"/>
       <c r="E15" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F15" s="9">
         <v>45.15</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K15" s="9">
         <v>3</v>
@@ -9717,16 +11054,16 @@
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C16" s="23"/>
       <c r="E16" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F16" s="9">
         <v>54</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K16" s="9">
         <v>6</v>
@@ -9744,7 +11081,7 @@
         <v>104.65</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="9"/>

--- a/Game Stuff/Spreadsheet.xlsx
+++ b/Game Stuff/Spreadsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Obelisk Of Alara\Game Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Karn's Conduit\Game Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B5D07D-A665-4A27-B6CF-AF9F3E3226C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55E54FA-ACF8-4297-846D-DC0533CFF558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="-4944" windowWidth="17496" windowHeight="30216" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
+    <workbookView xWindow="45984" yWindow="-4836" windowWidth="17472" windowHeight="15096" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
   </bookViews>
   <sheets>
     <sheet name="Material Summary" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="Keldon Armory" sheetId="18" r:id="rId15"/>
     <sheet name="Urabrask's Refinery" sheetId="16" r:id="rId16"/>
     <sheet name="Obelisks of Alara " sheetId="19" r:id="rId17"/>
+    <sheet name="Karn's Conduit" sheetId="20" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="257">
   <si>
     <t>Item</t>
   </si>
@@ -600,12 +601,6 @@
     <t>Middle belt going to has an extra 780 Iron Ingots</t>
   </si>
   <si>
-    <t>Bottom belt going to Keldon Armory has an extra 289.848 Iron Ingots</t>
-  </si>
-  <si>
-    <t>Thran Foundy, Neko's Nexus, Ghirapur Gridworks, The Abyssal Chains of Shandalar, Keldon Armory</t>
-  </si>
-  <si>
     <t>Nobelisk</t>
   </si>
   <si>
@@ -684,12 +679,6 @@
     <t>Obelisk of Alara</t>
   </si>
   <si>
-    <t>Neko's Nexus, Obelisk of Alara</t>
-  </si>
-  <si>
-    <t>Bottom Container has an extra 417.333</t>
-  </si>
-  <si>
     <t>Top Container has an extra 360</t>
   </si>
   <si>
@@ -723,12 +712,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>Neko's Nexus, Ghirapur Gridworks, Phyrexian Datavault, Keldon Armory , Obelisks of Alara</t>
-  </si>
-  <si>
-    <t>Phyrexian Datavault, Keldon Armory, Jund Pyroclast, Urabrask's Refinery, Obelisks of Alara</t>
-  </si>
-  <si>
     <t>Oran Rief Mines</t>
   </si>
   <si>
@@ -784,6 +767,63 @@
   </si>
   <si>
     <t>Thermal Propulsion Rocket</t>
+  </si>
+  <si>
+    <t>Karn's Conduit</t>
+  </si>
+  <si>
+    <t>Neko's Nexus, Ghirapur Gridworks, Phyrexian Datavault, Keldon Armory , Obelisks of Alara, Karn's Conduit</t>
+  </si>
+  <si>
+    <t>Phyrexian Datavault, Keldon Armory, Jund Pyroclast, Urabrask's Refinery, Obelisks of Alara, Karn's Conduit</t>
+  </si>
+  <si>
+    <t>Neko's Nexus, Obelisk of Alara, Karn's Conduit</t>
+  </si>
+  <si>
+    <t>Bottom Container has an extra 227.324</t>
+  </si>
+  <si>
+    <t>Thran Foundy, Neko's Nexus, Ghirapur Gridworks, The Abyssal Chains of Shandalar, Keldon Armory, Karn's Conduit</t>
+  </si>
+  <si>
+    <t>Obelisks of Alara, Keldon Armory, Riveteers District, Phyrexian Datavault, Thran Foundry , Darksteel Forge</t>
+  </si>
+  <si>
+    <t>Bottom belt going to Keldon Armory and Karn's Conduit has an extra 277.835 Iron Ingots</t>
+  </si>
+  <si>
+    <t>738.9 MW</t>
+  </si>
+  <si>
+    <t>-738.9 MW</t>
+  </si>
+  <si>
+    <t>3.78 Hours</t>
+  </si>
+  <si>
+    <t>Mk3 Miner</t>
+  </si>
+  <si>
+    <t>Obelisks Of Alara Miner</t>
+  </si>
+  <si>
+    <t>Supercomputer</t>
+  </si>
+  <si>
+    <t>Versatile Framework</t>
+  </si>
+  <si>
+    <t>Automated Wiring</t>
+  </si>
+  <si>
+    <t>Assembly Director System</t>
+  </si>
+  <si>
+    <t>Electromagnetic Control Rods</t>
+  </si>
+  <si>
+    <t>Magnetic Field Generator</t>
   </si>
 </sst>
 </file>
@@ -815,7 +855,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1122,141 +1162,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1302,45 +1207,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1374,6 +1240,55 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1510,6 +1425,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1525,58 +1443,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1915,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DEAD1A-BE12-4BD3-A45F-18807DFF108B}">
   <dimension ref="B2:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1934,18 +1843,18 @@
     </row>
     <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="62"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="65"/>
     </row>
     <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="35" t="s">
@@ -2014,7 +1923,7 @@
         <v>41</v>
       </c>
       <c r="D8" s="11">
-        <v>1849.848</v>
+        <v>1837.835</v>
       </c>
       <c r="E8" s="41" t="s">
         <v>42</v>
@@ -2094,10 +2003,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="11">
-        <v>391.64166599999999</v>
+        <v>345.64157</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>67</v>
@@ -2154,7 +2063,7 @@
         <v>87</v>
       </c>
       <c r="D15" s="11">
-        <v>226.25</v>
+        <v>197.65</v>
       </c>
       <c r="E15" s="41" t="s">
         <v>131</v>
@@ -2194,7 +2103,7 @@
         <v>54</v>
       </c>
       <c r="D17" s="11">
-        <v>777.33299999999997</v>
+        <v>667.32330000000002</v>
       </c>
       <c r="E17" s="41" t="s">
         <v>55</v>
@@ -2217,7 +2126,7 @@
         <v>1965</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>73</v>
@@ -2536,7 +2445,7 @@
         <v>158</v>
       </c>
       <c r="I41" s="57">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J41" s="41" t="s">
         <v>151</v>
@@ -2610,7 +2519,7 @@
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H48" s="39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I48" s="58">
         <v>2</v>
@@ -2621,7 +2530,7 @@
     </row>
     <row r="49" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H49" s="39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I49" s="58">
         <v>2</v>
@@ -2632,7 +2541,7 @@
     </row>
     <row r="50" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H50" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I50" s="58">
         <v>2</v>
@@ -2643,7 +2552,7 @@
     </row>
     <row r="51" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H51" s="39" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I51" s="58">
         <v>5</v>
@@ -2654,7 +2563,7 @@
     </row>
     <row r="52" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H52" s="39" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I52" s="58">
         <v>5</v>
@@ -2665,7 +2574,7 @@
     </row>
     <row r="53" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H53" s="39" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I53" s="58">
         <v>5</v>
@@ -2676,7 +2585,7 @@
     </row>
     <row r="54" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H54" s="39" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I54" s="58">
         <v>5</v>
@@ -2687,7 +2596,7 @@
     </row>
     <row r="55" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H55" s="39" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I55" s="57">
         <v>5</v>
@@ -2698,7 +2607,7 @@
     </row>
     <row r="56" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H56" s="39" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I56" s="57">
         <v>5</v>
@@ -2709,7 +2618,7 @@
     </row>
     <row r="57" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H57" s="39" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I57" s="57">
         <v>5</v>
@@ -2720,7 +2629,7 @@
     </row>
     <row r="58" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H58" s="39" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I58" s="57">
         <v>5</v>
@@ -2731,7 +2640,7 @@
     </row>
     <row r="59" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H59" s="39" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I59" s="57">
         <v>5</v>
@@ -2742,7 +2651,7 @@
     </row>
     <row r="60" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H60" s="39" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I60" s="57">
         <v>5</v>
@@ -2753,7 +2662,7 @@
     </row>
     <row r="61" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H61" s="39" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I61" s="57">
         <v>11.41666</v>
@@ -2767,105 +2676,136 @@
         <v>53</v>
       </c>
       <c r="I62" s="57">
-        <v>12.067</v>
+        <v>7.0670000000000002</v>
       </c>
       <c r="J62" s="41" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H63" s="39" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I63" s="58">
         <v>5</v>
       </c>
       <c r="J63" s="41" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H64" s="39" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="I64" s="58">
         <v>2.5</v>
       </c>
       <c r="J64" s="41" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H65" s="39" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="I65" s="58">
         <v>2</v>
       </c>
       <c r="J65" s="41" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H66" s="39" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="I66" s="58">
         <v>2</v>
       </c>
       <c r="J66" s="41" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H67" s="39" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="I67" s="58">
         <v>2</v>
       </c>
       <c r="J67" s="41" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C68" s="1"/>
       <c r="H68" s="39" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="I68" s="58">
         <v>1</v>
       </c>
       <c r="J68" s="41" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C69" s="1"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="57"/>
-      <c r="J69" s="41"/>
+      <c r="H69" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="I69" s="8">
+        <f>5/8</f>
+        <v>0.625</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C70" s="1"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="57"/>
-      <c r="J70" s="41"/>
+      <c r="H70" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="I70" s="9">
+        <v>1</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H71" s="2"/>
-      <c r="I71" s="57"/>
-      <c r="J71" s="41"/>
+      <c r="H71" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="I71" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H72" s="2"/>
-      <c r="I72" s="57"/>
-      <c r="J72" s="41"/>
+      <c r="H72" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="I72" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="73" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H73" s="2"/>
-      <c r="I73" s="57"/>
-      <c r="J73" s="41"/>
+      <c r="H73" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="I73" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H74" s="2"/>
@@ -3087,16 +3027,16 @@
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
-      <c r="J10" s="60" t="s">
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="J10" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="61"/>
-      <c r="L10" s="62"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="65"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -3508,7 +3448,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.35">
@@ -3553,17 +3493,17 @@
     </row>
     <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
-      <c r="J10" s="60" t="s">
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="J10" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="62"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="65"/>
     </row>
     <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -3610,14 +3550,14 @@
         <v>8</v>
       </c>
       <c r="M12" s="19"/>
-      <c r="O12" s="63" t="s">
+      <c r="O12" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="63"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C13" s="23"/>
@@ -3640,12 +3580,12 @@
         <v>25</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="63"/>
-      <c r="T13" s="63"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C14" s="23"/>
@@ -3662,12 +3602,12 @@
         <v>25</v>
       </c>
       <c r="M14" s="2"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="63"/>
-      <c r="T14" s="63"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C15" s="23"/>
@@ -3684,12 +3624,12 @@
         <v>8</v>
       </c>
       <c r="M15" s="2"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C16" s="23"/>
@@ -3706,14 +3646,14 @@
         <v>111</v>
       </c>
       <c r="M16" s="2"/>
-      <c r="O16" s="63" t="s">
+      <c r="O16" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="63"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C17" s="23"/>
@@ -3730,12 +3670,12 @@
         <v>111</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="63"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C18" s="23"/>
@@ -3752,12 +3692,12 @@
         <v>151</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="63"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C19" s="23"/>
@@ -3774,12 +3714,12 @@
         <v>151</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="63"/>
-      <c r="S19" s="63"/>
-      <c r="T19" s="63"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="66"/>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C20" s="23"/>
@@ -3809,17 +3749,17 @@
         <v>109.5</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="O21" s="64" t="s">
+      <c r="O21" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="64"/>
-      <c r="T21" s="64"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="67"/>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C22" s="23"/>
@@ -3840,14 +3780,14 @@
       <c r="K23" s="9"/>
       <c r="L23" s="4"/>
       <c r="M23" s="2"/>
-      <c r="O23" s="63" t="s">
-        <v>221</v>
-      </c>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="63"/>
-      <c r="S23" s="63"/>
-      <c r="T23" s="63"/>
+      <c r="O23" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C24" s="23"/>
@@ -3858,12 +3798,12 @@
       <c r="K24" s="9"/>
       <c r="L24" s="4"/>
       <c r="M24" s="2"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="63"/>
-      <c r="S24" s="63"/>
-      <c r="T24" s="63"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66"/>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C25" s="23"/>
@@ -3874,12 +3814,12 @@
       <c r="K25" s="9"/>
       <c r="L25" s="4"/>
       <c r="M25" s="2"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="63"/>
-      <c r="S25" s="63"/>
-      <c r="T25" s="63"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C26" s="23"/>
@@ -3890,12 +3830,12 @@
       <c r="K26" s="9"/>
       <c r="L26" s="4"/>
       <c r="M26" s="2"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="63"/>
-      <c r="T26" s="63"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C27" s="23"/>
@@ -3906,14 +3846,14 @@
       <c r="K27" s="9"/>
       <c r="L27" s="4"/>
       <c r="M27" s="2"/>
-      <c r="O27" s="63" t="s">
+      <c r="O27" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="63"/>
-      <c r="T27" s="63"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="66"/>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C28" s="23"/>
@@ -3924,12 +3864,12 @@
       <c r="K28" s="9"/>
       <c r="L28" s="4"/>
       <c r="M28" s="2"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="63"/>
-      <c r="T28" s="63"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="66"/>
+      <c r="S28" s="66"/>
+      <c r="T28" s="66"/>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C29" s="23"/>
@@ -3940,12 +3880,12 @@
       <c r="K29" s="9"/>
       <c r="L29" s="4"/>
       <c r="M29" s="2"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="63"/>
-      <c r="R29" s="63"/>
-      <c r="S29" s="63"/>
-      <c r="T29" s="63"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="66"/>
+      <c r="S29" s="66"/>
+      <c r="T29" s="66"/>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C30" s="23"/>
@@ -3956,12 +3896,12 @@
       <c r="K30" s="9"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-      <c r="O30" s="63"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="63"/>
-      <c r="R30" s="63"/>
-      <c r="S30" s="63"/>
-      <c r="T30" s="63"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="66"/>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C31" s="23"/>
@@ -4114,7 +4054,7 @@
   <dimension ref="B1:L44"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4152,7 +4092,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
@@ -4197,16 +4137,16 @@
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
-      <c r="J10" s="60" t="s">
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="J10" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="61"/>
-      <c r="L10" s="62"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="65"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -4364,7 +4304,7 @@
         <v>87</v>
       </c>
       <c r="K18" s="11">
-        <v>226.25</v>
+        <v>197.65</v>
       </c>
       <c r="L18" s="42" t="s">
         <v>25</v>
@@ -4442,7 +4382,7 @@
         <v>176.4</v>
       </c>
       <c r="L23" s="42" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
@@ -4450,9 +4390,15 @@
       <c r="E24" s="2"/>
       <c r="F24" s="9"/>
       <c r="G24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="42"/>
+      <c r="J24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K24" s="11">
+        <v>28.6</v>
+      </c>
+      <c r="L24" s="42" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C25" s="23"/>
@@ -4640,7 +4586,7 @@
   <dimension ref="B1:L44"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L44"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4677,7 +4623,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>27</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
@@ -4722,16 +4668,16 @@
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
-      <c r="J10" s="60" t="s">
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="J10" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="61"/>
-      <c r="L10" s="62"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="65"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -4766,7 +4712,7 @@
         <v>134</v>
       </c>
       <c r="J12" s="38">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>158</v>
@@ -4807,9 +4753,15 @@
       <c r="G14" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="4"/>
+      <c r="J14" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C15" s="23"/>
@@ -5154,7 +5106,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
@@ -5199,16 +5151,16 @@
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
-      <c r="J10" s="60" t="s">
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="J10" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="61"/>
-      <c r="L10" s="62"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="65"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -5333,7 +5285,7 @@
         <v>175</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
@@ -5597,10 +5549,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C186B3A-157D-4021-977B-A5A4DB537283}">
-  <dimension ref="D3:N28"/>
+  <dimension ref="D3:N29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5629,7 +5581,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="4:14" x14ac:dyDescent="0.35">
@@ -5637,7 +5589,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>27</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="4:14" x14ac:dyDescent="0.35">
@@ -5651,7 +5603,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="4:14" x14ac:dyDescent="0.35">
@@ -5659,7 +5611,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="4:14" x14ac:dyDescent="0.35">
@@ -5700,13 +5652,13 @@
       <c r="I13" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="L13" s="53" t="s">
+      <c r="L13" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="M13" s="54" t="s">
+      <c r="M13" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="N13" s="55" t="s">
+      <c r="N13" s="62" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5720,13 +5672,13 @@
       <c r="I14" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="47">
         <v>2</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="N14" s="42" t="s">
+      <c r="M14" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="N14" s="40" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5744,7 +5696,7 @@
         <v>2</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N15" s="41" t="s">
         <v>8</v>
@@ -5764,7 +5716,7 @@
         <v>2</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N16" s="41" t="s">
         <v>8</v>
@@ -5784,7 +5736,7 @@
         <v>5</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N17" s="41" t="s">
         <v>8</v>
@@ -5804,7 +5756,7 @@
         <v>5</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N18" s="41" t="s">
         <v>8</v>
@@ -5824,7 +5776,7 @@
         <v>5</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N19" s="41" t="s">
         <v>8</v>
@@ -5838,13 +5790,13 @@
         <v>30.4666</v>
       </c>
       <c r="I20" s="41" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L20" s="6">
         <v>5</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N20" s="41" t="s">
         <v>8</v>
@@ -5858,13 +5810,13 @@
         <v>30.4666</v>
       </c>
       <c r="I21" s="41" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L21" s="6">
         <v>5</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N21" s="41" t="s">
         <v>8</v>
@@ -5884,7 +5836,7 @@
         <v>5</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N22" s="41" t="s">
         <v>8</v>
@@ -5904,7 +5856,7 @@
         <v>5</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N23" s="41" t="s">
         <v>8</v>
@@ -5924,7 +5876,7 @@
         <v>5</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N24" s="41" t="s">
         <v>8</v>
@@ -5935,7 +5887,7 @@
         <v>5</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N25" s="41" t="s">
         <v>8</v>
@@ -5946,7 +5898,7 @@
         <v>5</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N26" s="41" t="s">
         <v>8</v>
@@ -5957,20 +5909,32 @@
         <v>11.41666</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N27" s="41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="7:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="L28" s="7">
-        <v>391.64166599999999</v>
-      </c>
-      <c r="M28" s="3" t="s">
+    <row r="28" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="L28" s="6">
+        <v>46</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N28" s="43" t="s">
+      <c r="N28" s="41" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="7:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L29" s="7">
+        <f>391.64167-46</f>
+        <v>345.64166999999998</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="43" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6010,7 +5974,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.35">
@@ -6026,7 +5990,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.35">
@@ -6034,7 +5998,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.35">
@@ -6042,7 +6006,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.35">
@@ -6050,7 +6014,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.35">
@@ -6058,7 +6022,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6066,21 +6030,21 @@
         <v>32</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
-      <c r="J10" s="60" t="s">
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="J10" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="61"/>
-      <c r="L10" s="62"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="65"/>
     </row>
     <row r="11" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -6142,10 +6106,10 @@
         <v>137</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="N13" s="49" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>25</v>
@@ -6181,7 +6145,7 @@
         <v>180</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J15" s="38"/>
       <c r="K15" s="9"/>
@@ -6259,7 +6223,7 @@
         <v>180</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="9"/>
@@ -6495,8 +6459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E188AE-32E3-44FC-A747-B6B7B3960AE2}">
   <dimension ref="B1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:L17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6517,7 +6481,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="101.5" x14ac:dyDescent="0.35">
@@ -6525,7 +6489,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
@@ -6545,7 +6509,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -6553,7 +6517,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -6561,7 +6525,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6569,21 +6533,21 @@
         <v>32</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
-      <c r="J10" s="60" t="s">
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="J10" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="61"/>
-      <c r="L10" s="62"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="65"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -6609,7 +6573,7 @@
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C12" s="23"/>
       <c r="E12" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F12" s="8">
         <v>485.50555000000003</v>
@@ -6621,7 +6585,7 @@
         <v>5</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>8</v>
@@ -6642,7 +6606,7 @@
         <v>2.5</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>8</v>
@@ -6663,7 +6627,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>8</v>
@@ -6684,7 +6648,7 @@
         <v>2</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>8</v>
@@ -6693,7 +6657,7 @@
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C16" s="23"/>
       <c r="E16" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F16" s="9">
         <v>72</v>
@@ -6705,7 +6669,7 @@
         <v>2</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>8</v>
@@ -6726,7 +6690,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>8</v>
@@ -6735,13 +6699,13 @@
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C18" s="23"/>
       <c r="E18" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F18" s="9">
         <v>392.66660000000002</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="J18" s="38"/>
       <c r="K18" s="9"/>
@@ -6765,7 +6729,7 @@
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C20" s="23"/>
       <c r="E20" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F20" s="9">
         <v>72</v>
@@ -6780,13 +6744,13 @@
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C21" s="23"/>
       <c r="E21" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F21" s="9">
         <v>515</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="9"/>
@@ -6803,6 +6767,504 @@
       <c r="G22" s="2" t="s">
         <v>165</v>
       </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C23" s="23"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="2"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C24" s="23"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="2"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C25" s="23"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="2"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C26" s="23"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="2"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C27" s="23"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="2"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C28" s="23"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="2"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C29" s="23"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="2"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C30" s="23"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="2"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C31" s="23"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="2"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C32" s="23"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="2"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C33" s="23"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="2"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C34" s="23"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="2"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C35" s="23"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="2"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C36" s="23"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="2"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E37" s="2"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="2"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E38" s="2"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="2"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E39" s="2"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="2"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E40" s="2"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="2"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E41" s="2"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E42" s="2"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E43" s="2"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E44" s="3"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="J10:L10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2B3A23-66AC-4695-AC89-14BEBEA38B1D}">
+  <dimension ref="B1:L44"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="B3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="25"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="25"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="23"/>
+      <c r="E10" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="J10" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="64"/>
+      <c r="L10" s="65"/>
+    </row>
+    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="23"/>
+      <c r="E11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C12" s="23"/>
+      <c r="E12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="8">
+        <v>12.0138</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="K12" s="8">
+        <f>5/8</f>
+        <v>0.625</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C13" s="23"/>
+      <c r="E13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="9">
+        <v>138.01249999999999</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="K13" s="9">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C14" s="23"/>
+      <c r="E14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="9">
+        <v>98.243700000000004</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C15" s="23"/>
+      <c r="E15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="9">
+        <v>28.6</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="K15" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C16" s="23"/>
+      <c r="E16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="9">
+        <v>209.1062</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C17" s="23"/>
+      <c r="E17" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1.3887999999999999E-2</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="38"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C18" s="23"/>
+      <c r="E18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="9">
+        <v>46</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" s="38"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C19" s="23"/>
+      <c r="E19" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F19" s="9">
+        <v>5</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C20" s="23"/>
+      <c r="E20" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C21" s="23"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="2"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C22" s="23"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="2"/>
       <c r="J22" s="11"/>
       <c r="K22" s="9"/>
       <c r="L22" s="4"/>
@@ -7034,16 +7496,16 @@
       <c r="D4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="62"/>
-      <c r="K4" s="60" t="s">
+      <c r="G4" s="64"/>
+      <c r="H4" s="65"/>
+      <c r="K4" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="62"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="65"/>
     </row>
     <row r="5" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="17" t="s">
@@ -7420,8 +7882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A244D34F-6552-48EC-88C9-9BCAF12F75CF}">
   <dimension ref="C3:U1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N66" sqref="N66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7434,7 +7896,7 @@
     <col min="11" max="11" width="8.26953125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.90625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7455,12 +7917,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="3:21" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:21" ht="74" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="3:21" x14ac:dyDescent="0.35">
@@ -7505,17 +7967,17 @@
     </row>
     <row r="12" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="62"/>
-      <c r="K13" s="60" t="s">
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
+      <c r="K13" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="62"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="65"/>
     </row>
     <row r="14" spans="3:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F14" s="14" t="s">
@@ -7539,14 +8001,14 @@
       <c r="N14" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="P14" s="63" t="s">
+      <c r="P14" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="63"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="63"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
     </row>
     <row r="15" spans="3:21" x14ac:dyDescent="0.35">
       <c r="F15" s="4" t="s">
@@ -7562,18 +8024,18 @@
         <v>35</v>
       </c>
       <c r="L15" s="8">
-        <v>1849.848</v>
+        <v>1837.835</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="N15" s="19"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="63"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
     </row>
     <row r="16" spans="3:21" x14ac:dyDescent="0.35">
       <c r="F16" s="2" t="s">
@@ -7597,12 +8059,12 @@
       <c r="N16" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="66"/>
     </row>
     <row r="17" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F17" s="2"/>
@@ -7620,12 +8082,12 @@
       <c r="N17" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="66"/>
     </row>
     <row r="18" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F18" s="2"/>
@@ -7675,22 +8137,28 @@
         <v>177</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="P20" s="64" t="s">
+      <c r="P20" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="64"/>
-      <c r="T20" s="64"/>
-      <c r="U20" s="64"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="67"/>
     </row>
     <row r="21" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F21" s="2"/>
       <c r="G21" s="9"/>
       <c r="H21" s="2"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="2"/>
+      <c r="K21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="9">
+        <v>12.013</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="6:21" x14ac:dyDescent="0.35">
@@ -7701,14 +8169,14 @@
       <c r="L22" s="9"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-      <c r="P22" s="63" t="s">
+      <c r="P22" s="66" t="s">
         <v>180</v>
       </c>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="63"/>
-      <c r="S22" s="63"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="63"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
     </row>
     <row r="23" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F23" s="2"/>
@@ -7718,12 +8186,12 @@
       <c r="L23" s="9"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="63"/>
-      <c r="S23" s="63"/>
-      <c r="T23" s="63"/>
-      <c r="U23" s="63"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="66"/>
     </row>
     <row r="24" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F24" s="2"/>
@@ -7733,12 +8201,12 @@
       <c r="L24" s="9"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="63"/>
-      <c r="S24" s="63"/>
-      <c r="T24" s="63"/>
-      <c r="U24" s="63"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="66"/>
     </row>
     <row r="25" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F25" s="2"/>
@@ -7748,12 +8216,12 @@
       <c r="L25" s="9"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="63"/>
-      <c r="S25" s="63"/>
-      <c r="T25" s="63"/>
-      <c r="U25" s="63"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="66"/>
     </row>
     <row r="26" spans="6:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F26" s="2"/>
@@ -7763,14 +8231,14 @@
       <c r="L26" s="9"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="P26" s="63" t="s">
+      <c r="P26" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="63"/>
-      <c r="T26" s="63"/>
-      <c r="U26" s="63"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="66"/>
     </row>
     <row r="27" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F27" s="2"/>
@@ -7780,12 +8248,12 @@
       <c r="L27" s="9"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="63"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="63"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="66"/>
     </row>
     <row r="28" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F28" s="2"/>
@@ -7795,12 +8263,12 @@
       <c r="L28" s="9"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="63"/>
-      <c r="T28" s="63"/>
-      <c r="U28" s="63"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="66"/>
+      <c r="S28" s="66"/>
+      <c r="T28" s="66"/>
+      <c r="U28" s="66"/>
     </row>
     <row r="29" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F29" s="2"/>
@@ -7810,12 +8278,12 @@
       <c r="L29" s="9"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="63"/>
-      <c r="R29" s="63"/>
-      <c r="S29" s="63"/>
-      <c r="T29" s="63"/>
-      <c r="U29" s="63"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="66"/>
+      <c r="S29" s="66"/>
+      <c r="T29" s="66"/>
+      <c r="U29" s="66"/>
     </row>
     <row r="30" spans="6:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F30" s="2"/>
@@ -7825,14 +8293,14 @@
       <c r="L30" s="9"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="P30" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q30" s="63"/>
-      <c r="R30" s="63"/>
-      <c r="S30" s="63"/>
-      <c r="T30" s="63"/>
-      <c r="U30" s="63"/>
+      <c r="P30" s="66" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="66"/>
     </row>
     <row r="31" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F31" s="2"/>
@@ -7842,12 +8310,12 @@
       <c r="L31" s="9"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="63"/>
-      <c r="R31" s="63"/>
-      <c r="S31" s="63"/>
-      <c r="T31" s="63"/>
-      <c r="U31" s="63"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="66"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="66"/>
     </row>
     <row r="32" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F32" s="2"/>
@@ -7857,12 +8325,12 @@
       <c r="L32" s="9"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="63"/>
-      <c r="R32" s="63"/>
-      <c r="S32" s="63"/>
-      <c r="T32" s="63"/>
-      <c r="U32" s="63"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="66"/>
+      <c r="S32" s="66"/>
+      <c r="T32" s="66"/>
+      <c r="U32" s="66"/>
     </row>
     <row r="33" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F33" s="2"/>
@@ -7872,12 +8340,12 @@
       <c r="L33" s="9"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="P33" s="63"/>
-      <c r="Q33" s="63"/>
-      <c r="R33" s="63"/>
-      <c r="S33" s="63"/>
-      <c r="T33" s="63"/>
-      <c r="U33" s="63"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="66"/>
     </row>
     <row r="34" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F34" s="2"/>
@@ -8027,7 +8495,7 @@
   <dimension ref="B1:O48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8065,7 +8533,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
@@ -8113,16 +8581,16 @@
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
-      <c r="J11" s="60" t="s">
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
+      <c r="J11" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="61"/>
-      <c r="L11" s="62"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="65"/>
     </row>
     <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="23"/>
@@ -8160,7 +8628,7 @@
         <v>53</v>
       </c>
       <c r="K13" s="8">
-        <v>12.067</v>
+        <v>7.0670000000000002</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>8</v>
@@ -8244,7 +8712,7 @@
         <v>72</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
@@ -8252,9 +8720,15 @@
       <c r="E19" s="2"/>
       <c r="F19" s="9"/>
       <c r="G19" s="2"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="2"/>
+      <c r="J19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" s="9">
+        <v>5</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C20" s="23"/>
@@ -8483,7 +8957,7 @@
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.35">
       <c r="O48" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -8588,17 +9062,17 @@
     </row>
     <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
-      <c r="J11" s="60" t="s">
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
+      <c r="J11" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="62"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="65"/>
     </row>
     <row r="12" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="23"/>
@@ -8623,14 +9097,14 @@
       <c r="M12" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="O12" s="63" t="s">
+      <c r="O12" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="63"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C13" s="23"/>
@@ -8654,12 +9128,12 @@
         <v>25</v>
       </c>
       <c r="M13" s="19"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="63"/>
-      <c r="T13" s="63"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C14" s="23"/>
@@ -8684,12 +9158,12 @@
       <c r="M14" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="63"/>
-      <c r="T14" s="63"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C15" s="23"/>
@@ -8708,12 +9182,12 @@
       <c r="M15" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C16" s="23"/>
@@ -8732,14 +9206,14 @@
       <c r="M16" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="O16" s="63" t="s">
+      <c r="O16" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="63"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C17" s="23"/>
@@ -8758,12 +9232,12 @@
       <c r="M17" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="63"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C18" s="23"/>
@@ -8780,12 +9254,12 @@
         <v>151</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="63"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C19" s="23"/>
@@ -8802,12 +9276,12 @@
         <v>177</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="63"/>
-      <c r="S19" s="63"/>
-      <c r="T19" s="63"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="66"/>
     </row>
     <row r="20" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C20" s="23"/>
@@ -8828,14 +9302,14 @@
       <c r="K21" s="9"/>
       <c r="L21" s="6"/>
       <c r="M21" s="2"/>
-      <c r="O21" s="64" t="s">
+      <c r="O21" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="64"/>
-      <c r="T21" s="64"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="67"/>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C22" s="23"/>
@@ -8856,14 +9330,14 @@
       <c r="K23" s="9"/>
       <c r="L23" s="6"/>
       <c r="M23" s="2"/>
-      <c r="O23" s="63" t="s">
+      <c r="O23" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="63"/>
-      <c r="S23" s="63"/>
-      <c r="T23" s="63"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C24" s="23"/>
@@ -8874,12 +9348,12 @@
       <c r="K24" s="9"/>
       <c r="L24" s="6"/>
       <c r="M24" s="2"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="63"/>
-      <c r="S24" s="63"/>
-      <c r="T24" s="63"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66"/>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C25" s="23"/>
@@ -8890,12 +9364,12 @@
       <c r="K25" s="9"/>
       <c r="L25" s="6"/>
       <c r="M25" s="2"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="63"/>
-      <c r="S25" s="63"/>
-      <c r="T25" s="63"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C26" s="23"/>
@@ -8906,12 +9380,12 @@
       <c r="K26" s="9"/>
       <c r="L26" s="6"/>
       <c r="M26" s="2"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="63"/>
-      <c r="T26" s="63"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C27" s="23"/>
@@ -8922,14 +9396,14 @@
       <c r="K27" s="9"/>
       <c r="L27" s="6"/>
       <c r="M27" s="2"/>
-      <c r="O27" s="63" t="s">
+      <c r="O27" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="63"/>
-      <c r="T27" s="63"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="66"/>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C28" s="23"/>
@@ -8940,12 +9414,12 @@
       <c r="K28" s="9"/>
       <c r="L28" s="6"/>
       <c r="M28" s="2"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="63"/>
-      <c r="T28" s="63"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="66"/>
+      <c r="S28" s="66"/>
+      <c r="T28" s="66"/>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C29" s="23"/>
@@ -8956,12 +9430,12 @@
       <c r="K29" s="9"/>
       <c r="L29" s="6"/>
       <c r="M29" s="2"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="63"/>
-      <c r="R29" s="63"/>
-      <c r="S29" s="63"/>
-      <c r="T29" s="63"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="66"/>
+      <c r="S29" s="66"/>
+      <c r="T29" s="66"/>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C30" s="23"/>
@@ -8972,12 +9446,12 @@
       <c r="K30" s="9"/>
       <c r="L30" s="6"/>
       <c r="M30" s="2"/>
-      <c r="O30" s="63"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="63"/>
-      <c r="R30" s="63"/>
-      <c r="S30" s="63"/>
-      <c r="T30" s="63"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="66"/>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C31" s="23"/>
@@ -8988,14 +9462,14 @@
       <c r="K31" s="9"/>
       <c r="L31" s="6"/>
       <c r="M31" s="2"/>
-      <c r="O31" s="63" t="s">
+      <c r="O31" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="63"/>
-      <c r="R31" s="63"/>
-      <c r="S31" s="63"/>
-      <c r="T31" s="63"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="66"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="66"/>
     </row>
     <row r="32" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C32" s="23"/>
@@ -9006,12 +9480,12 @@
       <c r="K32" s="9"/>
       <c r="L32" s="6"/>
       <c r="M32" s="2"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="63"/>
-      <c r="R32" s="63"/>
-      <c r="S32" s="63"/>
-      <c r="T32" s="63"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="66"/>
+      <c r="S32" s="66"/>
+      <c r="T32" s="66"/>
     </row>
     <row r="33" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C33" s="23"/>
@@ -9022,12 +9496,12 @@
       <c r="K33" s="9"/>
       <c r="L33" s="6"/>
       <c r="M33" s="2"/>
-      <c r="O33" s="63"/>
-      <c r="P33" s="63"/>
-      <c r="Q33" s="63"/>
-      <c r="R33" s="63"/>
-      <c r="S33" s="63"/>
-      <c r="T33" s="63"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="66"/>
     </row>
     <row r="34" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C34" s="23"/>
@@ -9038,12 +9512,12 @@
       <c r="K34" s="9"/>
       <c r="L34" s="6"/>
       <c r="M34" s="2"/>
-      <c r="O34" s="63"/>
-      <c r="P34" s="63"/>
-      <c r="Q34" s="63"/>
-      <c r="R34" s="63"/>
-      <c r="S34" s="63"/>
-      <c r="T34" s="63"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="66"/>
+      <c r="Q34" s="66"/>
+      <c r="R34" s="66"/>
+      <c r="S34" s="66"/>
+      <c r="T34" s="66"/>
     </row>
     <row r="35" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C35" s="23"/>
@@ -9163,108 +9637,48 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9AFFE6-32CC-4ED3-90D1-1E871DB3E098}">
-  <dimension ref="B1:S36"/>
+  <dimension ref="B1:S45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.08984375" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
     <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.26953125" customWidth="1"/>
     <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B2" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
-      <c r="J2" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="61"/>
-      <c r="L2" s="62"/>
-    </row>
-    <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B3" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B4" s="21" t="s">
+    </row>
+    <row r="4" spans="2:19" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="8">
-        <v>960</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="8">
-        <v>777.33299999999997</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
+      <c r="C4" s="30" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B5" s="21" t="s">
@@ -9273,30 +9687,6 @@
       <c r="C5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="9">
-        <v>960</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" s="9">
-        <v>300</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="63"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B6" s="21" t="s">
@@ -9305,24 +9695,6 @@
       <c r="C6" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="2"/>
-      <c r="J6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="9">
-        <v>392.666</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B7" s="21" t="s">
@@ -9331,12 +9703,6 @@
       <c r="C7" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="2"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B8" s="21" t="s">
@@ -9345,12 +9711,6 @@
       <c r="C8" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="2"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="22" t="s">
@@ -9359,152 +9719,178 @@
       <c r="C9" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="2"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="2"/>
     </row>
     <row r="10" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="2"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="2"/>
-      <c r="N10" s="74" t="s">
-        <v>150</v>
-      </c>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="76"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="2"/>
-      <c r="N11" s="77" t="s">
-        <v>212</v>
-      </c>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="79"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="E11" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
+      <c r="J11" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="64"/>
+      <c r="L11" s="65"/>
+    </row>
+    <row r="12" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="23"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="2"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
-      <c r="S12" s="70"/>
-    </row>
-    <row r="13" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C13" s="23"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="2"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="73"/>
+      <c r="E13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="8">
+        <v>960</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="8">
+        <v>667.32330000000002</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C14" s="23"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="2"/>
-      <c r="N14" s="65" t="s">
-        <v>211</v>
-      </c>
+      <c r="E14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="9">
+        <v>960</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="9">
+        <v>300</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" s="66"/>
       <c r="O14" s="66"/>
       <c r="P14" s="66"/>
       <c r="Q14" s="66"/>
       <c r="R14" s="66"/>
-      <c r="S14" s="67"/>
+      <c r="S14" s="66"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C15" s="23"/>
       <c r="E15" s="2"/>
       <c r="F15" s="9"/>
       <c r="G15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="2"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="70"/>
-    </row>
-    <row r="16" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="9">
+        <v>392.666</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C16" s="23"/>
       <c r="E16" s="2"/>
       <c r="F16" s="9"/>
       <c r="G16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="2"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="73"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="J16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="9">
+        <v>110.01</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C17" s="23"/>
       <c r="E17" s="2"/>
       <c r="F17" s="9"/>
       <c r="G17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="9"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C18" s="23"/>
       <c r="E18" s="2"/>
       <c r="F18" s="9"/>
       <c r="G18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="9"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C19" s="23"/>
       <c r="E19" s="2"/>
       <c r="F19" s="9"/>
       <c r="G19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="9"/>
       <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="N19" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="79"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C20" s="23"/>
       <c r="E20" s="2"/>
       <c r="F20" s="9"/>
@@ -9512,8 +9898,16 @@
       <c r="J20" s="2"/>
       <c r="K20" s="9"/>
       <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="N20" s="68" t="s">
+        <v>208</v>
+      </c>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="70"/>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C21" s="23"/>
       <c r="E21" s="2"/>
       <c r="F21" s="9"/>
@@ -9521,8 +9915,14 @@
       <c r="J21" s="2"/>
       <c r="K21" s="9"/>
       <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="N21" s="71"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="72"/>
+      <c r="S21" s="73"/>
+    </row>
+    <row r="22" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C22" s="23"/>
       <c r="E22" s="2"/>
       <c r="F22" s="9"/>
@@ -9530,8 +9930,14 @@
       <c r="J22" s="2"/>
       <c r="K22" s="9"/>
       <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="N22" s="74"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="76"/>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C23" s="23"/>
       <c r="E23" s="2"/>
       <c r="F23" s="9"/>
@@ -9539,8 +9945,16 @@
       <c r="J23" s="2"/>
       <c r="K23" s="9"/>
       <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="N23" s="68" t="s">
+        <v>242</v>
+      </c>
+      <c r="O23" s="69"/>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="69"/>
+      <c r="R23" s="69"/>
+      <c r="S23" s="70"/>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C24" s="23"/>
       <c r="E24" s="2"/>
       <c r="F24" s="9"/>
@@ -9548,8 +9962,14 @@
       <c r="J24" s="2"/>
       <c r="K24" s="9"/>
       <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="N24" s="71"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="73"/>
+    </row>
+    <row r="25" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C25" s="23"/>
       <c r="E25" s="2"/>
       <c r="F25" s="9"/>
@@ -9557,8 +9977,14 @@
       <c r="J25" s="2"/>
       <c r="K25" s="9"/>
       <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="N25" s="74"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="75"/>
+      <c r="S25" s="76"/>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C26" s="23"/>
       <c r="E26" s="2"/>
       <c r="F26" s="9"/>
@@ -9567,7 +9993,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C27" s="23"/>
       <c r="E27" s="2"/>
       <c r="F27" s="9"/>
@@ -9576,7 +10002,7 @@
       <c r="K27" s="9"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C28" s="23"/>
       <c r="E28" s="2"/>
       <c r="F28" s="9"/>
@@ -9585,7 +10011,7 @@
       <c r="K28" s="9"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C29" s="23"/>
       <c r="E29" s="2"/>
       <c r="F29" s="9"/>
@@ -9594,7 +10020,7 @@
       <c r="K29" s="9"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C30" s="23"/>
       <c r="E30" s="2"/>
       <c r="F30" s="9"/>
@@ -9603,7 +10029,7 @@
       <c r="K30" s="9"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C31" s="23"/>
       <c r="E31" s="2"/>
       <c r="F31" s="9"/>
@@ -9612,7 +10038,7 @@
       <c r="K31" s="9"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C32" s="23"/>
       <c r="E32" s="2"/>
       <c r="F32" s="9"/>
@@ -9648,23 +10074,95 @@
       <c r="K35" s="9"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C36" s="23"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="3"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E37" s="2"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E38" s="2"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E39" s="2"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E40" s="2"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E41" s="2"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E42" s="2"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E43" s="2"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E44" s="2"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E45" s="3"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="N14:S16"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="N3:S6"/>
-    <mergeCell ref="N10:S10"/>
-    <mergeCell ref="N11:S13"/>
+    <mergeCell ref="N20:S22"/>
+    <mergeCell ref="N23:S25"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="N12:S15"/>
+    <mergeCell ref="N19:S19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9728,7 +10226,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -9736,7 +10234,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -9752,21 +10250,21 @@
         <v>32</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
-      <c r="J10" s="60" t="s">
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="J10" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="61"/>
-      <c r="L10" s="62"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="65"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -10278,7 +10776,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.35">
@@ -10323,16 +10821,16 @@
     </row>
     <row r="10" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
-      <c r="J10" s="60" t="s">
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="J10" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="61"/>
-      <c r="L10" s="62"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="65"/>
     </row>
     <row r="11" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -10396,14 +10894,14 @@
       <c r="L13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="63" t="s">
+      <c r="N13" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="63"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C14" s="23"/>
@@ -10425,12 +10923,12 @@
       <c r="L14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="63"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C15" s="23"/>
@@ -10446,12 +10944,12 @@
       <c r="L15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="63"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
     </row>
     <row r="16" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="23"/>
@@ -10467,12 +10965,12 @@
       <c r="L16" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
     </row>
     <row r="17" spans="3:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="23"/>
@@ -10488,14 +10986,14 @@
       <c r="L17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N17" s="63" t="s">
+      <c r="N17" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C18" s="23"/>
@@ -10511,12 +11009,12 @@
       <c r="L18" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="63"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C19" s="23"/>
@@ -10532,12 +11030,12 @@
       <c r="L19" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="63"/>
-      <c r="S19" s="63"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C20" s="23"/>
@@ -10553,12 +11051,12 @@
       <c r="L20" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="63"/>
-      <c r="S20" s="63"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C21" s="23"/>
@@ -10572,7 +11070,7 @@
         <v>72</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.35">
@@ -10583,14 +11081,14 @@
       <c r="J22" s="2"/>
       <c r="K22" s="9"/>
       <c r="L22" s="4"/>
-      <c r="N22" s="64" t="s">
+      <c r="N22" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="64"/>
-      <c r="S22" s="64"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C23" s="23"/>
@@ -10609,14 +11107,14 @@
       <c r="J24" s="2"/>
       <c r="K24" s="9"/>
       <c r="L24" s="4"/>
-      <c r="N24" s="63" t="s">
-        <v>219</v>
-      </c>
-      <c r="O24" s="63"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="63"/>
-      <c r="S24" s="63"/>
+      <c r="N24" s="66" t="s">
+        <v>215</v>
+      </c>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C25" s="23"/>
@@ -10626,12 +11124,12 @@
       <c r="J25" s="2"/>
       <c r="K25" s="9"/>
       <c r="L25" s="4"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="63"/>
-      <c r="S25" s="63"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C26" s="23"/>
@@ -10641,12 +11139,12 @@
       <c r="J26" s="2"/>
       <c r="K26" s="9"/>
       <c r="L26" s="4"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="63"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C27" s="23"/>
@@ -10656,12 +11154,12 @@
       <c r="J27" s="2"/>
       <c r="K27" s="9"/>
       <c r="L27" s="4"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="63"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C28" s="23"/>
@@ -10671,14 +11169,14 @@
       <c r="J28" s="2"/>
       <c r="K28" s="9"/>
       <c r="L28" s="4"/>
-      <c r="N28" s="63" t="s">
+      <c r="N28" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="63"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="66"/>
+      <c r="S28" s="66"/>
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C29" s="23"/>
@@ -10688,12 +11186,12 @@
       <c r="J29" s="2"/>
       <c r="K29" s="9"/>
       <c r="L29" s="4"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="63"/>
-      <c r="R29" s="63"/>
-      <c r="S29" s="63"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="66"/>
+      <c r="S29" s="66"/>
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C30" s="23"/>
@@ -10703,12 +11201,12 @@
       <c r="J30" s="2"/>
       <c r="K30" s="9"/>
       <c r="L30" s="2"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="63"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="63"/>
-      <c r="R30" s="63"/>
-      <c r="S30" s="63"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="66"/>
     </row>
     <row r="31" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C31" s="23"/>
@@ -10718,12 +11216,12 @@
       <c r="J31" s="2"/>
       <c r="K31" s="9"/>
       <c r="L31" s="2"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="63"/>
-      <c r="R31" s="63"/>
-      <c r="S31" s="63"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="66"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="66"/>
     </row>
     <row r="32" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C32" s="23"/>
@@ -10935,16 +11433,16 @@
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
-      <c r="J10" s="60" t="s">
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="J10" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="61"/>
-      <c r="L10" s="62"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="65"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>

--- a/Game Stuff/Spreadsheet.xlsx
+++ b/Game Stuff/Spreadsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Karn's Conduit\Game Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Thassa's Pulse\Game Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55E54FA-ACF8-4297-846D-DC0533CFF558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CDCE38-96CB-42A8-9597-DCEB445A8937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45984" yWindow="-4836" windowWidth="17472" windowHeight="15096" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
   </bookViews>
   <sheets>
     <sheet name="Material Summary" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="Urabrask's Refinery" sheetId="16" r:id="rId16"/>
     <sheet name="Obelisks of Alara " sheetId="19" r:id="rId17"/>
     <sheet name="Karn's Conduit" sheetId="20" r:id="rId18"/>
+    <sheet name="Thassa's Pulse" sheetId="21" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="278">
   <si>
     <t>Item</t>
   </si>
@@ -778,12 +779,6 @@
     <t>Phyrexian Datavault, Keldon Armory, Jund Pyroclast, Urabrask's Refinery, Obelisks of Alara, Karn's Conduit</t>
   </si>
   <si>
-    <t>Neko's Nexus, Obelisk of Alara, Karn's Conduit</t>
-  </si>
-  <si>
-    <t>Bottom Container has an extra 227.324</t>
-  </si>
-  <si>
     <t>Thran Foundy, Neko's Nexus, Ghirapur Gridworks, The Abyssal Chains of Shandalar, Keldon Armory, Karn's Conduit</t>
   </si>
   <si>
@@ -824,6 +819,75 @@
   </si>
   <si>
     <t>Magnetic Field Generator</t>
+  </si>
+  <si>
+    <t>Thassa's Pulse</t>
+  </si>
+  <si>
+    <t>Karn's Conduit, Thassa's Pulse</t>
+  </si>
+  <si>
+    <t>Obelisks of Alara, Thassa's Pulse</t>
+  </si>
+  <si>
+    <t>Neko's Nexus, Obelisk of Alara, Karn's Conduit, Thassa's Pulse</t>
+  </si>
+  <si>
+    <t>Bottom Container has an extra 236.436</t>
+  </si>
+  <si>
+    <t>Jund Pyroclast Well</t>
+  </si>
+  <si>
+    <t>Riveteers District, Phyrexian Datavault, Urabrask's Refinery, Thran Foundry, Jund Pyroclast</t>
+  </si>
+  <si>
+    <t>Thran Foundru</t>
+  </si>
+  <si>
+    <t>Copper Powder</t>
+  </si>
+  <si>
+    <t>Pressure Conversion Cube</t>
+  </si>
+  <si>
+    <t>Nuclear Pasta</t>
+  </si>
+  <si>
+    <t>Power Consumption Stable</t>
+  </si>
+  <si>
+    <t>Storage Stable</t>
+  </si>
+  <si>
+    <t>Cut-Time Stable</t>
+  </si>
+  <si>
+    <t>Power Consumption Unstable</t>
+  </si>
+  <si>
+    <t>Storage Unstable</t>
+  </si>
+  <si>
+    <t>Cut-Time Unstable</t>
+  </si>
+  <si>
+    <t>895.3 MW</t>
+  </si>
+  <si>
+    <t>1600 MWh</t>
+  </si>
+  <si>
+    <t>1.78 Houts</t>
+  </si>
+  <si>
+    <t>702.15 MW</t>
+  </si>
+  <si>
+    <t>2000 MWh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84 Hours </t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1428,6 +1492,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1824,14 +1907,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DEAD1A-BE12-4BD3-A45F-18807DFF108B}">
   <dimension ref="B2:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
@@ -1843,18 +1926,18 @@
     </row>
     <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="63" t="s">
+      <c r="H4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="64"/>
-      <c r="J4" s="65"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="74"/>
     </row>
     <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="35" t="s">
@@ -2103,7 +2186,7 @@
         <v>54</v>
       </c>
       <c r="D17" s="11">
-        <v>667.32330000000002</v>
+        <v>596.43600000000004</v>
       </c>
       <c r="E17" s="41" t="s">
         <v>55</v>
@@ -2123,7 +2206,7 @@
         <v>137</v>
       </c>
       <c r="D18" s="11">
-        <v>1965</v>
+        <v>1898.3330000000001</v>
       </c>
       <c r="E18" s="41" t="s">
         <v>197</v>
@@ -2456,7 +2539,7 @@
         <v>159</v>
       </c>
       <c r="I42" s="57">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J42" s="41" t="s">
         <v>151</v>
@@ -2751,8 +2834,8 @@
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C69" s="1"/>
-      <c r="H69" s="38" t="s">
-        <v>252</v>
+      <c r="H69" s="63" t="s">
+        <v>250</v>
       </c>
       <c r="I69" s="8">
         <f>5/8</f>
@@ -2764,8 +2847,8 @@
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C70" s="1"/>
-      <c r="H70" s="38" t="s">
-        <v>253</v>
+      <c r="H70" s="63" t="s">
+        <v>251</v>
       </c>
       <c r="I70" s="9">
         <v>1</v>
@@ -2775,8 +2858,8 @@
       </c>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H71" s="38" t="s">
-        <v>254</v>
+      <c r="H71" s="63" t="s">
+        <v>252</v>
       </c>
       <c r="I71" s="9">
         <v>0.5</v>
@@ -2786,8 +2869,8 @@
       </c>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H72" s="38" t="s">
-        <v>255</v>
+      <c r="H72" s="63" t="s">
+        <v>253</v>
       </c>
       <c r="I72" s="9">
         <v>3.5</v>
@@ -2797,8 +2880,8 @@
       </c>
     </row>
     <row r="73" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H73" s="38" t="s">
-        <v>256</v>
+      <c r="H73" s="63" t="s">
+        <v>254</v>
       </c>
       <c r="I73" s="9">
         <v>0.5</v>
@@ -2808,19 +2891,37 @@
       </c>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H74" s="2"/>
-      <c r="I74" s="57"/>
-      <c r="J74" s="41"/>
+      <c r="H74" s="63" t="s">
+        <v>263</v>
+      </c>
+      <c r="I74" s="8">
+        <v>20</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H75" s="2"/>
-      <c r="I75" s="57"/>
-      <c r="J75" s="41"/>
+      <c r="H75" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="I75" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H76" s="2"/>
-      <c r="I76" s="57"/>
-      <c r="J76" s="41"/>
+      <c r="H76" s="63" t="s">
+        <v>265</v>
+      </c>
+      <c r="I76" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C77" s="1"/>
@@ -3027,16 +3128,16 @@
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-      <c r="J10" s="63" t="s">
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
+      <c r="J10" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="64"/>
-      <c r="L10" s="65"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="74"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -3493,17 +3594,17 @@
     </row>
     <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-      <c r="J10" s="63" t="s">
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
+      <c r="J10" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="65"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="74"/>
     </row>
     <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -3550,14 +3651,14 @@
         <v>8</v>
       </c>
       <c r="M12" s="19"/>
-      <c r="O12" s="66" t="s">
+      <c r="O12" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C13" s="23"/>
@@ -3580,12 +3681,12 @@
         <v>25</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="75"/>
+      <c r="T13" s="75"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C14" s="23"/>
@@ -3602,12 +3703,12 @@
         <v>25</v>
       </c>
       <c r="M14" s="2"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C15" s="23"/>
@@ -3624,12 +3725,12 @@
         <v>8</v>
       </c>
       <c r="M15" s="2"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="75"/>
+      <c r="T15" s="75"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C16" s="23"/>
@@ -3646,14 +3747,14 @@
         <v>111</v>
       </c>
       <c r="M16" s="2"/>
-      <c r="O16" s="66" t="s">
+      <c r="O16" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="75"/>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C17" s="23"/>
@@ -3670,12 +3771,12 @@
         <v>111</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="66"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="75"/>
+      <c r="T17" s="75"/>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C18" s="23"/>
@@ -3692,12 +3793,12 @@
         <v>151</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="66"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="75"/>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C19" s="23"/>
@@ -3714,12 +3815,12 @@
         <v>151</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="66"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="75"/>
+      <c r="S19" s="75"/>
+      <c r="T19" s="75"/>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C20" s="23"/>
@@ -3752,14 +3853,14 @@
         <v>213</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="O21" s="67" t="s">
+      <c r="O21" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="76"/>
+      <c r="T21" s="76"/>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C22" s="23"/>
@@ -3780,14 +3881,14 @@
       <c r="K23" s="9"/>
       <c r="L23" s="4"/>
       <c r="M23" s="2"/>
-      <c r="O23" s="66" t="s">
+      <c r="O23" s="75" t="s">
         <v>217</v>
       </c>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C24" s="23"/>
@@ -3798,12 +3899,12 @@
       <c r="K24" s="9"/>
       <c r="L24" s="4"/>
       <c r="M24" s="2"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="66"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="75"/>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C25" s="23"/>
@@ -3814,12 +3915,12 @@
       <c r="K25" s="9"/>
       <c r="L25" s="4"/>
       <c r="M25" s="2"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="66"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="75"/>
+      <c r="S25" s="75"/>
+      <c r="T25" s="75"/>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C26" s="23"/>
@@ -3830,12 +3931,12 @@
       <c r="K26" s="9"/>
       <c r="L26" s="4"/>
       <c r="M26" s="2"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="66"/>
-      <c r="S26" s="66"/>
-      <c r="T26" s="66"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C27" s="23"/>
@@ -3846,14 +3947,14 @@
       <c r="K27" s="9"/>
       <c r="L27" s="4"/>
       <c r="M27" s="2"/>
-      <c r="O27" s="66" t="s">
+      <c r="O27" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C28" s="23"/>
@@ -3864,12 +3965,12 @@
       <c r="K28" s="9"/>
       <c r="L28" s="4"/>
       <c r="M28" s="2"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="66"/>
-      <c r="S28" s="66"/>
-      <c r="T28" s="66"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="75"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="75"/>
+      <c r="T28" s="75"/>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C29" s="23"/>
@@ -3880,12 +3981,12 @@
       <c r="K29" s="9"/>
       <c r="L29" s="4"/>
       <c r="M29" s="2"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="66"/>
-      <c r="S29" s="66"/>
-      <c r="T29" s="66"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="75"/>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C30" s="23"/>
@@ -3896,12 +3997,12 @@
       <c r="K30" s="9"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="66"/>
-      <c r="S30" s="66"/>
-      <c r="T30" s="66"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="75"/>
+      <c r="R30" s="75"/>
+      <c r="S30" s="75"/>
+      <c r="T30" s="75"/>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C31" s="23"/>
@@ -4137,16 +4238,16 @@
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-      <c r="J10" s="63" t="s">
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
+      <c r="J10" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="64"/>
-      <c r="L10" s="65"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="74"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -4586,13 +4687,13 @@
   <dimension ref="B1:L44"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7265625" customWidth="1"/>
     <col min="5" max="5" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.36328125" bestFit="1" customWidth="1"/>
@@ -4618,12 +4719,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>238</v>
+      <c r="C4" s="37" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
@@ -4668,16 +4769,16 @@
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-      <c r="J10" s="63" t="s">
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
+      <c r="J10" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="64"/>
-      <c r="L10" s="65"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="74"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -4733,7 +4834,7 @@
         <v>85</v>
       </c>
       <c r="J13" s="38">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>159</v>
@@ -4774,9 +4875,15 @@
       <c r="G15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="4"/>
+      <c r="J15" s="38">
+        <v>2</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C16" s="23"/>
@@ -5151,16 +5258,16 @@
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-      <c r="J10" s="63" t="s">
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
+      <c r="J10" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="64"/>
-      <c r="L10" s="65"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="74"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -5631,16 +5738,16 @@
       </c>
     </row>
     <row r="12" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G12" s="80" t="s">
+      <c r="G12" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="81"/>
-      <c r="I12" s="82"/>
-      <c r="L12" s="80" t="s">
+      <c r="H12" s="90"/>
+      <c r="I12" s="91"/>
+      <c r="L12" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="81"/>
-      <c r="N12" s="82"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="91"/>
     </row>
     <row r="13" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G13" s="53" t="s">
@@ -5951,14 +6058,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAE874B-EB1A-40E9-945A-ABFDF311093C}">
   <dimension ref="B1:O44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7265625" customWidth="1"/>
     <col min="5" max="5" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.81640625" bestFit="1" customWidth="1"/>
@@ -5985,12 +6092,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>213</v>
+      <c r="C4" s="64" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.35">
@@ -6035,16 +6142,16 @@
     </row>
     <row r="10" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-      <c r="J10" s="63" t="s">
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
+      <c r="J10" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="64"/>
-      <c r="L10" s="65"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="74"/>
     </row>
     <row r="11" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -6079,7 +6186,7 @@
         <v>21</v>
       </c>
       <c r="J12" s="38">
-        <v>1965</v>
+        <v>1898.3330000000001</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>137</v>
@@ -6126,14 +6233,20 @@
       <c r="G14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="4"/>
+      <c r="J14" s="38">
+        <v>66.665999999999997</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>255</v>
+      </c>
       <c r="N14" s="5">
         <v>1</v>
       </c>
       <c r="O14" s="4">
-        <v>105</v>
+        <v>38.332999999999998</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.35">
@@ -6538,16 +6651,16 @@
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-      <c r="J10" s="63" t="s">
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
+      <c r="J10" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="64"/>
-      <c r="L10" s="65"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="74"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -6974,8 +7087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2B3A23-66AC-4695-AC89-14BEBEA38B1D}">
   <dimension ref="B1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7004,7 +7117,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
@@ -7024,7 +7137,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -7032,7 +7145,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -7048,21 +7161,21 @@
         <v>32</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-      <c r="J10" s="63" t="s">
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
+      <c r="J10" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="64"/>
-      <c r="L10" s="65"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="74"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -7097,7 +7210,7 @@
         <v>33</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K12" s="8">
         <f>5/8</f>
@@ -7116,10 +7229,10 @@
         <v>138.01249999999999</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K13" s="9">
         <v>1</v>
@@ -7137,10 +7250,10 @@
         <v>98.243700000000004</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K14" s="9">
         <v>0.5</v>
@@ -7161,7 +7274,7 @@
         <v>131</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K15" s="9">
         <v>3.5</v>
@@ -7182,7 +7295,7 @@
         <v>22</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K16" s="9">
         <v>0.5</v>
@@ -7197,7 +7310,7 @@
         <v>227</v>
       </c>
       <c r="F17" s="9">
-        <v>1.3887999999999999E-2</v>
+        <v>110.01</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>55</v>
@@ -7239,7 +7352,7 @@
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C20" s="23"/>
       <c r="E20" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F20" s="9">
         <v>0.5</v>
@@ -7463,6 +7576,502 @@
   <mergeCells count="2">
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="J10:L10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1FA6DD-AC17-49B1-B5E4-69C720E1D60E}">
+  <dimension ref="B1:L47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15:L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="70"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="68"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B10" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="23"/>
+    </row>
+    <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C13" s="23"/>
+      <c r="E13" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="73"/>
+      <c r="G13" s="74"/>
+      <c r="J13" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="73"/>
+      <c r="L13" s="74"/>
+    </row>
+    <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="23"/>
+      <c r="E14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C15" s="23"/>
+      <c r="E15" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="8">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="K15" s="8">
+        <v>20</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C16" s="23"/>
+      <c r="E16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.88880000000000003</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C17" s="23"/>
+      <c r="E17" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="9">
+        <v>25</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C18" s="23"/>
+      <c r="E18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="9">
+        <v>40.888800000000003</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J18" s="38"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C19" s="23"/>
+      <c r="E19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="9">
+        <v>66.666600000000003</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J19" s="38"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C20" s="23"/>
+      <c r="E20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="9">
+        <v>72.8</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J20" s="38"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C21" s="23"/>
+      <c r="E21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="9">
+        <v>263.13580000000002</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="38"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C22" s="23"/>
+      <c r="E22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="9">
+        <v>303.70370000000003</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C23" s="23"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="2"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C24" s="23"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="2"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C25" s="23"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="2"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C26" s="23"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="2"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C27" s="23"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="2"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C28" s="23"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="2"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C29" s="23"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="2"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C30" s="23"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="2"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C31" s="23"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="2"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C32" s="23"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="2"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C33" s="23"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="2"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C34" s="23"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="2"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C35" s="23"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="2"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C36" s="23"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="2"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E37" s="2"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="2"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E38" s="2"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="2"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E39" s="2"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="2"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E40" s="2"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="2"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E41" s="2"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="2"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E42" s="2"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="2"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E43" s="2"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="2"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E44" s="2"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E45" s="2"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E46" s="2"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E47" s="3"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="J13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7496,16 +8105,16 @@
       <c r="D4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="65"/>
-      <c r="K4" s="63" t="s">
+      <c r="G4" s="73"/>
+      <c r="H4" s="74"/>
+      <c r="K4" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="65"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="74"/>
     </row>
     <row r="5" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="17" t="s">
@@ -7922,7 +8531,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="3:21" x14ac:dyDescent="0.35">
@@ -7967,17 +8576,17 @@
     </row>
     <row r="12" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="65"/>
-      <c r="K13" s="63" t="s">
+      <c r="G13" s="73"/>
+      <c r="H13" s="74"/>
+      <c r="K13" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="65"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="74"/>
     </row>
     <row r="14" spans="3:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F14" s="14" t="s">
@@ -8001,14 +8610,14 @@
       <c r="N14" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="P14" s="66" t="s">
+      <c r="P14" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75"/>
     </row>
     <row r="15" spans="3:21" x14ac:dyDescent="0.35">
       <c r="F15" s="4" t="s">
@@ -8030,12 +8639,12 @@
         <v>25</v>
       </c>
       <c r="N15" s="19"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="75"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="75"/>
     </row>
     <row r="16" spans="3:21" x14ac:dyDescent="0.35">
       <c r="F16" s="2" t="s">
@@ -8059,12 +8668,12 @@
       <c r="N16" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="66"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="75"/>
     </row>
     <row r="17" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F17" s="2"/>
@@ -8082,12 +8691,12 @@
       <c r="N17" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="66"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="75"/>
+      <c r="T17" s="75"/>
+      <c r="U17" s="75"/>
     </row>
     <row r="18" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F18" s="2"/>
@@ -8137,14 +8746,14 @@
         <v>177</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="P20" s="67" t="s">
+      <c r="P20" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="76"/>
+      <c r="S20" s="76"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="76"/>
     </row>
     <row r="21" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F21" s="2"/>
@@ -8169,14 +8778,14 @@
       <c r="L22" s="9"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-      <c r="P22" s="66" t="s">
+      <c r="P22" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
     </row>
     <row r="23" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F23" s="2"/>
@@ -8186,12 +8795,12 @@
       <c r="L23" s="9"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="75"/>
     </row>
     <row r="24" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F24" s="2"/>
@@ -8201,12 +8810,12 @@
       <c r="L24" s="9"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="66"/>
-      <c r="U24" s="66"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="75"/>
     </row>
     <row r="25" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F25" s="2"/>
@@ -8216,12 +8825,12 @@
       <c r="L25" s="9"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="66"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="75"/>
+      <c r="S25" s="75"/>
+      <c r="T25" s="75"/>
+      <c r="U25" s="75"/>
     </row>
     <row r="26" spans="6:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F26" s="2"/>
@@ -8231,14 +8840,14 @@
       <c r="L26" s="9"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="P26" s="66" t="s">
+      <c r="P26" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="66"/>
-      <c r="S26" s="66"/>
-      <c r="T26" s="66"/>
-      <c r="U26" s="66"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="75"/>
     </row>
     <row r="27" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F27" s="2"/>
@@ -8248,12 +8857,12 @@
       <c r="L27" s="9"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="66"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
     </row>
     <row r="28" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F28" s="2"/>
@@ -8263,12 +8872,12 @@
       <c r="L28" s="9"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="66"/>
-      <c r="S28" s="66"/>
-      <c r="T28" s="66"/>
-      <c r="U28" s="66"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="75"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="75"/>
+      <c r="T28" s="75"/>
+      <c r="U28" s="75"/>
     </row>
     <row r="29" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F29" s="2"/>
@@ -8278,12 +8887,12 @@
       <c r="L29" s="9"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="66"/>
-      <c r="S29" s="66"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="66"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="75"/>
+      <c r="U29" s="75"/>
     </row>
     <row r="30" spans="6:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F30" s="2"/>
@@ -8293,14 +8902,14 @@
       <c r="L30" s="9"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="P30" s="66" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="66"/>
-      <c r="S30" s="66"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="66"/>
+      <c r="P30" s="75" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q30" s="75"/>
+      <c r="R30" s="75"/>
+      <c r="S30" s="75"/>
+      <c r="T30" s="75"/>
+      <c r="U30" s="75"/>
     </row>
     <row r="31" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F31" s="2"/>
@@ -8310,12 +8919,12 @@
       <c r="L31" s="9"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-      <c r="P31" s="66"/>
-      <c r="Q31" s="66"/>
-      <c r="R31" s="66"/>
-      <c r="S31" s="66"/>
-      <c r="T31" s="66"/>
-      <c r="U31" s="66"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="75"/>
+      <c r="R31" s="75"/>
+      <c r="S31" s="75"/>
+      <c r="T31" s="75"/>
+      <c r="U31" s="75"/>
     </row>
     <row r="32" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F32" s="2"/>
@@ -8325,12 +8934,12 @@
       <c r="L32" s="9"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="66"/>
-      <c r="R32" s="66"/>
-      <c r="S32" s="66"/>
-      <c r="T32" s="66"/>
-      <c r="U32" s="66"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="75"/>
+      <c r="R32" s="75"/>
+      <c r="S32" s="75"/>
+      <c r="T32" s="75"/>
+      <c r="U32" s="75"/>
     </row>
     <row r="33" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F33" s="2"/>
@@ -8340,12 +8949,12 @@
       <c r="L33" s="9"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="66"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="75"/>
+      <c r="R33" s="75"/>
+      <c r="S33" s="75"/>
+      <c r="T33" s="75"/>
+      <c r="U33" s="75"/>
     </row>
     <row r="34" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F34" s="2"/>
@@ -8581,16 +9190,16 @@
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
-      <c r="J11" s="63" t="s">
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
+      <c r="J11" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="64"/>
-      <c r="L11" s="65"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="74"/>
     </row>
     <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="23"/>
@@ -9062,17 +9671,17 @@
     </row>
     <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
-      <c r="J11" s="63" t="s">
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
+      <c r="J11" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="65"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="74"/>
     </row>
     <row r="12" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="23"/>
@@ -9097,14 +9706,14 @@
       <c r="M12" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="O12" s="66" t="s">
+      <c r="O12" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C13" s="23"/>
@@ -9128,12 +9737,12 @@
         <v>25</v>
       </c>
       <c r="M13" s="19"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="75"/>
+      <c r="T13" s="75"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C14" s="23"/>
@@ -9158,12 +9767,12 @@
       <c r="M14" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C15" s="23"/>
@@ -9182,12 +9791,12 @@
       <c r="M15" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="75"/>
+      <c r="T15" s="75"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C16" s="23"/>
@@ -9206,14 +9815,14 @@
       <c r="M16" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="O16" s="66" t="s">
+      <c r="O16" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="75"/>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C17" s="23"/>
@@ -9232,12 +9841,12 @@
       <c r="M17" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="66"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="75"/>
+      <c r="T17" s="75"/>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C18" s="23"/>
@@ -9254,12 +9863,12 @@
         <v>151</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="66"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="75"/>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C19" s="23"/>
@@ -9276,12 +9885,12 @@
         <v>177</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="66"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="75"/>
+      <c r="S19" s="75"/>
+      <c r="T19" s="75"/>
     </row>
     <row r="20" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C20" s="23"/>
@@ -9302,14 +9911,14 @@
       <c r="K21" s="9"/>
       <c r="L21" s="6"/>
       <c r="M21" s="2"/>
-      <c r="O21" s="67" t="s">
+      <c r="O21" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="76"/>
+      <c r="T21" s="76"/>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C22" s="23"/>
@@ -9330,14 +9939,14 @@
       <c r="K23" s="9"/>
       <c r="L23" s="6"/>
       <c r="M23" s="2"/>
-      <c r="O23" s="66" t="s">
+      <c r="O23" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C24" s="23"/>
@@ -9348,12 +9957,12 @@
       <c r="K24" s="9"/>
       <c r="L24" s="6"/>
       <c r="M24" s="2"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="66"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="75"/>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C25" s="23"/>
@@ -9364,12 +9973,12 @@
       <c r="K25" s="9"/>
       <c r="L25" s="6"/>
       <c r="M25" s="2"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="66"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="75"/>
+      <c r="S25" s="75"/>
+      <c r="T25" s="75"/>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C26" s="23"/>
@@ -9380,12 +9989,12 @@
       <c r="K26" s="9"/>
       <c r="L26" s="6"/>
       <c r="M26" s="2"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="66"/>
-      <c r="S26" s="66"/>
-      <c r="T26" s="66"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C27" s="23"/>
@@ -9396,14 +10005,14 @@
       <c r="K27" s="9"/>
       <c r="L27" s="6"/>
       <c r="M27" s="2"/>
-      <c r="O27" s="66" t="s">
+      <c r="O27" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C28" s="23"/>
@@ -9414,12 +10023,12 @@
       <c r="K28" s="9"/>
       <c r="L28" s="6"/>
       <c r="M28" s="2"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="66"/>
-      <c r="S28" s="66"/>
-      <c r="T28" s="66"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="75"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="75"/>
+      <c r="T28" s="75"/>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C29" s="23"/>
@@ -9430,12 +10039,12 @@
       <c r="K29" s="9"/>
       <c r="L29" s="6"/>
       <c r="M29" s="2"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="66"/>
-      <c r="S29" s="66"/>
-      <c r="T29" s="66"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="75"/>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C30" s="23"/>
@@ -9446,12 +10055,12 @@
       <c r="K30" s="9"/>
       <c r="L30" s="6"/>
       <c r="M30" s="2"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="66"/>
-      <c r="S30" s="66"/>
-      <c r="T30" s="66"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="75"/>
+      <c r="R30" s="75"/>
+      <c r="S30" s="75"/>
+      <c r="T30" s="75"/>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C31" s="23"/>
@@ -9462,14 +10071,14 @@
       <c r="K31" s="9"/>
       <c r="L31" s="6"/>
       <c r="M31" s="2"/>
-      <c r="O31" s="66" t="s">
+      <c r="O31" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="P31" s="66"/>
-      <c r="Q31" s="66"/>
-      <c r="R31" s="66"/>
-      <c r="S31" s="66"/>
-      <c r="T31" s="66"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="75"/>
+      <c r="R31" s="75"/>
+      <c r="S31" s="75"/>
+      <c r="T31" s="75"/>
     </row>
     <row r="32" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C32" s="23"/>
@@ -9480,12 +10089,12 @@
       <c r="K32" s="9"/>
       <c r="L32" s="6"/>
       <c r="M32" s="2"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="66"/>
-      <c r="R32" s="66"/>
-      <c r="S32" s="66"/>
-      <c r="T32" s="66"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="75"/>
+      <c r="R32" s="75"/>
+      <c r="S32" s="75"/>
+      <c r="T32" s="75"/>
     </row>
     <row r="33" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C33" s="23"/>
@@ -9496,12 +10105,12 @@
       <c r="K33" s="9"/>
       <c r="L33" s="6"/>
       <c r="M33" s="2"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="66"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="66"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="75"/>
+      <c r="R33" s="75"/>
+      <c r="S33" s="75"/>
+      <c r="T33" s="75"/>
     </row>
     <row r="34" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C34" s="23"/>
@@ -9512,12 +10121,12 @@
       <c r="K34" s="9"/>
       <c r="L34" s="6"/>
       <c r="M34" s="2"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="66"/>
-      <c r="Q34" s="66"/>
-      <c r="R34" s="66"/>
-      <c r="S34" s="66"/>
-      <c r="T34" s="66"/>
+      <c r="O34" s="75"/>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="75"/>
+      <c r="R34" s="75"/>
+      <c r="S34" s="75"/>
+      <c r="T34" s="75"/>
     </row>
     <row r="35" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C35" s="23"/>
@@ -9637,10 +10246,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9AFFE6-32CC-4ED3-90D1-1E871DB3E098}">
-  <dimension ref="B1:S45"/>
+  <dimension ref="B1:S49"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9650,8 +10259,8 @@
     <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.26953125" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.26953125" customWidth="1"/>
     <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9677,7 +10286,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.35">
@@ -9725,16 +10334,16 @@
     </row>
     <row r="11" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
-      <c r="J11" s="63" t="s">
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
+      <c r="J11" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="64"/>
-      <c r="L11" s="65"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="74"/>
     </row>
     <row r="12" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="23"/>
@@ -9756,14 +10365,14 @@
       <c r="L12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="66" t="s">
+      <c r="N12" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="75"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C13" s="23"/>
@@ -9780,17 +10389,17 @@
         <v>54</v>
       </c>
       <c r="K13" s="8">
-        <v>667.32330000000002</v>
+        <v>596.43600000000004</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="75"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C14" s="23"/>
@@ -9812,12 +10421,12 @@
       <c r="L14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C15" s="23"/>
@@ -9833,12 +10442,12 @@
       <c r="L15" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="75"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C16" s="23"/>
@@ -9860,9 +10469,15 @@
       <c r="E17" s="2"/>
       <c r="F17" s="9"/>
       <c r="G17" s="2"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="2"/>
+      <c r="J17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="9">
+        <v>40.887999999999998</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="18" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C18" s="23"/>
@@ -9881,14 +10496,14 @@
       <c r="J19" s="4"/>
       <c r="K19" s="9"/>
       <c r="L19" s="2"/>
-      <c r="N19" s="77" t="s">
+      <c r="N19" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="O19" s="78"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="79"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87"/>
+      <c r="S19" s="88"/>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C20" s="23"/>
@@ -9898,14 +10513,14 @@
       <c r="J20" s="2"/>
       <c r="K20" s="9"/>
       <c r="L20" s="2"/>
-      <c r="N20" s="68" t="s">
+      <c r="N20" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="69"/>
-      <c r="S20" s="70"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="79"/>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C21" s="23"/>
@@ -9915,12 +10530,12 @@
       <c r="J21" s="2"/>
       <c r="K21" s="9"/>
       <c r="L21" s="2"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="72"/>
-      <c r="S21" s="73"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="82"/>
     </row>
     <row r="22" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C22" s="23"/>
@@ -9930,12 +10545,12 @@
       <c r="J22" s="2"/>
       <c r="K22" s="9"/>
       <c r="L22" s="2"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="75"/>
-      <c r="S22" s="76"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="85"/>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C23" s="23"/>
@@ -9945,14 +10560,14 @@
       <c r="J23" s="2"/>
       <c r="K23" s="9"/>
       <c r="L23" s="2"/>
-      <c r="N23" s="68" t="s">
-        <v>242</v>
-      </c>
-      <c r="O23" s="69"/>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="69"/>
-      <c r="S23" s="70"/>
+      <c r="N23" s="77" t="s">
+        <v>259</v>
+      </c>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="78"/>
+      <c r="S23" s="79"/>
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C24" s="23"/>
@@ -9962,12 +10577,12 @@
       <c r="J24" s="2"/>
       <c r="K24" s="9"/>
       <c r="L24" s="2"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="73"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="82"/>
     </row>
     <row r="25" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C25" s="23"/>
@@ -9977,12 +10592,12 @@
       <c r="J25" s="2"/>
       <c r="K25" s="9"/>
       <c r="L25" s="2"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="75"/>
-      <c r="R25" s="75"/>
-      <c r="S25" s="76"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="84"/>
+      <c r="S25" s="85"/>
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C26" s="23"/>
@@ -10039,7 +10654,6 @@
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C32" s="23"/>
       <c r="E32" s="2"/>
       <c r="F32" s="9"/>
       <c r="G32" s="2"/>
@@ -10154,6 +10768,9 @@
       <c r="J45" s="3"/>
       <c r="K45" s="10"/>
       <c r="L45" s="3"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G49" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10255,16 +10872,16 @@
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-      <c r="J10" s="63" t="s">
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
+      <c r="J10" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="64"/>
-      <c r="L10" s="65"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="74"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -10821,16 +11438,16 @@
     </row>
     <row r="10" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-      <c r="J10" s="63" t="s">
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
+      <c r="J10" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="64"/>
-      <c r="L10" s="65"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="74"/>
     </row>
     <row r="11" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -10894,14 +11511,14 @@
       <c r="L13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="66" t="s">
+      <c r="N13" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="75"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C14" s="23"/>
@@ -10923,12 +11540,12 @@
       <c r="L14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C15" s="23"/>
@@ -10944,12 +11561,12 @@
       <c r="L15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="75"/>
     </row>
     <row r="16" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="23"/>
@@ -10965,12 +11582,12 @@
       <c r="L16" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="75"/>
     </row>
     <row r="17" spans="3:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="23"/>
@@ -10986,14 +11603,14 @@
       <c r="L17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N17" s="66" t="s">
+      <c r="N17" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="75"/>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C18" s="23"/>
@@ -11009,12 +11626,12 @@
       <c r="L18" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="66"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="75"/>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C19" s="23"/>
@@ -11030,12 +11647,12 @@
       <c r="L19" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="66"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="75"/>
+      <c r="S19" s="75"/>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C20" s="23"/>
@@ -11051,12 +11668,12 @@
       <c r="L20" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="75"/>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C21" s="23"/>
@@ -11081,14 +11698,14 @@
       <c r="J22" s="2"/>
       <c r="K22" s="9"/>
       <c r="L22" s="4"/>
-      <c r="N22" s="67" t="s">
+      <c r="N22" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
+      <c r="O22" s="76"/>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="76"/>
+      <c r="S22" s="76"/>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C23" s="23"/>
@@ -11107,14 +11724,14 @@
       <c r="J24" s="2"/>
       <c r="K24" s="9"/>
       <c r="L24" s="4"/>
-      <c r="N24" s="66" t="s">
+      <c r="N24" s="75" t="s">
         <v>215</v>
       </c>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="66"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="75"/>
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C25" s="23"/>
@@ -11124,12 +11741,12 @@
       <c r="J25" s="2"/>
       <c r="K25" s="9"/>
       <c r="L25" s="4"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="75"/>
+      <c r="S25" s="75"/>
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C26" s="23"/>
@@ -11139,12 +11756,12 @@
       <c r="J26" s="2"/>
       <c r="K26" s="9"/>
       <c r="L26" s="4"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="66"/>
-      <c r="S26" s="66"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="75"/>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C27" s="23"/>
@@ -11154,12 +11771,12 @@
       <c r="J27" s="2"/>
       <c r="K27" s="9"/>
       <c r="L27" s="4"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C28" s="23"/>
@@ -11169,14 +11786,14 @@
       <c r="J28" s="2"/>
       <c r="K28" s="9"/>
       <c r="L28" s="4"/>
-      <c r="N28" s="66" t="s">
+      <c r="N28" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="O28" s="66"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="66"/>
-      <c r="S28" s="66"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="75"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="75"/>
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C29" s="23"/>
@@ -11186,12 +11803,12 @@
       <c r="J29" s="2"/>
       <c r="K29" s="9"/>
       <c r="L29" s="4"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="66"/>
-      <c r="S29" s="66"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="75"/>
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C30" s="23"/>
@@ -11201,12 +11818,12 @@
       <c r="J30" s="2"/>
       <c r="K30" s="9"/>
       <c r="L30" s="2"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="66"/>
-      <c r="S30" s="66"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="75"/>
+      <c r="R30" s="75"/>
+      <c r="S30" s="75"/>
     </row>
     <row r="31" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C31" s="23"/>
@@ -11216,12 +11833,12 @@
       <c r="J31" s="2"/>
       <c r="K31" s="9"/>
       <c r="L31" s="2"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="66"/>
-      <c r="Q31" s="66"/>
-      <c r="R31" s="66"/>
-      <c r="S31" s="66"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="75"/>
+      <c r="R31" s="75"/>
+      <c r="S31" s="75"/>
     </row>
     <row r="32" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C32" s="23"/>
@@ -11433,16 +12050,16 @@
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-      <c r="J10" s="63" t="s">
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
+      <c r="J10" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="64"/>
-      <c r="L10" s="65"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="74"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>

--- a/Game Stuff/Spreadsheet.xlsx
+++ b/Game Stuff/Spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Thassa's Pulse\Game Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Tolarian Meltdown\Game Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CDCE38-96CB-42A8-9597-DCEB445A8937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267DE65C-44B8-450B-AE97-FB8BAC3371D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
+    <workbookView xWindow="45972" yWindow="-4944" windowWidth="17496" windowHeight="30216" firstSheet="18" activeTab="19" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
   </bookViews>
   <sheets>
     <sheet name="Material Summary" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Obelisks of Alara " sheetId="19" r:id="rId17"/>
     <sheet name="Karn's Conduit" sheetId="20" r:id="rId18"/>
     <sheet name="Thassa's Pulse" sheetId="21" r:id="rId19"/>
+    <sheet name="Tollarian Meltdown" sheetId="22" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="398">
   <si>
     <t>Item</t>
   </si>
@@ -473,18 +474,9 @@
     <t xml:space="preserve">Aluminum Casing </t>
   </si>
   <si>
-    <t>1458.4 MW</t>
-  </si>
-  <si>
-    <t>-1458.4 MW</t>
-  </si>
-  <si>
     <t>7300 Wh</t>
   </si>
   <si>
-    <t>4.80 Hours</t>
-  </si>
-  <si>
     <t>1011.1 MW</t>
   </si>
   <si>
@@ -566,9 +558,6 @@
     <t>18917.3 Mw</t>
   </si>
   <si>
-    <t>1875.2 MW</t>
-  </si>
-  <si>
     <t>Nitrogen Gas</t>
   </si>
   <si>
@@ -593,15 +582,9 @@
     <t>Top belt going to Riveteers, Phyrexian Datavault district and Keldon Armory has an extra 103.46666 Copper</t>
   </si>
   <si>
-    <t>Neko's Nexus, Ghirapur Gridworks, Phyrexian Datavault, Riveteers District, The Abyssal Chains of Shandalar, Keldon Armory</t>
-  </si>
-  <si>
     <t>Top belt going to has an extra 780 Iron Ingots</t>
   </si>
   <si>
-    <t>Middle belt going to has an extra 780 Iron Ingots</t>
-  </si>
-  <si>
     <t>Nobelisk</t>
   </si>
   <si>
@@ -653,12 +636,6 @@
     <t>0 MW</t>
   </si>
   <si>
-    <t>4330.4 MW</t>
-  </si>
-  <si>
-    <t>-4330.4 MW</t>
-  </si>
-  <si>
     <t>5800 MWh</t>
   </si>
   <si>
@@ -680,12 +657,6 @@
     <t>Obelisk of Alara</t>
   </si>
   <si>
-    <t>Top Container has an extra 360</t>
-  </si>
-  <si>
-    <t>Kaladesh Refinery, Riveteers District, Oran-Rief Mines, Xantcha's Crucible, Ketria Crystals, Darksteel Forge</t>
-  </si>
-  <si>
     <t>1390.1 MW</t>
   </si>
   <si>
@@ -701,33 +672,12 @@
     <t>Line</t>
   </si>
   <si>
-    <t>Quartz Crystal Line going to Phyrexian Datavault, Keldon Armory and Obelisks of Alara has an extra 372.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phyrexian Datavault, The Abyssal Chains of Shandalar, Keldon Armory, Obelisks of Alara </t>
-  </si>
-  <si>
-    <t>Rubber Line going to Phyrexian Datavaul, Keldon Armory and Obelisk of Alara  has an extra 145.2 available</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Oran Rief Mines</t>
   </si>
   <si>
-    <t>3181.7 MW</t>
-  </si>
-  <si>
-    <t>-3181.7 MW</t>
-  </si>
-  <si>
     <t>45.8 GWh</t>
   </si>
   <si>
-    <t>14.39 Hours</t>
-  </si>
-  <si>
     <t>Iron ore</t>
   </si>
   <si>
@@ -773,21 +723,9 @@
     <t>Karn's Conduit</t>
   </si>
   <si>
-    <t>Neko's Nexus, Ghirapur Gridworks, Phyrexian Datavault, Keldon Armory , Obelisks of Alara, Karn's Conduit</t>
-  </si>
-  <si>
-    <t>Phyrexian Datavault, Keldon Armory, Jund Pyroclast, Urabrask's Refinery, Obelisks of Alara, Karn's Conduit</t>
-  </si>
-  <si>
-    <t>Thran Foundy, Neko's Nexus, Ghirapur Gridworks, The Abyssal Chains of Shandalar, Keldon Armory, Karn's Conduit</t>
-  </si>
-  <si>
     <t>Obelisks of Alara, Keldon Armory, Riveteers District, Phyrexian Datavault, Thran Foundry , Darksteel Forge</t>
   </si>
   <si>
-    <t>Bottom belt going to Keldon Armory and Karn's Conduit has an extra 277.835 Iron Ingots</t>
-  </si>
-  <si>
     <t>738.9 MW</t>
   </si>
   <si>
@@ -827,15 +765,6 @@
     <t>Karn's Conduit, Thassa's Pulse</t>
   </si>
   <si>
-    <t>Obelisks of Alara, Thassa's Pulse</t>
-  </si>
-  <si>
-    <t>Neko's Nexus, Obelisk of Alara, Karn's Conduit, Thassa's Pulse</t>
-  </si>
-  <si>
-    <t>Bottom Container has an extra 236.436</t>
-  </si>
-  <si>
     <t>Jund Pyroclast Well</t>
   </si>
   <si>
@@ -872,15 +801,9 @@
     <t>Cut-Time Unstable</t>
   </si>
   <si>
-    <t>895.3 MW</t>
-  </si>
-  <si>
     <t>1600 MWh</t>
   </si>
   <si>
-    <t>1.78 Houts</t>
-  </si>
-  <si>
     <t>702.15 MW</t>
   </si>
   <si>
@@ -888,12 +811,453 @@
   </si>
   <si>
     <t xml:space="preserve">2.84 Hours </t>
+  </si>
+  <si>
+    <t>Bottom belt going to Keldon Armory, Karn's Conduit And Jund PYroclast has an extra 268.457 Iron Ingots</t>
+  </si>
+  <si>
+    <t>Neko's Nexus, Ghirapur Gridworks, Phyrexian Datavault, Keldon Armory , Obelisks of Alara, Karn's Conduit, Jund Pyroclast</t>
+  </si>
+  <si>
+    <t>Jund Pytoclast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riveteers District, Darksteel Forge, Oran-Rief Mines </t>
+  </si>
+  <si>
+    <t>Gas Filter</t>
+  </si>
+  <si>
+    <t>Iodine-Infused Filter</t>
+  </si>
+  <si>
+    <t>3000 MWh</t>
+  </si>
+  <si>
+    <t>Tollarian Meltdown</t>
+  </si>
+  <si>
+    <t>Karn's Conduit, Tollarian Meltdown</t>
+  </si>
+  <si>
+    <t>Phyrexian Datavault, Keldon Armory, Jund Pyroclast, Urabrask's Refinery, Obelisks of Alara, Karn's Conduit, Tollarian Meltdown</t>
+  </si>
+  <si>
+    <t>Phyrexian Datavault, The Abyssal Chains of Shandalar, Keldon Armory, Obelisks of Alara, Tollarian Meltdown</t>
+  </si>
+  <si>
+    <t>Tollarian Meltown</t>
+  </si>
+  <si>
+    <t>Quartz Crystal Line going to Phyrexian Datavault, Keldon Armory, Tollarian Meltdown and Obelisks of Alara has an extra 259.35</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Top Container</t>
+  </si>
+  <si>
+    <t>Neko's Nexus, Obelisk of Alara, Karn's Conduit, Thassa's Pulse, Tollarian Meltdown</t>
+  </si>
+  <si>
+    <t>Coming from Top Container</t>
+  </si>
+  <si>
+    <t>Neko's Nexus, Ghirapur Gridworks, Phyrexian Datavault, Riveteers District, The Abyssal Chains of Shandalar, Keldon Armory, Tollarian Meltdown</t>
+  </si>
+  <si>
+    <t>Thran Foundy, Neko's Nexus, Ghirapur Gridworks, The Abyssal Chains of Shandalar, Keldon Armory, Karn's Conduit, Jund Pyroclast, Tollarian Meltdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copper Ore </t>
+  </si>
+  <si>
+    <t>Thassa's Pulse Miner</t>
+  </si>
+  <si>
+    <t>Obelisks of Alara, Thassa's Pulse, Tollarian Meltdown</t>
+  </si>
+  <si>
+    <t>Rubber Line going to Phyrexian Datavaul, Keldon Armory, Obelisk of Alara and Tollarian Meltdown  has an extra 42.74549 available</t>
+  </si>
+  <si>
+    <t>Rest Belt has an extra 99.690888889</t>
+  </si>
+  <si>
+    <t>Kaladesh Refinery, Riveteers District, Oran-Rief Mines, Xantcha's Crucible, Ketria Crystals, Darksteel Forge, Tollarian Meltdown</t>
+  </si>
+  <si>
+    <t>Middle belt going to Tollarian Meltdown has an extra 151.659 Iron Ingots</t>
+  </si>
+  <si>
+    <t>Water Distribution</t>
+  </si>
+  <si>
+    <t>Pipe 1</t>
+  </si>
+  <si>
+    <t>Pipe 2</t>
+  </si>
+  <si>
+    <t>Sulfuric Acid</t>
+  </si>
+  <si>
+    <t>Water Packager</t>
+  </si>
+  <si>
+    <t>Copper Sheets</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Pipe 3</t>
+  </si>
+  <si>
+    <t>Nitric Acid</t>
+  </si>
+  <si>
+    <t>Bottom Container</t>
+  </si>
+  <si>
+    <t>Steel Distribution</t>
+  </si>
+  <si>
+    <t>Steel Pipes for Stators</t>
+  </si>
+  <si>
+    <t>Steel Pipes for Encased Industrial Beams and HMF</t>
+  </si>
+  <si>
+    <t>Steel Pipes for Modular Frames</t>
+  </si>
+  <si>
+    <t>Super Total</t>
+  </si>
+  <si>
+    <t>Coming From Bot Container</t>
+  </si>
+  <si>
+    <t>Bottom Container has an extra 78.14267</t>
+  </si>
+  <si>
+    <t>Top Container has an extra 145.9296296</t>
+  </si>
+  <si>
+    <t>Suflur</t>
+  </si>
+  <si>
+    <t>Jund Pyroclast &amp; Urabrask Refinery Miner</t>
+  </si>
+  <si>
+    <t>Riveteers District , Keldon Armory, Kaladesh Refinery, Ketria Crystals, Thran Foundry, Xantcha's Crucible, Darksteel Forge, Thassa's Pulse, Keldon Armory, Phyrexian Datavault, Jund Pyroclast</t>
+  </si>
+  <si>
+    <t>Machine</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>Destiny</t>
+  </si>
+  <si>
+    <t>Water Extraction</t>
+  </si>
+  <si>
+    <t>Refineries</t>
+  </si>
+  <si>
+    <t>Assemblers</t>
+  </si>
+  <si>
+    <t>Zone A East</t>
+  </si>
+  <si>
+    <t>Everywhere</t>
+  </si>
+  <si>
+    <t>Manufacturers</t>
+  </si>
+  <si>
+    <t>Smelter</t>
+  </si>
+  <si>
+    <t>Making</t>
+  </si>
+  <si>
+    <t>Alclad Casing</t>
+  </si>
+  <si>
+    <t>Ai Limiter</t>
+  </si>
+  <si>
+    <t>AI Limiter</t>
+  </si>
+  <si>
+    <t>Crystal Oscillator</t>
+  </si>
+  <si>
+    <t>Nuke Nobelisk</t>
+  </si>
+  <si>
+    <t>Casing and Copper Sheets</t>
+  </si>
+  <si>
+    <t>Zone A Middle</t>
+  </si>
+  <si>
+    <t>Constructor</t>
+  </si>
+  <si>
+    <t>Steel Pipe</t>
+  </si>
+  <si>
+    <t>Crystal oscillator</t>
+  </si>
+  <si>
+    <t>Uranium Fuel Rods</t>
+  </si>
+  <si>
+    <t>Foundries</t>
+  </si>
+  <si>
+    <t>Constructors</t>
+  </si>
+  <si>
+    <t>Refinery</t>
+  </si>
+  <si>
+    <t>Packaging</t>
+  </si>
+  <si>
+    <t>Packagers</t>
+  </si>
+  <si>
+    <t>Packager</t>
+  </si>
+  <si>
+    <t>Packaged Sulfuric Acid</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Packaged Water</t>
+  </si>
+  <si>
+    <t>Caterium Wire</t>
+  </si>
+  <si>
+    <t>Crystal Oscillator and Electromagnetic Control Rods</t>
+  </si>
+  <si>
+    <t>Oil Segment</t>
+  </si>
+  <si>
+    <t>Petroleum Coke</t>
+  </si>
+  <si>
+    <t>Diamonds</t>
+  </si>
+  <si>
+    <t>192.1/576.4</t>
+  </si>
+  <si>
+    <t>Output and Time Crystals</t>
+  </si>
+  <si>
+    <t>Particle Accelerator</t>
+  </si>
+  <si>
+    <t>Converter</t>
+  </si>
+  <si>
+    <t>94.8/379.1</t>
+  </si>
+  <si>
+    <t>Time Crystals</t>
+  </si>
+  <si>
+    <t>Zone B</t>
+  </si>
+  <si>
+    <t>Reinfornced Iron Plates</t>
+  </si>
+  <si>
+    <t>Iron Plates</t>
+  </si>
+  <si>
+    <t>Foundry</t>
+  </si>
+  <si>
+    <t>Heavy modular Frames and encased industrial beams</t>
+  </si>
+  <si>
+    <t>Heavy Modular Frames</t>
+  </si>
+  <si>
+    <t>Encased Industrial Beams and Heavy  Modular Frames</t>
+  </si>
+  <si>
+    <t>Encased Industrial Beam</t>
+  </si>
+  <si>
+    <t>Fused Modular Frames</t>
+  </si>
+  <si>
+    <t>Blenders</t>
+  </si>
+  <si>
+    <t>Zone B Close to Power Plant</t>
+  </si>
+  <si>
+    <t>Plutonium Fuel Rod</t>
+  </si>
+  <si>
+    <t>Packaging and  non fissile Uranium</t>
+  </si>
+  <si>
+    <t>Packaged Nitrogen Gas</t>
+  </si>
+  <si>
+    <t>Packaged Nitric Acid</t>
+  </si>
+  <si>
+    <t>Empty fluid Tank</t>
+  </si>
+  <si>
+    <t>Encased Uranium Cell</t>
+  </si>
+  <si>
+    <t>Northern Sector</t>
+  </si>
+  <si>
+    <t>Encased Uranium Cell and Non-Fissile Uranium</t>
+  </si>
+  <si>
+    <t>Outer Region</t>
+  </si>
+  <si>
+    <t>Power Plant</t>
+  </si>
+  <si>
+    <t>Non-Fissile Uranium</t>
+  </si>
+  <si>
+    <t>Encased Plutonium Cell</t>
+  </si>
+  <si>
+    <t>Uranium Fuel Rod</t>
+  </si>
+  <si>
+    <t>Nuclear Power Plants</t>
+  </si>
+  <si>
+    <t>Encased Uranium Cells</t>
+  </si>
+  <si>
+    <t>193.7/581.1</t>
+  </si>
+  <si>
+    <t>Water Farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen Gas </t>
+  </si>
+  <si>
+    <t>Power Production Stable</t>
+  </si>
+  <si>
+    <t>Power Production Unstable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infinite </t>
+  </si>
+  <si>
+    <t>Time Crystal</t>
+  </si>
+  <si>
+    <t>Plutonium Fuel Rods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well Extractor </t>
+  </si>
+  <si>
+    <t>Lights</t>
+  </si>
+  <si>
+    <t>Oil extractor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Packaged Rocket Fuel </t>
+  </si>
+  <si>
+    <t>945.7 MW</t>
+  </si>
+  <si>
+    <t>14376.6 MW</t>
+  </si>
+  <si>
+    <t>121734.4 MW</t>
+  </si>
+  <si>
+    <t>4352.7 MW</t>
+  </si>
+  <si>
+    <t>-4352.7 MW</t>
+  </si>
+  <si>
+    <t>2019.5 MW</t>
+  </si>
+  <si>
+    <t>1668.3 MW</t>
+  </si>
+  <si>
+    <t>-1668.3 MW</t>
+  </si>
+  <si>
+    <t>3371.9 MW</t>
+  </si>
+  <si>
+    <t>-3371.9 MW</t>
+  </si>
+  <si>
+    <t>1.69 Hours</t>
+  </si>
+  <si>
+    <t>4.37 Hours</t>
+  </si>
+  <si>
+    <t>13.58 Hours</t>
+  </si>
+  <si>
+    <t>3100 MWh</t>
+  </si>
+  <si>
+    <t>17390.625 MW</t>
+  </si>
+  <si>
+    <t>5530.95 MW</t>
+  </si>
+  <si>
+    <t>5600 MW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -919,7 +1283,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1235,45 +1599,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1358,11 +1683,240 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1459,9 +2013,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1492,9 +2043,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1511,6 +2059,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1529,29 +2109,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1562,13 +2160,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1905,10 +2509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DEAD1A-BE12-4BD3-A45F-18807DFF108B}">
-  <dimension ref="B2:J96"/>
+  <dimension ref="B2:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1926,18 +2530,18 @@
     </row>
     <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="94"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="72" t="s">
+      <c r="H4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="94"/>
     </row>
     <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="35" t="s">
@@ -1963,7 +2567,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C6" s="47" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D6" s="44">
         <v>246.666</v>
@@ -1974,7 +2578,7 @@
       <c r="H6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="56">
+      <c r="I6" s="55">
         <v>15</v>
       </c>
       <c r="J6" s="40" t="s">
@@ -1986,7 +2590,7 @@
         <v>43</v>
       </c>
       <c r="D7" s="11">
-        <v>356.47699999999998</v>
+        <v>99.690888880000003</v>
       </c>
       <c r="E7" s="41" t="s">
         <v>44</v>
@@ -1994,7 +2598,7 @@
       <c r="H7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="57">
+      <c r="I7" s="56">
         <v>5</v>
       </c>
       <c r="J7" s="41" t="s">
@@ -2006,7 +2610,7 @@
         <v>41</v>
       </c>
       <c r="D8" s="11">
-        <v>1837.835</v>
+        <v>1200.1281280000001</v>
       </c>
       <c r="E8" s="41" t="s">
         <v>42</v>
@@ -2014,7 +2618,7 @@
       <c r="H8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="57">
+      <c r="I8" s="56">
         <v>1.4065000000000001</v>
       </c>
       <c r="J8" s="41" t="s">
@@ -2034,7 +2638,7 @@
       <c r="H9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="57">
+      <c r="I9" s="56">
         <v>2.25</v>
       </c>
       <c r="J9" s="41" t="s">
@@ -2054,7 +2658,7 @@
       <c r="H10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="57">
+      <c r="I10" s="56">
         <v>2.5</v>
       </c>
       <c r="J10" s="41" t="s">
@@ -2069,12 +2673,12 @@
         <v>29.17</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="57">
+      <c r="I11" s="56">
         <v>45</v>
       </c>
       <c r="J11" s="41" t="s">
@@ -2086,15 +2690,16 @@
         <v>5</v>
       </c>
       <c r="D12" s="11">
-        <v>345.64157</v>
+        <f>'Keldon Armory'!L29</f>
+        <v>154.12946666666664</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="57">
+      <c r="I12" s="56">
         <v>5</v>
       </c>
       <c r="J12" s="41" t="s">
@@ -2106,7 +2711,7 @@
         <v>86</v>
       </c>
       <c r="D13" s="11">
-        <v>372.75</v>
+        <v>226.37222</v>
       </c>
       <c r="E13" s="41" t="s">
         <v>85</v>
@@ -2114,7 +2719,7 @@
       <c r="H13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="57">
+      <c r="I13" s="56">
         <v>7.3125</v>
       </c>
       <c r="J13" s="41" t="s">
@@ -2126,7 +2731,7 @@
         <v>103</v>
       </c>
       <c r="D14" s="11">
-        <v>145.19999999999999</v>
+        <v>42.745489999999997</v>
       </c>
       <c r="E14" s="41" t="s">
         <v>106</v>
@@ -2134,7 +2739,7 @@
       <c r="H14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="56">
         <v>3</v>
       </c>
       <c r="J14" s="41" t="s">
@@ -2146,7 +2751,7 @@
         <v>87</v>
       </c>
       <c r="D15" s="11">
-        <v>197.65</v>
+        <v>125.0989</v>
       </c>
       <c r="E15" s="41" t="s">
         <v>131</v>
@@ -2154,7 +2759,7 @@
       <c r="H15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="57">
+      <c r="I15" s="56">
         <v>30</v>
       </c>
       <c r="J15" s="41" t="s">
@@ -2174,7 +2779,7 @@
       <c r="H16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I16" s="57">
+      <c r="I16" s="56">
         <v>0.5</v>
       </c>
       <c r="J16" s="41" t="s">
@@ -2186,7 +2791,8 @@
         <v>54</v>
       </c>
       <c r="D17" s="11">
-        <v>596.43600000000004</v>
+        <f>'Thran Foundry'!K13</f>
+        <v>224.07229629629634</v>
       </c>
       <c r="E17" s="41" t="s">
         <v>55</v>
@@ -2194,7 +2800,7 @@
       <c r="H17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="57">
+      <c r="I17" s="56">
         <v>33.125</v>
       </c>
       <c r="J17" s="41" t="s">
@@ -2202,19 +2808,20 @@
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="49" t="s">
         <v>137</v>
       </c>
       <c r="D18" s="11">
-        <v>1898.3330000000001</v>
+        <f>'Urabrask''s Refinery'!J12</f>
+        <v>1163.6228888888891</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I18" s="57">
+      <c r="I18" s="56">
         <v>61.6875</v>
       </c>
       <c r="J18" s="41" t="s">
@@ -2222,13 +2829,19 @@
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C19" s="50"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="41"/>
+      <c r="C19" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="8">
+        <v>741</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="H19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="57">
+      <c r="I19" s="56">
         <v>7.25</v>
       </c>
       <c r="J19" s="41" t="s">
@@ -2236,13 +2849,19 @@
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C20" s="48"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="41"/>
+      <c r="C20" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="9">
+        <v>101.07</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="H20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I20" s="57">
+      <c r="I20" s="56">
         <v>30</v>
       </c>
       <c r="J20" s="41" t="s">
@@ -2250,13 +2869,19 @@
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C21" s="6"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="41"/>
+      <c r="C21" s="70" t="s">
+        <v>376</v>
+      </c>
+      <c r="D21" s="9">
+        <v>4.95</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="H21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I21" s="57">
+      <c r="I21" s="56">
         <v>45</v>
       </c>
       <c r="J21" s="41" t="s">
@@ -2270,7 +2895,7 @@
       <c r="H22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I22" s="57">
+      <c r="I22" s="56">
         <v>22.5</v>
       </c>
       <c r="J22" s="41" t="s">
@@ -2284,7 +2909,7 @@
       <c r="H23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I23" s="57">
+      <c r="I23" s="56">
         <v>20.5</v>
       </c>
       <c r="J23" s="41" t="s">
@@ -2298,7 +2923,7 @@
       <c r="H24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I24" s="57">
+      <c r="I24" s="56">
         <v>15</v>
       </c>
       <c r="J24" s="41" t="s">
@@ -2312,7 +2937,7 @@
       <c r="H25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I25" s="57">
+      <c r="I25" s="56">
         <v>25</v>
       </c>
       <c r="J25" s="41" t="s">
@@ -2326,7 +2951,7 @@
       <c r="H26" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I26" s="57">
+      <c r="I26" s="56">
         <v>26.25</v>
       </c>
       <c r="J26" s="41" t="s">
@@ -2340,7 +2965,7 @@
       <c r="H27" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I27" s="57">
+      <c r="I27" s="56">
         <v>19.443999999999999</v>
       </c>
       <c r="J27" s="41" t="s">
@@ -2354,7 +2979,7 @@
       <c r="H28" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I28" s="57">
+      <c r="I28" s="56">
         <v>1.5</v>
       </c>
       <c r="J28" s="41" t="s">
@@ -2368,7 +2993,7 @@
       <c r="H29" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I29" s="57">
+      <c r="I29" s="56">
         <v>1.5</v>
       </c>
       <c r="J29" s="41" t="s">
@@ -2382,7 +3007,7 @@
       <c r="H30" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I30" s="57">
+      <c r="I30" s="56">
         <v>2.25</v>
       </c>
       <c r="J30" s="41" t="s">
@@ -2396,7 +3021,7 @@
       <c r="H31" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I31" s="57">
+      <c r="I31" s="56">
         <v>3</v>
       </c>
       <c r="J31" s="41" t="s">
@@ -2410,7 +3035,7 @@
       <c r="H32" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I32" s="57">
+      <c r="I32" s="56">
         <v>6</v>
       </c>
       <c r="J32" s="41" t="s">
@@ -2424,7 +3049,7 @@
       <c r="H33" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I33" s="57">
+      <c r="I33" s="56">
         <v>25</v>
       </c>
       <c r="J33" s="41" t="s">
@@ -2438,7 +3063,7 @@
       <c r="H34" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I34" s="57">
+      <c r="I34" s="56">
         <v>20</v>
       </c>
       <c r="J34" s="41" t="s">
@@ -2452,7 +3077,7 @@
       <c r="H35" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I35" s="57">
+      <c r="I35" s="56">
         <v>0.5</v>
       </c>
       <c r="J35" s="41" t="s">
@@ -2466,7 +3091,7 @@
       <c r="H36" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I36" s="57">
+      <c r="I36" s="56">
         <v>0.5</v>
       </c>
       <c r="J36" s="41" t="s">
@@ -2480,7 +3105,7 @@
       <c r="H37" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I37" s="57">
+      <c r="I37" s="56">
         <v>49.332999999999998</v>
       </c>
       <c r="J37" s="41" t="s">
@@ -2494,7 +3119,7 @@
       <c r="H38" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I38" s="57">
+      <c r="I38" s="56">
         <v>12</v>
       </c>
       <c r="J38" s="41" t="s">
@@ -2505,7 +3130,7 @@
       <c r="H39" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I39" s="57">
+      <c r="I39" s="56">
         <v>45</v>
       </c>
       <c r="J39" s="41" t="s">
@@ -2516,8 +3141,8 @@
       <c r="H40" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I40" s="57">
-        <v>61.7</v>
+      <c r="I40" s="56">
+        <v>60.4375</v>
       </c>
       <c r="J40" s="41" t="s">
         <v>131</v>
@@ -2525,31 +3150,31 @@
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H41" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="I41" s="57">
+        <v>155</v>
+      </c>
+      <c r="I41" s="56">
         <v>9.5</v>
       </c>
       <c r="J41" s="41" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H42" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="I42" s="57">
+        <v>156</v>
+      </c>
+      <c r="I42" s="56">
         <v>8</v>
       </c>
       <c r="J42" s="41" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H43" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="I43" s="57">
+        <v>161</v>
+      </c>
+      <c r="I43" s="56">
         <v>5</v>
       </c>
       <c r="J43" s="41" t="s">
@@ -2560,7 +3185,7 @@
       <c r="H44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I44" s="57">
+      <c r="I44" s="56">
         <v>10</v>
       </c>
       <c r="J44" s="41" t="s">
@@ -2569,465 +3194,582 @@
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H45" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="I45" s="58">
-        <v>12.5</v>
+        <v>169</v>
+      </c>
+      <c r="I45" s="57">
+        <v>6.25</v>
       </c>
       <c r="J45" s="42" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H46" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="I46" s="58">
+        <v>170</v>
+      </c>
+      <c r="I46" s="57">
         <v>12.5</v>
       </c>
       <c r="J46" s="42" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H47" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="I47" s="58">
-        <v>148.44999999999999</v>
+        <v>171</v>
+      </c>
+      <c r="I47" s="57">
+        <f>'Jund Pyroclast'!J15</f>
+        <v>142.10999999999999</v>
       </c>
       <c r="J47" s="42" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H48" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="I48" s="58">
+        <v>176</v>
+      </c>
+      <c r="I48" s="57">
         <v>2</v>
       </c>
       <c r="J48" s="41" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H49" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="I49" s="58">
+        <v>177</v>
+      </c>
+      <c r="I49" s="57">
         <v>2</v>
       </c>
       <c r="J49" s="41" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H50" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="I50" s="58">
+        <v>178</v>
+      </c>
+      <c r="I50" s="57">
         <v>2</v>
       </c>
       <c r="J50" s="41" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H51" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="I51" s="58">
-        <v>5</v>
+        <v>179</v>
+      </c>
+      <c r="I51" s="57">
+        <v>2.5</v>
       </c>
       <c r="J51" s="41" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H52" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="I52" s="58">
-        <v>5</v>
+        <v>180</v>
+      </c>
+      <c r="I52" s="57">
+        <v>2.5</v>
       </c>
       <c r="J52" s="41" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H53" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="I53" s="58">
+        <v>181</v>
+      </c>
+      <c r="I53" s="57">
         <v>5</v>
       </c>
       <c r="J53" s="41" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H54" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="I54" s="58">
+        <v>182</v>
+      </c>
+      <c r="I54" s="57">
         <v>5</v>
       </c>
       <c r="J54" s="41" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H55" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="I55" s="57">
+        <v>183</v>
+      </c>
+      <c r="I55" s="56">
         <v>5</v>
       </c>
       <c r="J55" s="41" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H56" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="I56" s="57">
+        <v>184</v>
+      </c>
+      <c r="I56" s="56">
         <v>5</v>
       </c>
       <c r="J56" s="41" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H57" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="I57" s="57">
+        <v>185</v>
+      </c>
+      <c r="I57" s="56">
         <v>5</v>
       </c>
       <c r="J57" s="41" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H58" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="I58" s="57">
+        <v>186</v>
+      </c>
+      <c r="I58" s="56">
         <v>5</v>
       </c>
       <c r="J58" s="41" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H59" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="I59" s="57">
+        <v>187</v>
+      </c>
+      <c r="I59" s="56">
         <v>5</v>
       </c>
       <c r="J59" s="41" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H60" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="I60" s="57">
+        <v>188</v>
+      </c>
+      <c r="I60" s="56">
         <v>5</v>
       </c>
       <c r="J60" s="41" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H61" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="I61" s="57">
+        <v>189</v>
+      </c>
+      <c r="I61" s="56">
         <v>11.41666</v>
       </c>
       <c r="J61" s="41" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H62" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I62" s="57">
-        <v>7.0670000000000002</v>
+      <c r="I62" s="56">
+        <v>4.5670000000000002</v>
       </c>
       <c r="J62" s="41" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H63" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="I63" s="58">
+        <v>215</v>
+      </c>
+      <c r="I63" s="57">
         <v>5</v>
       </c>
       <c r="J63" s="41" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H64" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="I64" s="58">
+        <v>216</v>
+      </c>
+      <c r="I64" s="57">
         <v>2.5</v>
       </c>
       <c r="J64" s="41" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H65" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="I65" s="58">
+        <v>217</v>
+      </c>
+      <c r="I65" s="57">
         <v>2</v>
       </c>
       <c r="J65" s="41" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H66" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="I66" s="58">
+        <v>218</v>
+      </c>
+      <c r="I66" s="57">
         <v>2</v>
       </c>
       <c r="J66" s="41" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H67" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="I67" s="58">
+        <v>219</v>
+      </c>
+      <c r="I67" s="57">
         <v>2</v>
       </c>
       <c r="J67" s="41" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C68" s="1"/>
       <c r="H68" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="I68" s="58">
+        <v>220</v>
+      </c>
+      <c r="I68" s="57">
         <v>1</v>
       </c>
       <c r="J68" s="41" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C69" s="1"/>
-      <c r="H69" s="63" t="s">
-        <v>250</v>
+      <c r="H69" s="39" t="s">
+        <v>229</v>
       </c>
       <c r="I69" s="8">
         <f>5/8</f>
         <v>0.625</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C70" s="1"/>
-      <c r="H70" s="63" t="s">
-        <v>251</v>
+      <c r="H70" s="39" t="s">
+        <v>230</v>
       </c>
       <c r="I70" s="9">
         <v>1</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H71" s="63" t="s">
-        <v>252</v>
+      <c r="H71" s="39" t="s">
+        <v>231</v>
       </c>
       <c r="I71" s="9">
         <v>0.5</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H72" s="63" t="s">
-        <v>253</v>
+      <c r="H72" s="39" t="s">
+        <v>232</v>
       </c>
       <c r="I72" s="9">
         <v>3.5</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H73" s="63" t="s">
-        <v>254</v>
+      <c r="H73" s="39" t="s">
+        <v>233</v>
       </c>
       <c r="I73" s="9">
         <v>0.5</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H74" s="63" t="s">
-        <v>263</v>
+      <c r="H74" s="39" t="s">
+        <v>239</v>
       </c>
       <c r="I74" s="8">
         <v>20</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H75" s="63" t="s">
-        <v>264</v>
+      <c r="H75" s="39" t="s">
+        <v>240</v>
       </c>
       <c r="I75" s="9">
         <v>0.5</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H76" s="63" t="s">
-        <v>265</v>
+      <c r="H76" s="39" t="s">
+        <v>241</v>
       </c>
       <c r="I76" s="9">
         <v>0.5</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C77" s="1"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="57"/>
-      <c r="J77" s="41"/>
+      <c r="H77" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="I77" s="9">
+        <v>1.5625</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C78" s="1"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="57"/>
-      <c r="J78" s="41"/>
+      <c r="H78" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="I78" s="9">
+        <v>1.5625</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C79" s="1"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="57"/>
-      <c r="J79" s="41"/>
+      <c r="H79" s="70" t="s">
+        <v>375</v>
+      </c>
+      <c r="I79" s="9">
+        <v>11.52</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C80" s="1"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="57"/>
-      <c r="J80" s="41"/>
-    </row>
-    <row r="81" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="H80" s="70" t="s">
+        <v>335</v>
+      </c>
+      <c r="I80" s="9">
+        <v>10</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C81" s="1"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="57"/>
-      <c r="J81" s="41"/>
-    </row>
-    <row r="82" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="H81" s="70" t="s">
+        <v>356</v>
+      </c>
+      <c r="I81" s="9">
+        <v>5</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C82" s="1"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="57"/>
-      <c r="J82" s="41"/>
-    </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H83" s="2"/>
-      <c r="I83" s="57"/>
-      <c r="J83" s="41"/>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H84" s="2"/>
-      <c r="I84" s="57"/>
-      <c r="J84" s="41"/>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H85" s="2"/>
-      <c r="I85" s="57"/>
-      <c r="J85" s="41"/>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H86" s="2"/>
-      <c r="I86" s="57"/>
-      <c r="J86" s="41"/>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H87" s="2"/>
-      <c r="I87" s="57"/>
-      <c r="J87" s="41"/>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="H88" s="2"/>
-      <c r="I88" s="57"/>
-      <c r="J88" s="41"/>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="H82" s="70" t="s">
+        <v>357</v>
+      </c>
+      <c r="I82" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H83" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="I83" s="9">
+        <v>2.73</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H84" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="I84" s="9">
+        <v>2.73</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H85" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="I85" s="9">
+        <v>1.54</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H86" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="I86" s="9">
+        <v>1</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H87" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="I87" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88"/>
+      <c r="H88" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="I88" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89"/>
       <c r="H89" s="2"/>
-      <c r="I89" s="57"/>
+      <c r="I89" s="56"/>
       <c r="J89" s="41"/>
     </row>
-    <row r="90" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90"/>
       <c r="H90" s="2"/>
-      <c r="I90" s="57"/>
+      <c r="I90" s="56"/>
       <c r="J90" s="41"/>
     </row>
-    <row r="91" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91"/>
       <c r="H91" s="2"/>
-      <c r="I91" s="57"/>
+      <c r="I91" s="56"/>
       <c r="J91" s="41"/>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92"/>
       <c r="H92" s="2"/>
-      <c r="I92" s="57"/>
+      <c r="I92" s="56"/>
       <c r="J92" s="41"/>
     </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="H93" s="2"/>
-      <c r="I93" s="57"/>
+      <c r="I93" s="56"/>
       <c r="J93" s="41"/>
     </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94"/>
       <c r="H94" s="2"/>
-      <c r="I94" s="57"/>
+      <c r="I94" s="56"/>
       <c r="J94" s="41"/>
     </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95"/>
       <c r="H95" s="2"/>
-      <c r="I95" s="57"/>
+      <c r="I95" s="56"/>
       <c r="J95" s="41"/>
     </row>
-    <row r="96" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96"/>
       <c r="H96" s="3"/>
-      <c r="I96" s="59"/>
+      <c r="I96" s="58"/>
       <c r="J96" s="43"/>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:E18">
@@ -3128,16 +3870,16 @@
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74"/>
-      <c r="J10" s="72" t="s">
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
+      <c r="J10" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="73"/>
-      <c r="L10" s="74"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="94"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -3510,19 +4252,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBAD9F1-0099-4C27-8F14-6139C4B3501A}">
   <dimension ref="B1:T44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23:T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.90625" customWidth="1"/>
+    <col min="3" max="3" width="22.6328125" customWidth="1"/>
     <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.26953125" customWidth="1"/>
     <col min="12" max="12" width="27" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
@@ -3548,8 +4290,8 @@
       <c r="B4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>216</v>
+      <c r="C4" s="31" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.35">
@@ -3594,17 +4336,17 @@
     </row>
     <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74"/>
-      <c r="J10" s="72" t="s">
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
+      <c r="J10" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="74"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="94"/>
     </row>
     <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -3651,14 +4393,14 @@
         <v>8</v>
       </c>
       <c r="M12" s="19"/>
-      <c r="O12" s="75" t="s">
+      <c r="O12" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="75"/>
-      <c r="T12" s="75"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="95"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C13" s="23"/>
@@ -3675,18 +4417,19 @@
         <v>103</v>
       </c>
       <c r="K13" s="9">
-        <v>145.19999999999999</v>
+        <f>500-K12-K16-K18-K20-K21-K22</f>
+        <v>42.745490196078421</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="75"/>
-      <c r="T13" s="75"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C14" s="23"/>
@@ -3703,12 +4446,12 @@
         <v>25</v>
       </c>
       <c r="M14" s="2"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="75"/>
-      <c r="T14" s="75"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="95"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C15" s="23"/>
@@ -3725,12 +4468,12 @@
         <v>8</v>
       </c>
       <c r="M15" s="2"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="75"/>
-      <c r="S15" s="75"/>
-      <c r="T15" s="75"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="95"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C16" s="23"/>
@@ -3747,14 +4490,14 @@
         <v>111</v>
       </c>
       <c r="M16" s="2"/>
-      <c r="O16" s="75" t="s">
+      <c r="O16" s="95" t="s">
         <v>120</v>
       </c>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="75"/>
-      <c r="S16" s="75"/>
-      <c r="T16" s="75"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="95"/>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C17" s="23"/>
@@ -3771,12 +4514,12 @@
         <v>111</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="75"/>
-      <c r="T17" s="75"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C18" s="23"/>
@@ -3790,15 +4533,15 @@
         <v>210</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="75"/>
-      <c r="T18" s="75"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="95"/>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C19" s="23"/>
@@ -3812,15 +4555,15 @@
         <v>280</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="75"/>
-      <c r="S19" s="75"/>
-      <c r="T19" s="75"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="95"/>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C20" s="23"/>
@@ -3834,7 +4577,7 @@
         <v>2.8</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M20" s="2"/>
     </row>
@@ -3850,26 +4593,33 @@
         <v>109.5</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="O21" s="76" t="s">
-        <v>150</v>
-      </c>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="76"/>
-      <c r="R21" s="76"/>
-      <c r="S21" s="76"/>
-      <c r="T21" s="76"/>
+      <c r="O21" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="96"/>
+      <c r="R21" s="96"/>
+      <c r="S21" s="96"/>
+      <c r="T21" s="96"/>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C22" s="23"/>
       <c r="E22" s="2"/>
       <c r="F22" s="9"/>
       <c r="G22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="4"/>
+      <c r="J22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" s="9">
+        <f>79+19/50+23+19/255</f>
+        <v>102.45450980392157</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.35">
@@ -3881,14 +4631,14 @@
       <c r="K23" s="9"/>
       <c r="L23" s="4"/>
       <c r="M23" s="2"/>
-      <c r="O23" s="75" t="s">
-        <v>217</v>
-      </c>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="75"/>
-      <c r="S23" s="75"/>
-      <c r="T23" s="75"/>
+      <c r="O23" s="95" t="s">
+        <v>274</v>
+      </c>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="95"/>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C24" s="23"/>
@@ -3899,12 +4649,12 @@
       <c r="K24" s="9"/>
       <c r="L24" s="4"/>
       <c r="M24" s="2"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="75"/>
-      <c r="S24" s="75"/>
-      <c r="T24" s="75"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="95"/>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C25" s="23"/>
@@ -3915,12 +4665,12 @@
       <c r="K25" s="9"/>
       <c r="L25" s="4"/>
       <c r="M25" s="2"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="75"/>
-      <c r="R25" s="75"/>
-      <c r="S25" s="75"/>
-      <c r="T25" s="75"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="95"/>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C26" s="23"/>
@@ -3931,12 +4681,12 @@
       <c r="K26" s="9"/>
       <c r="L26" s="4"/>
       <c r="M26" s="2"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="75"/>
-      <c r="T26" s="75"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="95"/>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C27" s="23"/>
@@ -3947,14 +4697,14 @@
       <c r="K27" s="9"/>
       <c r="L27" s="4"/>
       <c r="M27" s="2"/>
-      <c r="O27" s="75" t="s">
-        <v>152</v>
-      </c>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="75"/>
-      <c r="T27" s="75"/>
+      <c r="O27" s="95" t="s">
+        <v>149</v>
+      </c>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="95"/>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C28" s="23"/>
@@ -3965,12 +4715,12 @@
       <c r="K28" s="9"/>
       <c r="L28" s="4"/>
       <c r="M28" s="2"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="75"/>
-      <c r="R28" s="75"/>
-      <c r="S28" s="75"/>
-      <c r="T28" s="75"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="95"/>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C29" s="23"/>
@@ -3981,12 +4731,12 @@
       <c r="K29" s="9"/>
       <c r="L29" s="4"/>
       <c r="M29" s="2"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="75"/>
-      <c r="R29" s="75"/>
-      <c r="S29" s="75"/>
-      <c r="T29" s="75"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="95"/>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C30" s="23"/>
@@ -3997,12 +4747,12 @@
       <c r="K30" s="9"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="75"/>
-      <c r="Q30" s="75"/>
-      <c r="R30" s="75"/>
-      <c r="S30" s="75"/>
-      <c r="T30" s="75"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="95"/>
+      <c r="T30" s="95"/>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C31" s="23"/>
@@ -4154,8 +4904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED21A768-E1F1-4F70-B6C9-A662B38F9ACD}">
   <dimension ref="B1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4166,7 +4916,7 @@
     <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.36328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -4188,12 +4938,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
@@ -4209,7 +4959,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>139</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -4217,7 +4967,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>140</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -4225,7 +4975,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4233,21 +4983,21 @@
         <v>32</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>142</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74"/>
-      <c r="J10" s="72" t="s">
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
+      <c r="J10" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="73"/>
-      <c r="L10" s="74"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="94"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -4369,7 +5119,8 @@
         <v>138</v>
       </c>
       <c r="K16" s="11">
-        <v>62</v>
+        <f>62-1-9/16</f>
+        <v>60.4375</v>
       </c>
       <c r="L16" s="42" t="s">
         <v>8</v>
@@ -4393,7 +5144,7 @@
         <v>7.35</v>
       </c>
       <c r="L17" s="42" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
@@ -4405,7 +5156,7 @@
         <v>87</v>
       </c>
       <c r="K18" s="11">
-        <v>197.65</v>
+        <v>125.0989</v>
       </c>
       <c r="L18" s="42" t="s">
         <v>25</v>
@@ -4423,7 +5174,7 @@
         <v>160</v>
       </c>
       <c r="L19" s="42" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
@@ -4432,7 +5183,7 @@
       <c r="F20" s="9"/>
       <c r="G20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K20" s="11">
         <v>5</v>
@@ -4453,7 +5204,7 @@
         <v>150</v>
       </c>
       <c r="L21" s="42" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
@@ -4468,7 +5219,7 @@
         <v>0.3</v>
       </c>
       <c r="L22" s="42" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.35">
@@ -4483,7 +5234,7 @@
         <v>176.4</v>
       </c>
       <c r="L23" s="42" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
@@ -4498,7 +5249,7 @@
         <v>28.6</v>
       </c>
       <c r="L24" s="42" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
@@ -4506,18 +5257,32 @@
       <c r="E25" s="2"/>
       <c r="F25" s="9"/>
       <c r="G25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="42"/>
+      <c r="J25" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K25" s="11">
+        <f>1+9/16</f>
+        <v>1.5625</v>
+      </c>
+      <c r="L25" s="42" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C26" s="23"/>
       <c r="E26" s="2"/>
       <c r="F26" s="9"/>
       <c r="G26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="42"/>
+      <c r="J26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" s="11">
+        <f>72+124/225</f>
+        <v>72.551111111111112</v>
+      </c>
+      <c r="L26" s="42" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C27" s="23"/>
@@ -4686,8 +5451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2930F0-3027-4B2E-8126-4FAD3B96111E}">
   <dimension ref="B1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4708,7 +5473,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4716,7 +5481,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -4724,7 +5489,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
@@ -4740,7 +5505,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -4748,7 +5513,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -4756,7 +5521,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4764,21 +5529,21 @@
         <v>32</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74"/>
-      <c r="J10" s="72" t="s">
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
+      <c r="J10" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="73"/>
-      <c r="L10" s="74"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="94"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -4816,7 +5581,7 @@
         <v>9.5</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>8</v>
@@ -4837,7 +5602,7 @@
         <v>8</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>8</v>
@@ -4858,10 +5623,10 @@
         <v>0.5</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
@@ -4879,10 +5644,10 @@
         <v>2</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
@@ -4933,7 +5698,7 @@
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C19" s="23"/>
       <c r="E19" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F19" s="9">
         <v>160</v>
@@ -5176,13 +5941,13 @@
   <dimension ref="B1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
     <col min="5" max="5" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.36328125" bestFit="1" customWidth="1"/>
@@ -5197,15 +5962,15 @@
         <v>9</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B3" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>131</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
@@ -5213,7 +5978,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
@@ -5221,7 +5986,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
@@ -5229,7 +5994,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>170</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -5237,7 +6002,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -5245,7 +6010,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>166</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5253,21 +6018,21 @@
         <v>32</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74"/>
-      <c r="J10" s="72" t="s">
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
+      <c r="J10" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="73"/>
-      <c r="L10" s="74"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="94"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -5296,7 +6061,7 @@
         <v>19</v>
       </c>
       <c r="F12" s="8">
-        <v>980.42</v>
+        <v>986.67</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>62</v>
@@ -5314,19 +6079,19 @@
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C13" s="23"/>
       <c r="E13" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F13" s="9">
         <v>300</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J13" s="38">
-        <v>12.5</v>
+        <v>6.25</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>8</v>
@@ -5347,7 +6112,7 @@
         <v>12.5</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>8</v>
@@ -5365,10 +6130,11 @@
         <v>131</v>
       </c>
       <c r="J15" s="38">
-        <v>148.44999999999999</v>
+        <f>150-J16-J19</f>
+        <v>142.10999999999999</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>8</v>
@@ -5389,10 +6155,10 @@
         <v>1.55</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
@@ -5401,38 +6167,78 @@
         <v>17</v>
       </c>
       <c r="F17" s="9">
-        <v>200</v>
+        <v>212.5</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="4"/>
+      <c r="J17" s="38">
+        <f>1+9/16</f>
+        <v>1.5625</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C18" s="23"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="2"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="4"/>
+      <c r="E18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="9">
+        <f>9+3/8</f>
+        <v>9.375</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="38">
+        <f>1+9/16</f>
+        <v>1.5625</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C19" s="23"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="2"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="4"/>
+      <c r="E19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="11">
+        <v>6.34</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C20" s="23"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="9">
+        <f>1+9/16</f>
+        <v>1.5625</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="J20" s="11"/>
       <c r="K20" s="9"/>
       <c r="L20" s="4"/>
@@ -5656,10 +6462,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C186B3A-157D-4021-977B-A5A4DB537283}">
-  <dimension ref="D3:N29"/>
+  <dimension ref="D3:V38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5669,7 +6475,7 @@
     <col min="7" max="7" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.6328125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.26953125" bestFit="1" customWidth="1"/>
   </cols>
@@ -5680,15 +6486,15 @@
         <v>9</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="4:14" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="52" t="s">
-        <v>209</v>
+      <c r="E5" s="51" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="4:14" x14ac:dyDescent="0.35">
@@ -5696,7 +6502,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="4:14" x14ac:dyDescent="0.35">
@@ -5710,7 +6516,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="4:14" x14ac:dyDescent="0.35">
@@ -5718,7 +6524,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="4:14" x14ac:dyDescent="0.35">
@@ -5734,44 +6540,44 @@
         <v>32</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G12" s="89" t="s">
+      <c r="G12" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="90"/>
-      <c r="I12" s="91"/>
-      <c r="L12" s="89" t="s">
+      <c r="H12" s="110"/>
+      <c r="I12" s="111"/>
+      <c r="L12" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="90"/>
-      <c r="N12" s="91"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="111"/>
     </row>
     <row r="13" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G13" s="53" t="s">
+      <c r="G13" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="54" t="s">
+      <c r="H13" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="55" t="s">
+      <c r="I13" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="L13" s="60" t="s">
+      <c r="L13" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="M13" s="61" t="s">
+      <c r="M13" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="N13" s="62" t="s">
+      <c r="N13" s="61" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="4:14" x14ac:dyDescent="0.35">
       <c r="G14" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H14" s="4">
         <v>0.3</v>
@@ -5783,7 +6589,7 @@
         <v>2</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="N14" s="40" t="s">
         <v>8</v>
@@ -5803,7 +6609,7 @@
         <v>2</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="N15" s="41" t="s">
         <v>8</v>
@@ -5823,7 +6629,7 @@
         <v>2</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="N16" s="41" t="s">
         <v>8</v>
@@ -5840,10 +6646,10 @@
         <v>50</v>
       </c>
       <c r="L17" s="6">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="N17" s="41" t="s">
         <v>8</v>
@@ -5860,10 +6666,10 @@
         <v>44</v>
       </c>
       <c r="L18" s="6">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="N18" s="41" t="s">
         <v>8</v>
@@ -5883,7 +6689,7 @@
         <v>5</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="N19" s="41" t="s">
         <v>8</v>
@@ -5897,13 +6703,13 @@
         <v>30.4666</v>
       </c>
       <c r="I20" s="41" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="L20" s="6">
         <v>5</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="N20" s="41" t="s">
         <v>8</v>
@@ -5917,13 +6723,13 @@
         <v>30.4666</v>
       </c>
       <c r="I21" s="41" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="L21" s="6">
         <v>5</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N21" s="41" t="s">
         <v>8</v>
@@ -5943,7 +6749,7 @@
         <v>5</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="N22" s="41" t="s">
         <v>8</v>
@@ -5963,7 +6769,7 @@
         <v>5</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="N23" s="41" t="s">
         <v>8</v>
@@ -5983,7 +6789,7 @@
         <v>5</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="N24" s="41" t="s">
         <v>8</v>
@@ -5994,7 +6800,7 @@
         <v>5</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="N25" s="41" t="s">
         <v>8</v>
@@ -6005,7 +6811,7 @@
         <v>5</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="N26" s="41" t="s">
         <v>8</v>
@@ -6016,7 +6822,7 @@
         <v>11.41666</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="N27" s="41" t="s">
         <v>8</v>
@@ -6030,19 +6836,87 @@
         <v>5</v>
       </c>
       <c r="N28" s="41" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="29" spans="7:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="L29" s="7">
-        <f>391.64167-46</f>
-        <v>345.64166999999998</v>
-      </c>
-      <c r="M29" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="L29" s="6">
+        <f>391+77/120-L30-L28</f>
+        <v>154.12946666666664</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="43" t="s">
+      <c r="N29" s="41" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="L30" s="6">
+        <f>'Tollarian Meltdown'!F17</f>
+        <v>191.51220000000001</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="41" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="L31" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="N31" s="41" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="L32" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="N32" s="41" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="12:22" x14ac:dyDescent="0.35">
+      <c r="L33" s="6"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="41"/>
+    </row>
+    <row r="34" spans="12:22" x14ac:dyDescent="0.35">
+      <c r="L34" s="6"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="41"/>
+    </row>
+    <row r="35" spans="12:22" x14ac:dyDescent="0.35">
+      <c r="L35" s="6"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="41"/>
+    </row>
+    <row r="36" spans="12:22" x14ac:dyDescent="0.35">
+      <c r="L36" s="6"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="41"/>
+    </row>
+    <row r="37" spans="12:22" x14ac:dyDescent="0.35">
+      <c r="L37" s="6"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="41"/>
+    </row>
+    <row r="38" spans="12:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L38" s="7"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="43"/>
+      <c r="V38">
+        <f>2.73+171+99/100+11+122/225+5.25</f>
+        <v>191.51222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -6058,8 +6932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAE874B-EB1A-40E9-945A-ABFDF311093C}">
   <dimension ref="B1:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6081,7 +6955,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.35">
@@ -6096,8 +6970,8 @@
       <c r="B4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="64" t="s">
-        <v>257</v>
+      <c r="C4" s="62" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.35">
@@ -6105,7 +6979,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.35">
@@ -6113,7 +6987,11 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>199</v>
+        <v>384</v>
+      </c>
+      <c r="F6">
+        <f>5800/4352.7</f>
+        <v>1.3325062604819997</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.35">
@@ -6121,7 +6999,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>200</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.35">
@@ -6129,7 +7007,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6137,21 +7015,21 @@
         <v>32</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74"/>
-      <c r="J10" s="72" t="s">
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
+      <c r="J10" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="73"/>
-      <c r="L10" s="74"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="94"/>
     </row>
     <row r="11" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -6186,7 +7064,8 @@
         <v>21</v>
       </c>
       <c r="J12" s="38">
-        <v>1898.3330000000001</v>
+        <f>2480-J13-J14-J15</f>
+        <v>1163.6228888888891</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>137</v>
@@ -6213,10 +7092,10 @@
         <v>137</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="N13" s="49" t="s">
-        <v>214</v>
+        <v>203</v>
+      </c>
+      <c r="N13" s="48" t="s">
+        <v>204</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>25</v>
@@ -6240,7 +7119,7 @@
         <v>137</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="N14" s="5">
         <v>1</v>
@@ -6258,11 +7137,18 @@
         <v>180</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="4"/>
+        <v>195</v>
+      </c>
+      <c r="J15" s="38">
+        <f>734+32/45</f>
+        <v>734.71111111111111</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="N15" s="6">
         <v>2</v>
       </c>
@@ -6288,7 +7174,7 @@
         <v>3</v>
       </c>
       <c r="O16" s="2">
-        <v>620</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6309,7 +7195,7 @@
         <v>4</v>
       </c>
       <c r="O17" s="3">
-        <v>620</v>
+        <v>45.288879999999999</v>
       </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.35">
@@ -6336,7 +7222,7 @@
         <v>180</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="9"/>
@@ -6572,8 +7458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E188AE-32E3-44FC-A747-B6B7B3960AE2}">
   <dimension ref="B1:L44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6594,7 +7480,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="101.5" x14ac:dyDescent="0.35">
@@ -6602,7 +7488,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
@@ -6622,7 +7508,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>220</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -6630,7 +7516,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>221</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -6638,7 +7524,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6646,21 +7532,21 @@
         <v>32</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>223</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74"/>
-      <c r="J10" s="72" t="s">
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
+      <c r="J10" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="73"/>
-      <c r="L10" s="74"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="94"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -6686,7 +7572,7 @@
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C12" s="23"/>
       <c r="E12" s="4" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="F12" s="8">
         <v>485.50555000000003</v>
@@ -6698,7 +7584,7 @@
         <v>5</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>8</v>
@@ -6719,7 +7605,7 @@
         <v>2.5</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>8</v>
@@ -6740,7 +7626,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>8</v>
@@ -6761,7 +7647,7 @@
         <v>2</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>8</v>
@@ -6770,7 +7656,7 @@
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C16" s="23"/>
       <c r="E16" s="2" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="F16" s="9">
         <v>72</v>
@@ -6782,7 +7668,7 @@
         <v>2</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>8</v>
@@ -6803,7 +7689,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>8</v>
@@ -6812,13 +7698,13 @@
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C18" s="23"/>
       <c r="E18" s="2" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F18" s="9">
         <v>392.66660000000002</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="J18" s="38"/>
       <c r="K18" s="9"/>
@@ -6842,7 +7728,7 @@
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C20" s="23"/>
       <c r="E20" s="2" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="F20" s="9">
         <v>72</v>
@@ -6857,13 +7743,13 @@
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C21" s="23"/>
       <c r="E21" s="2" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="F21" s="9">
         <v>515</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="9"/>
@@ -6872,13 +7758,13 @@
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C22" s="23"/>
       <c r="E22" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F22" s="9">
         <v>1.55</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="9"/>
@@ -7088,7 +7974,7 @@
   <dimension ref="B1:L44"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7109,7 +7995,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="58" x14ac:dyDescent="0.35">
@@ -7117,7 +8003,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
@@ -7137,7 +8023,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -7145,7 +8031,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -7153,7 +8039,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7161,21 +8047,21 @@
         <v>32</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74"/>
-      <c r="J10" s="72" t="s">
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
+      <c r="J10" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="73"/>
-      <c r="L10" s="74"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="94"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -7210,7 +8096,7 @@
         <v>33</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="K12" s="8">
         <f>5/8</f>
@@ -7229,10 +8115,10 @@
         <v>138.01249999999999</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="K13" s="9">
         <v>1</v>
@@ -7250,10 +8136,10 @@
         <v>98.243700000000004</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="K14" s="9">
         <v>0.5</v>
@@ -7274,7 +8160,7 @@
         <v>131</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="K15" s="9">
         <v>3.5</v>
@@ -7295,7 +8181,7 @@
         <v>22</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="K16" s="9">
         <v>0.5</v>
@@ -7307,7 +8193,7 @@
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C17" s="23"/>
       <c r="E17" s="2" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F17" s="9">
         <v>110.01</v>
@@ -7328,7 +8214,7 @@
         <v>46</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J18" s="38"/>
       <c r="K18" s="9"/>
@@ -7337,7 +8223,7 @@
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C19" s="23"/>
       <c r="E19" s="2" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="F19" s="9">
         <v>5</v>
@@ -7352,13 +8238,13 @@
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C20" s="23"/>
       <c r="E20" s="2" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="F20" s="9">
         <v>0.5</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="9"/>
@@ -7585,20 +8471,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1FA6DD-AC17-49B1-B5E4-69C720E1D60E}">
   <dimension ref="B1:L47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15:L17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7607,76 +8493,76 @@
       <c r="B2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="66" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="51" t="s">
+      <c r="C2" s="64" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="67" t="s">
-        <v>261</v>
+      <c r="C3" s="65" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="70"/>
+      <c r="C4" s="68"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="66"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>272</v>
+        <v>242</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>273</v>
+        <v>243</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="C8" s="68" t="s">
-        <v>274</v>
+        <v>244</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="C9" s="68" t="s">
-        <v>275</v>
+        <v>245</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="C10" s="68" t="s">
-        <v>276</v>
+        <v>246</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="C11" s="69" t="s">
-        <v>277</v>
+        <v>247</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7684,16 +8570,16 @@
     </row>
     <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C13" s="23"/>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="73"/>
-      <c r="G13" s="74"/>
-      <c r="J13" s="72" t="s">
+      <c r="F13" s="93"/>
+      <c r="G13" s="94"/>
+      <c r="J13" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="73"/>
-      <c r="L13" s="74"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="94"/>
     </row>
     <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C14" s="23"/>
@@ -7719,16 +8605,16 @@
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C15" s="23"/>
       <c r="E15" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F15" s="8">
         <v>2</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="K15" s="8">
         <v>20</v>
@@ -7749,7 +8635,7 @@
         <v>21</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="K16" s="9">
         <v>0.5</v>
@@ -7761,16 +8647,16 @@
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C17" s="23"/>
       <c r="E17" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F17" s="9">
         <v>25</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="K17" s="9">
         <v>0.5</v>
@@ -7788,7 +8674,7 @@
         <v>40.888800000000003</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="J18" s="38"/>
       <c r="K18" s="9"/>
@@ -7803,7 +8689,7 @@
         <v>66.666600000000003</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="J19" s="38"/>
       <c r="K19" s="9"/>
@@ -7818,7 +8704,7 @@
         <v>72.8</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J20" s="38"/>
       <c r="K20" s="9"/>
@@ -8105,16 +8991,16 @@
       <c r="D4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74"/>
-      <c r="K4" s="72" t="s">
+      <c r="G4" s="93"/>
+      <c r="H4" s="94"/>
+      <c r="K4" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="74"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="94"/>
     </row>
     <row r="5" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="17" t="s">
@@ -8487,23 +9373,2441 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918F12F9-7E2B-4B86-8EBD-462FB980EA31}">
+  <dimension ref="B1:AF91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB91" sqref="AB91"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="43.08984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="45" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="2:32" ht="116" x14ac:dyDescent="0.35">
+      <c r="B3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B4" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="68"/>
+    </row>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B5" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B6" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B7" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="8" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B8" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B9" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B10" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B11" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C13" s="23"/>
+    </row>
+    <row r="14" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="23"/>
+      <c r="E14" s="92" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="94"/>
+      <c r="K14" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="93"/>
+      <c r="M14" s="94"/>
+      <c r="O14" s="92" t="s">
+        <v>278</v>
+      </c>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="94"/>
+      <c r="V14" s="92" t="s">
+        <v>289</v>
+      </c>
+      <c r="W14" s="93"/>
+      <c r="X14" s="93"/>
+      <c r="Y14" s="94"/>
+      <c r="AA14" s="77" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB14" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD14" s="78" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE14" s="91" t="s">
+        <v>311</v>
+      </c>
+      <c r="AF14" s="79" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="23"/>
+      <c r="E15" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="117" t="s">
+        <v>279</v>
+      </c>
+      <c r="P15" s="118"/>
+      <c r="Q15" s="115" t="s">
+        <v>280</v>
+      </c>
+      <c r="R15" s="116"/>
+      <c r="S15" s="115" t="s">
+        <v>286</v>
+      </c>
+      <c r="T15" s="116"/>
+      <c r="V15" s="117" t="s">
+        <v>266</v>
+      </c>
+      <c r="W15" s="118"/>
+      <c r="X15" s="117" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y15" s="119"/>
+      <c r="AA15" s="81" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB15" s="89">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="89">
+        <v>0.2</v>
+      </c>
+      <c r="AD15" s="82" t="s">
+        <v>318</v>
+      </c>
+      <c r="AE15" s="82" t="s">
+        <v>320</v>
+      </c>
+      <c r="AF15" s="83" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="23"/>
+      <c r="E16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="8">
+        <v>348.18</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="K16" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="8">
+        <v>741</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="S16" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="V16" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="W16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="X16" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA16" s="84" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB16" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="90">
+        <v>0.2</v>
+      </c>
+      <c r="AD16" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE16" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF16" s="85" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="C17" s="23"/>
+      <c r="E17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="9">
+        <f>186.2622+5.25</f>
+        <v>191.51220000000001</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="K17" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="L17" s="9">
+        <v>101.07</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="38">
+        <f>127+23/40</f>
+        <v>127.575</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q17" s="4">
+        <f>151+157/225</f>
+        <v>151.69777777777779</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="S17" s="4">
+        <v>240</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="V17" s="44">
+        <v>170.1</v>
+      </c>
+      <c r="W17" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="X17" s="44">
+        <f>158+22/75</f>
+        <v>158.29333333333332</v>
+      </c>
+      <c r="Y17" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA17" s="84" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB17" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="90">
+        <v>0.2</v>
+      </c>
+      <c r="AD17" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE17" s="80" t="s">
+        <v>331</v>
+      </c>
+      <c r="AF17" s="85" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="C18" s="23"/>
+      <c r="E18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="9">
+        <f>79+19/50+23+19/255</f>
+        <v>102.45450980392157</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="K18" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="L18" s="9">
+        <v>11.52</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="11">
+        <f>125+29/50</f>
+        <v>125.58</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q18" s="2">
+        <f>148+2/5</f>
+        <v>148.4</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="S18" s="2">
+        <v>160</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V18" s="11">
+        <f>43+131/135</f>
+        <v>43.970370370370368</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="2"/>
+      <c r="AA18" s="84" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB18" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="90">
+        <v>0.3</v>
+      </c>
+      <c r="AD18" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE18" s="80" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF18" s="85" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="C19" s="23"/>
+      <c r="E19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="9">
+        <v>146.3777</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="K19" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="L19" s="9">
+        <v>10</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O19" s="11">
+        <v>2.73</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>226.8</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="2"/>
+      <c r="AA19" s="84" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB19" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="90">
+        <v>0.3</v>
+      </c>
+      <c r="AD19" s="80" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE19" s="80" t="s">
+        <v>358</v>
+      </c>
+      <c r="AF19" s="85" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="C20" s="23"/>
+      <c r="E20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="9">
+        <v>153.09</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="K20" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="L20" s="9">
+        <v>5</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="11">
+        <f>116+92/1125</f>
+        <v>116.08177777777777</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="2"/>
+      <c r="AA20" s="84" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB20" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="90">
+        <v>0.4</v>
+      </c>
+      <c r="AD20" s="80" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE20" s="80" t="s">
+        <v>356</v>
+      </c>
+      <c r="AF20" s="85" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="C21" s="23"/>
+      <c r="E21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="9">
+        <f>V17+V18</f>
+        <v>214.07037037037037</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="L21" s="9">
+        <v>4.95</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="11">
+        <f>72+124/225</f>
+        <v>72.551111111111112</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="2"/>
+      <c r="AA21" s="84" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB21" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="90">
+        <v>0.6</v>
+      </c>
+      <c r="AD21" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE21" s="80" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF21" s="85" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="C22" s="23"/>
+      <c r="E22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="9">
+        <f>226.8+29+71/72</f>
+        <v>256.7861111111111</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="K22" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="L22" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="2"/>
+      <c r="AA22" s="84" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB22" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="90">
+        <v>0.7</v>
+      </c>
+      <c r="AD22" s="80" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE22" s="80" t="s">
+        <v>357</v>
+      </c>
+      <c r="AF22" s="85" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C23" s="23"/>
+      <c r="E23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="9">
+        <f>628+1243/3645</f>
+        <v>628.34101508916319</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="K23" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="L23" s="9">
+        <v>2.73</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="74"/>
+      <c r="Y23" s="72"/>
+      <c r="AA23" s="84" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB23" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="90">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="80" t="s">
+        <v>318</v>
+      </c>
+      <c r="AE23" s="80" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF23" s="85" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C24" s="23"/>
+      <c r="E24" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F24" s="9">
+        <f>174+46/375</f>
+        <v>174.12266666666667</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="K24" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="L24" s="9">
+        <v>2.73</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
+      <c r="V24" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="W24" s="76">
+        <f>SUM(V17:V18)</f>
+        <v>214.07037037037037</v>
+      </c>
+      <c r="X24" s="75" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y24" s="76">
+        <f>SUM(X17:X23)</f>
+        <v>158.29333333333332</v>
+      </c>
+      <c r="AA24" s="84" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB24" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="90">
+        <v>1.2</v>
+      </c>
+      <c r="AD24" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE24" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF24" s="85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="23"/>
+      <c r="E25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="9">
+        <f>72+124/225</f>
+        <v>72.551111111111112</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="K25" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="L25" s="9">
+        <v>1.54</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="P25" s="73">
+        <f>SUM(O17:O24)</f>
+        <v>444.51788888888893</v>
+      </c>
+      <c r="Q25" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="R25" s="73">
+        <f>SUM(Q17:Q24)</f>
+        <v>526.89777777777772</v>
+      </c>
+      <c r="S25" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="T25" s="73">
+        <f>SUM(S17:S24)</f>
+        <v>400</v>
+      </c>
+      <c r="V25" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="W25" s="112">
+        <f>W24+Y24</f>
+        <v>372.36370370370366</v>
+      </c>
+      <c r="X25" s="113"/>
+      <c r="Y25" s="114"/>
+      <c r="AA25" s="84" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB25" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="90">
+        <v>1.6</v>
+      </c>
+      <c r="AD25" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE25" s="80" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF25" s="85" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="23"/>
+      <c r="E26" s="70" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="38">
+        <f>734+32/45</f>
+        <v>734.71111111111111</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="K26" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="L26" s="9">
+        <v>1</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="P26" s="71">
+        <f>P25/600</f>
+        <v>0.74086314814814824</v>
+      </c>
+      <c r="Q26" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="R26" s="71">
+        <f>R25/600</f>
+        <v>0.87816296296296281</v>
+      </c>
+      <c r="S26" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="T26" s="71">
+        <f>T25/600</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AA26" s="84" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB26" s="90">
+        <v>2</v>
+      </c>
+      <c r="AC26" s="90">
+        <v>2.7</v>
+      </c>
+      <c r="AD26" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE26" s="80" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF26" s="85" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="C27" s="23"/>
+      <c r="E27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="9">
+        <f>479+73/600</f>
+        <v>479.12166666666667</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="K27" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA27" s="84" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB27" s="90">
+        <v>4</v>
+      </c>
+      <c r="AC27" s="90">
+        <v>2.8</v>
+      </c>
+      <c r="AD27" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE27" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF27" s="85" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="C28" s="23"/>
+      <c r="E28" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F28" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="K28" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="L28" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA28" s="84" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB28" s="90">
+        <v>12</v>
+      </c>
+      <c r="AC28" s="90">
+        <v>3.2</v>
+      </c>
+      <c r="AD28" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE28" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF28" s="85" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="C29" s="23"/>
+      <c r="E29" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F29" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="4"/>
+      <c r="AA29" s="84" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB29" s="90">
+        <v>3</v>
+      </c>
+      <c r="AC29" s="90">
+        <v>3.3</v>
+      </c>
+      <c r="AD29" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE29" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF29" s="85" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="C30" s="23"/>
+      <c r="E30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="9">
+        <v>1360.11733</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="4"/>
+      <c r="AA30" s="84" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB30" s="90">
+        <v>14</v>
+      </c>
+      <c r="AC30" s="90">
+        <v>3.4</v>
+      </c>
+      <c r="AD30" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE30" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF30" s="85" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="C31" s="23"/>
+      <c r="E31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="9">
+        <f>X17</f>
+        <v>158.29333333333332</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="K31" s="11"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="4"/>
+      <c r="AA31" s="84" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB31" s="90">
+        <v>16</v>
+      </c>
+      <c r="AC31" s="90">
+        <v>3.7</v>
+      </c>
+      <c r="AD31" s="80" t="s">
+        <v>318</v>
+      </c>
+      <c r="AE31" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF31" s="85" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="C32" s="23"/>
+      <c r="E32" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F32" s="9">
+        <v>480</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="4"/>
+      <c r="AA32" s="84" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB32" s="90">
+        <v>4</v>
+      </c>
+      <c r="AC32" s="90">
+        <v>3.7</v>
+      </c>
+      <c r="AD32" s="80" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE32" s="80" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF32" s="85" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="C33" s="23"/>
+      <c r="E33" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F33" s="9">
+        <v>240</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="4"/>
+      <c r="AA33" s="84" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB33" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="90">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AD33" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE33" s="80" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF33" s="85" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="34" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="C34" s="23"/>
+      <c r="E34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="9">
+        <f>14727+1247/3000</f>
+        <v>14727.415666666666</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="2"/>
+      <c r="AA34" s="84" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB34" s="90">
+        <v>8</v>
+      </c>
+      <c r="AC34" s="90">
+        <v>10.6</v>
+      </c>
+      <c r="AD34" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE34" s="80" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF34" s="85" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="C35" s="23"/>
+      <c r="E35" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F35" s="9">
+        <f>1050+13/15</f>
+        <v>1050.8666666666666</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="2"/>
+      <c r="AA35" s="84" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB35" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="90">
+        <v>11.2</v>
+      </c>
+      <c r="AD35" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE35" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF35" s="85" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="36" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="C36" s="23"/>
+      <c r="E36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="9">
+        <v>300</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="2"/>
+      <c r="AA36" s="84" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB36" s="90">
+        <v>6</v>
+      </c>
+      <c r="AC36" s="90">
+        <v>11.3</v>
+      </c>
+      <c r="AD36" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE36" s="80" t="s">
+        <v>312</v>
+      </c>
+      <c r="AF36" s="85" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="C37" s="23"/>
+      <c r="E37" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F37" s="9">
+        <v>6.34</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="2"/>
+      <c r="AA37" s="84" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB37" s="90">
+        <v>5</v>
+      </c>
+      <c r="AC37" s="90">
+        <v>11.6</v>
+      </c>
+      <c r="AD37" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE37" s="80" t="s">
+        <v>350</v>
+      </c>
+      <c r="AF37" s="85" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="38" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="E38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="9">
+        <v>600</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="2"/>
+      <c r="AA38" s="84" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB38" s="90">
+        <v>12</v>
+      </c>
+      <c r="AC38" s="90">
+        <v>11.6</v>
+      </c>
+      <c r="AD38" s="80" t="s">
+        <v>363</v>
+      </c>
+      <c r="AE38" s="80" t="s">
+        <v>354</v>
+      </c>
+      <c r="AF38" s="85" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="39" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="E39" s="2"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="2"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="2"/>
+      <c r="AA39" s="84" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB39" s="90">
+        <v>4</v>
+      </c>
+      <c r="AC39" s="90">
+        <v>11.7</v>
+      </c>
+      <c r="AD39" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE39" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF39" s="85" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="40" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="E40" s="2"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="2"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="2"/>
+      <c r="AA40" s="84" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB40" s="90">
+        <v>4</v>
+      </c>
+      <c r="AC40" s="90">
+        <v>12.7</v>
+      </c>
+      <c r="AD40" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE40" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF40" s="85" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="E41" s="2"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="2"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="2"/>
+      <c r="AA41" s="84" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB41" s="90">
+        <v>12</v>
+      </c>
+      <c r="AC41" s="90">
+        <v>12.7</v>
+      </c>
+      <c r="AD41" s="80" t="s">
+        <v>318</v>
+      </c>
+      <c r="AE41" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF41" s="85" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="E42" s="2"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="2"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="2"/>
+      <c r="AA42" s="84" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB42" s="90">
+        <v>5</v>
+      </c>
+      <c r="AC42" s="90">
+        <v>12.7</v>
+      </c>
+      <c r="AD42" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE42" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF42" s="85" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="43" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="E43" s="2"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="2"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="2"/>
+      <c r="AA43" s="84" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB43" s="90">
+        <v>4</v>
+      </c>
+      <c r="AC43" s="90">
+        <v>12.9</v>
+      </c>
+      <c r="AD43" s="80" t="s">
+        <v>318</v>
+      </c>
+      <c r="AE43" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF43" s="85" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="E44" s="2"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="2"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="2"/>
+      <c r="AA44" s="84" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB44" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="90">
+        <v>13.5</v>
+      </c>
+      <c r="AD44" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE44" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF44" s="85" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="E45" s="2"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="2"/>
+      <c r="AA45" s="84" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB45" s="90">
+        <v>10</v>
+      </c>
+      <c r="AC45" s="90">
+        <v>13.9</v>
+      </c>
+      <c r="AD45" s="80" t="s">
+        <v>318</v>
+      </c>
+      <c r="AE45" s="80" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF45" s="85" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="46" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="E46" s="2"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="2"/>
+      <c r="AA46" s="84" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB46" s="90">
+        <v>8</v>
+      </c>
+      <c r="AC46" s="90">
+        <v>13.9</v>
+      </c>
+      <c r="AD46" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE46" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF46" s="85" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="E47" s="2"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="2"/>
+      <c r="AA47" s="84" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB47" s="90">
+        <v>28</v>
+      </c>
+      <c r="AC47" s="90">
+        <v>14.1</v>
+      </c>
+      <c r="AD47" s="80" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE47" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF47" s="85" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="48" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E48" s="3"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="3"/>
+      <c r="AA48" s="84" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB48" s="90">
+        <v>5</v>
+      </c>
+      <c r="AC48" s="90">
+        <v>14.8</v>
+      </c>
+      <c r="AD48" s="80" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE48" s="80" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF48" s="85" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="49" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA49" s="84" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB49" s="90">
+        <v>8</v>
+      </c>
+      <c r="AC49" s="90">
+        <v>15</v>
+      </c>
+      <c r="AD49" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE49" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF49" s="85" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="50" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA50" s="84" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB50" s="90">
+        <v>2</v>
+      </c>
+      <c r="AC50" s="90">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="AD50" s="80" t="s">
+        <v>318</v>
+      </c>
+      <c r="AE50" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF50" s="85" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA51" s="84" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB51" s="90">
+        <v>6</v>
+      </c>
+      <c r="AC51" s="90">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="AD51" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE51" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF51" s="85" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="52" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA52" s="84" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB52" s="90">
+        <v>2</v>
+      </c>
+      <c r="AC52" s="90">
+        <v>20.2</v>
+      </c>
+      <c r="AD52" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE52" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF52" s="85" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="53" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA53" s="84" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB53" s="90">
+        <v>2</v>
+      </c>
+      <c r="AC53" s="90">
+        <v>20.8</v>
+      </c>
+      <c r="AD53" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE53" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF53" s="85" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA54" s="84" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB54" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC54" s="90">
+        <v>22</v>
+      </c>
+      <c r="AD54" s="80" t="s">
+        <v>363</v>
+      </c>
+      <c r="AE54" s="80" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF54" s="85" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="55" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA55" s="84" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB55" s="90">
+        <v>4</v>
+      </c>
+      <c r="AC55" s="90">
+        <v>22.6</v>
+      </c>
+      <c r="AD55" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE55" s="80" t="s">
+        <v>283</v>
+      </c>
+      <c r="AF55" s="85" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA56" s="84" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB56" s="90">
+        <v>3</v>
+      </c>
+      <c r="AC56" s="90">
+        <v>23</v>
+      </c>
+      <c r="AD56" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE56" s="80" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF56" s="85" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA57" s="84" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB57" s="90">
+        <v>6</v>
+      </c>
+      <c r="AC57" s="90">
+        <v>23.2</v>
+      </c>
+      <c r="AD57" s="80" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE57" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF57" s="85" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA58" s="84" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB58" s="90">
+        <v>6</v>
+      </c>
+      <c r="AC58" s="90">
+        <v>23.9</v>
+      </c>
+      <c r="AD58" s="80" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE58" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF58" s="85" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="59" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA59" s="84" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB59" s="90">
+        <v>5</v>
+      </c>
+      <c r="AC59" s="90">
+        <v>25.7</v>
+      </c>
+      <c r="AD59" s="80" t="s">
+        <v>363</v>
+      </c>
+      <c r="AE59" s="80" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF59" s="85" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="60" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA60" s="84" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB60" s="90">
+        <v>12</v>
+      </c>
+      <c r="AC60" s="90">
+        <v>28.7</v>
+      </c>
+      <c r="AD60" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE60" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF60" s="85" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="61" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA61" s="84" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB61" s="90">
+        <v>5</v>
+      </c>
+      <c r="AC61" s="90">
+        <v>30</v>
+      </c>
+      <c r="AD61" s="80" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE61" s="80" t="s">
+        <v>335</v>
+      </c>
+      <c r="AF61" s="85" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="62" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA62" s="84" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB62" s="90">
+        <v>10</v>
+      </c>
+      <c r="AC62" s="90">
+        <v>30</v>
+      </c>
+      <c r="AD62" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE62" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF62" s="85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA63" s="84" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB63" s="90">
+        <v>16</v>
+      </c>
+      <c r="AC63" s="90">
+        <v>30</v>
+      </c>
+      <c r="AD63" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE63" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF63" s="85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA64" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB64" s="90">
+        <v>80</v>
+      </c>
+      <c r="AC64" s="90">
+        <v>30.9</v>
+      </c>
+      <c r="AD64" s="80" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE64" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF64" s="85" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="65" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA65" s="84" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB65" s="90">
+        <v>3</v>
+      </c>
+      <c r="AC65" s="90">
+        <v>36.5</v>
+      </c>
+      <c r="AD65" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE65" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF65" s="85" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="66" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA66" s="84" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB66" s="90">
+        <v>8</v>
+      </c>
+      <c r="AC66" s="90">
+        <v>38</v>
+      </c>
+      <c r="AD66" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE66" s="80" t="s">
+        <v>315</v>
+      </c>
+      <c r="AF66" s="85" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="67" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA67" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB67" s="90">
+        <v>2</v>
+      </c>
+      <c r="AC67" s="90">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="AD67" s="80" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE67" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF67" s="85" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="68" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA68" s="84" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB68" s="90">
+        <v>24</v>
+      </c>
+      <c r="AC68" s="90">
+        <v>41</v>
+      </c>
+      <c r="AD68" s="80" t="s">
+        <v>363</v>
+      </c>
+      <c r="AE68" s="80" t="s">
+        <v>368</v>
+      </c>
+      <c r="AF68" s="85" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="69" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA69" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB69" s="90">
+        <v>2</v>
+      </c>
+      <c r="AC69" s="90">
+        <v>45.2</v>
+      </c>
+      <c r="AD69" s="80" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE69" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF69" s="85" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="70" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA70" s="84" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB70" s="90">
+        <v>2</v>
+      </c>
+      <c r="AC70" s="90">
+        <v>46.4</v>
+      </c>
+      <c r="AD70" s="80" t="s">
+        <v>318</v>
+      </c>
+      <c r="AE70" s="80" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF70" s="85" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA71" s="84" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB71" s="90">
+        <v>2</v>
+      </c>
+      <c r="AC71" s="90">
+        <v>46.4</v>
+      </c>
+      <c r="AD71" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE71" s="80" t="s">
+        <v>348</v>
+      </c>
+      <c r="AF71" s="85" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="72" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA72" s="84" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB72" s="90">
+        <v>4</v>
+      </c>
+      <c r="AC72" s="90">
+        <v>48.5</v>
+      </c>
+      <c r="AD72" s="80" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE72" s="80" t="s">
+        <v>351</v>
+      </c>
+      <c r="AF72" s="85" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="73" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA73" s="84" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB73" s="90">
+        <v>20</v>
+      </c>
+      <c r="AC73" s="90">
+        <v>51</v>
+      </c>
+      <c r="AD73" s="80" t="s">
+        <v>363</v>
+      </c>
+      <c r="AE73" s="80" t="s">
+        <v>366</v>
+      </c>
+      <c r="AF73" s="85" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="74" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA74" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB74" s="90">
+        <v>2</v>
+      </c>
+      <c r="AC74" s="90">
+        <v>56.6</v>
+      </c>
+      <c r="AD74" s="80" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE74" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF74" s="85" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="75" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA75" s="84" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB75" s="90">
+        <v>8</v>
+      </c>
+      <c r="AC75" s="90">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="AD75" s="80" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE75" s="80" t="s">
+        <v>287</v>
+      </c>
+      <c r="AF75" s="85" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="76" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA76" s="84" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB76" s="90">
+        <v>15</v>
+      </c>
+      <c r="AC76" s="90">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="AD76" s="80" t="s">
+        <v>363</v>
+      </c>
+      <c r="AE76" s="80" t="s">
+        <v>364</v>
+      </c>
+      <c r="AF76" s="85" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="77" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA77" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB77" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC77" s="90">
+        <v>112.5</v>
+      </c>
+      <c r="AD77" s="80" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE77" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF77" s="85" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA78" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB78" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC78" s="90">
+        <v>118.7</v>
+      </c>
+      <c r="AD78" s="80" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE78" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF78" s="85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA79" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB79" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC79" s="90">
+        <v>118.7</v>
+      </c>
+      <c r="AD79" s="80" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE79" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF79" s="85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA80" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB80" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC80" s="90">
+        <v>134.30000000000001</v>
+      </c>
+      <c r="AD80" s="80" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE80" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF80" s="85" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA81" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB81" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC81" s="90">
+        <v>151.1</v>
+      </c>
+      <c r="AD81" s="80" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE81" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF81" s="85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA82" s="84"/>
+      <c r="AB82" s="90"/>
+      <c r="AC82" s="90"/>
+      <c r="AD82" s="80"/>
+      <c r="AE82" s="80"/>
+      <c r="AF82" s="85"/>
+    </row>
+    <row r="83" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA83" s="84"/>
+      <c r="AB83" s="90"/>
+      <c r="AC83" s="90"/>
+      <c r="AD83" s="80"/>
+      <c r="AE83" s="80"/>
+      <c r="AF83" s="85"/>
+    </row>
+    <row r="84" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA84" s="84"/>
+      <c r="AB84" s="80"/>
+      <c r="AC84" s="80"/>
+      <c r="AD84" s="80"/>
+      <c r="AE84" s="80"/>
+      <c r="AF84" s="85"/>
+    </row>
+    <row r="85" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA85" s="84" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB85" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC85" s="90" t="s">
+        <v>337</v>
+      </c>
+      <c r="AD85" s="80" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE85" s="80" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF85" s="85" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="86" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA86" s="84" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB86" s="90">
+        <v>2</v>
+      </c>
+      <c r="AC86" s="90" t="s">
+        <v>341</v>
+      </c>
+      <c r="AD86" s="80" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE86" s="80" t="s">
+        <v>342</v>
+      </c>
+      <c r="AF86" s="85" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="87" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA87" s="84" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB87" s="90">
+        <v>12</v>
+      </c>
+      <c r="AC87" s="80" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD87" s="80" t="s">
+        <v>363</v>
+      </c>
+      <c r="AE87" s="80" t="s">
+        <v>365</v>
+      </c>
+      <c r="AF87" s="85" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="88" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA88" s="84" t="s">
+        <v>378</v>
+      </c>
+      <c r="AB88" s="90">
+        <v>24</v>
+      </c>
+      <c r="AC88" s="80">
+        <v>1</v>
+      </c>
+      <c r="AD88" s="80"/>
+      <c r="AE88" s="80"/>
+      <c r="AF88" s="85"/>
+    </row>
+    <row r="89" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA89" s="84"/>
+      <c r="AB89" s="80"/>
+      <c r="AC89" s="80"/>
+      <c r="AD89" s="80"/>
+      <c r="AE89" s="80"/>
+      <c r="AF89" s="85"/>
+    </row>
+    <row r="90" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA90" s="84"/>
+      <c r="AB90" s="80">
+        <f>SUM(AB15:AB87)</f>
+        <v>460</v>
+      </c>
+      <c r="AC90" s="80"/>
+      <c r="AD90" s="80"/>
+      <c r="AE90" s="80"/>
+      <c r="AF90" s="85"/>
+    </row>
+    <row r="91" spans="27:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AA91" s="86"/>
+      <c r="AB91" s="87"/>
+      <c r="AC91" s="87"/>
+      <c r="AD91" s="87"/>
+      <c r="AE91" s="87"/>
+      <c r="AF91" s="88"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K16:M28">
+    <sortCondition descending="1" ref="L16:L28"/>
+  </sortState>
+  <mergeCells count="10">
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="O14:T14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="V14:Y14"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A244D34F-6552-48EC-88C9-9BCAF12F75CF}">
   <dimension ref="C3:U1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N66" sqref="N66"/>
+    <sheetView topLeftCell="I6" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6328125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="27.54296875" style="23" customWidth="1"/>
     <col min="6" max="6" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" customWidth="1"/>
     <col min="11" max="11" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" customWidth="1"/>
     <col min="13" max="13" width="27" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.90625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.7265625" customWidth="1"/>
@@ -8526,12 +11830,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="3:21" ht="74" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:21" ht="88" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="3:21" x14ac:dyDescent="0.35">
@@ -8576,17 +11880,17 @@
     </row>
     <row r="12" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="73"/>
-      <c r="H13" s="74"/>
-      <c r="K13" s="72" t="s">
+      <c r="G13" s="93"/>
+      <c r="H13" s="94"/>
+      <c r="K13" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="74"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="94"/>
     </row>
     <row r="14" spans="3:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F14" s="14" t="s">
@@ -8610,14 +11914,14 @@
       <c r="N14" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="P14" s="75" t="s">
+      <c r="P14" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="75"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="75"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="95"/>
     </row>
     <row r="15" spans="3:21" x14ac:dyDescent="0.35">
       <c r="F15" s="4" t="s">
@@ -8633,18 +11937,19 @@
         <v>35</v>
       </c>
       <c r="L15" s="8">
-        <v>1837.835</v>
+        <f>3342+6/7-L16-L17-L18-L19-L20-L21-L22-L23</f>
+        <v>1200.1281277679795</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="N15" s="19"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="75"/>
-      <c r="S15" s="75"/>
-      <c r="T15" s="75"/>
-      <c r="U15" s="75"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="95"/>
+      <c r="U15" s="95"/>
     </row>
     <row r="16" spans="3:21" x14ac:dyDescent="0.35">
       <c r="F16" s="2" t="s">
@@ -8668,12 +11973,12 @@
       <c r="N16" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="75"/>
-      <c r="S16" s="75"/>
-      <c r="T16" s="75"/>
-      <c r="U16" s="75"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="95"/>
+      <c r="U16" s="95"/>
     </row>
     <row r="17" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F17" s="2"/>
@@ -8691,12 +11996,12 @@
       <c r="N17" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="75"/>
-      <c r="T17" s="75"/>
-      <c r="U17" s="75"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="95"/>
     </row>
     <row r="18" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F18" s="2"/>
@@ -8743,17 +12048,17 @@
         <v>150</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="P20" s="76" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="76"/>
+      <c r="P20" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="96"/>
+      <c r="S20" s="96"/>
+      <c r="T20" s="96"/>
+      <c r="U20" s="96"/>
     </row>
     <row r="21" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F21" s="2"/>
@@ -8766,7 +12071,7 @@
         <v>12.013</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="N21" s="2"/>
     </row>
@@ -8774,33 +12079,47 @@
       <c r="F22" s="2"/>
       <c r="G22" s="9"/>
       <c r="H22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="2"/>
+      <c r="K22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="9">
+        <f>9+3/8</f>
+        <v>9.375</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="N22" s="2"/>
-      <c r="P22" s="75" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="75"/>
-      <c r="S22" s="75"/>
-      <c r="T22" s="75"/>
-      <c r="U22" s="75"/>
+      <c r="P22" s="95" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="95"/>
+      <c r="U22" s="95"/>
     </row>
     <row r="23" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F23" s="2"/>
       <c r="G23" s="9"/>
       <c r="H23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="2"/>
+      <c r="K23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23">
+        <f>628+1243/3645</f>
+        <v>628.34101508916319</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="N23" s="2"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="75"/>
-      <c r="S23" s="75"/>
-      <c r="T23" s="75"/>
-      <c r="U23" s="75"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="95"/>
+      <c r="U23" s="95"/>
     </row>
     <row r="24" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F24" s="2"/>
@@ -8810,12 +12129,12 @@
       <c r="L24" s="9"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="75"/>
-      <c r="S24" s="75"/>
-      <c r="T24" s="75"/>
-      <c r="U24" s="75"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="95"/>
+      <c r="U24" s="95"/>
     </row>
     <row r="25" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F25" s="2"/>
@@ -8825,12 +12144,12 @@
       <c r="L25" s="9"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="75"/>
-      <c r="R25" s="75"/>
-      <c r="S25" s="75"/>
-      <c r="T25" s="75"/>
-      <c r="U25" s="75"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="95"/>
+      <c r="U25" s="95"/>
     </row>
     <row r="26" spans="6:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F26" s="2"/>
@@ -8840,14 +12159,14 @@
       <c r="L26" s="9"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="P26" s="75" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="75"/>
-      <c r="T26" s="75"/>
-      <c r="U26" s="75"/>
+      <c r="P26" s="95" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="95"/>
+      <c r="U26" s="95"/>
     </row>
     <row r="27" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F27" s="2"/>
@@ -8857,12 +12176,12 @@
       <c r="L27" s="9"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="75"/>
-      <c r="T27" s="75"/>
-      <c r="U27" s="75"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="95"/>
+      <c r="U27" s="95"/>
     </row>
     <row r="28" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F28" s="2"/>
@@ -8872,12 +12191,12 @@
       <c r="L28" s="9"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="75"/>
-      <c r="R28" s="75"/>
-      <c r="S28" s="75"/>
-      <c r="T28" s="75"/>
-      <c r="U28" s="75"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="95"/>
+      <c r="U28" s="95"/>
     </row>
     <row r="29" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F29" s="2"/>
@@ -8887,12 +12206,12 @@
       <c r="L29" s="9"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="75"/>
-      <c r="R29" s="75"/>
-      <c r="S29" s="75"/>
-      <c r="T29" s="75"/>
-      <c r="U29" s="75"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="95"/>
+      <c r="U29" s="95"/>
     </row>
     <row r="30" spans="6:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F30" s="2"/>
@@ -8902,14 +12221,14 @@
       <c r="L30" s="9"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="P30" s="75" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q30" s="75"/>
-      <c r="R30" s="75"/>
-      <c r="S30" s="75"/>
-      <c r="T30" s="75"/>
-      <c r="U30" s="75"/>
+      <c r="P30" s="95" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="95"/>
+      <c r="T30" s="95"/>
+      <c r="U30" s="95"/>
     </row>
     <row r="31" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F31" s="2"/>
@@ -8919,12 +12238,12 @@
       <c r="L31" s="9"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="75"/>
-      <c r="R31" s="75"/>
-      <c r="S31" s="75"/>
-      <c r="T31" s="75"/>
-      <c r="U31" s="75"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="95"/>
+      <c r="U31" s="95"/>
     </row>
     <row r="32" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F32" s="2"/>
@@ -8934,12 +12253,12 @@
       <c r="L32" s="9"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-      <c r="P32" s="75"/>
-      <c r="Q32" s="75"/>
-      <c r="R32" s="75"/>
-      <c r="S32" s="75"/>
-      <c r="T32" s="75"/>
-      <c r="U32" s="75"/>
+      <c r="P32" s="95"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="95"/>
+      <c r="U32" s="95"/>
     </row>
     <row r="33" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F33" s="2"/>
@@ -8949,12 +12268,12 @@
       <c r="L33" s="9"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="P33" s="75"/>
-      <c r="Q33" s="75"/>
-      <c r="R33" s="75"/>
-      <c r="S33" s="75"/>
-      <c r="T33" s="75"/>
-      <c r="U33" s="75"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="95"/>
+      <c r="U33" s="95"/>
     </row>
     <row r="34" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F34" s="2"/>
@@ -9101,10 +12420,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1350C4-6C4D-4B59-A3BC-5B1F652DB40B}">
-  <dimension ref="B1:O48"/>
+  <dimension ref="B1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9137,12 +12456,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
@@ -9158,7 +12477,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -9166,7 +12485,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -9182,7 +12501,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9190,16 +12509,16 @@
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
-      <c r="J11" s="72" t="s">
+      <c r="F11" s="93"/>
+      <c r="G11" s="94"/>
+      <c r="J11" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="73"/>
-      <c r="L11" s="74"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="94"/>
     </row>
     <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="23"/>
@@ -9237,7 +12556,7 @@
         <v>53</v>
       </c>
       <c r="K13" s="8">
-        <v>7.0670000000000002</v>
+        <v>4.5670000000000002</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>8</v>
@@ -9291,7 +12610,7 @@
         <v>158.333</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
@@ -9306,7 +12625,7 @@
         <v>9.6</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
@@ -9321,7 +12640,7 @@
         <v>72</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
@@ -9336,7 +12655,7 @@
         <v>5</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
@@ -9344,9 +12663,15 @@
       <c r="E20" s="2"/>
       <c r="F20" s="9"/>
       <c r="G20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C21" s="23"/>
@@ -9456,7 +12781,7 @@
       <c r="K32" s="9"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C33" s="23"/>
       <c r="E33" s="2"/>
       <c r="F33" s="9"/>
@@ -9465,7 +12790,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C34" s="23"/>
       <c r="E34" s="2"/>
       <c r="F34" s="9"/>
@@ -9474,7 +12799,7 @@
       <c r="K34" s="9"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C35" s="23"/>
       <c r="E35" s="2"/>
       <c r="F35" s="9"/>
@@ -9483,7 +12808,7 @@
       <c r="K35" s="9"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C36" s="23"/>
       <c r="E36" s="2"/>
       <c r="F36" s="9"/>
@@ -9492,7 +12817,7 @@
       <c r="K36" s="9"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E37" s="2"/>
       <c r="F37" s="9"/>
       <c r="G37" s="2"/>
@@ -9500,7 +12825,7 @@
       <c r="K37" s="9"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E38" s="2"/>
       <c r="F38" s="9"/>
       <c r="G38" s="2"/>
@@ -9508,7 +12833,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E39" s="2"/>
       <c r="F39" s="9"/>
       <c r="G39" s="2"/>
@@ -9516,7 +12841,7 @@
       <c r="K39" s="9"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E40" s="2"/>
       <c r="F40" s="9"/>
       <c r="G40" s="2"/>
@@ -9524,7 +12849,7 @@
       <c r="K40" s="9"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E41" s="2"/>
       <c r="F41" s="9"/>
       <c r="G41" s="2"/>
@@ -9532,7 +12857,7 @@
       <c r="K41" s="9"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E42" s="2"/>
       <c r="F42" s="9"/>
       <c r="G42" s="2"/>
@@ -9540,7 +12865,7 @@
       <c r="K42" s="9"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E43" s="2"/>
       <c r="F43" s="9"/>
       <c r="G43" s="2"/>
@@ -9548,7 +12873,7 @@
       <c r="K43" s="9"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E44" s="2"/>
       <c r="F44" s="9"/>
       <c r="G44" s="2"/>
@@ -9556,18 +12881,13 @@
       <c r="K44" s="9"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E45" s="3"/>
       <c r="F45" s="10"/>
       <c r="G45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="10"/>
       <c r="L45" s="3"/>
-    </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="O48" t="s">
-        <v>218</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9582,8 +12902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD23EB3-FE0B-4D28-A04E-DA4ABD2C8717}">
   <dimension ref="B1:T45"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9618,12 +12938,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:20" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.35">
@@ -9671,17 +12991,17 @@
     </row>
     <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
-      <c r="J11" s="72" t="s">
+      <c r="F11" s="93"/>
+      <c r="G11" s="94"/>
+      <c r="J11" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="74"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="94"/>
     </row>
     <row r="12" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="23"/>
@@ -9706,14 +13026,14 @@
       <c r="M12" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="O12" s="75" t="s">
+      <c r="O12" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="75"/>
-      <c r="T12" s="75"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="95"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C13" s="23"/>
@@ -9730,19 +13050,19 @@
         <v>43</v>
       </c>
       <c r="K13" s="8">
-        <f>2250-K14-K15-K16-K17-K18-K19</f>
-        <v>356.47699999999969</v>
+        <f>2250-K14-K15-K16-K17-K18-K19-K20</f>
+        <v>99.690888888888594</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>25</v>
       </c>
       <c r="M13" s="19"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="75"/>
-      <c r="T13" s="75"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C14" s="23"/>
@@ -9767,12 +13087,12 @@
       <c r="M14" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="75"/>
-      <c r="T14" s="75"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="95"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C15" s="23"/>
@@ -9791,12 +13111,12 @@
       <c r="M15" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="75"/>
-      <c r="S15" s="75"/>
-      <c r="T15" s="75"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="95"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C16" s="23"/>
@@ -9815,14 +13135,14 @@
       <c r="M16" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="O16" s="75" t="s">
+      <c r="O16" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="75"/>
-      <c r="S16" s="75"/>
-      <c r="T16" s="75"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="95"/>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C17" s="23"/>
@@ -9841,12 +13161,12 @@
       <c r="M17" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="75"/>
-      <c r="T17" s="75"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C18" s="23"/>
@@ -9860,15 +13180,15 @@
         <v>1272.67</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="75"/>
-      <c r="T18" s="75"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="95"/>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C19" s="23"/>
@@ -9876,30 +13196,37 @@
       <c r="F19" s="9"/>
       <c r="G19" s="2"/>
       <c r="J19" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K19" s="9">
         <v>13.2</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="75"/>
-      <c r="S19" s="75"/>
-      <c r="T19" s="75"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="95"/>
     </row>
     <row r="20" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C20" s="23"/>
       <c r="E20" s="2"/>
       <c r="F20" s="9"/>
       <c r="G20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="6"/>
+      <c r="J20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="9">
+        <f>226.8+29+71/72</f>
+        <v>256.7861111111111</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>259</v>
+      </c>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.35">
@@ -9911,14 +13238,14 @@
       <c r="K21" s="9"/>
       <c r="L21" s="6"/>
       <c r="M21" s="2"/>
-      <c r="O21" s="76" t="s">
-        <v>150</v>
-      </c>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="76"/>
-      <c r="R21" s="76"/>
-      <c r="S21" s="76"/>
-      <c r="T21" s="76"/>
+      <c r="O21" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="96"/>
+      <c r="R21" s="96"/>
+      <c r="S21" s="96"/>
+      <c r="T21" s="96"/>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C22" s="23"/>
@@ -9939,14 +13266,14 @@
       <c r="K23" s="9"/>
       <c r="L23" s="6"/>
       <c r="M23" s="2"/>
-      <c r="O23" s="75" t="s">
-        <v>178</v>
-      </c>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="75"/>
-      <c r="S23" s="75"/>
-      <c r="T23" s="75"/>
+      <c r="O23" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="95"/>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C24" s="23"/>
@@ -9957,12 +13284,12 @@
       <c r="K24" s="9"/>
       <c r="L24" s="6"/>
       <c r="M24" s="2"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="75"/>
-      <c r="S24" s="75"/>
-      <c r="T24" s="75"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="95"/>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C25" s="23"/>
@@ -9973,12 +13300,12 @@
       <c r="K25" s="9"/>
       <c r="L25" s="6"/>
       <c r="M25" s="2"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="75"/>
-      <c r="R25" s="75"/>
-      <c r="S25" s="75"/>
-      <c r="T25" s="75"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="95"/>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C26" s="23"/>
@@ -9989,12 +13316,12 @@
       <c r="K26" s="9"/>
       <c r="L26" s="6"/>
       <c r="M26" s="2"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="75"/>
-      <c r="T26" s="75"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="95"/>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C27" s="23"/>
@@ -10005,14 +13332,14 @@
       <c r="K27" s="9"/>
       <c r="L27" s="6"/>
       <c r="M27" s="2"/>
-      <c r="O27" s="75" t="s">
-        <v>154</v>
-      </c>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="75"/>
-      <c r="T27" s="75"/>
+      <c r="O27" s="95" t="s">
+        <v>151</v>
+      </c>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="95"/>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C28" s="23"/>
@@ -10023,12 +13350,12 @@
       <c r="K28" s="9"/>
       <c r="L28" s="6"/>
       <c r="M28" s="2"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="75"/>
-      <c r="R28" s="75"/>
-      <c r="S28" s="75"/>
-      <c r="T28" s="75"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="95"/>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C29" s="23"/>
@@ -10039,12 +13366,12 @@
       <c r="K29" s="9"/>
       <c r="L29" s="6"/>
       <c r="M29" s="2"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="75"/>
-      <c r="R29" s="75"/>
-      <c r="S29" s="75"/>
-      <c r="T29" s="75"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="95"/>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C30" s="23"/>
@@ -10055,12 +13382,12 @@
       <c r="K30" s="9"/>
       <c r="L30" s="6"/>
       <c r="M30" s="2"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="75"/>
-      <c r="Q30" s="75"/>
-      <c r="R30" s="75"/>
-      <c r="S30" s="75"/>
-      <c r="T30" s="75"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="95"/>
+      <c r="T30" s="95"/>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C31" s="23"/>
@@ -10071,14 +13398,14 @@
       <c r="K31" s="9"/>
       <c r="L31" s="6"/>
       <c r="M31" s="2"/>
-      <c r="O31" s="75" t="s">
-        <v>155</v>
-      </c>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="75"/>
-      <c r="R31" s="75"/>
-      <c r="S31" s="75"/>
-      <c r="T31" s="75"/>
+      <c r="O31" s="95" t="s">
+        <v>152</v>
+      </c>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="95"/>
     </row>
     <row r="32" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C32" s="23"/>
@@ -10089,12 +13416,12 @@
       <c r="K32" s="9"/>
       <c r="L32" s="6"/>
       <c r="M32" s="2"/>
-      <c r="O32" s="75"/>
-      <c r="P32" s="75"/>
-      <c r="Q32" s="75"/>
-      <c r="R32" s="75"/>
-      <c r="S32" s="75"/>
-      <c r="T32" s="75"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="95"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="95"/>
     </row>
     <row r="33" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C33" s="23"/>
@@ -10105,12 +13432,12 @@
       <c r="K33" s="9"/>
       <c r="L33" s="6"/>
       <c r="M33" s="2"/>
-      <c r="O33" s="75"/>
-      <c r="P33" s="75"/>
-      <c r="Q33" s="75"/>
-      <c r="R33" s="75"/>
-      <c r="S33" s="75"/>
-      <c r="T33" s="75"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="95"/>
     </row>
     <row r="34" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C34" s="23"/>
@@ -10121,12 +13448,12 @@
       <c r="K34" s="9"/>
       <c r="L34" s="6"/>
       <c r="M34" s="2"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="75"/>
-      <c r="S34" s="75"/>
-      <c r="T34" s="75"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="95"/>
+      <c r="S34" s="95"/>
+      <c r="T34" s="95"/>
     </row>
     <row r="35" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C35" s="23"/>
@@ -10137,6 +13464,14 @@
       <c r="K35" s="9"/>
       <c r="L35" s="6"/>
       <c r="M35" s="2"/>
+      <c r="O35" s="95" t="s">
+        <v>275</v>
+      </c>
+      <c r="P35" s="95"/>
+      <c r="Q35" s="95"/>
+      <c r="R35" s="95"/>
+      <c r="S35" s="95"/>
+      <c r="T35" s="95"/>
     </row>
     <row r="36" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C36" s="23"/>
@@ -10147,6 +13482,12 @@
       <c r="K36" s="9"/>
       <c r="L36" s="6"/>
       <c r="M36" s="2"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="95"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="95"/>
+      <c r="S36" s="95"/>
+      <c r="T36" s="95"/>
     </row>
     <row r="37" spans="3:20" x14ac:dyDescent="0.35">
       <c r="E37" s="2"/>
@@ -10156,6 +13497,12 @@
       <c r="K37" s="9"/>
       <c r="L37" s="6"/>
       <c r="M37" s="2"/>
+      <c r="O37" s="95"/>
+      <c r="P37" s="95"/>
+      <c r="Q37" s="95"/>
+      <c r="R37" s="95"/>
+      <c r="S37" s="95"/>
+      <c r="T37" s="95"/>
     </row>
     <row r="38" spans="3:20" x14ac:dyDescent="0.35">
       <c r="E38" s="2"/>
@@ -10165,6 +13512,12 @@
       <c r="K38" s="9"/>
       <c r="L38" s="6"/>
       <c r="M38" s="2"/>
+      <c r="O38" s="95"/>
+      <c r="P38" s="95"/>
+      <c r="Q38" s="95"/>
+      <c r="R38" s="95"/>
+      <c r="S38" s="95"/>
+      <c r="T38" s="95"/>
     </row>
     <row r="39" spans="3:20" x14ac:dyDescent="0.35">
       <c r="E39" s="2"/>
@@ -10230,7 +13583,8 @@
       <c r="M45" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="O35:T38"/>
     <mergeCell ref="O27:T30"/>
     <mergeCell ref="O31:T34"/>
     <mergeCell ref="E11:G11"/>
@@ -10246,10 +13600,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9AFFE6-32CC-4ED3-90D1-1E871DB3E098}">
-  <dimension ref="B1:S49"/>
+  <dimension ref="B1:Z49"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10261,11 +13615,13 @@
     <col min="7" max="7" width="13.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.26953125" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B2" s="20" t="s">
         <v>9</v>
       </c>
@@ -10273,7 +13629,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B3" s="21" t="s">
         <v>10</v>
       </c>
@@ -10281,15 +13637,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:20" ht="46" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B5" s="21" t="s">
         <v>12</v>
       </c>
@@ -10297,7 +13653,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B6" s="21" t="s">
         <v>13</v>
       </c>
@@ -10305,7 +13661,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B7" s="21" t="s">
         <v>14</v>
       </c>
@@ -10313,7 +13669,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B8" s="21" t="s">
         <v>31</v>
       </c>
@@ -10321,7 +13677,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="22" t="s">
         <v>32</v>
       </c>
@@ -10329,23 +13685,24 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
     </row>
-    <row r="11" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
-      <c r="J11" s="72" t="s">
+      <c r="F11" s="93"/>
+      <c r="G11" s="94"/>
+      <c r="J11" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="73"/>
-      <c r="L11" s="74"/>
-    </row>
-    <row r="12" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="94"/>
+    </row>
+    <row r="12" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="23"/>
       <c r="E12" s="14" t="s">
         <v>0</v>
@@ -10356,25 +13713,28 @@
       <c r="G12" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="75" t="s">
+      <c r="M12" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="O12" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="75"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="95"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C13" s="23"/>
       <c r="E13" s="4" t="s">
         <v>41</v>
@@ -10389,19 +13749,21 @@
         <v>54</v>
       </c>
       <c r="K13" s="8">
-        <v>596.43600000000004</v>
-      </c>
-      <c r="L13" s="4" t="s">
+        <f>1440-K14-K15-K16-K17-K18-K19</f>
+        <v>224.07229629629634</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="75"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="M13" s="19"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C14" s="23"/>
       <c r="E14" s="2" t="s">
         <v>17</v>
@@ -10418,17 +13780,18 @@
       <c r="K14" s="9">
         <v>300</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="75"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="M14" s="2"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="95"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C15" s="23"/>
       <c r="E15" s="2"/>
       <c r="F15" s="9"/>
@@ -10439,17 +13802,20 @@
       <c r="K15" s="9">
         <v>392.666</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="75"/>
-      <c r="S15" s="75"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="L15" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="O15" s="95"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="95"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C16" s="23"/>
       <c r="E16" s="2"/>
       <c r="F16" s="9"/>
@@ -10460,11 +13826,14 @@
       <c r="K16" s="9">
         <v>110.01</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="L16" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C17" s="23"/>
       <c r="E17" s="2"/>
       <c r="F17" s="9"/>
@@ -10475,311 +13844,364 @@
       <c r="K17" s="9">
         <v>40.887999999999998</v>
       </c>
-      <c r="L17" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L17" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C18" s="23"/>
       <c r="E18" s="2"/>
       <c r="F18" s="9"/>
       <c r="G18" s="2"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="9">
+        <f>'Tollarian Meltdown'!V17+'Tollarian Meltdown'!V18</f>
+        <v>214.07037037037037</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C19" s="23"/>
       <c r="E19" s="2"/>
       <c r="F19" s="9"/>
       <c r="G19" s="2"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="2"/>
-      <c r="N19" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="O19" s="87"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="87"/>
-      <c r="S19" s="88"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="J19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" s="9">
+        <f>158+22/75</f>
+        <v>158.29333333333332</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="O19" s="106" t="s">
+        <v>147</v>
+      </c>
+      <c r="P19" s="107"/>
+      <c r="Q19" s="107"/>
+      <c r="R19" s="107"/>
+      <c r="S19" s="107"/>
+      <c r="T19" s="108"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C20" s="23"/>
       <c r="E20" s="2"/>
       <c r="F20" s="9"/>
       <c r="G20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="2"/>
-      <c r="N20" s="77" t="s">
-        <v>208</v>
-      </c>
-      <c r="O20" s="78"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="79"/>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="L20" s="6"/>
+      <c r="M20" s="2"/>
+      <c r="O20" s="97" t="s">
+        <v>296</v>
+      </c>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="98"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="99"/>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C21" s="23"/>
       <c r="E21" s="2"/>
       <c r="F21" s="9"/>
       <c r="G21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="2"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="81"/>
-      <c r="P21" s="81"/>
-      <c r="Q21" s="81"/>
-      <c r="R21" s="81"/>
-      <c r="S21" s="82"/>
-    </row>
-    <row r="22" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L21" s="6"/>
+      <c r="M21" s="2"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="101"/>
+      <c r="Q21" s="101"/>
+      <c r="R21" s="101"/>
+      <c r="S21" s="101"/>
+      <c r="T21" s="102"/>
+    </row>
+    <row r="22" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C22" s="23"/>
       <c r="E22" s="2"/>
       <c r="F22" s="9"/>
       <c r="G22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="2"/>
-      <c r="N22" s="83"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="85"/>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="L22" s="6"/>
+      <c r="M22" s="2"/>
+      <c r="O22" s="103"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="104"/>
+      <c r="R22" s="104"/>
+      <c r="S22" s="104"/>
+      <c r="T22" s="105"/>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C23" s="23"/>
       <c r="E23" s="2"/>
       <c r="F23" s="9"/>
       <c r="G23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="2"/>
-      <c r="N23" s="77" t="s">
-        <v>259</v>
-      </c>
-      <c r="O23" s="78"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="79"/>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="L23" s="6"/>
+      <c r="M23" s="2"/>
+      <c r="O23" s="97" t="s">
+        <v>295</v>
+      </c>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="98"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="99"/>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C24" s="23"/>
       <c r="E24" s="2"/>
       <c r="F24" s="9"/>
       <c r="G24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="2"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="82"/>
-    </row>
-    <row r="25" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L24" s="6"/>
+      <c r="M24" s="2"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="101"/>
+      <c r="Q24" s="101"/>
+      <c r="R24" s="101"/>
+      <c r="S24" s="101"/>
+      <c r="T24" s="102"/>
+    </row>
+    <row r="25" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C25" s="23"/>
       <c r="E25" s="2"/>
       <c r="F25" s="9"/>
       <c r="G25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="2"/>
-      <c r="N25" s="83"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="84"/>
-      <c r="S25" s="85"/>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="L25" s="6"/>
+      <c r="M25" s="2"/>
+      <c r="O25" s="103"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="104"/>
+      <c r="R25" s="104"/>
+      <c r="S25" s="104"/>
+      <c r="T25" s="105"/>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C26" s="23"/>
       <c r="E26" s="2"/>
       <c r="F26" s="9"/>
       <c r="G26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="L26" s="6"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C27" s="23"/>
       <c r="E27" s="2"/>
       <c r="F27" s="9"/>
       <c r="G27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="9"/>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="L27" s="6"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C28" s="23"/>
       <c r="E28" s="2"/>
       <c r="F28" s="9"/>
       <c r="G28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="9"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="L28" s="6"/>
+      <c r="M28" s="2"/>
+      <c r="Z28">
+        <f>158.29+43.97</f>
+        <v>202.26</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C29" s="23"/>
       <c r="E29" s="2"/>
       <c r="F29" s="9"/>
       <c r="G29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="9"/>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="L29" s="6"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C30" s="23"/>
       <c r="E30" s="2"/>
       <c r="F30" s="9"/>
       <c r="G30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="9"/>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="L30" s="6"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C31" s="23"/>
       <c r="E31" s="2"/>
       <c r="F31" s="9"/>
       <c r="G31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="9"/>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="L31" s="6"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.35">
       <c r="E32" s="2"/>
       <c r="F32" s="9"/>
       <c r="G32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="9"/>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L32" s="6"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C33" s="23"/>
       <c r="E33" s="2"/>
       <c r="F33" s="9"/>
       <c r="G33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="9"/>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L33" s="6"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C34" s="23"/>
       <c r="E34" s="2"/>
       <c r="F34" s="9"/>
       <c r="G34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="9"/>
-      <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L34" s="6"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C35" s="23"/>
       <c r="E35" s="2"/>
       <c r="F35" s="9"/>
       <c r="G35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="9"/>
-      <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L35" s="6"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C36" s="23"/>
       <c r="E36" s="2"/>
       <c r="F36" s="9"/>
       <c r="G36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="9"/>
-      <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L36" s="6"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E37" s="2"/>
       <c r="F37" s="9"/>
       <c r="G37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="9"/>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L37" s="6"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E38" s="2"/>
       <c r="F38" s="9"/>
       <c r="G38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="9"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L38" s="6"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E39" s="2"/>
       <c r="F39" s="9"/>
       <c r="G39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="9"/>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L39" s="6"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E40" s="2"/>
       <c r="F40" s="9"/>
       <c r="G40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="9"/>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L40" s="6"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E41" s="2"/>
       <c r="F41" s="9"/>
       <c r="G41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="9"/>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L41" s="6"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E42" s="2"/>
       <c r="F42" s="9"/>
       <c r="G42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="9"/>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L42" s="6"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E43" s="2"/>
       <c r="F43" s="9"/>
       <c r="G43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="9"/>
-      <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L43" s="6"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="3:13" x14ac:dyDescent="0.35">
       <c r="E44" s="2"/>
       <c r="F44" s="9"/>
       <c r="G44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="9"/>
-      <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L44" s="6"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E45" s="3"/>
       <c r="F45" s="10"/>
       <c r="G45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="10"/>
-      <c r="L45" s="3"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="3"/>
     </row>
     <row r="49" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G49" s="65"/>
+      <c r="G49" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="N20:S22"/>
-    <mergeCell ref="N23:S25"/>
+    <mergeCell ref="O20:T22"/>
+    <mergeCell ref="O23:T25"/>
     <mergeCell ref="E11:G11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="N12:S15"/>
-    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="O12:T15"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="J11:M11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10843,7 +14265,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -10851,7 +14273,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -10867,21 +14289,21 @@
         <v>32</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74"/>
-      <c r="J10" s="72" t="s">
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
+      <c r="J10" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="73"/>
-      <c r="L10" s="74"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="94"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -11353,8 +14775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122A4D2D-7EB7-44FE-A97D-7046CE3D43BD}">
   <dimension ref="B1:S44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11393,7 +14815,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.35">
@@ -11409,7 +14831,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.35">
@@ -11417,7 +14839,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.35">
@@ -11433,21 +14855,21 @@
         <v>32</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74"/>
-      <c r="J10" s="72" t="s">
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
+      <c r="J10" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="73"/>
-      <c r="L10" s="74"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="94"/>
     </row>
     <row r="11" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -11511,14 +14933,14 @@
       <c r="L13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="75" t="s">
+      <c r="N13" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="75"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C14" s="23"/>
@@ -11535,17 +14957,17 @@
         <v>86</v>
       </c>
       <c r="K14" s="9">
-        <v>372.75</v>
+        <v>226.37222</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="75"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C15" s="23"/>
@@ -11561,12 +14983,12 @@
       <c r="L15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="75"/>
-      <c r="S15" s="75"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
     </row>
     <row r="16" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="23"/>
@@ -11582,12 +15004,12 @@
       <c r="L16" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="75"/>
-      <c r="S16" s="75"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="95"/>
     </row>
     <row r="17" spans="3:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="23"/>
@@ -11603,14 +15025,14 @@
       <c r="L17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N17" s="75" t="s">
+      <c r="N17" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="75"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C18" s="23"/>
@@ -11624,14 +15046,14 @@
         <v>300</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="75"/>
+        <v>148</v>
+      </c>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="95"/>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C19" s="23"/>
@@ -11645,14 +15067,14 @@
         <v>606</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="75"/>
-      <c r="S19" s="75"/>
+        <v>148</v>
+      </c>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C20" s="23"/>
@@ -11666,14 +15088,14 @@
         <v>15</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="75"/>
-      <c r="S20" s="75"/>
+        <v>173</v>
+      </c>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C21" s="23"/>
@@ -11687,7 +15109,7 @@
         <v>72</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.35">
@@ -11695,17 +15117,23 @@
       <c r="E22" s="2"/>
       <c r="F22" s="9"/>
       <c r="G22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="4"/>
-      <c r="N22" s="76" t="s">
-        <v>150</v>
-      </c>
-      <c r="O22" s="76"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="76"/>
-      <c r="R22" s="76"/>
-      <c r="S22" s="76"/>
+      <c r="J22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K22" s="9">
+        <v>146.3777</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="N22" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="96"/>
+      <c r="S22" s="96"/>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C23" s="23"/>
@@ -11724,14 +15152,14 @@
       <c r="J24" s="2"/>
       <c r="K24" s="9"/>
       <c r="L24" s="4"/>
-      <c r="N24" s="75" t="s">
-        <v>215</v>
-      </c>
-      <c r="O24" s="75"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="75"/>
-      <c r="S24" s="75"/>
+      <c r="N24" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C25" s="23"/>
@@ -11741,12 +15169,12 @@
       <c r="J25" s="2"/>
       <c r="K25" s="9"/>
       <c r="L25" s="4"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="75"/>
-      <c r="R25" s="75"/>
-      <c r="S25" s="75"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C26" s="23"/>
@@ -11756,12 +15184,12 @@
       <c r="J26" s="2"/>
       <c r="K26" s="9"/>
       <c r="L26" s="4"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="75"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="95"/>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C27" s="23"/>
@@ -11771,12 +15199,12 @@
       <c r="J27" s="2"/>
       <c r="K27" s="9"/>
       <c r="L27" s="4"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="75"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="95"/>
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C28" s="23"/>
@@ -11786,14 +15214,14 @@
       <c r="J28" s="2"/>
       <c r="K28" s="9"/>
       <c r="L28" s="4"/>
-      <c r="N28" s="75" t="s">
-        <v>153</v>
-      </c>
-      <c r="O28" s="75"/>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="75"/>
-      <c r="R28" s="75"/>
-      <c r="S28" s="75"/>
+      <c r="N28" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="O28" s="95"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="95"/>
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C29" s="23"/>
@@ -11803,12 +15231,12 @@
       <c r="J29" s="2"/>
       <c r="K29" s="9"/>
       <c r="L29" s="4"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="75"/>
-      <c r="R29" s="75"/>
-      <c r="S29" s="75"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="95"/>
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C30" s="23"/>
@@ -11818,12 +15246,12 @@
       <c r="J30" s="2"/>
       <c r="K30" s="9"/>
       <c r="L30" s="2"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="75"/>
-      <c r="Q30" s="75"/>
-      <c r="R30" s="75"/>
-      <c r="S30" s="75"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="95"/>
     </row>
     <row r="31" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C31" s="23"/>
@@ -11833,12 +15261,12 @@
       <c r="J31" s="2"/>
       <c r="K31" s="9"/>
       <c r="L31" s="2"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="75"/>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="75"/>
-      <c r="R31" s="75"/>
-      <c r="S31" s="75"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
     </row>
     <row r="32" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C32" s="23"/>
@@ -12050,16 +15478,16 @@
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74"/>
-      <c r="J10" s="72" t="s">
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
+      <c r="J10" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="73"/>
-      <c r="L10" s="74"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="94"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>

--- a/Game Stuff/Spreadsheet.xlsx
+++ b/Game Stuff/Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Tolarian Meltdown\Game Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267DE65C-44B8-450B-AE97-FB8BAC3371D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C73DCD6-E60E-498E-B732-24948583DC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="-4944" windowWidth="17496" windowHeight="30216" firstSheet="18" activeTab="19" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
+    <workbookView xWindow="9950" yWindow="2730" windowWidth="12960" windowHeight="14710" firstSheet="14" activeTab="15" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
   </bookViews>
   <sheets>
     <sheet name="Material Summary" sheetId="1" r:id="rId1"/>
@@ -2512,7 +2512,7 @@
   <dimension ref="B2:J100"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6930,10 +6930,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAE874B-EB1A-40E9-945A-ABFDF311093C}">
-  <dimension ref="B1:O44"/>
+  <dimension ref="B1:Q44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7125,7 +7125,8 @@
         <v>1</v>
       </c>
       <c r="O14" s="4">
-        <v>38.332999999999998</v>
+        <f>620-66-2/3-515</f>
+        <v>38.333333333333371</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.35">
@@ -7177,7 +7178,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="17" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C17" s="23"/>
       <c r="E17" s="2" t="s">
         <v>19</v>
@@ -7195,10 +7196,15 @@
         <v>4</v>
       </c>
       <c r="O17" s="3">
-        <v>45.288879999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.35">
+        <f>775-734-32/45</f>
+        <v>40.288888888888891</v>
+      </c>
+      <c r="Q17">
+        <f>O17+O16+O14</f>
+        <v>543.62222222222226</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C18" s="23"/>
       <c r="E18" s="2" t="s">
         <v>132</v>
@@ -7213,7 +7219,7 @@
       <c r="K18" s="9"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C19" s="23"/>
       <c r="E19" s="2" t="s">
         <v>132</v>
@@ -7228,7 +7234,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C20" s="23"/>
       <c r="E20" s="2"/>
       <c r="F20" s="9"/>
@@ -7237,7 +7243,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C21" s="23"/>
       <c r="E21" s="2"/>
       <c r="F21" s="9"/>
@@ -7246,7 +7252,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C22" s="23"/>
       <c r="E22" s="2"/>
       <c r="F22" s="9"/>
@@ -7255,7 +7261,7 @@
       <c r="K22" s="9"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C23" s="23"/>
       <c r="E23" s="2"/>
       <c r="F23" s="9"/>
@@ -7264,7 +7270,7 @@
       <c r="K23" s="9"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C24" s="23"/>
       <c r="E24" s="2"/>
       <c r="F24" s="9"/>
@@ -7273,7 +7279,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C25" s="23"/>
       <c r="E25" s="2"/>
       <c r="F25" s="9"/>
@@ -7282,7 +7288,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C26" s="23"/>
       <c r="E26" s="2"/>
       <c r="F26" s="9"/>
@@ -7291,7 +7297,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C27" s="23"/>
       <c r="E27" s="2"/>
       <c r="F27" s="9"/>
@@ -7300,7 +7306,7 @@
       <c r="K27" s="9"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C28" s="23"/>
       <c r="E28" s="2"/>
       <c r="F28" s="9"/>
@@ -7309,7 +7315,7 @@
       <c r="K28" s="9"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C29" s="23"/>
       <c r="E29" s="2"/>
       <c r="F29" s="9"/>
@@ -7318,7 +7324,7 @@
       <c r="K29" s="9"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C30" s="23"/>
       <c r="E30" s="2"/>
       <c r="F30" s="9"/>
@@ -7327,7 +7333,7 @@
       <c r="K30" s="9"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C31" s="23"/>
       <c r="E31" s="2"/>
       <c r="F31" s="9"/>
@@ -7336,7 +7342,7 @@
       <c r="K31" s="9"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C32" s="23"/>
       <c r="E32" s="2"/>
       <c r="F32" s="9"/>
@@ -7458,8 +7464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E188AE-32E3-44FC-A747-B6B7B3960AE2}">
   <dimension ref="B1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8471,8 +8477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1FA6DD-AC17-49B1-B5E4-69C720E1D60E}">
   <dimension ref="B1:L47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9377,8 +9383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918F12F9-7E2B-4B86-8EBD-462FB980EA31}">
   <dimension ref="B1:AF91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB91" sqref="AB91"/>
+    <sheetView topLeftCell="B6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Game Stuff/Spreadsheet.xlsx
+++ b/Game Stuff/Spreadsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Tolarian Meltdown\Game Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\The Mirrodin Trigon\Game Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C73DCD6-E60E-498E-B732-24948583DC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477C9247-2F17-412C-9DF0-174A96374730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9950" yWindow="2730" windowWidth="12960" windowHeight="14710" firstSheet="14" activeTab="15" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
+    <workbookView xWindow="47496" yWindow="456" windowWidth="12960" windowHeight="18336" firstSheet="19" activeTab="19" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
   </bookViews>
   <sheets>
     <sheet name="Material Summary" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="Karn's Conduit" sheetId="20" r:id="rId18"/>
     <sheet name="Thassa's Pulse" sheetId="21" r:id="rId19"/>
     <sheet name="Tollarian Meltdown" sheetId="22" r:id="rId20"/>
+    <sheet name="The Mirrodin Trigon" sheetId="23" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="421">
   <si>
     <t>Item</t>
   </si>
@@ -813,9 +814,6 @@
     <t xml:space="preserve">2.84 Hours </t>
   </si>
   <si>
-    <t>Bottom belt going to Keldon Armory, Karn's Conduit And Jund PYroclast has an extra 268.457 Iron Ingots</t>
-  </si>
-  <si>
     <t>Neko's Nexus, Ghirapur Gridworks, Phyrexian Datavault, Keldon Armory , Obelisks of Alara, Karn's Conduit, Jund Pyroclast</t>
   </si>
   <si>
@@ -867,9 +865,6 @@
     <t>Neko's Nexus, Ghirapur Gridworks, Phyrexian Datavault, Riveteers District, The Abyssal Chains of Shandalar, Keldon Armory, Tollarian Meltdown</t>
   </si>
   <si>
-    <t>Thran Foundy, Neko's Nexus, Ghirapur Gridworks, The Abyssal Chains of Shandalar, Keldon Armory, Karn's Conduit, Jund Pyroclast, Tollarian Meltdown</t>
-  </si>
-  <si>
     <t xml:space="preserve">Copper Ore </t>
   </si>
   <si>
@@ -1203,9 +1198,6 @@
     <t>945.7 MW</t>
   </si>
   <si>
-    <t>14376.6 MW</t>
-  </si>
-  <si>
     <t>121734.4 MW</t>
   </si>
   <si>
@@ -1249,6 +1241,84 @@
   </si>
   <si>
     <t>5600 MW</t>
+  </si>
+  <si>
+    <t>The Mirrodin Trigon</t>
+  </si>
+  <si>
+    <t>Train Color 1</t>
+  </si>
+  <si>
+    <t>Train Color 2</t>
+  </si>
+  <si>
+    <t>5A0069</t>
+  </si>
+  <si>
+    <t>320249</t>
+  </si>
+  <si>
+    <t>Thran Foundy, Neko's Nexus, Ghirapur Gridworks, The Abyssal Chains of Shandalar, Keldon Armory, Karn's Conduit, Jund Pyroclast, Tollarian Meltdown, The Mirrodin Trigon</t>
+  </si>
+  <si>
+    <t>Bottom belt going to Keldon Armory, Karn's Conduit, The Mirrod Trigon And Jund PYroclast has an extra 226.586666 Iron Ingots</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>Tollarian Meltdown Miner</t>
+  </si>
+  <si>
+    <t>Urabrask Refinery</t>
+  </si>
+  <si>
+    <t>Darksteel Forge, Tollarian Meltdown, Urabrask Refinery</t>
+  </si>
+  <si>
+    <t>Reanimated SAM</t>
+  </si>
+  <si>
+    <t>Ficsite Ingot</t>
+  </si>
+  <si>
+    <t>SAM Fluctuator</t>
+  </si>
+  <si>
+    <t>Ficsite Trigon</t>
+  </si>
+  <si>
+    <t>2933.7 MW</t>
+  </si>
+  <si>
+    <t>1.56 Hours</t>
+  </si>
+  <si>
+    <t>4600 MWh</t>
+  </si>
+  <si>
+    <t>3449.1 MW (Avg)</t>
+  </si>
+  <si>
+    <t>5700 MWh</t>
+  </si>
+  <si>
+    <t>1.65 Hours</t>
+  </si>
+  <si>
+    <t>14379.4 MW</t>
+  </si>
+  <si>
+    <t>Net Gain Stable</t>
+  </si>
+  <si>
+    <t>Net Gain Unstable</t>
+  </si>
+  <si>
+    <t>107354.97 MW</t>
+  </si>
+  <si>
+    <t>11859.675 MW</t>
   </si>
 </sst>
 </file>
@@ -1916,7 +1986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2175,6 +2245,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2511,8 +2592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DEAD1A-BE12-4BD3-A45F-18807DFF108B}">
   <dimension ref="B2:J100"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="B63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O96" sqref="O96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2610,7 +2691,8 @@
         <v>41</v>
       </c>
       <c r="D8" s="11">
-        <v>1200.1281280000001</v>
+        <f>'Darksteel Forge'!L15</f>
+        <v>1158.2577573976091</v>
       </c>
       <c r="E8" s="41" t="s">
         <v>42</v>
@@ -2813,7 +2895,7 @@
       </c>
       <c r="D18" s="11">
         <f>'Urabrask''s Refinery'!J12</f>
-        <v>1163.6228888888891</v>
+        <v>620</v>
       </c>
       <c r="E18" s="41" t="s">
         <v>191</v>
@@ -2836,7 +2918,7 @@
         <v>741</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>74</v>
@@ -2856,7 +2938,7 @@
         <v>101.07</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>75</v>
@@ -2870,13 +2952,13 @@
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C21" s="70" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D21" s="9">
         <v>4.95</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>76</v>
@@ -3552,128 +3634,128 @@
     <row r="77" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C77" s="1"/>
       <c r="H77" s="39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I77" s="9">
         <v>1.5625</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C78" s="1"/>
       <c r="H78" s="39" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I78" s="9">
         <v>1.5625</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C79" s="1"/>
       <c r="H79" s="70" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I79" s="9">
         <v>11.52</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C80" s="1"/>
       <c r="H80" s="70" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I80" s="9">
         <v>10</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C81" s="1"/>
       <c r="H81" s="70" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I81" s="9">
         <v>5</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C82" s="1"/>
       <c r="H82" s="70" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I82" s="9">
         <v>4.2</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="H83" s="39" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I83" s="9">
         <v>2.73</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="H84" s="39" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I84" s="9">
         <v>2.73</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="H85" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I85" s="9">
         <v>1.54</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="H86" s="39" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I86" s="9">
         <v>1</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="H87" s="39" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I87" s="9">
         <v>0.25</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
@@ -3681,51 +3763,82 @@
       <c r="C88" s="1"/>
       <c r="D88"/>
       <c r="H88" s="39" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I88" s="9">
         <v>0.21</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="56"/>
-      <c r="J89" s="41"/>
+      <c r="H89" s="70" t="s">
+        <v>402</v>
+      </c>
+      <c r="I89" s="8">
+        <v>5</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="56"/>
-      <c r="J90" s="41"/>
+      <c r="H90" s="70" t="s">
+        <v>406</v>
+      </c>
+      <c r="I90" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="56"/>
-      <c r="J91" s="41"/>
+      <c r="H91" s="70" t="s">
+        <v>407</v>
+      </c>
+      <c r="I91" s="9">
+        <v>2.91</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="56"/>
-      <c r="J92" s="41"/>
+      <c r="H92" s="70" t="s">
+        <v>408</v>
+      </c>
+      <c r="I92" s="9">
+        <v>2.83</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="H93" s="2"/>
-      <c r="I93" s="56"/>
-      <c r="J93" s="41"/>
+      <c r="H93" s="70" t="s">
+        <v>409</v>
+      </c>
+      <c r="I93" s="9">
+        <f>857+17/90</f>
+        <v>857.18888888888887</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="1"/>
@@ -3812,7 +3925,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="87" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B3" s="27" t="s">
         <v>10</v>
       </c>
@@ -4291,7 +4404,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.35">
@@ -4618,7 +4731,7 @@
         <v>102.45450980392157</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M22" s="2"/>
     </row>
@@ -4632,7 +4745,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="2"/>
       <c r="O23" s="95" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P23" s="95"/>
       <c r="Q23" s="95"/>
@@ -4943,7 +5056,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
@@ -4959,7 +5072,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -4967,7 +5080,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -4983,7 +5096,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5281,7 +5394,7 @@
         <v>72.551111111111112</v>
       </c>
       <c r="L26" s="42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
@@ -5970,7 +6083,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
@@ -5994,7 +6107,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -6010,7 +6123,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6177,7 +6290,7 @@
         <v>1.5625</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>8</v>
@@ -6200,7 +6313,7 @@
         <v>1.5625</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>8</v>
@@ -6224,7 +6337,7 @@
         <v>171</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
@@ -6494,7 +6607,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="51" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="4:14" x14ac:dyDescent="0.35">
@@ -6502,7 +6615,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="4:14" x14ac:dyDescent="0.35">
@@ -6853,14 +6966,14 @@
     </row>
     <row r="30" spans="7:14" x14ac:dyDescent="0.35">
       <c r="L30" s="6">
-        <f>'Tollarian Meltdown'!F17</f>
+        <f>'Tollarian Meltdown'!F21</f>
         <v>191.51220000000001</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N30" s="41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="7:14" x14ac:dyDescent="0.35">
@@ -6871,7 +6984,7 @@
         <v>179</v>
       </c>
       <c r="N31" s="41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="7:14" x14ac:dyDescent="0.35">
@@ -6882,7 +6995,7 @@
         <v>180</v>
       </c>
       <c r="N32" s="41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="12:22" x14ac:dyDescent="0.35">
@@ -6932,8 +7045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAE874B-EB1A-40E9-945A-ABFDF311093C}">
   <dimension ref="B1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6971,7 +7084,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.35">
@@ -6987,7 +7100,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F6">
         <f>5800/4352.7</f>
@@ -6999,7 +7112,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.35">
@@ -7064,8 +7177,8 @@
         <v>21</v>
       </c>
       <c r="J12" s="38">
-        <f>2480-J13-J14-J15</f>
-        <v>1163.6228888888891</v>
+        <f>2480-J13-J14-J15-J16</f>
+        <v>620</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>137</v>
@@ -7113,7 +7226,8 @@
         <v>21</v>
       </c>
       <c r="J14" s="38">
-        <v>66.665999999999997</v>
+        <f>66+2/3</f>
+        <v>66.666666666666671</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>137</v>
@@ -7125,8 +7239,7 @@
         <v>1</v>
       </c>
       <c r="O14" s="4">
-        <f>620-66-2/3-515</f>
-        <v>38.333333333333371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.35">
@@ -7148,7 +7261,7 @@
         <v>137</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N15" s="6">
         <v>2</v>
@@ -7168,14 +7281,21 @@
       <c r="G16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="4"/>
+      <c r="J16" s="38">
+        <f>543+28/45</f>
+        <v>543.62222222222226</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>395</v>
+      </c>
       <c r="N16" s="6">
         <v>3</v>
       </c>
       <c r="O16" s="2">
-        <v>465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7196,12 +7316,11 @@
         <v>4</v>
       </c>
       <c r="O17" s="3">
-        <f>775-734-32/45</f>
-        <v>40.288888888888891</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <f>O17+O16+O14</f>
-        <v>543.62222222222226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.35">
@@ -7514,7 +7633,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -7522,7 +7641,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -7538,7 +7657,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8477,8 +8596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1FA6DD-AC17-49B1-B5E4-69C720E1D60E}">
   <dimension ref="B1:L47"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8528,7 +8647,7 @@
         <v>242</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -8544,7 +8663,7 @@
         <v>244</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
@@ -9381,10 +9500,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918F12F9-7E2B-4B86-8EBD-462FB980EA31}">
-  <dimension ref="B1:AF91"/>
+  <dimension ref="B1:AF95"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9416,54 +9535,54 @@
     <col min="32" max="32" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="64" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="2:32" ht="116" x14ac:dyDescent="0.35">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="116" x14ac:dyDescent="0.35">
       <c r="B3" s="50" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.35">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="69" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="68"/>
     </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="17" t="s">
         <v>242</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.35">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
         <v>243</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="17" t="s">
         <v>244</v>
       </c>
@@ -9471,1361 +9590,1277 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="17" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.35">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="C10" s="66" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="B11" s="17" t="s">
+      <c r="C11" s="66" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C11" s="66" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="12" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="18" t="s">
+      <c r="C13" s="66" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C12" s="67" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="13" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="23"/>
-    </row>
-    <row r="14" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="23"/>
-      <c r="E14" s="92" t="s">
+      <c r="C14" s="67" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="123"/>
+      <c r="C15" s="124"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="123"/>
+      <c r="C16" s="124"/>
+    </row>
+    <row r="17" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="23"/>
+    </row>
+    <row r="18" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="23"/>
+      <c r="E18" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="94"/>
-      <c r="K14" s="92" t="s">
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="94"/>
+      <c r="K18" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="93"/>
-      <c r="M14" s="94"/>
-      <c r="O14" s="92" t="s">
+      <c r="L18" s="93"/>
+      <c r="M18" s="94"/>
+      <c r="O18" s="92" t="s">
+        <v>276</v>
+      </c>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="94"/>
+      <c r="V18" s="92" t="s">
+        <v>287</v>
+      </c>
+      <c r="W18" s="93"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="94"/>
+      <c r="AA18" s="77" t="s">
+        <v>298</v>
+      </c>
+      <c r="AB18" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD18" s="78" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE18" s="91" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF18" s="79" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="23"/>
+      <c r="E19" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="117" t="s">
+        <v>277</v>
+      </c>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="115" t="s">
         <v>278</v>
       </c>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="94"/>
-      <c r="V14" s="92" t="s">
-        <v>289</v>
-      </c>
-      <c r="W14" s="93"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="94"/>
-      <c r="AA14" s="77" t="s">
-        <v>300</v>
-      </c>
-      <c r="AB14" s="78" t="s">
+      <c r="R19" s="116"/>
+      <c r="S19" s="115" t="s">
+        <v>284</v>
+      </c>
+      <c r="T19" s="116"/>
+      <c r="V19" s="117" t="s">
+        <v>265</v>
+      </c>
+      <c r="W19" s="118"/>
+      <c r="X19" s="117" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y19" s="119"/>
+      <c r="AA19" s="81" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB19" s="89">
         <v>1</v>
       </c>
-      <c r="AC14" s="78" t="s">
-        <v>301</v>
-      </c>
-      <c r="AD14" s="78" t="s">
-        <v>302</v>
-      </c>
-      <c r="AE14" s="91" t="s">
-        <v>311</v>
-      </c>
-      <c r="AF14" s="79" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="15" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="23"/>
-      <c r="E15" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="33" t="s">
+      <c r="AC19" s="89">
+        <v>0.2</v>
+      </c>
+      <c r="AD19" s="82" t="s">
+        <v>316</v>
+      </c>
+      <c r="AE19" s="82" t="s">
+        <v>318</v>
+      </c>
+      <c r="AF19" s="83" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="23"/>
+      <c r="E20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="8">
+        <v>348.18</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="K20" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="L20" s="8">
+        <v>741</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>265</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" s="12" t="s">
+      <c r="P20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="R20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="O15" s="117" t="s">
-        <v>279</v>
-      </c>
-      <c r="P15" s="118"/>
-      <c r="Q15" s="115" t="s">
-        <v>280</v>
-      </c>
-      <c r="R15" s="116"/>
-      <c r="S15" s="115" t="s">
-        <v>286</v>
-      </c>
-      <c r="T15" s="116"/>
-      <c r="V15" s="117" t="s">
-        <v>266</v>
-      </c>
-      <c r="W15" s="118"/>
-      <c r="X15" s="117" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y15" s="119"/>
-      <c r="AA15" s="81" t="s">
-        <v>319</v>
-      </c>
-      <c r="AB15" s="89">
+      <c r="S20" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="AC15" s="89">
-        <v>0.2</v>
-      </c>
-      <c r="AD15" s="82" t="s">
-        <v>318</v>
-      </c>
-      <c r="AE15" s="82" t="s">
-        <v>320</v>
-      </c>
-      <c r="AF15" s="83" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="23"/>
-      <c r="E16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="8">
-        <v>348.18</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="K16" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="L16" s="8">
-        <v>741</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" s="14" t="s">
+      <c r="T20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="V20" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="P16" s="14" t="s">
+      <c r="W20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="Q16" s="14" t="s">
+      <c r="X20" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="R16" s="14" t="s">
+      <c r="Y20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="S16" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="T16" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="V16" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="W16" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="X16" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA16" s="84" t="s">
-        <v>319</v>
-      </c>
-      <c r="AB16" s="90">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="90">
-        <v>0.2</v>
-      </c>
-      <c r="AD16" s="80" t="s">
-        <v>307</v>
-      </c>
-      <c r="AE16" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF16" s="85" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="17" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C17" s="23"/>
-      <c r="E17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="9">
-        <f>186.2622+5.25</f>
-        <v>191.51220000000001</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="K17" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="L17" s="9">
-        <v>101.07</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" s="38">
-        <f>127+23/40</f>
-        <v>127.575</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q17" s="4">
-        <f>151+157/225</f>
-        <v>151.69777777777779</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="S17" s="4">
-        <v>240</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="V17" s="44">
-        <v>170.1</v>
-      </c>
-      <c r="W17" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="X17" s="44">
-        <f>158+22/75</f>
-        <v>158.29333333333332</v>
-      </c>
-      <c r="Y17" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA17" s="84" t="s">
-        <v>328</v>
-      </c>
-      <c r="AB17" s="90">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="90">
-        <v>0.2</v>
-      </c>
-      <c r="AD17" s="80" t="s">
-        <v>307</v>
-      </c>
-      <c r="AE17" s="80" t="s">
-        <v>331</v>
-      </c>
-      <c r="AF17" s="85" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="18" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C18" s="23"/>
-      <c r="E18" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="9">
-        <f>79+19/50+23+19/255</f>
-        <v>102.45450980392157</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="K18" s="38" t="s">
-        <v>375</v>
-      </c>
-      <c r="L18" s="9">
-        <v>11.52</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O18" s="11">
-        <f>125+29/50</f>
-        <v>125.58</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q18" s="2">
-        <f>148+2/5</f>
-        <v>148.4</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="S18" s="2">
-        <v>160</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V18" s="11">
-        <f>43+131/135</f>
-        <v>43.970370370370368</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="2"/>
-      <c r="AA18" s="84" t="s">
-        <v>328</v>
-      </c>
-      <c r="AB18" s="90">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="90">
-        <v>0.3</v>
-      </c>
-      <c r="AD18" s="80" t="s">
-        <v>307</v>
-      </c>
-      <c r="AE18" s="80" t="s">
-        <v>329</v>
-      </c>
-      <c r="AF18" s="85" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="19" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C19" s="23"/>
-      <c r="E19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="9">
-        <v>146.3777</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="K19" s="38" t="s">
-        <v>335</v>
-      </c>
-      <c r="L19" s="9">
-        <v>10</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O19" s="11">
-        <v>2.73</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>226.8</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="2"/>
-      <c r="AA19" s="84" t="s">
-        <v>319</v>
-      </c>
-      <c r="AB19" s="90">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="90">
-        <v>0.3</v>
-      </c>
-      <c r="AD19" s="80" t="s">
-        <v>353</v>
-      </c>
-      <c r="AE19" s="80" t="s">
-        <v>358</v>
-      </c>
-      <c r="AF19" s="85" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="20" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C20" s="23"/>
-      <c r="E20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="9">
-        <v>153.09</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="K20" s="38" t="s">
-        <v>356</v>
-      </c>
-      <c r="L20" s="9">
-        <v>5</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O20" s="11">
-        <f>116+92/1125</f>
-        <v>116.08177777777777</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="2"/>
       <c r="AA20" s="84" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="AB20" s="90">
         <v>1</v>
       </c>
       <c r="AC20" s="90">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AD20" s="80" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="AE20" s="80" t="s">
-        <v>356</v>
+        <v>104</v>
       </c>
       <c r="AF20" s="85" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="3:32" x14ac:dyDescent="0.35">
       <c r="C21" s="23"/>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="F21" s="9">
-        <f>V17+V18</f>
-        <v>214.07037037037037</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>268</v>
-      </c>
+        <f>186.2622+5.25</f>
+        <v>191.51220000000001</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H21" s="2"/>
       <c r="K21" s="38" t="s">
-        <v>376</v>
+        <v>103</v>
       </c>
       <c r="L21" s="9">
-        <v>4.95</v>
+        <v>101.07</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O21" s="11">
-        <f>72+124/225</f>
-        <v>72.551111111111112</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="2"/>
+      <c r="O21" s="38">
+        <f>127+23/40</f>
+        <v>127.575</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q21" s="4">
+        <f>151+157/225</f>
+        <v>151.69777777777779</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="S21" s="4">
+        <v>240</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="V21" s="44">
+        <v>170.1</v>
+      </c>
+      <c r="W21" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="X21" s="44">
+        <f>158+22/75</f>
+        <v>158.29333333333332</v>
+      </c>
+      <c r="Y21" s="19" t="s">
+        <v>289</v>
+      </c>
       <c r="AA21" s="84" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AB21" s="90">
         <v>1</v>
       </c>
       <c r="AC21" s="90">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AD21" s="80" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AE21" s="80" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="AF21" s="85" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="3:32" x14ac:dyDescent="0.35">
       <c r="C22" s="23"/>
       <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="F22" s="9">
-        <f>226.8+29+71/72</f>
-        <v>256.7861111111111</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>44</v>
+        <f>79+19/50+23+19/255</f>
+        <v>102.45450980392157</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="H22" s="2"/>
       <c r="K22" s="38" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="L22" s="9">
-        <v>4.2</v>
+        <v>11.52</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
+      <c r="O22" s="11">
+        <f>125+29/50</f>
+        <v>125.58</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q22" s="2">
+        <f>148+2/5</f>
+        <v>148.4</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="S22" s="2">
+        <v>160</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V22" s="11">
+        <f>43+131/135</f>
+        <v>43.970370370370368</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="X22" s="11"/>
       <c r="Y22" s="2"/>
       <c r="AA22" s="84" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AB22" s="90">
         <v>1</v>
       </c>
       <c r="AC22" s="90">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="AD22" s="80" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="AE22" s="80" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="AF22" s="85" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="23" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.35">
       <c r="C23" s="23"/>
       <c r="E23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="9">
+        <v>146.3777</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="K23" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="L23" s="9">
+        <v>10</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" s="11">
+        <v>2.73</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>226.8</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="2"/>
+      <c r="AA23" s="84" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB23" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="90">
+        <v>0.3</v>
+      </c>
+      <c r="AD23" s="80" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE23" s="80" t="s">
+        <v>356</v>
+      </c>
+      <c r="AF23" s="85" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="C24" s="23"/>
+      <c r="E24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="9">
+        <v>153.09</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="K24" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="L24" s="9">
+        <v>5</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="11">
+        <f>116+92/1125</f>
+        <v>116.08177777777777</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="2"/>
+      <c r="AA24" s="84" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB24" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="90">
+        <v>0.4</v>
+      </c>
+      <c r="AD24" s="80" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE24" s="80" t="s">
+        <v>354</v>
+      </c>
+      <c r="AF24" s="85" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="C25" s="23"/>
+      <c r="E25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="9">
+        <f>V21+V22</f>
+        <v>214.07037037037037</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="K25" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="L25" s="9">
+        <v>4.95</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" s="11">
+        <f>72+124/225</f>
+        <v>72.551111111111112</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="2"/>
+      <c r="AA25" s="84" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB25" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="90">
+        <v>0.6</v>
+      </c>
+      <c r="AD25" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE25" s="80" t="s">
+        <v>279</v>
+      </c>
+      <c r="AF25" s="85" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="C26" s="23"/>
+      <c r="E26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="9">
+        <f>226.8+29+71/72</f>
+        <v>256.7861111111111</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="K26" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="L26" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="2"/>
+      <c r="AA26" s="84" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB26" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="90">
+        <v>0.7</v>
+      </c>
+      <c r="AD26" s="80" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE26" s="80" t="s">
+        <v>355</v>
+      </c>
+      <c r="AF26" s="85" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C27" s="23"/>
+      <c r="E27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F27" s="9">
         <f>628+1243/3645</f>
         <v>628.34101508916319</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="K23" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="L23" s="9">
+      <c r="H27" s="2"/>
+      <c r="K27" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="L27" s="9">
         <v>2.73</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="V23" s="72"/>
-      <c r="W23" s="72"/>
-      <c r="X23" s="74"/>
-      <c r="Y23" s="72"/>
-      <c r="AA23" s="84" t="s">
-        <v>306</v>
-      </c>
-      <c r="AB23" s="90">
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="72"/>
+      <c r="X27" s="74"/>
+      <c r="Y27" s="72"/>
+      <c r="AA27" s="84" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB27" s="90">
         <v>1</v>
       </c>
-      <c r="AC23" s="90">
+      <c r="AC27" s="90">
         <v>1</v>
       </c>
-      <c r="AD23" s="80" t="s">
-        <v>318</v>
-      </c>
-      <c r="AE23" s="80" t="s">
+      <c r="AD27" s="80" t="s">
+        <v>316</v>
+      </c>
+      <c r="AE27" s="80" t="s">
         <v>176</v>
       </c>
-      <c r="AF23" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="24" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="23"/>
-      <c r="E24" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F24" s="9">
+      <c r="AF27" s="85" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C28" s="23"/>
+      <c r="E28" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F28" s="9">
         <f>174+46/375</f>
         <v>174.12266666666667</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="K24" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="L24" s="9">
+      <c r="G28" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="K28" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="L28" s="9">
         <v>2.73</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="M28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="72"/>
-      <c r="V24" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="W24" s="76">
-        <f>SUM(V17:V18)</f>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
+      <c r="V28" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="W28" s="76">
+        <f>SUM(V21:V22)</f>
         <v>214.07037037037037</v>
       </c>
-      <c r="X24" s="75" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y24" s="76">
-        <f>SUM(X17:X23)</f>
+      <c r="X28" s="75" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y28" s="76">
+        <f>SUM(X21:X27)</f>
         <v>158.29333333333332</v>
       </c>
-      <c r="AA24" s="84" t="s">
-        <v>310</v>
-      </c>
-      <c r="AB24" s="90">
+      <c r="AA28" s="84" t="s">
+        <v>308</v>
+      </c>
+      <c r="AB28" s="90">
         <v>1</v>
       </c>
-      <c r="AC24" s="90">
+      <c r="AC28" s="90">
         <v>1.2</v>
       </c>
-      <c r="AD24" s="80" t="s">
-        <v>307</v>
-      </c>
-      <c r="AE24" s="80" t="s">
+      <c r="AD28" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE28" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="AF24" s="85" t="s">
+      <c r="AF28" s="85" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="23"/>
-      <c r="E25" s="2" t="s">
+    <row r="29" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C29" s="23"/>
+      <c r="E29" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F29" s="9">
         <f>72+124/225</f>
         <v>72.551111111111112</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G29" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="K25" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="L25" s="9">
+      <c r="H29" s="2"/>
+      <c r="K29" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="L29" s="9">
         <v>1.54</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="M29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O25" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="P25" s="73">
-        <f>SUM(O17:O24)</f>
+      <c r="O29" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="P29" s="73">
+        <f>SUM(O21:O28)</f>
         <v>444.51788888888893</v>
       </c>
-      <c r="Q25" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="R25" s="73">
-        <f>SUM(Q17:Q24)</f>
+      <c r="Q29" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="R29" s="73">
+        <f>SUM(Q21:Q28)</f>
         <v>526.89777777777772</v>
       </c>
-      <c r="S25" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="T25" s="73">
-        <f>SUM(S17:S24)</f>
+      <c r="S29" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="T29" s="73">
+        <f>SUM(S21:S28)</f>
         <v>400</v>
       </c>
-      <c r="V25" s="48" t="s">
-        <v>293</v>
-      </c>
-      <c r="W25" s="112">
-        <f>W24+Y24</f>
+      <c r="V29" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="W29" s="112">
+        <f>W28+Y28</f>
         <v>372.36370370370366</v>
       </c>
-      <c r="X25" s="113"/>
-      <c r="Y25" s="114"/>
-      <c r="AA25" s="84" t="s">
-        <v>306</v>
-      </c>
-      <c r="AB25" s="90">
+      <c r="X29" s="113"/>
+      <c r="Y29" s="114"/>
+      <c r="AA29" s="84" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB29" s="90">
         <v>1</v>
       </c>
-      <c r="AC25" s="90">
+      <c r="AC29" s="90">
         <v>1.6</v>
       </c>
-      <c r="AD25" s="80" t="s">
-        <v>307</v>
-      </c>
-      <c r="AE25" s="80" t="s">
+      <c r="AD29" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE29" s="80" t="s">
+        <v>312</v>
+      </c>
+      <c r="AF29" s="85" t="s">
         <v>314</v>
       </c>
-      <c r="AF25" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="26" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="23"/>
-      <c r="E26" s="70" t="s">
+    </row>
+    <row r="30" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C30" s="23"/>
+      <c r="E30" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F30" s="38">
         <f>734+32/45</f>
         <v>734.71111111111111</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="H26" s="2"/>
-      <c r="K26" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="L26" s="9">
+      <c r="H30" s="2"/>
+      <c r="K30" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="L30" s="9">
         <v>1</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="M30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O26" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="P26" s="71">
-        <f>P25/600</f>
+      <c r="O30" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="P30" s="71">
+        <f>P29/600</f>
         <v>0.74086314814814824</v>
       </c>
-      <c r="Q26" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="R26" s="71">
-        <f>R25/600</f>
+      <c r="Q30" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="R30" s="71">
+        <f>R29/600</f>
         <v>0.87816296296296281</v>
       </c>
-      <c r="S26" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="T26" s="71">
-        <f>T25/600</f>
+      <c r="S30" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="T30" s="71">
+        <f>T29/600</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AA26" s="84" t="s">
-        <v>324</v>
-      </c>
-      <c r="AB26" s="90">
+      <c r="AA30" s="84" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB30" s="90">
         <v>2</v>
       </c>
-      <c r="AC26" s="90">
+      <c r="AC30" s="90">
         <v>2.7</v>
       </c>
-      <c r="AD26" s="80" t="s">
+      <c r="AD30" s="80" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE30" s="80" t="s">
         <v>343</v>
       </c>
-      <c r="AE26" s="80" t="s">
-        <v>345</v>
-      </c>
-      <c r="AF26" s="85" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="27" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C27" s="23"/>
-      <c r="E27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="9">
-        <f>479+73/600</f>
-        <v>479.12166666666667</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="2"/>
-      <c r="K27" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="L27" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA27" s="84" t="s">
-        <v>324</v>
-      </c>
-      <c r="AB27" s="90">
-        <v>4</v>
-      </c>
-      <c r="AC27" s="90">
-        <v>2.8</v>
-      </c>
-      <c r="AD27" s="80" t="s">
-        <v>307</v>
-      </c>
-      <c r="AE27" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF27" s="85" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C28" s="23"/>
-      <c r="E28" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F28" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="K28" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="L28" s="9">
-        <v>0.21</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA28" s="84" t="s">
-        <v>324</v>
-      </c>
-      <c r="AB28" s="90">
-        <v>12</v>
-      </c>
-      <c r="AC28" s="90">
-        <v>3.2</v>
-      </c>
-      <c r="AD28" s="80" t="s">
-        <v>307</v>
-      </c>
-      <c r="AE28" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF28" s="85" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C29" s="23"/>
-      <c r="E29" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F29" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H29" s="2"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="4"/>
-      <c r="AA29" s="84" t="s">
-        <v>324</v>
-      </c>
-      <c r="AB29" s="90">
-        <v>3</v>
-      </c>
-      <c r="AC29" s="90">
-        <v>3.3</v>
-      </c>
-      <c r="AD29" s="80" t="s">
-        <v>343</v>
-      </c>
-      <c r="AE29" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF29" s="85" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="30" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C30" s="23"/>
-      <c r="E30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="9">
-        <v>1360.11733</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H30" s="2"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="4"/>
-      <c r="AA30" s="84" t="s">
-        <v>319</v>
-      </c>
-      <c r="AB30" s="90">
-        <v>14</v>
-      </c>
-      <c r="AC30" s="90">
-        <v>3.4</v>
-      </c>
-      <c r="AD30" s="80" t="s">
-        <v>307</v>
-      </c>
-      <c r="AE30" s="80" t="s">
-        <v>70</v>
-      </c>
       <c r="AF30" s="85" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="3:32" x14ac:dyDescent="0.35">
       <c r="C31" s="23"/>
       <c r="E31" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F31" s="9">
-        <f>X17</f>
-        <v>158.29333333333332</v>
+        <f>479+73/600</f>
+        <v>479.12166666666667</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="K31" s="11"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="K31" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="L31" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="AA31" s="84" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AB31" s="90">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AC31" s="90">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="AD31" s="80" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="AE31" s="80" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AF31" s="85" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="3:32" x14ac:dyDescent="0.35">
       <c r="C32" s="23"/>
       <c r="E32" s="2" t="s">
-        <v>297</v>
+        <v>179</v>
       </c>
       <c r="F32" s="9">
-        <v>480</v>
+        <v>2.5</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>298</v>
+        <v>173</v>
       </c>
       <c r="H32" s="2"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="4"/>
+      <c r="K32" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="L32" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="AA32" s="84" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AB32" s="90">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AC32" s="90">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="AD32" s="80" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="AE32" s="80" t="s">
-        <v>345</v>
+        <v>76</v>
       </c>
       <c r="AF32" s="85" t="s">
-        <v>287</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="3:32" x14ac:dyDescent="0.35">
       <c r="C33" s="23"/>
       <c r="E33" s="2" t="s">
-        <v>271</v>
+        <v>180</v>
       </c>
       <c r="F33" s="9">
-        <v>240</v>
+        <v>2.5</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="H33" s="2"/>
       <c r="K33" s="11"/>
       <c r="L33" s="9"/>
       <c r="M33" s="4"/>
       <c r="AA33" s="84" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="AB33" s="90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC33" s="90">
-        <v>4.5999999999999996</v>
+        <v>3.3</v>
       </c>
       <c r="AD33" s="80" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="AE33" s="80" t="s">
-        <v>314</v>
+        <v>76</v>
       </c>
       <c r="AF33" s="85" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="3:32" x14ac:dyDescent="0.35">
       <c r="C34" s="23"/>
       <c r="E34" s="2" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="F34" s="9">
-        <f>14727+1247/3000</f>
-        <v>14727.415666666666</v>
+        <v>1360.11733</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H34" s="2"/>
       <c r="K34" s="11"/>
       <c r="L34" s="9"/>
-      <c r="M34" s="2"/>
+      <c r="M34" s="4"/>
       <c r="AA34" s="84" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="AB34" s="90">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AC34" s="90">
-        <v>10.6</v>
+        <v>3.4</v>
       </c>
       <c r="AD34" s="80" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AE34" s="80" t="s">
-        <v>314</v>
+        <v>70</v>
       </c>
       <c r="AF34" s="85" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="3:32" x14ac:dyDescent="0.35">
       <c r="C35" s="23"/>
       <c r="E35" s="2" t="s">
-        <v>371</v>
+        <v>54</v>
       </c>
       <c r="F35" s="9">
-        <f>1050+13/15</f>
-        <v>1050.8666666666666</v>
+        <f>X21</f>
+        <v>158.29333333333332</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="H35" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="K35" s="11"/>
       <c r="L35" s="9"/>
-      <c r="M35" s="2"/>
+      <c r="M35" s="4"/>
       <c r="AA35" s="84" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="AB35" s="90">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AC35" s="90">
-        <v>11.2</v>
+        <v>3.7</v>
       </c>
       <c r="AD35" s="80" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="AE35" s="80" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AF35" s="85" t="s">
-        <v>313</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="3:32" x14ac:dyDescent="0.35">
       <c r="C36" s="23"/>
       <c r="E36" s="2" t="s">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="F36" s="9">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>379</v>
+        <v>296</v>
       </c>
       <c r="H36" s="2"/>
       <c r="K36" s="11"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="2"/>
+      <c r="M36" s="4"/>
       <c r="AA36" s="84" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="AB36" s="90">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC36" s="90">
-        <v>11.3</v>
+        <v>3.7</v>
       </c>
       <c r="AD36" s="80" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="AE36" s="80" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="AF36" s="85" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="3:32" x14ac:dyDescent="0.35">
       <c r="C37" s="23"/>
       <c r="E37" s="2" t="s">
-        <v>380</v>
+        <v>269</v>
       </c>
       <c r="F37" s="9">
-        <v>6.34</v>
+        <v>240</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="H37" s="2"/>
       <c r="K37" s="11"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="2"/>
+      <c r="M37" s="4"/>
       <c r="AA37" s="84" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AB37" s="90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC37" s="90">
-        <v>11.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AD37" s="80" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="AE37" s="80" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="AF37" s="85" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="C38" s="23"/>
       <c r="E38" s="2" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="F38" s="9">
-        <v>600</v>
+        <f>14727+1247/3000</f>
+        <v>14727.415666666666</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="H38" s="2"/>
       <c r="K38" s="11"/>
       <c r="L38" s="9"/>
       <c r="M38" s="2"/>
       <c r="AA38" s="84" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AB38" s="90">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AC38" s="90">
-        <v>11.6</v>
+        <v>10.6</v>
       </c>
       <c r="AD38" s="80" t="s">
-        <v>363</v>
+        <v>305</v>
       </c>
       <c r="AE38" s="80" t="s">
-        <v>354</v>
+        <v>312</v>
       </c>
       <c r="AF38" s="85" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="E39" s="2"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="6"/>
+      <c r="C39" s="23"/>
+      <c r="E39" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F39" s="9">
+        <f>1050+13/15</f>
+        <v>1050.8666666666666</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>375</v>
+      </c>
       <c r="H39" s="2"/>
       <c r="K39" s="11"/>
       <c r="L39" s="9"/>
       <c r="M39" s="2"/>
       <c r="AA39" s="84" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="AB39" s="90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC39" s="90">
-        <v>11.7</v>
+        <v>11.2</v>
       </c>
       <c r="AD39" s="80" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="AE39" s="80" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AF39" s="85" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="E40" s="2"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="6"/>
+      <c r="C40" s="23"/>
+      <c r="E40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="9">
+        <v>300</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>377</v>
+      </c>
       <c r="H40" s="2"/>
       <c r="K40" s="11"/>
       <c r="L40" s="9"/>
       <c r="M40" s="2"/>
       <c r="AA40" s="84" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB40" s="90">
+        <v>6</v>
+      </c>
+      <c r="AC40" s="90">
+        <v>11.3</v>
+      </c>
+      <c r="AD40" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE40" s="80" t="s">
+        <v>310</v>
+      </c>
+      <c r="AF40" s="85" t="s">
         <v>306</v>
       </c>
-      <c r="AB40" s="90">
-        <v>4</v>
-      </c>
-      <c r="AC40" s="90">
-        <v>12.7</v>
-      </c>
-      <c r="AD40" s="80" t="s">
-        <v>307</v>
-      </c>
-      <c r="AE40" s="80" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF40" s="85" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="41" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="E41" s="2"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="6"/>
+      <c r="C41" s="23"/>
+      <c r="E41" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F41" s="9">
+        <v>6.34</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>162</v>
+      </c>
       <c r="H41" s="2"/>
       <c r="K41" s="11"/>
       <c r="L41" s="9"/>
       <c r="M41" s="2"/>
       <c r="AA41" s="84" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AB41" s="90">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AC41" s="90">
-        <v>12.7</v>
+        <v>11.6</v>
       </c>
       <c r="AD41" s="80" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="AE41" s="80" t="s">
-        <v>69</v>
+        <v>348</v>
       </c>
       <c r="AF41" s="85" t="s">
-        <v>232</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="E42" s="2"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="6"/>
+      <c r="E42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="9">
+        <v>600</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="H42" s="2"/>
       <c r="K42" s="11"/>
       <c r="L42" s="9"/>
       <c r="M42" s="2"/>
       <c r="AA42" s="84" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AB42" s="90">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AC42" s="90">
-        <v>12.7</v>
+        <v>11.6</v>
       </c>
       <c r="AD42" s="80" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="AE42" s="80" t="s">
-        <v>64</v>
+        <v>352</v>
       </c>
       <c r="AF42" s="85" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="3:32" x14ac:dyDescent="0.35">
@@ -10837,22 +10872,22 @@
       <c r="L43" s="9"/>
       <c r="M43" s="2"/>
       <c r="AA43" s="84" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AB43" s="90">
         <v>4</v>
       </c>
       <c r="AC43" s="90">
-        <v>12.9</v>
+        <v>11.7</v>
       </c>
       <c r="AD43" s="80" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="AE43" s="80" t="s">
         <v>72</v>
       </c>
       <c r="AF43" s="85" t="s">
-        <v>69</v>
+        <v>345</v>
       </c>
     </row>
     <row r="44" spans="3:32" x14ac:dyDescent="0.35">
@@ -10864,22 +10899,22 @@
       <c r="L44" s="9"/>
       <c r="M44" s="2"/>
       <c r="AA44" s="84" t="s">
-        <v>346</v>
+        <v>304</v>
       </c>
       <c r="AB44" s="90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC44" s="90">
-        <v>13.5</v>
+        <v>12.7</v>
       </c>
       <c r="AD44" s="80" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="AE44" s="80" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="AF44" s="85" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="3:32" x14ac:dyDescent="0.35">
@@ -10887,26 +10922,26 @@
       <c r="F45" s="9"/>
       <c r="G45" s="6"/>
       <c r="H45" s="2"/>
-      <c r="K45" s="2"/>
+      <c r="K45" s="11"/>
       <c r="L45" s="9"/>
       <c r="M45" s="2"/>
       <c r="AA45" s="84" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AB45" s="90">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AC45" s="90">
-        <v>13.9</v>
+        <v>12.7</v>
       </c>
       <c r="AD45" s="80" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AE45" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF45" s="85" t="s">
         <v>232</v>
-      </c>
-      <c r="AF45" s="85" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="46" spans="3:32" x14ac:dyDescent="0.35">
@@ -10914,26 +10949,26 @@
       <c r="F46" s="9"/>
       <c r="G46" s="6"/>
       <c r="H46" s="2"/>
-      <c r="K46" s="2"/>
+      <c r="K46" s="11"/>
       <c r="L46" s="9"/>
       <c r="M46" s="2"/>
       <c r="AA46" s="84" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AB46" s="90">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AC46" s="90">
-        <v>13.9</v>
+        <v>12.7</v>
       </c>
       <c r="AD46" s="80" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="AE46" s="80" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AF46" s="85" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="3:32" x14ac:dyDescent="0.35">
@@ -10941,693 +10976,721 @@
       <c r="F47" s="9"/>
       <c r="G47" s="6"/>
       <c r="H47" s="2"/>
-      <c r="K47" s="2"/>
+      <c r="K47" s="11"/>
       <c r="L47" s="9"/>
       <c r="M47" s="2"/>
       <c r="AA47" s="84" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="AB47" s="90">
+        <v>4</v>
+      </c>
+      <c r="AC47" s="90">
+        <v>12.9</v>
+      </c>
+      <c r="AD47" s="80" t="s">
+        <v>316</v>
+      </c>
+      <c r="AE47" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF47" s="85" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="3:32" x14ac:dyDescent="0.35">
+      <c r="E48" s="2"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="2"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="2"/>
+      <c r="AA48" s="84" t="s">
+        <v>344</v>
+      </c>
+      <c r="AB48" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="90">
+        <v>13.5</v>
+      </c>
+      <c r="AD48" s="80" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE48" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF48" s="85" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="5:32" x14ac:dyDescent="0.35">
+      <c r="E49" s="2"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="2"/>
+      <c r="AA49" s="84" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB49" s="90">
+        <v>10</v>
+      </c>
+      <c r="AC49" s="90">
+        <v>13.9</v>
+      </c>
+      <c r="AD49" s="80" t="s">
+        <v>316</v>
+      </c>
+      <c r="AE49" s="80" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF49" s="85" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="50" spans="5:32" x14ac:dyDescent="0.35">
+      <c r="E50" s="2"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="2"/>
+      <c r="AA50" s="84" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB50" s="90">
+        <v>8</v>
+      </c>
+      <c r="AC50" s="90">
+        <v>13.9</v>
+      </c>
+      <c r="AD50" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE50" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF50" s="85" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="51" spans="5:32" x14ac:dyDescent="0.35">
+      <c r="E51" s="2"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="2"/>
+      <c r="AA51" s="84" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB51" s="90">
         <v>28</v>
       </c>
-      <c r="AC47" s="90">
+      <c r="AC51" s="90">
         <v>14.1</v>
       </c>
-      <c r="AD47" s="80" t="s">
-        <v>360</v>
-      </c>
-      <c r="AE47" s="80" t="s">
+      <c r="AD51" s="80" t="s">
+        <v>358</v>
+      </c>
+      <c r="AE51" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="AF47" s="85" t="s">
+      <c r="AF51" s="85" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="52" spans="5:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E52" s="3"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="3"/>
+      <c r="AA52" s="84" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB52" s="90">
+        <v>5</v>
+      </c>
+      <c r="AC52" s="90">
+        <v>14.8</v>
+      </c>
+      <c r="AD52" s="80" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE52" s="80" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF52" s="85" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="53" spans="5:32" x14ac:dyDescent="0.35">
+      <c r="AA53" s="84" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB53" s="90">
+        <v>8</v>
+      </c>
+      <c r="AC53" s="90">
+        <v>15</v>
+      </c>
+      <c r="AD53" s="80" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE53" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF53" s="85" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="54" spans="5:32" x14ac:dyDescent="0.35">
+      <c r="AA54" s="84" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB54" s="90">
+        <v>2</v>
+      </c>
+      <c r="AC54" s="90">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="AD54" s="80" t="s">
+        <v>316</v>
+      </c>
+      <c r="AE54" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF54" s="85" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="5:32" x14ac:dyDescent="0.35">
+      <c r="AA55" s="84" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB55" s="90">
+        <v>6</v>
+      </c>
+      <c r="AC55" s="90">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="AD55" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE55" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF55" s="85" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="56" spans="5:32" x14ac:dyDescent="0.35">
+      <c r="AA56" s="84" t="s">
+        <v>321</v>
+      </c>
+      <c r="AB56" s="90">
+        <v>2</v>
+      </c>
+      <c r="AC56" s="90">
+        <v>20.2</v>
+      </c>
+      <c r="AD56" s="80" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE56" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF56" s="85" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="57" spans="5:32" x14ac:dyDescent="0.35">
+      <c r="AA57" s="84" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB57" s="90">
+        <v>2</v>
+      </c>
+      <c r="AC57" s="90">
+        <v>20.8</v>
+      </c>
+      <c r="AD57" s="80" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE57" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF57" s="85" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="5:32" x14ac:dyDescent="0.35">
+      <c r="AA58" s="84" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB58" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC58" s="90">
+        <v>22</v>
+      </c>
+      <c r="AD58" s="80" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="48" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E48" s="3"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="3"/>
-      <c r="AA48" s="84" t="s">
-        <v>306</v>
-      </c>
-      <c r="AB48" s="90">
-        <v>5</v>
-      </c>
-      <c r="AC48" s="90">
-        <v>14.8</v>
-      </c>
-      <c r="AD48" s="80" t="s">
-        <v>353</v>
-      </c>
-      <c r="AE48" s="80" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF48" s="85" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="49" spans="27:32" x14ac:dyDescent="0.35">
-      <c r="AA49" s="84" t="s">
-        <v>306</v>
-      </c>
-      <c r="AB49" s="90">
-        <v>8</v>
-      </c>
-      <c r="AC49" s="90">
-        <v>15</v>
-      </c>
-      <c r="AD49" s="80" t="s">
-        <v>343</v>
-      </c>
-      <c r="AE49" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF49" s="85" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="50" spans="27:32" x14ac:dyDescent="0.35">
-      <c r="AA50" s="84" t="s">
+      <c r="AE58" s="80" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF58" s="85" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="59" spans="5:32" x14ac:dyDescent="0.35">
+      <c r="AA59" s="84" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB59" s="90">
+        <v>4</v>
+      </c>
+      <c r="AC59" s="90">
+        <v>22.6</v>
+      </c>
+      <c r="AD59" s="80" t="s">
         <v>305</v>
-      </c>
-      <c r="AB50" s="90">
-        <v>2</v>
-      </c>
-      <c r="AC50" s="90">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="AD50" s="80" t="s">
-        <v>318</v>
-      </c>
-      <c r="AE50" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF50" s="85" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="27:32" x14ac:dyDescent="0.35">
-      <c r="AA51" s="84" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB51" s="90">
-        <v>6</v>
-      </c>
-      <c r="AC51" s="90">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="AD51" s="80" t="s">
-        <v>307</v>
-      </c>
-      <c r="AE51" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF51" s="85" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="52" spans="27:32" x14ac:dyDescent="0.35">
-      <c r="AA52" s="84" t="s">
-        <v>323</v>
-      </c>
-      <c r="AB52" s="90">
-        <v>2</v>
-      </c>
-      <c r="AC52" s="90">
-        <v>20.2</v>
-      </c>
-      <c r="AD52" s="80" t="s">
-        <v>343</v>
-      </c>
-      <c r="AE52" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF52" s="85" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="53" spans="27:32" x14ac:dyDescent="0.35">
-      <c r="AA53" s="84" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB53" s="90">
-        <v>2</v>
-      </c>
-      <c r="AC53" s="90">
-        <v>20.8</v>
-      </c>
-      <c r="AD53" s="80" t="s">
-        <v>343</v>
-      </c>
-      <c r="AE53" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF53" s="85" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="27:32" x14ac:dyDescent="0.35">
-      <c r="AA54" s="84" t="s">
-        <v>309</v>
-      </c>
-      <c r="AB54" s="90">
-        <v>1</v>
-      </c>
-      <c r="AC54" s="90">
-        <v>22</v>
-      </c>
-      <c r="AD54" s="80" t="s">
-        <v>363</v>
-      </c>
-      <c r="AE54" s="80" t="s">
-        <v>316</v>
-      </c>
-      <c r="AF54" s="85" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="55" spans="27:32" x14ac:dyDescent="0.35">
-      <c r="AA55" s="84" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB55" s="90">
-        <v>4</v>
-      </c>
-      <c r="AC55" s="90">
-        <v>22.6</v>
-      </c>
-      <c r="AD55" s="80" t="s">
-        <v>307</v>
-      </c>
-      <c r="AE55" s="80" t="s">
-        <v>283</v>
-      </c>
-      <c r="AF55" s="85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="27:32" x14ac:dyDescent="0.35">
-      <c r="AA56" s="84" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB56" s="90">
-        <v>3</v>
-      </c>
-      <c r="AC56" s="90">
-        <v>23</v>
-      </c>
-      <c r="AD56" s="80" t="s">
-        <v>307</v>
-      </c>
-      <c r="AE56" s="80" t="s">
-        <v>281</v>
-      </c>
-      <c r="AF56" s="85" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="27:32" x14ac:dyDescent="0.35">
-      <c r="AA57" s="84" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB57" s="90">
-        <v>6</v>
-      </c>
-      <c r="AC57" s="90">
-        <v>23.2</v>
-      </c>
-      <c r="AD57" s="80" t="s">
-        <v>334</v>
-      </c>
-      <c r="AE57" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF57" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="58" spans="27:32" x14ac:dyDescent="0.35">
-      <c r="AA58" s="84" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB58" s="90">
-        <v>6</v>
-      </c>
-      <c r="AC58" s="90">
-        <v>23.9</v>
-      </c>
-      <c r="AD58" s="80" t="s">
-        <v>334</v>
-      </c>
-      <c r="AE58" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF58" s="85" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="59" spans="27:32" x14ac:dyDescent="0.35">
-      <c r="AA59" s="84" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB59" s="90">
-        <v>5</v>
-      </c>
-      <c r="AC59" s="90">
-        <v>25.7</v>
-      </c>
-      <c r="AD59" s="80" t="s">
-        <v>363</v>
       </c>
       <c r="AE59" s="80" t="s">
         <v>281</v>
       </c>
       <c r="AF59" s="85" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="60" spans="27:32" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="5:32" x14ac:dyDescent="0.35">
       <c r="AA60" s="84" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB60" s="90">
+        <v>3</v>
+      </c>
+      <c r="AC60" s="90">
+        <v>23</v>
+      </c>
+      <c r="AD60" s="80" t="s">
         <v>305</v>
       </c>
-      <c r="AB60" s="90">
+      <c r="AE60" s="80" t="s">
+        <v>279</v>
+      </c>
+      <c r="AF60" s="85" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="5:32" x14ac:dyDescent="0.35">
+      <c r="AA61" s="84" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB61" s="90">
+        <v>6</v>
+      </c>
+      <c r="AC61" s="90">
+        <v>23.2</v>
+      </c>
+      <c r="AD61" s="80" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE61" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF61" s="85" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="5:32" x14ac:dyDescent="0.35">
+      <c r="AA62" s="84" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB62" s="90">
+        <v>6</v>
+      </c>
+      <c r="AC62" s="90">
+        <v>23.9</v>
+      </c>
+      <c r="AD62" s="80" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE62" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF62" s="85" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="63" spans="5:32" x14ac:dyDescent="0.35">
+      <c r="AA63" s="84" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB63" s="90">
+        <v>5</v>
+      </c>
+      <c r="AC63" s="90">
+        <v>25.7</v>
+      </c>
+      <c r="AD63" s="80" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE63" s="80" t="s">
+        <v>279</v>
+      </c>
+      <c r="AF63" s="85" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="64" spans="5:32" x14ac:dyDescent="0.35">
+      <c r="AA64" s="84" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB64" s="90">
         <v>12</v>
       </c>
-      <c r="AC60" s="90">
+      <c r="AC64" s="90">
         <v>28.7</v>
       </c>
-      <c r="AD60" s="80" t="s">
-        <v>307</v>
-      </c>
-      <c r="AE60" s="80" t="s">
+      <c r="AD64" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE64" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="AF60" s="85" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="61" spans="27:32" x14ac:dyDescent="0.35">
-      <c r="AA61" s="84" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB61" s="90">
-        <v>5</v>
-      </c>
-      <c r="AC61" s="90">
-        <v>30</v>
-      </c>
-      <c r="AD61" s="80" t="s">
-        <v>334</v>
-      </c>
-      <c r="AE61" s="80" t="s">
-        <v>335</v>
-      </c>
-      <c r="AF61" s="85" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="62" spans="27:32" x14ac:dyDescent="0.35">
-      <c r="AA62" s="84" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB62" s="90">
-        <v>10</v>
-      </c>
-      <c r="AC62" s="90">
-        <v>30</v>
-      </c>
-      <c r="AD62" s="80" t="s">
-        <v>343</v>
-      </c>
-      <c r="AE62" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF62" s="85" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="27:32" x14ac:dyDescent="0.35">
-      <c r="AA63" s="84" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB63" s="90">
-        <v>16</v>
-      </c>
-      <c r="AC63" s="90">
-        <v>30</v>
-      </c>
-      <c r="AD63" s="80" t="s">
-        <v>343</v>
-      </c>
-      <c r="AE63" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF63" s="85" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="27:32" x14ac:dyDescent="0.35">
-      <c r="AA64" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB64" s="90">
-        <v>80</v>
-      </c>
-      <c r="AC64" s="90">
-        <v>30.9</v>
-      </c>
-      <c r="AD64" s="80" t="s">
-        <v>370</v>
-      </c>
-      <c r="AE64" s="80" t="s">
-        <v>19</v>
-      </c>
       <c r="AF64" s="85" t="s">
-        <v>367</v>
+        <v>315</v>
       </c>
     </row>
     <row r="65" spans="27:32" x14ac:dyDescent="0.35">
       <c r="AA65" s="84" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AB65" s="90">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC65" s="90">
-        <v>36.5</v>
+        <v>30</v>
       </c>
       <c r="AD65" s="80" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="AE65" s="80" t="s">
-        <v>156</v>
+        <v>333</v>
       </c>
       <c r="AF65" s="85" t="s">
-        <v>240</v>
+        <v>334</v>
       </c>
     </row>
     <row r="66" spans="27:32" x14ac:dyDescent="0.35">
       <c r="AA66" s="84" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AB66" s="90">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AC66" s="90">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AD66" s="80" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="AE66" s="80" t="s">
-        <v>315</v>
+        <v>53</v>
       </c>
       <c r="AF66" s="85" t="s">
-        <v>322</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="27:32" x14ac:dyDescent="0.35">
       <c r="AA67" s="84" t="s">
-        <v>22</v>
+        <v>303</v>
       </c>
       <c r="AB67" s="90">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="AC67" s="90">
-        <v>39.299999999999997</v>
+        <v>30</v>
       </c>
       <c r="AD67" s="80" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="AE67" s="80" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="AF67" s="85" t="s">
-        <v>286</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="27:32" x14ac:dyDescent="0.35">
       <c r="AA68" s="84" t="s">
-        <v>309</v>
+        <v>22</v>
       </c>
       <c r="AB68" s="90">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="AC68" s="90">
-        <v>41</v>
+        <v>30.9</v>
       </c>
       <c r="AD68" s="80" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="AE68" s="80" t="s">
-        <v>368</v>
+        <v>19</v>
       </c>
       <c r="AF68" s="85" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
     </row>
     <row r="69" spans="27:32" x14ac:dyDescent="0.35">
       <c r="AA69" s="84" t="s">
-        <v>22</v>
+        <v>307</v>
       </c>
       <c r="AB69" s="90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC69" s="90">
-        <v>45.2</v>
+        <v>36.5</v>
       </c>
       <c r="AD69" s="80" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AE69" s="80" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="AF69" s="85" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" spans="27:32" x14ac:dyDescent="0.35">
       <c r="AA70" s="84" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AB70" s="90">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AC70" s="90">
-        <v>46.4</v>
+        <v>38</v>
       </c>
       <c r="AD70" s="80" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="AE70" s="80" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="AF70" s="85" t="s">
-        <v>156</v>
+        <v>320</v>
       </c>
     </row>
     <row r="71" spans="27:32" x14ac:dyDescent="0.35">
       <c r="AA71" s="84" t="s">
-        <v>309</v>
+        <v>22</v>
       </c>
       <c r="AB71" s="90">
         <v>2</v>
       </c>
       <c r="AC71" s="90">
-        <v>46.4</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="AD71" s="80" t="s">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="AE71" s="80" t="s">
-        <v>348</v>
+        <v>19</v>
       </c>
       <c r="AF71" s="85" t="s">
-        <v>351</v>
+        <v>284</v>
       </c>
     </row>
     <row r="72" spans="27:32" x14ac:dyDescent="0.35">
       <c r="AA72" s="84" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="AB72" s="90">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="AC72" s="90">
-        <v>48.5</v>
+        <v>41</v>
       </c>
       <c r="AD72" s="80" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AE72" s="80" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="AF72" s="85" t="s">
-        <v>240</v>
+        <v>320</v>
       </c>
     </row>
     <row r="73" spans="27:32" x14ac:dyDescent="0.35">
       <c r="AA73" s="84" t="s">
-        <v>309</v>
+        <v>22</v>
       </c>
       <c r="AB73" s="90">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="AC73" s="90">
-        <v>51</v>
+        <v>45.2</v>
       </c>
       <c r="AD73" s="80" t="s">
-        <v>363</v>
+        <v>302</v>
       </c>
       <c r="AE73" s="80" t="s">
-        <v>366</v>
+        <v>19</v>
       </c>
       <c r="AF73" s="85" t="s">
-        <v>367</v>
+        <v>277</v>
       </c>
     </row>
     <row r="74" spans="27:32" x14ac:dyDescent="0.35">
       <c r="AA74" s="84" t="s">
-        <v>22</v>
+        <v>307</v>
       </c>
       <c r="AB74" s="90">
         <v>2</v>
       </c>
       <c r="AC74" s="90">
-        <v>56.6</v>
+        <v>46.4</v>
       </c>
       <c r="AD74" s="80" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="AE74" s="80" t="s">
-        <v>19</v>
+        <v>319</v>
       </c>
       <c r="AF74" s="85" t="s">
-        <v>280</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="27:32" x14ac:dyDescent="0.35">
       <c r="AA75" s="84" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="AB75" s="90">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AC75" s="90">
-        <v>69.599999999999994</v>
+        <v>46.4</v>
       </c>
       <c r="AD75" s="80" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="AE75" s="80" t="s">
-        <v>287</v>
+        <v>346</v>
       </c>
       <c r="AF75" s="85" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="76" spans="27:32" x14ac:dyDescent="0.35">
       <c r="AA76" s="84" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AB76" s="90">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AC76" s="90">
-        <v>73.900000000000006</v>
+        <v>48.5</v>
       </c>
       <c r="AD76" s="80" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="AE76" s="80" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="AF76" s="85" t="s">
-        <v>365</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77" spans="27:32" x14ac:dyDescent="0.35">
       <c r="AA77" s="84" t="s">
-        <v>21</v>
+        <v>307</v>
       </c>
       <c r="AB77" s="90">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AC77" s="90">
-        <v>112.5</v>
+        <v>51</v>
       </c>
       <c r="AD77" s="80" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AE77" s="80" t="s">
-        <v>49</v>
+        <v>364</v>
       </c>
       <c r="AF77" s="85" t="s">
-        <v>43</v>
+        <v>365</v>
       </c>
     </row>
     <row r="78" spans="27:32" x14ac:dyDescent="0.35">
       <c r="AA78" s="84" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB78" s="90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC78" s="90">
-        <v>118.7</v>
+        <v>56.6</v>
       </c>
       <c r="AD78" s="80" t="s">
-        <v>362</v>
+        <v>302</v>
       </c>
       <c r="AE78" s="80" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="AF78" s="85" t="s">
-        <v>87</v>
+        <v>278</v>
       </c>
     </row>
     <row r="79" spans="27:32" x14ac:dyDescent="0.35">
       <c r="AA79" s="84" t="s">
-        <v>21</v>
+        <v>350</v>
       </c>
       <c r="AB79" s="90">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AC79" s="90">
-        <v>118.7</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="AD79" s="80" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="AE79" s="80" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="AF79" s="85" t="s">
-        <v>87</v>
+        <v>353</v>
       </c>
     </row>
     <row r="80" spans="27:32" x14ac:dyDescent="0.35">
       <c r="AA80" s="84" t="s">
-        <v>23</v>
+        <v>350</v>
       </c>
       <c r="AB80" s="90">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AC80" s="90">
-        <v>134.30000000000001</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="AD80" s="80" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE80" s="80" t="s">
         <v>362</v>
       </c>
-      <c r="AE80" s="80" t="s">
-        <v>20</v>
-      </c>
       <c r="AF80" s="85" t="s">
-        <v>103</v>
+        <v>363</v>
       </c>
     </row>
     <row r="81" spans="27:32" x14ac:dyDescent="0.35">
@@ -11638,161 +11701,797 @@
         <v>1</v>
       </c>
       <c r="AC81" s="90">
-        <v>151.1</v>
+        <v>112.5</v>
       </c>
       <c r="AD81" s="80" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="AE81" s="80" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="AF81" s="85" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA82" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB82" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC82" s="90">
+        <v>118.7</v>
+      </c>
+      <c r="AD82" s="80" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE82" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF82" s="85" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="82" spans="27:32" x14ac:dyDescent="0.35">
-      <c r="AA82" s="84"/>
-      <c r="AB82" s="90"/>
-      <c r="AC82" s="90"/>
-      <c r="AD82" s="80"/>
-      <c r="AE82" s="80"/>
-      <c r="AF82" s="85"/>
-    </row>
     <row r="83" spans="27:32" x14ac:dyDescent="0.35">
-      <c r="AA83" s="84"/>
-      <c r="AB83" s="90"/>
-      <c r="AC83" s="90"/>
-      <c r="AD83" s="80"/>
-      <c r="AE83" s="80"/>
-      <c r="AF83" s="85"/>
+      <c r="AA83" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB83" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC83" s="90">
+        <v>118.7</v>
+      </c>
+      <c r="AD83" s="80" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE83" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF83" s="85" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="84" spans="27:32" x14ac:dyDescent="0.35">
-      <c r="AA84" s="84"/>
-      <c r="AB84" s="80"/>
-      <c r="AC84" s="80"/>
-      <c r="AD84" s="80"/>
-      <c r="AE84" s="80"/>
-      <c r="AF84" s="85"/>
+      <c r="AA84" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB84" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC84" s="90">
+        <v>134.30000000000001</v>
+      </c>
+      <c r="AD84" s="80" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE84" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF84" s="85" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="85" spans="27:32" x14ac:dyDescent="0.35">
       <c r="AA85" s="84" t="s">
-        <v>339</v>
+        <v>21</v>
       </c>
       <c r="AB85" s="90">
         <v>1</v>
       </c>
-      <c r="AC85" s="90" t="s">
-        <v>337</v>
+      <c r="AC85" s="90">
+        <v>151.1</v>
       </c>
       <c r="AD85" s="80" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="AE85" s="80" t="s">
-        <v>336</v>
+        <v>88</v>
       </c>
       <c r="AF85" s="85" t="s">
-        <v>338</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="27:32" x14ac:dyDescent="0.35">
-      <c r="AA86" s="84" t="s">
-        <v>340</v>
-      </c>
-      <c r="AB86" s="90">
-        <v>2</v>
-      </c>
-      <c r="AC86" s="90" t="s">
-        <v>341</v>
-      </c>
-      <c r="AD86" s="80" t="s">
-        <v>334</v>
-      </c>
-      <c r="AE86" s="80" t="s">
-        <v>342</v>
-      </c>
-      <c r="AF86" s="85" t="s">
-        <v>330</v>
-      </c>
+      <c r="AA86" s="84"/>
+      <c r="AB86" s="90"/>
+      <c r="AC86" s="90"/>
+      <c r="AD86" s="80"/>
+      <c r="AE86" s="80"/>
+      <c r="AF86" s="85"/>
     </row>
     <row r="87" spans="27:32" x14ac:dyDescent="0.35">
-      <c r="AA87" s="84" t="s">
-        <v>339</v>
-      </c>
-      <c r="AB87" s="90">
-        <v>12</v>
-      </c>
-      <c r="AC87" s="80" t="s">
-        <v>369</v>
-      </c>
-      <c r="AD87" s="80" t="s">
-        <v>363</v>
-      </c>
-      <c r="AE87" s="80" t="s">
-        <v>365</v>
-      </c>
-      <c r="AF87" s="85" t="s">
-        <v>354</v>
-      </c>
+      <c r="AA87" s="84"/>
+      <c r="AB87" s="90"/>
+      <c r="AC87" s="90"/>
+      <c r="AD87" s="80"/>
+      <c r="AE87" s="80"/>
+      <c r="AF87" s="85"/>
     </row>
     <row r="88" spans="27:32" x14ac:dyDescent="0.35">
-      <c r="AA88" s="84" t="s">
-        <v>378</v>
-      </c>
-      <c r="AB88" s="90">
-        <v>24</v>
-      </c>
-      <c r="AC88" s="80">
-        <v>1</v>
-      </c>
+      <c r="AA88" s="84"/>
+      <c r="AB88" s="80"/>
+      <c r="AC88" s="80"/>
       <c r="AD88" s="80"/>
       <c r="AE88" s="80"/>
       <c r="AF88" s="85"/>
     </row>
     <row r="89" spans="27:32" x14ac:dyDescent="0.35">
-      <c r="AA89" s="84"/>
-      <c r="AB89" s="80"/>
-      <c r="AC89" s="80"/>
-      <c r="AD89" s="80"/>
-      <c r="AE89" s="80"/>
-      <c r="AF89" s="85"/>
+      <c r="AA89" s="84" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB89" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC89" s="90" t="s">
+        <v>335</v>
+      </c>
+      <c r="AD89" s="80" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE89" s="80" t="s">
+        <v>334</v>
+      </c>
+      <c r="AF89" s="85" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="90" spans="27:32" x14ac:dyDescent="0.35">
-      <c r="AA90" s="84"/>
-      <c r="AB90" s="80">
-        <f>SUM(AB15:AB87)</f>
+      <c r="AA90" s="84" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB90" s="90">
+        <v>2</v>
+      </c>
+      <c r="AC90" s="90" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD90" s="80" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE90" s="80" t="s">
+        <v>340</v>
+      </c>
+      <c r="AF90" s="85" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="91" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA91" s="84" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB91" s="90">
+        <v>12</v>
+      </c>
+      <c r="AC91" s="80" t="s">
+        <v>367</v>
+      </c>
+      <c r="AD91" s="80" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE91" s="80" t="s">
+        <v>363</v>
+      </c>
+      <c r="AF91" s="85" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="92" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA92" s="84" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB92" s="90">
+        <v>24</v>
+      </c>
+      <c r="AC92" s="80">
+        <v>1</v>
+      </c>
+      <c r="AD92" s="80"/>
+      <c r="AE92" s="80"/>
+      <c r="AF92" s="85"/>
+    </row>
+    <row r="93" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA93" s="84"/>
+      <c r="AB93" s="80"/>
+      <c r="AC93" s="80"/>
+      <c r="AD93" s="80"/>
+      <c r="AE93" s="80"/>
+      <c r="AF93" s="85"/>
+    </row>
+    <row r="94" spans="27:32" x14ac:dyDescent="0.35">
+      <c r="AA94" s="84"/>
+      <c r="AB94" s="80">
+        <f>SUM(AB19:AB91)</f>
         <v>460</v>
       </c>
-      <c r="AC90" s="80"/>
-      <c r="AD90" s="80"/>
-      <c r="AE90" s="80"/>
-      <c r="AF90" s="85"/>
-    </row>
-    <row r="91" spans="27:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AA91" s="86"/>
-      <c r="AB91" s="87"/>
-      <c r="AC91" s="87"/>
-      <c r="AD91" s="87"/>
-      <c r="AE91" s="87"/>
-      <c r="AF91" s="88"/>
+      <c r="AC94" s="80"/>
+      <c r="AD94" s="80"/>
+      <c r="AE94" s="80"/>
+      <c r="AF94" s="85"/>
+    </row>
+    <row r="95" spans="27:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AA95" s="86"/>
+      <c r="AB95" s="87"/>
+      <c r="AC95" s="87"/>
+      <c r="AD95" s="87"/>
+      <c r="AE95" s="87"/>
+      <c r="AF95" s="88"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K16:M28">
-    <sortCondition descending="1" ref="L16:L28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K20:M32">
+    <sortCondition descending="1" ref="L20:L32"/>
   </sortState>
   <mergeCells count="10">
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="O14:T14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="V14:Y14"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="O18:T18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="V18:Y18"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6FBA27-8529-48F2-B06A-7AF70687B38B}">
+  <dimension ref="B1:L49"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="37"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="25"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B10" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B11" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B12" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="23"/>
+    </row>
+    <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="23"/>
+      <c r="E15" s="120" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="J15" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="93"/>
+      <c r="L15" s="94"/>
+    </row>
+    <row r="16" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="23"/>
+      <c r="E16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C17" s="23"/>
+      <c r="E17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="8">
+        <f>41+47/54</f>
+        <v>41.870370370370374</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="76" t="s">
+        <v>286</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>402</v>
+      </c>
+      <c r="K17" s="8">
+        <v>5</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C18" s="23"/>
+      <c r="E18" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F18" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="J18" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="K18" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C19" s="23"/>
+      <c r="E19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="9">
+        <f>1221+113/135</f>
+        <v>1221.8370370370371</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="J19" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="K19" s="9">
+        <v>2.91</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C20" s="23"/>
+      <c r="E20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1200</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="J20" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="K20" s="9">
+        <v>2.83</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C21" s="23"/>
+      <c r="E21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="9">
+        <f>21+113/135</f>
+        <v>21.837037037037035</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="J21" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="K21" s="9">
+        <f>857+17/90</f>
+        <v>857.18888888888887</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C22" s="23"/>
+      <c r="E22" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F22" s="9">
+        <f>543+28/45</f>
+        <v>543.62222222222226</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C23" s="23"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="2"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C24" s="23"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="2"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C25" s="23"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="2"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C26" s="23"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="2"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C27" s="23"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="2"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C28" s="23"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="2"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C29" s="23"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="2"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C30" s="23"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="2"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C31" s="23"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="2"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C32" s="23"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="2"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C33" s="23"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="2"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C34" s="23"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="2"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C35" s="23"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="2"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C36" s="23"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="2"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C37" s="23"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="2"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C38" s="23"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="2"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E39" s="2"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="2"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E40" s="2"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="2"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E41" s="2"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="2"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E42" s="2"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="2"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E43" s="2"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="2"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E44" s="2"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="2"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E45" s="2"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="2"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E46" s="2"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E47" s="2"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E48" s="2"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E49" s="3"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="E15:H15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11800,8 +12499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A244D34F-6552-48EC-88C9-9BCAF12F75CF}">
   <dimension ref="C3:U1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="I6" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AB30" sqref="AB30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11841,7 +12540,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>270</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="3:21" x14ac:dyDescent="0.35">
@@ -11943,8 +12642,8 @@
         <v>35</v>
       </c>
       <c r="L15" s="8">
-        <f>3342+6/7-L16-L17-L18-L19-L20-L21-L22-L23</f>
-        <v>1200.1281277679795</v>
+        <f>3342+6/7-L16-L17-L18-L19-L20-L21-L22-L23-L24</f>
+        <v>1158.2577573976091</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>25</v>
@@ -12117,7 +12816,7 @@
         <v>628.34101508916319</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N23" s="2"/>
       <c r="P23" s="95"/>
@@ -12131,9 +12830,16 @@
       <c r="F24" s="2"/>
       <c r="G24" s="9"/>
       <c r="H24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="2"/>
+      <c r="K24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24" s="9">
+        <f>41+47/54</f>
+        <v>41.870370370370374</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>395</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="P24" s="95"/>
       <c r="Q24" s="95"/>
@@ -12166,7 +12872,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="P26" s="95" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q26" s="95"/>
       <c r="R26" s="95"/>
@@ -12228,7 +12934,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="P30" s="95" t="s">
-        <v>252</v>
+        <v>401</v>
       </c>
       <c r="Q30" s="95"/>
       <c r="R30" s="95"/>
@@ -12467,7 +13173,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
@@ -12676,7 +13382,7 @@
         <v>2.5</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
@@ -12949,7 +13655,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.35">
@@ -13231,7 +13937,7 @@
         <v>256.7861111111111</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M20" s="2"/>
     </row>
@@ -13471,7 +14177,7 @@
       <c r="L35" s="6"/>
       <c r="M35" s="2"/>
       <c r="O35" s="95" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P35" s="95"/>
       <c r="Q35" s="95"/>
@@ -13648,7 +14354,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.35">
@@ -13729,7 +14435,7 @@
         <v>24</v>
       </c>
       <c r="M12" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O12" s="95" t="s">
         <v>84</v>
@@ -13812,7 +14518,7 @@
         <v>199</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O15" s="95"/>
       <c r="P15" s="95"/>
@@ -13836,7 +14542,7 @@
         <v>221</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="3:26" x14ac:dyDescent="0.35">
@@ -13854,7 +14560,7 @@
         <v>234</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -13866,14 +14572,14 @@
         <v>54</v>
       </c>
       <c r="K18" s="9">
-        <f>'Tollarian Meltdown'!V17+'Tollarian Meltdown'!V18</f>
+        <f>'Tollarian Meltdown'!V21+'Tollarian Meltdown'!V22</f>
         <v>214.07037037037037</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -13889,10 +14595,10 @@
         <v>158.29333333333332</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O19" s="106" t="s">
         <v>147</v>
@@ -13913,7 +14619,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="2"/>
       <c r="O20" s="97" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P20" s="98"/>
       <c r="Q20" s="98"/>
@@ -13963,7 +14669,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="2"/>
       <c r="O23" s="97" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P23" s="98"/>
       <c r="Q23" s="98"/>
@@ -15130,7 +15836,7 @@
         <v>146.3777</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N22" s="96" t="s">
         <v>147</v>
@@ -15159,7 +15865,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="4"/>
       <c r="N24" s="95" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O24" s="95"/>
       <c r="P24" s="95"/>

--- a/Game Stuff/Spreadsheet.xlsx
+++ b/Game Stuff/Spreadsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\The Mirrodin Trigon\Game Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Simic Subline\Game Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477C9247-2F17-412C-9DF0-174A96374730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80036F8-AC63-47C1-B3AE-4D74C9D6BE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47496" yWindow="456" windowWidth="12960" windowHeight="18336" firstSheet="19" activeTab="19" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
+    <workbookView xWindow="49176" yWindow="696" windowWidth="12960" windowHeight="22248" firstSheet="12" activeTab="21" xr2:uid="{E9D95B66-7EA4-4203-9BE9-B35EAC251241}"/>
   </bookViews>
   <sheets>
     <sheet name="Material Summary" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="Thassa's Pulse" sheetId="21" r:id="rId19"/>
     <sheet name="Tollarian Meltdown" sheetId="22" r:id="rId20"/>
     <sheet name="The Mirrodin Trigon" sheetId="23" r:id="rId21"/>
+    <sheet name="Simic Subline" sheetId="24" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="431">
   <si>
     <t>Item</t>
   </si>
@@ -685,9 +686,6 @@
     <t>Quartz Crystal</t>
   </si>
   <si>
-    <t>Ghirapur Gridworks,Phyrexian Datavault, Keldon Armory, Obelisks of Alara</t>
-  </si>
-  <si>
     <t>Steel Ingot</t>
   </si>
   <si>
@@ -763,9 +761,6 @@
     <t>Thassa's Pulse</t>
   </si>
   <si>
-    <t>Karn's Conduit, Thassa's Pulse</t>
-  </si>
-  <si>
     <t>Jund Pyroclast Well</t>
   </si>
   <si>
@@ -814,9 +809,6 @@
     <t xml:space="preserve">2.84 Hours </t>
   </si>
   <si>
-    <t>Neko's Nexus, Ghirapur Gridworks, Phyrexian Datavault, Keldon Armory , Obelisks of Alara, Karn's Conduit, Jund Pyroclast</t>
-  </si>
-  <si>
     <t>Jund Pytoclast</t>
   </si>
   <si>
@@ -841,24 +833,15 @@
     <t>Phyrexian Datavault, Keldon Armory, Jund Pyroclast, Urabrask's Refinery, Obelisks of Alara, Karn's Conduit, Tollarian Meltdown</t>
   </si>
   <si>
-    <t>Phyrexian Datavault, The Abyssal Chains of Shandalar, Keldon Armory, Obelisks of Alara, Tollarian Meltdown</t>
-  </si>
-  <si>
     <t>Tollarian Meltown</t>
   </si>
   <si>
-    <t>Quartz Crystal Line going to Phyrexian Datavault, Keldon Armory, Tollarian Meltdown and Obelisks of Alara has an extra 259.35</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
     <t>Top Container</t>
   </si>
   <si>
-    <t>Neko's Nexus, Obelisk of Alara, Karn's Conduit, Thassa's Pulse, Tollarian Meltdown</t>
-  </si>
-  <si>
     <t>Coming from Top Container</t>
   </si>
   <si>
@@ -874,9 +857,6 @@
     <t>Obelisks of Alara, Thassa's Pulse, Tollarian Meltdown</t>
   </si>
   <si>
-    <t>Rubber Line going to Phyrexian Datavaul, Keldon Armory, Obelisk of Alara and Tollarian Meltdown  has an extra 42.74549 available</t>
-  </si>
-  <si>
     <t>Rest Belt has an extra 99.690888889</t>
   </si>
   <si>
@@ -940,9 +920,6 @@
     <t>Bottom Container has an extra 78.14267</t>
   </si>
   <si>
-    <t>Top Container has an extra 145.9296296</t>
-  </si>
-  <si>
     <t>Suflur</t>
   </si>
   <si>
@@ -1258,12 +1235,6 @@
     <t>320249</t>
   </si>
   <si>
-    <t>Thran Foundy, Neko's Nexus, Ghirapur Gridworks, The Abyssal Chains of Shandalar, Keldon Armory, Karn's Conduit, Jund Pyroclast, Tollarian Meltdown, The Mirrodin Trigon</t>
-  </si>
-  <si>
-    <t>Bottom belt going to Keldon Armory, Karn's Conduit, The Mirrod Trigon And Jund PYroclast has an extra 226.586666 Iron Ingots</t>
-  </si>
-  <si>
     <t>SAM</t>
   </si>
   <si>
@@ -1319,6 +1290,66 @@
   </si>
   <si>
     <t>11859.675 MW</t>
+  </si>
+  <si>
+    <t>Simic Subline</t>
+  </si>
+  <si>
+    <t>Rubber Line going to Phyrexian Datavaul, Simic Subline Keldon Armory, Obelisk of Alara and Tollarian Meltdown  has an extra 28.7455 available</t>
+  </si>
+  <si>
+    <t>Quartz Crystal Line going to Phyrexian Datavault, Keldon Armory, Simic Subline, Tollarian Meltdown and Obelisks of Alara has an extra 206.3723</t>
+  </si>
+  <si>
+    <t>Ghirapur Gridworks,Phyrexian Datavault, Keldon Armory, Obelisks of Alara, Simic Subline</t>
+  </si>
+  <si>
+    <t>Phyrexian Datavault, The Abyssal Chains of Shandalar, Keldon Armory, Obelisks of Alara, Tollarian Meltdown, Simic Subline</t>
+  </si>
+  <si>
+    <t>Neko's Nexus, Ghirapur Gridworks, Phyrexian Datavault, Keldon Armory , Obelisks of Alara, Karn's Conduit, Jund Pyroclast, Simic Subline</t>
+  </si>
+  <si>
+    <t>Neko's Nexus, Obelisk of Alara, Karn's Conduit, Thassa's Pulse, Tollarian Meltdown, Simic Subline</t>
+  </si>
+  <si>
+    <t>Top Container has an extra 34.15185</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Thran Foundy, Neko's Nexus, Ghirapur Gridworks, The Abyssal Chains of Shandalar, Keldon Armory, Karn's Conduit, Jund Pyroclast, Tollarian Meltdown, The Mirrodin Trigon, Simic Subline</t>
+  </si>
+  <si>
+    <t>Bottom Belt</t>
+  </si>
+  <si>
+    <t>Bottom belt going to Keldon Armory, Simic Subline, Karn's Conduit, The Mirrodin Trigon And Jund PYroclast has an extra 195.6402 Iron Ingots</t>
+  </si>
+  <si>
+    <t>Karn's Conduit, Thassa's Pulse, Simic Subline</t>
+  </si>
+  <si>
+    <t>Oran-Rief Mines, Ketria Crystals, Kaladesh Refinery, Riveteers District, Thran Foundry, Darksteel Forge, Phyrexian Datavault</t>
+  </si>
+  <si>
+    <t>Miner mk3</t>
+  </si>
+  <si>
+    <t>Biochemical Sculptor</t>
+  </si>
+  <si>
+    <t>1047.7 MW</t>
+  </si>
+  <si>
+    <t>2300 MWh</t>
+  </si>
+  <si>
+    <t>-1047.7 MW</t>
+  </si>
+  <si>
+    <t>2.195 Hours</t>
   </si>
 </sst>
 </file>
@@ -1345,15 +1376,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="50">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1982,11 +2019,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2161,6 +2211,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2254,8 +2309,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2590,16 +2647,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DEAD1A-BE12-4BD3-A45F-18807DFF108B}">
-  <dimension ref="B2:J100"/>
+  <dimension ref="B2:R100"/>
   <sheetViews>
-    <sheetView topLeftCell="B63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O96" sqref="O96"/>
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R70" sqref="R70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
@@ -2611,18 +2668,18 @@
     </row>
     <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="94"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="97"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="92" t="s">
+      <c r="H4" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="93"/>
-      <c r="J4" s="94"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="35" t="s">
@@ -2692,7 +2749,7 @@
       </c>
       <c r="D8" s="11">
         <f>'Darksteel Forge'!L15</f>
-        <v>1158.2577573976091</v>
+        <v>1127.311255339996</v>
       </c>
       <c r="E8" s="41" t="s">
         <v>42</v>
@@ -2793,7 +2850,8 @@
         <v>86</v>
       </c>
       <c r="D13" s="11">
-        <v>226.37222</v>
+        <f>'Ketria Crystals'!K14</f>
+        <v>206.3723</v>
       </c>
       <c r="E13" s="41" t="s">
         <v>85</v>
@@ -2813,7 +2871,8 @@
         <v>103</v>
       </c>
       <c r="D14" s="11">
-        <v>42.745489999999997</v>
+        <f>'Kaladesh Refinery'!K13</f>
+        <v>28.745490196078421</v>
       </c>
       <c r="E14" s="41" t="s">
         <v>106</v>
@@ -2833,7 +2892,8 @@
         <v>87</v>
       </c>
       <c r="D15" s="11">
-        <v>125.0989</v>
+        <f>'Riveteers District'!K18</f>
+        <v>89.898888888888862</v>
       </c>
       <c r="E15" s="41" t="s">
         <v>131</v>
@@ -2874,7 +2934,7 @@
       </c>
       <c r="D17" s="11">
         <f>'Thran Foundry'!K13</f>
-        <v>224.07229629629634</v>
+        <v>112.29451851851857</v>
       </c>
       <c r="E17" s="41" t="s">
         <v>55</v>
@@ -2918,7 +2978,7 @@
         <v>741</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>74</v>
@@ -2938,7 +2998,7 @@
         <v>101.07</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>75</v>
@@ -2952,13 +3012,13 @@
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C21" s="70" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D21" s="9">
         <v>4.95</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>76</v>
@@ -3235,7 +3295,8 @@
         <v>155</v>
       </c>
       <c r="I41" s="56">
-        <v>9.5</v>
+        <f>'Phyrexian Datavault'!J12</f>
+        <v>8.5</v>
       </c>
       <c r="J41" s="41" t="s">
         <v>148</v>
@@ -3467,7 +3528,8 @@
         <v>53</v>
       </c>
       <c r="I62" s="56">
-        <v>4.5670000000000002</v>
+        <f>'Oran-Rief Mines'!K13</f>
+        <v>1.2333333333333294</v>
       </c>
       <c r="J62" s="41" t="s">
         <v>205</v>
@@ -3475,7 +3537,7 @@
     </row>
     <row r="63" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H63" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I63" s="57">
         <v>5</v>
@@ -3486,7 +3548,7 @@
     </row>
     <row r="64" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H64" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I64" s="57">
         <v>2.5</v>
@@ -3497,7 +3559,7 @@
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H65" s="39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I65" s="57">
         <v>2</v>
@@ -3508,7 +3570,7 @@
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H66" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I66" s="57">
         <v>2</v>
@@ -3519,7 +3581,7 @@
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H67" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I67" s="57">
         <v>2</v>
@@ -3531,7 +3593,7 @@
     <row r="68" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C68" s="1"/>
       <c r="H68" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I68" s="57">
         <v>1</v>
@@ -3543,312 +3605,348 @@
     <row r="69" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C69" s="1"/>
       <c r="H69" s="39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I69" s="8">
         <f>5/8</f>
         <v>0.625</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C70" s="1"/>
       <c r="H70" s="39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I70" s="9">
         <v>1</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H71" s="39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I71" s="9">
         <v>0.5</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H72" s="39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I72" s="9">
         <v>3.5</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H73" s="39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I73" s="9">
         <v>0.5</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H74" s="39" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I74" s="8">
         <v>20</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H75" s="39" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I75" s="9">
         <v>0.5</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.35">
       <c r="H76" s="39" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I76" s="9">
         <v>0.5</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C77" s="1"/>
       <c r="H77" s="39" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I77" s="9">
         <v>1.5625</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C78" s="1"/>
       <c r="H78" s="39" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I78" s="9">
         <v>1.5625</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C79" s="1"/>
       <c r="H79" s="70" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="I79" s="9">
         <v>11.52</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C80" s="1"/>
       <c r="H80" s="70" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="I80" s="9">
         <v>10</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C81" s="1"/>
       <c r="H81" s="70" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="I81" s="9">
         <v>5</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="82" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C82" s="1"/>
       <c r="H82" s="70" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="I82" s="9">
         <v>4.2</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="83" spans="2:18" x14ac:dyDescent="0.35">
       <c r="H83" s="39" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="I83" s="9">
         <v>2.73</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+      <c r="N83" s="126"/>
+      <c r="O83" s="126"/>
+      <c r="P83" s="126"/>
+      <c r="Q83" s="126"/>
+      <c r="R83" s="126"/>
+    </row>
+    <row r="84" spans="2:18" x14ac:dyDescent="0.35">
       <c r="H84" s="39" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="I84" s="9">
         <v>2.73</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+      <c r="N84" s="126"/>
+      <c r="O84" s="126"/>
+      <c r="P84" s="126"/>
+      <c r="Q84" s="126"/>
+      <c r="R84" s="126"/>
+    </row>
+    <row r="85" spans="2:18" x14ac:dyDescent="0.35">
       <c r="H85" s="39" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="I85" s="9">
         <v>1.54</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+      <c r="N85" s="126"/>
+      <c r="O85" s="126"/>
+      <c r="P85" s="126"/>
+      <c r="Q85" s="126"/>
+      <c r="R85" s="126"/>
+    </row>
+    <row r="86" spans="2:18" x14ac:dyDescent="0.35">
       <c r="H86" s="39" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="I86" s="9">
         <v>1</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+      <c r="N86" s="126"/>
+      <c r="O86" s="126"/>
+      <c r="P86" s="126"/>
+      <c r="Q86" s="126"/>
+      <c r="R86" s="126"/>
+    </row>
+    <row r="87" spans="2:18" x14ac:dyDescent="0.35">
       <c r="H87" s="39" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="I87" s="9">
         <v>0.25</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+      <c r="N87" s="126"/>
+      <c r="O87" s="126"/>
+      <c r="P87" s="127"/>
+      <c r="Q87" s="126"/>
+      <c r="R87" s="126"/>
+    </row>
+    <row r="88" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88"/>
       <c r="H88" s="39" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="I88" s="9">
         <v>0.21</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+      <c r="N88" s="126"/>
+      <c r="O88" s="126"/>
+      <c r="P88" s="126"/>
+      <c r="Q88" s="126"/>
+      <c r="R88" s="126"/>
+    </row>
+    <row r="89" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89"/>
       <c r="H89" s="70" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="I89" s="8">
         <v>5</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="90" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90"/>
       <c r="H90" s="70" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="I90" s="9">
         <v>1.75</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="91" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91"/>
       <c r="H91" s="70" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="I91" s="9">
         <v>2.91</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="92" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92"/>
       <c r="H92" s="70" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="I92" s="9">
         <v>2.83</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="93" spans="2:18" x14ac:dyDescent="0.35">
       <c r="H93" s="70" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="I93" s="9">
-        <f>857+17/90</f>
-        <v>857.18888888888887</v>
+        <f>'The Mirrodin Trigon'!K21</f>
+        <v>777.18888888888887</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="94" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="56"/>
-      <c r="J94" s="41"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H94" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="I94" s="8">
+        <v>4</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="95" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95"/>
@@ -3856,7 +3954,7 @@
       <c r="I95" s="56"/>
       <c r="J95" s="41"/>
     </row>
-    <row r="96" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96"/>
@@ -3983,16 +4081,16 @@
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="92" t="s">
+      <c r="E10" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="93"/>
-      <c r="G10" s="94"/>
-      <c r="J10" s="92" t="s">
+      <c r="F10" s="96"/>
+      <c r="G10" s="97"/>
+      <c r="J10" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="93"/>
-      <c r="L10" s="94"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="97"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -4365,8 +4463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBAD9F1-0099-4C27-8F14-6139C4B3501A}">
   <dimension ref="B1:T44"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23:T26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4404,7 +4502,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>261</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.35">
@@ -4449,17 +4547,17 @@
     </row>
     <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="92" t="s">
+      <c r="E10" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="93"/>
-      <c r="G10" s="94"/>
-      <c r="J10" s="92" t="s">
+      <c r="F10" s="96"/>
+      <c r="G10" s="97"/>
+      <c r="J10" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="94"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="97"/>
     </row>
     <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -4506,14 +4604,14 @@
         <v>8</v>
       </c>
       <c r="M12" s="19"/>
-      <c r="O12" s="95" t="s">
+      <c r="O12" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C13" s="23"/>
@@ -4530,19 +4628,19 @@
         <v>103</v>
       </c>
       <c r="K13" s="9">
-        <f>500-K12-K16-K18-K20-K21-K22</f>
-        <v>42.745490196078421</v>
+        <f>500-K12-K16-K18-K20-K21-K22-K23</f>
+        <v>28.745490196078421</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="98"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C14" s="23"/>
@@ -4559,12 +4657,12 @@
         <v>25</v>
       </c>
       <c r="M14" s="2"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="95"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C15" s="23"/>
@@ -4581,12 +4679,12 @@
         <v>8</v>
       </c>
       <c r="M15" s="2"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="95"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C16" s="23"/>
@@ -4603,14 +4701,14 @@
         <v>111</v>
       </c>
       <c r="M16" s="2"/>
-      <c r="O16" s="95" t="s">
+      <c r="O16" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="95"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="98"/>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C17" s="23"/>
@@ -4627,12 +4725,12 @@
         <v>111</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="95"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="98"/>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C18" s="23"/>
@@ -4649,12 +4747,12 @@
         <v>148</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="95"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="95"/>
-      <c r="T18" s="95"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C19" s="23"/>
@@ -4671,12 +4769,12 @@
         <v>148</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="98"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="98"/>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C20" s="23"/>
@@ -4709,14 +4807,14 @@
         <v>203</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="O21" s="96" t="s">
+      <c r="O21" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="96"/>
-      <c r="R21" s="96"/>
-      <c r="S21" s="96"/>
-      <c r="T21" s="96"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="99"/>
+      <c r="S21" s="99"/>
+      <c r="T21" s="99"/>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C22" s="23"/>
@@ -4731,7 +4829,7 @@
         <v>102.45450980392157</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M22" s="2"/>
     </row>
@@ -4740,18 +4838,24 @@
       <c r="E23" s="2"/>
       <c r="F23" s="9"/>
       <c r="G23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="4"/>
+      <c r="J23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23" s="9">
+        <v>14</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>411</v>
+      </c>
       <c r="M23" s="2"/>
-      <c r="O23" s="95" t="s">
-        <v>272</v>
-      </c>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
+      <c r="O23" s="98" t="s">
+        <v>412</v>
+      </c>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="98"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C24" s="23"/>
@@ -4762,12 +4866,12 @@
       <c r="K24" s="9"/>
       <c r="L24" s="4"/>
       <c r="M24" s="2"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="95"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="98"/>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C25" s="23"/>
@@ -4778,12 +4882,12 @@
       <c r="K25" s="9"/>
       <c r="L25" s="4"/>
       <c r="M25" s="2"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="95"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C26" s="23"/>
@@ -4794,12 +4898,12 @@
       <c r="K26" s="9"/>
       <c r="L26" s="4"/>
       <c r="M26" s="2"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="95"/>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="95"/>
-      <c r="T26" s="95"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C27" s="23"/>
@@ -4810,14 +4914,14 @@
       <c r="K27" s="9"/>
       <c r="L27" s="4"/>
       <c r="M27" s="2"/>
-      <c r="O27" s="95" t="s">
+      <c r="O27" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="P27" s="95"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="95"/>
+      <c r="P27" s="98"/>
+      <c r="Q27" s="98"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C28" s="23"/>
@@ -4828,12 +4932,12 @@
       <c r="K28" s="9"/>
       <c r="L28" s="4"/>
       <c r="M28" s="2"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="95"/>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="95"/>
-      <c r="T28" s="95"/>
+      <c r="O28" s="98"/>
+      <c r="P28" s="98"/>
+      <c r="Q28" s="98"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="98"/>
+      <c r="T28" s="98"/>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C29" s="23"/>
@@ -4844,12 +4948,12 @@
       <c r="K29" s="9"/>
       <c r="L29" s="4"/>
       <c r="M29" s="2"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="95"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="98"/>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C30" s="23"/>
@@ -4860,12 +4964,12 @@
       <c r="K30" s="9"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="95"/>
-      <c r="T30" s="95"/>
+      <c r="O30" s="98"/>
+      <c r="P30" s="98"/>
+      <c r="Q30" s="98"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="98"/>
+      <c r="T30" s="98"/>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C31" s="23"/>
@@ -5017,8 +5121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED21A768-E1F1-4F70-B6C9-A662B38F9ACD}">
   <dimension ref="B1:L44"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5056,7 +5160,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
@@ -5072,7 +5176,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -5080,7 +5184,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -5096,21 +5200,21 @@
         <v>32</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="92" t="s">
+      <c r="E10" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="93"/>
-      <c r="G10" s="94"/>
-      <c r="J10" s="92" t="s">
+      <c r="F10" s="96"/>
+      <c r="G10" s="97"/>
+      <c r="J10" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="93"/>
-      <c r="L10" s="94"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="97"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -5269,7 +5373,8 @@
         <v>87</v>
       </c>
       <c r="K18" s="11">
-        <v>125.0989</v>
+        <f>410-K17-K23-K24-K26-K27</f>
+        <v>89.898888888888862</v>
       </c>
       <c r="L18" s="42" t="s">
         <v>25</v>
@@ -5362,7 +5467,7 @@
         <v>28.6</v>
       </c>
       <c r="L24" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
@@ -5394,7 +5499,7 @@
         <v>72.551111111111112</v>
       </c>
       <c r="L26" s="42" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
@@ -5402,9 +5507,15 @@
       <c r="E27" s="2"/>
       <c r="F27" s="9"/>
       <c r="G27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="42"/>
+      <c r="J27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K27" s="11">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="L27" s="42" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C28" s="23"/>
@@ -5565,7 +5676,7 @@
   <dimension ref="B1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5602,7 +5713,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>235</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
@@ -5647,16 +5758,16 @@
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="92" t="s">
+      <c r="E10" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="93"/>
-      <c r="G10" s="94"/>
-      <c r="J10" s="92" t="s">
+      <c r="F10" s="96"/>
+      <c r="G10" s="97"/>
+      <c r="J10" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="93"/>
-      <c r="L10" s="94"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="97"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -5691,7 +5802,8 @@
         <v>134</v>
       </c>
       <c r="J12" s="38">
-        <v>9.5</v>
+        <f>10-J14-J16</f>
+        <v>8.5</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>155</v>
@@ -5739,7 +5851,7 @@
         <v>155</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
@@ -5760,7 +5872,7 @@
         <v>156</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
@@ -5774,9 +5886,15 @@
       <c r="G16" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="4"/>
+      <c r="J16" s="38">
+        <v>1</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C17" s="23"/>
@@ -6083,7 +6201,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
@@ -6107,7 +6225,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -6123,7 +6241,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6136,16 +6254,16 @@
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="92" t="s">
+      <c r="E10" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="93"/>
-      <c r="G10" s="94"/>
-      <c r="J10" s="92" t="s">
+      <c r="F10" s="96"/>
+      <c r="G10" s="97"/>
+      <c r="J10" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="93"/>
-      <c r="L10" s="94"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="97"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -6290,7 +6408,7 @@
         <v>1.5625</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>8</v>
@@ -6313,7 +6431,7 @@
         <v>1.5625</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>8</v>
@@ -6337,7 +6455,7 @@
         <v>171</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
@@ -6575,10 +6693,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C186B3A-157D-4021-977B-A5A4DB537283}">
-  <dimension ref="D3:V38"/>
+  <dimension ref="D3:N38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="W45" sqref="W45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6607,7 +6725,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="51" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="4:14" x14ac:dyDescent="0.35">
@@ -6615,7 +6733,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="4:14" x14ac:dyDescent="0.35">
@@ -6657,16 +6775,16 @@
       </c>
     </row>
     <row r="12" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G12" s="109" t="s">
+      <c r="G12" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="110"/>
-      <c r="I12" s="111"/>
-      <c r="L12" s="109" t="s">
+      <c r="H12" s="113"/>
+      <c r="I12" s="114"/>
+      <c r="L12" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="110"/>
-      <c r="N12" s="111"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="114"/>
     </row>
     <row r="13" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G13" s="52" t="s">
@@ -6949,7 +7067,7 @@
         <v>5</v>
       </c>
       <c r="N28" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="7:14" x14ac:dyDescent="0.35">
@@ -6973,7 +7091,7 @@
         <v>5</v>
       </c>
       <c r="N30" s="41" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="7:14" x14ac:dyDescent="0.35">
@@ -6984,7 +7102,7 @@
         <v>179</v>
       </c>
       <c r="N31" s="41" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="7:14" x14ac:dyDescent="0.35">
@@ -6995,42 +7113,38 @@
         <v>180</v>
       </c>
       <c r="N32" s="41" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="33" spans="12:22" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="12:14" x14ac:dyDescent="0.35">
       <c r="L33" s="6"/>
       <c r="M33" s="2"/>
       <c r="N33" s="41"/>
     </row>
-    <row r="34" spans="12:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="12:14" x14ac:dyDescent="0.35">
       <c r="L34" s="6"/>
       <c r="M34" s="2"/>
       <c r="N34" s="41"/>
     </row>
-    <row r="35" spans="12:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="12:14" x14ac:dyDescent="0.35">
       <c r="L35" s="6"/>
       <c r="M35" s="2"/>
       <c r="N35" s="41"/>
     </row>
-    <row r="36" spans="12:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="12:14" x14ac:dyDescent="0.35">
       <c r="L36" s="6"/>
       <c r="M36" s="2"/>
       <c r="N36" s="41"/>
     </row>
-    <row r="37" spans="12:22" x14ac:dyDescent="0.35">
+    <row r="37" spans="12:14" x14ac:dyDescent="0.35">
       <c r="L37" s="6"/>
       <c r="M37" s="2"/>
       <c r="N37" s="41"/>
     </row>
-    <row r="38" spans="12:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="12:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L38" s="7"/>
       <c r="M38" s="3"/>
       <c r="N38" s="43"/>
-      <c r="V38">
-        <f>2.73+171+99/100+11+122/225+5.25</f>
-        <v>191.51222222222222</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7084,7 +7198,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.35">
@@ -7100,7 +7214,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F6">
         <f>5800/4352.7</f>
@@ -7112,7 +7226,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.35">
@@ -7133,16 +7247,16 @@
     </row>
     <row r="10" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="92" t="s">
+      <c r="E10" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="93"/>
-      <c r="G10" s="94"/>
-      <c r="J10" s="92" t="s">
+      <c r="F10" s="96"/>
+      <c r="G10" s="97"/>
+      <c r="J10" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="93"/>
-      <c r="L10" s="94"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="97"/>
     </row>
     <row r="11" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -7233,7 +7347,7 @@
         <v>137</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N14" s="5">
         <v>1</v>
@@ -7261,7 +7375,7 @@
         <v>137</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="N15" s="6">
         <v>2</v>
@@ -7289,7 +7403,7 @@
         <v>137</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="N16" s="6">
         <v>3</v>
@@ -7613,7 +7727,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
@@ -7633,7 +7747,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -7641,7 +7755,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -7657,21 +7771,21 @@
         <v>32</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="92" t="s">
+      <c r="E10" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="93"/>
-      <c r="G10" s="94"/>
-      <c r="J10" s="92" t="s">
+      <c r="F10" s="96"/>
+      <c r="G10" s="97"/>
+      <c r="J10" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="93"/>
-      <c r="L10" s="94"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="97"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -7709,7 +7823,7 @@
         <v>5</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>8</v>
@@ -7730,7 +7844,7 @@
         <v>2.5</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>8</v>
@@ -7751,7 +7865,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>8</v>
@@ -7772,7 +7886,7 @@
         <v>2</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>8</v>
@@ -7793,7 +7907,7 @@
         <v>2</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>8</v>
@@ -7814,7 +7928,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>8</v>
@@ -7823,13 +7937,13 @@
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C18" s="23"/>
       <c r="E18" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F18" s="9">
         <v>392.66660000000002</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J18" s="38"/>
       <c r="K18" s="9"/>
@@ -7853,7 +7967,7 @@
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C20" s="23"/>
       <c r="E20" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F20" s="9">
         <v>72</v>
@@ -7868,7 +7982,7 @@
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C21" s="23"/>
       <c r="E21" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F21" s="9">
         <v>515</v>
@@ -8120,7 +8234,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="58" x14ac:dyDescent="0.35">
@@ -8128,7 +8242,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
@@ -8148,7 +8262,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -8156,7 +8270,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -8172,21 +8286,21 @@
         <v>32</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="23"/>
-      <c r="E10" s="92" t="s">
+      <c r="E10" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="93"/>
-      <c r="G10" s="94"/>
-      <c r="J10" s="92" t="s">
+      <c r="F10" s="96"/>
+      <c r="G10" s="97"/>
+      <c r="J10" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="93"/>
-      <c r="L10" s="94"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="97"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="23"/>
@@ -8221,7 +8335,7 @@
         <v>33</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K12" s="8">
         <f>5/8</f>
@@ -8240,10 +8354,10 @@
         <v>138.01249999999999</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K13" s="9">
         <v>1</v>
@@ -8261,10 +8375,10 @@
         <v>98.243700000000004</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K14" s="9">
         <v>0.5</v>
@@ -8285,7 +8399,7 @@
         <v>131</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K15" s="9">
         <v>3.5</v>
@@ -8306,7 +8420,7 @@
         <v>22</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K16" s="9">
         <v>0.5</v>
@@ -8318,7 +8432,7 @@
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C17" s="23"/>
       <c r="E17" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F17" s="9">
         <v>110.01</v>
@@ -8348,7 +8462,7 @@
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C19" s="23"/>
       <c r="E19" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F19" s="9">
         <v>5</v>
@@ -8363,7 +8477,7 @@
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C20" s="23"/>
       <c r="E20" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F20" s="9">
         <v>0.5</v>
@@ -8619,7 +8733,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="64" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8627,7 +8741,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -8644,50 +8758,50 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C11" s="67" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8695,16 +8809,16 @@
     </row>
     <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C13" s="23"/>
-      <c r="E13" s="92" t="s">
+      <c r="E13" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="93"/>
-      <c r="G13" s="94"/>
-      <c r="J13" s="92" t="s">
+      <c r="F13" s="96"/>
+      <c r="G13" s="97"/>
+      <c r="J13" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="93"/>
-      <c r="L13" s="94"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="97"/>
     </row>
     <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C14" s="23"/>
@@ -8739,7 +8853,7 @@
         <v>148</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K15" s="8">
         <v>20</v>
@@ -8760,7 +8874,7 @@
         <v>21</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K16" s="9">
         <v>0.5</v>
@@ -8778,10 +8892,10 @@
         <v>25</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K17" s="9">
         <v>0.5</v>
@@ -8799,7 +8913,7 @@
         <v>40.888800000000003</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J18" s="38"/>
       <c r="K18" s="9"/>
@@ -9116,16 +9230,16 @@
       <c r="D4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="92" t="s">
+      <c r="F4" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="93"/>
-      <c r="H4" s="94"/>
-      <c r="K4" s="92" t="s">
+      <c r="G4" s="96"/>
+      <c r="H4" s="97"/>
+      <c r="K4" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="93"/>
-      <c r="M4" s="94"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="97"/>
     </row>
     <row r="5" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="17" t="s">
@@ -9502,8 +9616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918F12F9-7E2B-4B86-8EBD-462FB980EA31}">
   <dimension ref="B1:AF95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K32" sqref="K21:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9541,7 +9655,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="64" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="116" x14ac:dyDescent="0.35">
@@ -9549,7 +9663,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
@@ -9560,31 +9674,31 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="17" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C8" s="66" t="s">
         <v>164</v>
@@ -9592,107 +9706,107 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="17" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="17" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="17" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C13" s="66" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C14" s="67" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="123"/>
-      <c r="C15" s="124"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="23"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B16" s="123"/>
-      <c r="C16" s="124"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="23"/>
     </row>
     <row r="17" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C17" s="23"/>
     </row>
     <row r="18" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C18" s="23"/>
-      <c r="E18" s="92" t="s">
+      <c r="E18" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="94"/>
-      <c r="K18" s="92" t="s">
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="97"/>
+      <c r="K18" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="93"/>
-      <c r="M18" s="94"/>
-      <c r="O18" s="92" t="s">
-        <v>276</v>
-      </c>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="94"/>
-      <c r="V18" s="92" t="s">
-        <v>287</v>
-      </c>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="94"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="97"/>
+      <c r="O18" s="95" t="s">
+        <v>269</v>
+      </c>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="96"/>
+      <c r="S18" s="96"/>
+      <c r="T18" s="97"/>
+      <c r="V18" s="95" t="s">
+        <v>280</v>
+      </c>
+      <c r="W18" s="96"/>
+      <c r="X18" s="96"/>
+      <c r="Y18" s="97"/>
       <c r="AA18" s="77" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="AB18" s="78" t="s">
         <v>1</v>
       </c>
       <c r="AC18" s="78" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="AD18" s="78" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="AE18" s="91" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="AF18" s="79" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9707,7 +9821,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="34" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="K19" s="14" t="s">
         <v>0</v>
@@ -9718,28 +9832,28 @@
       <c r="M19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="O19" s="117" t="s">
+      <c r="O19" s="120" t="s">
+        <v>270</v>
+      </c>
+      <c r="P19" s="121"/>
+      <c r="Q19" s="118" t="s">
+        <v>271</v>
+      </c>
+      <c r="R19" s="119"/>
+      <c r="S19" s="118" t="s">
         <v>277</v>
       </c>
-      <c r="P19" s="118"/>
-      <c r="Q19" s="115" t="s">
-        <v>278</v>
-      </c>
-      <c r="R19" s="116"/>
-      <c r="S19" s="115" t="s">
-        <v>284</v>
-      </c>
-      <c r="T19" s="116"/>
-      <c r="V19" s="117" t="s">
-        <v>265</v>
-      </c>
-      <c r="W19" s="118"/>
-      <c r="X19" s="117" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y19" s="119"/>
+      <c r="T19" s="119"/>
+      <c r="V19" s="120" t="s">
+        <v>260</v>
+      </c>
+      <c r="W19" s="121"/>
+      <c r="X19" s="120" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y19" s="122"/>
       <c r="AA19" s="81" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="AB19" s="89">
         <v>1</v>
@@ -9748,10 +9862,10 @@
         <v>0.2</v>
       </c>
       <c r="AD19" s="82" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="AE19" s="82" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="AF19" s="83" t="s">
         <v>176</v>
@@ -9809,7 +9923,7 @@
         <v>24</v>
       </c>
       <c r="AA20" s="84" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="AB20" s="90">
         <v>1</v>
@@ -9818,13 +9932,13 @@
         <v>0.2</v>
       </c>
       <c r="AD20" s="80" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="AE20" s="80" t="s">
         <v>104</v>
       </c>
       <c r="AF20" s="85" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="3:32" x14ac:dyDescent="0.35">
@@ -9873,17 +9987,17 @@
         <v>170.1</v>
       </c>
       <c r="W21" s="19" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="X21" s="44">
         <f>158+22/75</f>
         <v>158.29333333333332</v>
       </c>
       <c r="Y21" s="19" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="AA21" s="84" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="AB21" s="90">
         <v>1</v>
@@ -9892,13 +10006,13 @@
         <v>0.2</v>
       </c>
       <c r="AD21" s="80" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="AE21" s="80" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="AF21" s="85" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="3:32" x14ac:dyDescent="0.35">
@@ -9915,7 +10029,7 @@
       </c>
       <c r="H22" s="2"/>
       <c r="K22" s="38" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="L22" s="9">
         <v>11.52</v>
@@ -9928,7 +10042,7 @@
         <v>125.58</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="2">
         <f>148+2/5</f>
@@ -9948,12 +10062,12 @@
         <v>43.970370370370368</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="X22" s="11"/>
       <c r="Y22" s="2"/>
       <c r="AA22" s="84" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="AB22" s="90">
         <v>1</v>
@@ -9962,13 +10076,13 @@
         <v>0.3</v>
       </c>
       <c r="AD22" s="80" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="AE22" s="80" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="AF22" s="85" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="3:32" x14ac:dyDescent="0.35">
@@ -9984,7 +10098,7 @@
       </c>
       <c r="H23" s="2"/>
       <c r="K23" s="38" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="L23" s="9">
         <v>10</v>
@@ -9996,13 +10110,13 @@
         <v>2.73</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Q23" s="2">
         <v>226.8</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
@@ -10011,7 +10125,7 @@
       <c r="X23" s="11"/>
       <c r="Y23" s="2"/>
       <c r="AA23" s="84" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="AB23" s="90">
         <v>1</v>
@@ -10020,13 +10134,13 @@
         <v>0.3</v>
       </c>
       <c r="AD23" s="80" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="AE23" s="80" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="AF23" s="85" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="3:32" x14ac:dyDescent="0.35">
@@ -10042,7 +10156,7 @@
       </c>
       <c r="H24" s="2"/>
       <c r="K24" s="38" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="L24" s="9">
         <v>5</v>
@@ -10066,7 +10180,7 @@
       <c r="X24" s="11"/>
       <c r="Y24" s="2"/>
       <c r="AA24" s="84" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="AB24" s="90">
         <v>1</v>
@@ -10075,13 +10189,13 @@
         <v>0.4</v>
       </c>
       <c r="AD24" s="80" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="AE24" s="80" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="AF24" s="85" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="3:32" x14ac:dyDescent="0.35">
@@ -10097,10 +10211,10 @@
         <v>55</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K25" s="38" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="L25" s="9">
         <v>4.95</v>
@@ -10113,7 +10227,7 @@
         <v>72.551111111111112</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
@@ -10124,7 +10238,7 @@
       <c r="X25" s="11"/>
       <c r="Y25" s="2"/>
       <c r="AA25" s="84" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="AB25" s="90">
         <v>1</v>
@@ -10133,13 +10247,13 @@
         <v>0.6</v>
       </c>
       <c r="AD25" s="80" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="AE25" s="80" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AF25" s="85" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="3:32" x14ac:dyDescent="0.35">
@@ -10156,7 +10270,7 @@
       </c>
       <c r="H26" s="2"/>
       <c r="K26" s="38" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="L26" s="9">
         <v>4.2</v>
@@ -10175,7 +10289,7 @@
       <c r="X26" s="11"/